--- a/Outputs/1. Budget/Grid Search/Output Files/1500000/Output_8_31.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/1500000/Output_8_31.xlsx
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>2454937.862473454</v>
+        <v>2445739.74588774</v>
       </c>
     </row>
     <row r="7">
@@ -511,7 +511,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>6933941.905492765</v>
+        <v>7709817.850552399</v>
       </c>
     </row>
     <row r="8">
@@ -541,7 +541,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>9453837.670757096</v>
+        <v>9395622.330670862</v>
       </c>
     </row>
     <row r="11">
@@ -656,10 +656,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C2" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
         <v>354.683041620683</v>
@@ -668,10 +668,10 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F2" t="n">
-        <v>6.876045741711437</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G2" t="n">
-        <v>75.04943237814501</v>
+        <v>13.784170020795</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
@@ -704,16 +704,16 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>0</v>
+        <v>54.4784025748117</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>0</v>
+        <v>94.07078171629857</v>
       </c>
       <c r="U2" t="n">
-        <v>0</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V2" t="n">
         <v>327.7522584701349</v>
@@ -722,10 +722,10 @@
         <v>349.240968717413</v>
       </c>
       <c r="X2" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y2" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -814,10 +814,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D4" t="n">
         <v>0</v>
@@ -835,7 +835,7 @@
         <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>0</v>
+        <v>134.9656217923382</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -862,7 +862,7 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>0</v>
+        <v>146.6651919801578</v>
       </c>
       <c r="S4" t="n">
         <v>0</v>
@@ -871,7 +871,7 @@
         <v>0</v>
       </c>
       <c r="U4" t="n">
-        <v>0</v>
+        <v>286.2818742419777</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
@@ -880,10 +880,10 @@
         <v>0</v>
       </c>
       <c r="X4" t="n">
-        <v>101.780687729549</v>
+        <v>99.53145434773549</v>
       </c>
       <c r="Y4" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -893,28 +893,28 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
         <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>406.8760457417114</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G5" t="n">
-        <v>413.784170020795</v>
+        <v>412.9169039459368</v>
       </c>
       <c r="H5" t="n">
-        <v>323.9227727643571</v>
+        <v>315.0408840752156</v>
       </c>
       <c r="I5" t="n">
-        <v>151.9313162448613</v>
+        <v>118.4960408938903</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -941,16 +941,16 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>54.47840257481172</v>
+        <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>0</v>
+        <v>154.6528871281402</v>
       </c>
       <c r="T5" t="n">
-        <v>0</v>
+        <v>212.651863114966</v>
       </c>
       <c r="U5" t="n">
-        <v>0</v>
+        <v>251.1547862223006</v>
       </c>
       <c r="V5" t="n">
         <v>327.7522584701349</v>
@@ -959,10 +959,10 @@
         <v>0</v>
       </c>
       <c r="X5" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
-        <v>190.0223488547193</v>
+        <v>92.81823621443154</v>
       </c>
     </row>
     <row r="6">
@@ -987,13 +987,13 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G6" t="n">
-        <v>136.5310119231965</v>
+        <v>136.0669836643703</v>
       </c>
       <c r="H6" t="n">
-        <v>104.3883541553076</v>
+        <v>99.90681807664345</v>
       </c>
       <c r="I6" t="n">
-        <v>61.42221998250819</v>
+        <v>45.44580843958667</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -1020,16 +1020,16 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>49.71123688229332</v>
+        <v>20.90078060183509</v>
       </c>
       <c r="S6" t="n">
-        <v>156.5912426325231</v>
+        <v>147.9721212459916</v>
       </c>
       <c r="T6" t="n">
-        <v>196.8897623984489</v>
+        <v>195.0194028815133</v>
       </c>
       <c r="U6" t="n">
-        <v>225.8879277888686</v>
+        <v>225.8573996139459</v>
       </c>
       <c r="V6" t="n">
         <v>232.8005871494253</v>
@@ -1054,7 +1054,7 @@
         <v>0</v>
       </c>
       <c r="C7" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D7" t="n">
         <v>0</v>
@@ -1066,16 +1066,16 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>167.3098022590509</v>
+        <v>166.9207765545704</v>
       </c>
       <c r="H7" t="n">
         <v>0</v>
       </c>
       <c r="I7" t="n">
-        <v>134.9656217923383</v>
+        <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>45.19995918853701</v>
+        <v>17.69584188176898</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -1096,7 +1096,7 @@
         <v>0</v>
       </c>
       <c r="Q7" t="n">
-        <v>29.12274995491431</v>
+        <v>0</v>
       </c>
       <c r="R7" t="n">
         <v>0</v>
@@ -1105,19 +1105,19 @@
         <v>0</v>
       </c>
       <c r="T7" t="n">
-        <v>225.0351054580843</v>
+        <v>0</v>
       </c>
       <c r="U7" t="n">
-        <v>65.81090370928433</v>
+        <v>286.260654658097</v>
       </c>
       <c r="V7" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W7" t="n">
         <v>0</v>
       </c>
       <c r="X7" t="n">
-        <v>0</v>
+        <v>99.67359712785893</v>
       </c>
       <c r="Y7" t="n">
         <v>0</v>
@@ -1130,28 +1130,28 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F8" t="n">
         <v>406.8760457417114</v>
       </c>
       <c r="G8" t="n">
-        <v>412.9169039459368</v>
+        <v>411.4371413535349</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>299.8862654257798</v>
       </c>
       <c r="I8" t="n">
-        <v>118.4960408938903</v>
+        <v>0</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1181,25 +1181,25 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>154.6528871281402</v>
+        <v>120.9327970537822</v>
       </c>
       <c r="T8" t="n">
-        <v>212.651863114966</v>
+        <v>206.1742023667267</v>
       </c>
       <c r="U8" t="n">
         <v>0</v>
       </c>
       <c r="V8" t="n">
-        <v>177.7391067819114</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
-        <v>0</v>
+        <v>106.2984544100457</v>
       </c>
       <c r="X8" t="n">
         <v>0</v>
       </c>
       <c r="Y8" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -1224,13 +1224,13 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G9" t="n">
-        <v>136.0669836643703</v>
+        <v>135.275240877313</v>
       </c>
       <c r="H9" t="n">
-        <v>99.90681807664345</v>
+        <v>92.26024958059013</v>
       </c>
       <c r="I9" t="n">
-        <v>45.44580843958667</v>
+        <v>18.18624318344743</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -1257,16 +1257,16 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>20.90078060183509</v>
+        <v>0</v>
       </c>
       <c r="S9" t="n">
-        <v>147.9721212459916</v>
+        <v>133.2658462320107</v>
       </c>
       <c r="T9" t="n">
-        <v>195.0194028815133</v>
+        <v>191.828123840699</v>
       </c>
       <c r="U9" t="n">
-        <v>225.8573996139459</v>
+        <v>225.8053112726921</v>
       </c>
       <c r="V9" t="n">
         <v>232.8005871494253</v>
@@ -1288,13 +1288,13 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>117.7882061555324</v>
+        <v>0</v>
       </c>
       <c r="C10" t="n">
         <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E10" t="n">
         <v>0</v>
@@ -1303,16 +1303,16 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>0</v>
+        <v>166.2570059982656</v>
       </c>
       <c r="H10" t="n">
-        <v>152.7120966692326</v>
+        <v>0</v>
       </c>
       <c r="I10" t="n">
-        <v>0</v>
+        <v>103.3051669679944</v>
       </c>
       <c r="J10" t="n">
-        <v>17.69584188176898</v>
+        <v>0</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -1336,22 +1336,22 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>129.1731816677913</v>
+        <v>99.32764374521086</v>
       </c>
       <c r="S10" t="n">
-        <v>205.3658819001186</v>
+        <v>193.7981713870603</v>
       </c>
       <c r="T10" t="n">
-        <v>0</v>
+        <v>11.37694427454814</v>
       </c>
       <c r="U10" t="n">
-        <v>0</v>
+        <v>286.2244489913895</v>
       </c>
       <c r="V10" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W10" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X10" t="n">
         <v>0</v>
@@ -1424,7 +1424,7 @@
         <v>203.9179701396202</v>
       </c>
       <c r="U11" t="n">
-        <v>250.9951719589016</v>
+        <v>250.995171958902</v>
       </c>
       <c r="V11" t="n">
         <v>327.7522584701349</v>
@@ -1525,28 +1525,28 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C13" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D13" t="n">
         <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
         <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>96.35242040983812</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1579,13 +1579,13 @@
         <v>189.7690253314419</v>
       </c>
       <c r="T13" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U13" t="n">
-        <v>270.0697021486461</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V13" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W13" t="n">
         <v>286.522998336591</v>
@@ -1594,7 +1594,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y13" t="n">
-        <v>218.5846533520948</v>
+        <v>153.7518229847753</v>
       </c>
     </row>
     <row r="14">
@@ -1616,7 +1616,7 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F14" t="n">
-        <v>406.8760457417114</v>
+        <v>406.8760457417118</v>
       </c>
       <c r="G14" t="n">
         <v>410.9217256534534</v>
@@ -1625,7 +1625,7 @@
         <v>294.6077643873205</v>
       </c>
       <c r="I14" t="n">
-        <v>41.57692977292598</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -1658,7 +1658,7 @@
         <v>109.1877617881758</v>
       </c>
       <c r="T14" t="n">
-        <v>203.9179701396202</v>
+        <v>203.9179701396201</v>
       </c>
       <c r="U14" t="n">
         <v>250.995171958902</v>
@@ -1670,7 +1670,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X14" t="n">
-        <v>369.7311006784694</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y14" t="n">
         <v>386.2379386560536</v>
@@ -1701,10 +1701,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H15" t="n">
-        <v>89.59687541851116</v>
+        <v>89.59687541851115</v>
       </c>
       <c r="I15" t="n">
-        <v>18.81721868247745</v>
+        <v>18.81721868247742</v>
       </c>
       <c r="J15" t="n">
         <v>0</v>
@@ -1731,7 +1731,7 @@
         <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>0.1429098734098488</v>
+        <v>0.1429098734098204</v>
       </c>
       <c r="S15" t="n">
         <v>128.1435076414547</v>
@@ -1765,22 +1765,22 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C16" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E16" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F16" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I16" t="n">
         <v>0</v>
@@ -1810,19 +1810,19 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>0</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S16" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T16" t="n">
-        <v>0</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U16" t="n">
-        <v>0</v>
+        <v>108.5332252698045</v>
       </c>
       <c r="V16" t="n">
-        <v>157.7822070347165</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W16" t="n">
         <v>286.522998336591</v>
@@ -1831,7 +1831,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y16" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17">
@@ -1853,16 +1853,16 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F17" t="n">
-        <v>406.8760457417114</v>
+        <v>406.8760457417115</v>
       </c>
       <c r="G17" t="n">
-        <v>410.9217256534534</v>
+        <v>410.9217256534535</v>
       </c>
       <c r="H17" t="n">
         <v>294.6077643873205</v>
       </c>
       <c r="I17" t="n">
-        <v>41.57692977292598</v>
+        <v>41.57692977292606</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -1892,22 +1892,22 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>109.1877617881758</v>
+        <v>109.1877617881759</v>
       </c>
       <c r="T17" t="n">
-        <v>203.9179701396202</v>
+        <v>203.9179701396203</v>
       </c>
       <c r="U17" t="n">
-        <v>250.995171958902</v>
+        <v>250.9951719589016</v>
       </c>
       <c r="V17" t="n">
-        <v>327.7522584701349</v>
+        <v>327.752258470135</v>
       </c>
       <c r="W17" t="n">
-        <v>349.240968717413</v>
+        <v>349.2409687174131</v>
       </c>
       <c r="X17" t="n">
-        <v>369.731100678469</v>
+        <v>369.7311006784691</v>
       </c>
       <c r="Y17" t="n">
         <v>386.2379386560536</v>
@@ -2005,16 +2005,16 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D19" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E19" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F19" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
-        <v>0</v>
+        <v>120.6073236808676</v>
       </c>
       <c r="H19" t="n">
         <v>0</v>
@@ -2047,22 +2047,22 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>0</v>
+        <v>88.93215267004734</v>
       </c>
       <c r="S19" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T19" t="n">
-        <v>217.4025801238254</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U19" t="n">
-        <v>286.2118382056129</v>
+        <v>0</v>
       </c>
       <c r="V19" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W19" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X19" t="n">
         <v>225.7096553890372</v>
@@ -2099,7 +2099,7 @@
         <v>294.6077643873205</v>
       </c>
       <c r="I20" t="n">
-        <v>41.57692977292598</v>
+        <v>41.57692977292658</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -2138,7 +2138,7 @@
         <v>250.995171958902</v>
       </c>
       <c r="V20" t="n">
-        <v>327.7522584701364</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W20" t="n">
         <v>349.240968717413</v>
@@ -2236,28 +2236,28 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C22" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D22" t="n">
-        <v>89.33700199671716</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E22" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F22" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H22" t="n">
         <v>144.7550149143208</v>
       </c>
       <c r="I22" t="n">
-        <v>0</v>
+        <v>96.35242040983812</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2284,22 +2284,22 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>0</v>
+        <v>88.93215267004734</v>
       </c>
       <c r="S22" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T22" t="n">
-        <v>0</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U22" t="n">
         <v>0</v>
       </c>
       <c r="V22" t="n">
-        <v>252.137643323828</v>
+        <v>17.40741367508712</v>
       </c>
       <c r="W22" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X22" t="n">
         <v>225.7096553890372</v>
@@ -2442,7 +2442,7 @@
         <v>0</v>
       </c>
       <c r="R24" t="n">
-        <v>0.1429098734089393</v>
+        <v>0.1429098734098488</v>
       </c>
       <c r="S24" t="n">
         <v>128.1435076414547</v>
@@ -2473,28 +2473,28 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C25" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D25" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E25" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F25" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>0</v>
+        <v>139.1894753224694</v>
       </c>
       <c r="H25" t="n">
-        <v>88.23797643592178</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I25" t="n">
-        <v>0</v>
+        <v>96.35242040983812</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2521,19 +2521,19 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>0</v>
+        <v>88.93215267004734</v>
       </c>
       <c r="S25" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T25" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U25" t="n">
-        <v>286.2118382056129</v>
+        <v>0</v>
       </c>
       <c r="V25" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W25" t="n">
         <v>286.522998336591</v>
@@ -2542,7 +2542,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y25" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="26">
@@ -2573,7 +2573,7 @@
         <v>294.6077643873205</v>
       </c>
       <c r="I26" t="n">
-        <v>41.57692977292595</v>
+        <v>41.57692977292598</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
@@ -2606,7 +2606,7 @@
         <v>109.1877617881758</v>
       </c>
       <c r="T26" t="n">
-        <v>203.9179701396201</v>
+        <v>203.9179701396202</v>
       </c>
       <c r="U26" t="n">
         <v>250.995171958902</v>
@@ -2649,10 +2649,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H27" t="n">
-        <v>89.59687541851115</v>
+        <v>89.59687541851116</v>
       </c>
       <c r="I27" t="n">
-        <v>18.81721868247742</v>
+        <v>18.81721868247745</v>
       </c>
       <c r="J27" t="n">
         <v>0</v>
@@ -2679,7 +2679,7 @@
         <v>0</v>
       </c>
       <c r="R27" t="n">
-        <v>0.1429098734098204</v>
+        <v>0.1429098734098488</v>
       </c>
       <c r="S27" t="n">
         <v>128.1435076414547</v>
@@ -2716,22 +2716,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D28" t="n">
-        <v>38.86225679397966</v>
+        <v>0</v>
       </c>
       <c r="E28" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F28" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I28" t="n">
-        <v>96.35242040983809</v>
+        <v>0</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2758,25 +2758,25 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>0</v>
+        <v>88.93215267004734</v>
       </c>
       <c r="S28" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T28" t="n">
-        <v>0</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U28" t="n">
         <v>0</v>
       </c>
       <c r="V28" t="n">
-        <v>252.137643323828</v>
+        <v>119.5944090572296</v>
       </c>
       <c r="W28" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X28" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y28" t="n">
         <v>218.5846533520948</v>
@@ -2953,7 +2953,7 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D31" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E31" t="n">
         <v>146.4339626465692</v>
@@ -3001,19 +3001,19 @@
         <v>189.7690253314419</v>
       </c>
       <c r="T31" t="n">
-        <v>0</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U31" t="n">
-        <v>178.6203228600383</v>
+        <v>0</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
       </c>
       <c r="W31" t="n">
-        <v>286.522998336591</v>
+        <v>168.5001895496345</v>
       </c>
       <c r="X31" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y31" t="n">
         <v>0</v>
@@ -3193,19 +3193,19 @@
         <v>0</v>
       </c>
       <c r="E34" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F34" t="n">
         <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H34" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I34" t="n">
-        <v>0</v>
+        <v>96.35242040983812</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3238,16 +3238,16 @@
         <v>0</v>
       </c>
       <c r="T34" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U34" t="n">
-        <v>286.2118382056129</v>
+        <v>124.5994576869011</v>
       </c>
       <c r="V34" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W34" t="n">
-        <v>126.8772582534102</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X34" t="n">
         <v>225.7096553890372</v>
@@ -3275,16 +3275,16 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F35" t="n">
-        <v>406.8760457417115</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G35" t="n">
-        <v>410.9217256534535</v>
+        <v>410.9217256534534</v>
       </c>
       <c r="H35" t="n">
         <v>294.6077643873205</v>
       </c>
       <c r="I35" t="n">
-        <v>41.57692977292606</v>
+        <v>41.57692977292598</v>
       </c>
       <c r="J35" t="n">
         <v>0</v>
@@ -3314,22 +3314,22 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>109.187761788176</v>
+        <v>109.1877617881751</v>
       </c>
       <c r="T35" t="n">
-        <v>203.9179701396203</v>
+        <v>203.917970139621</v>
       </c>
       <c r="U35" t="n">
-        <v>250.9951719589025</v>
+        <v>250.995171958902</v>
       </c>
       <c r="V35" t="n">
-        <v>327.752258470135</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W35" t="n">
-        <v>349.2409687174131</v>
+        <v>349.2409687174138</v>
       </c>
       <c r="X35" t="n">
-        <v>369.7311006784691</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y35" t="n">
         <v>386.2379386560536</v>
@@ -3421,10 +3421,10 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C37" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D37" t="n">
         <v>148.6154730182124</v>
@@ -3439,7 +3439,7 @@
         <v>166.0258082590282</v>
       </c>
       <c r="H37" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I37" t="n">
         <v>96.35242040983812</v>
@@ -3469,10 +3469,10 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>19.58945082857479</v>
+        <v>88.93215267004734</v>
       </c>
       <c r="S37" t="n">
-        <v>189.7690253314419</v>
+        <v>100.0274859592258</v>
       </c>
       <c r="T37" t="n">
         <v>219.5489492761692</v>
@@ -3484,10 +3484,10 @@
         <v>0</v>
       </c>
       <c r="W37" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X37" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y37" t="n">
         <v>218.5846533520948</v>
@@ -3503,7 +3503,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C38" t="n">
-        <v>365.2728917710075</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D38" t="n">
         <v>354.683041620683</v>
@@ -3512,10 +3512,10 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F38" t="n">
-        <v>406.8760457417115</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G38" t="n">
-        <v>410.9217256534535</v>
+        <v>410.9217256534534</v>
       </c>
       <c r="H38" t="n">
         <v>294.6077643873205</v>
@@ -3551,19 +3551,19 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>109.1877617881759</v>
+        <v>109.1877617881758</v>
       </c>
       <c r="T38" t="n">
-        <v>203.9179701396203</v>
+        <v>203.9179701396202</v>
       </c>
       <c r="U38" t="n">
-        <v>250.9951719589021</v>
+        <v>250.995171958902</v>
       </c>
       <c r="V38" t="n">
         <v>327.7522584701349</v>
       </c>
       <c r="W38" t="n">
-        <v>349.240968717413</v>
+        <v>349.2409687174136</v>
       </c>
       <c r="X38" t="n">
         <v>369.731100678469</v>
@@ -3676,7 +3676,7 @@
         <v>166.0258082590282</v>
       </c>
       <c r="H40" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I40" t="n">
         <v>96.35242040983812</v>
@@ -3706,22 +3706,22 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>88.93215267004734</v>
+        <v>0</v>
       </c>
       <c r="S40" t="n">
         <v>189.7690253314419</v>
       </c>
       <c r="T40" t="n">
-        <v>150.2062474346966</v>
+        <v>0</v>
       </c>
       <c r="U40" t="n">
         <v>0</v>
       </c>
       <c r="V40" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W40" t="n">
-        <v>0</v>
+        <v>131.7557716952365</v>
       </c>
       <c r="X40" t="n">
         <v>0</v>
@@ -3791,7 +3791,7 @@
         <v>109.1877617881758</v>
       </c>
       <c r="T41" t="n">
-        <v>203.9179701396218</v>
+        <v>203.9179701396202</v>
       </c>
       <c r="U41" t="n">
         <v>250.995171958902</v>
@@ -3901,22 +3901,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D43" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E43" t="n">
         <v>0</v>
       </c>
       <c r="F43" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G43" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H43" t="n">
         <v>0</v>
       </c>
       <c r="I43" t="n">
-        <v>0</v>
+        <v>96.35242040983812</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3943,7 +3943,7 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>0</v>
+        <v>88.93215267004734</v>
       </c>
       <c r="S43" t="n">
         <v>189.7690253314419</v>
@@ -3952,19 +3952,19 @@
         <v>219.5489492761692</v>
       </c>
       <c r="U43" t="n">
-        <v>162.5067281800244</v>
+        <v>0</v>
       </c>
       <c r="V43" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W43" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X43" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y43" t="n">
-        <v>218.5846533520948</v>
+        <v>94.22408360491191</v>
       </c>
     </row>
     <row r="44">
@@ -4132,13 +4132,13 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C46" t="n">
-        <v>52.82896478301507</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D46" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E46" t="n">
         <v>0</v>
@@ -4150,10 +4150,10 @@
         <v>166.0258082590282</v>
       </c>
       <c r="H46" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I46" t="n">
-        <v>0</v>
+        <v>96.35242040983812</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4180,28 +4180,28 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>88.93215267004734</v>
+        <v>0</v>
       </c>
       <c r="S46" t="n">
-        <v>189.7690253314419</v>
+        <v>26.56061311193262</v>
       </c>
       <c r="T46" t="n">
-        <v>0</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U46" t="n">
-        <v>286.2118382056129</v>
+        <v>0</v>
       </c>
       <c r="V46" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W46" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X46" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y46" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
   </sheetData>
@@ -4304,19 +4304,19 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1249.712458167646</v>
+        <v>1222.906241876376</v>
       </c>
       <c r="C2" t="n">
-        <v>880.7499412272343</v>
+        <v>1222.906241876376</v>
       </c>
       <c r="D2" t="n">
-        <v>522.4842426204839</v>
+        <v>864.6405432696254</v>
       </c>
       <c r="E2" t="n">
-        <v>136.6959900222396</v>
+        <v>478.8522906713811</v>
       </c>
       <c r="F2" t="n">
-        <v>129.7504892730362</v>
+        <v>67.86638588177355</v>
       </c>
       <c r="G2" t="n">
         <v>53.94298182036445</v>
@@ -4328,19 +4328,19 @@
         <v>53.94298182036445</v>
       </c>
       <c r="J2" t="n">
-        <v>169.7108380533141</v>
+        <v>169.7108380533142</v>
       </c>
       <c r="K2" t="n">
-        <v>463.9616490733126</v>
+        <v>463.9616490733127</v>
       </c>
       <c r="L2" t="n">
-        <v>881.2824271224075</v>
+        <v>881.2824271224076</v>
       </c>
       <c r="M2" t="n">
         <v>1362.238747280443</v>
       </c>
       <c r="N2" t="n">
-        <v>1836.345445977174</v>
+        <v>1836.345445977175</v>
       </c>
       <c r="O2" t="n">
         <v>2238.843319642689</v>
@@ -4352,28 +4352,28 @@
         <v>2697.149091018222</v>
       </c>
       <c r="R2" t="n">
-        <v>2697.149091018222</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="S2" t="n">
-        <v>2697.149091018222</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="T2" t="n">
-        <v>2697.149091018222</v>
+        <v>2547.099409916091</v>
       </c>
       <c r="U2" t="n">
-        <v>2697.149091018222</v>
+        <v>2293.337624554182</v>
       </c>
       <c r="V2" t="n">
-        <v>2366.086203674652</v>
+        <v>1962.274737210612</v>
       </c>
       <c r="W2" t="n">
-        <v>2013.317548404538</v>
+        <v>1609.506081940498</v>
       </c>
       <c r="X2" t="n">
-        <v>1639.851790143458</v>
+        <v>1609.506081940498</v>
       </c>
       <c r="Y2" t="n">
-        <v>1249.712458167646</v>
+        <v>1609.506081940498</v>
       </c>
     </row>
     <row r="3">
@@ -4398,7 +4398,7 @@
         <v>359.3385232961342</v>
       </c>
       <c r="G3" t="n">
-        <v>221.4284102424003</v>
+        <v>221.4284102424006</v>
       </c>
       <c r="H3" t="n">
         <v>115.9856282673424</v>
@@ -4407,31 +4407,31 @@
         <v>53.94298182036445</v>
       </c>
       <c r="J3" t="n">
-        <v>129.2001442204943</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="K3" t="n">
-        <v>384.4474646615928</v>
+        <v>309.190302261463</v>
       </c>
       <c r="L3" t="n">
-        <v>789.0633827572647</v>
+        <v>713.8062203571349</v>
       </c>
       <c r="M3" t="n">
-        <v>1313.210296315296</v>
+        <v>1237.953133915166</v>
       </c>
       <c r="N3" t="n">
-        <v>1866.936832414847</v>
+        <v>1748.695370517453</v>
       </c>
       <c r="O3" t="n">
-        <v>2307.072755435191</v>
+        <v>2188.831293537797</v>
       </c>
       <c r="P3" t="n">
-        <v>2643.31756905002</v>
+        <v>2525.076107152626</v>
       </c>
       <c r="Q3" t="n">
         <v>2697.149091018222</v>
       </c>
       <c r="R3" t="n">
-        <v>2646.935720430047</v>
+        <v>2646.935720430048</v>
       </c>
       <c r="S3" t="n">
         <v>2488.762748073963</v>
@@ -4462,25 +4462,25 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>222.8791647482714</v>
+        <v>190.2718927217162</v>
       </c>
       <c r="C4" t="n">
-        <v>53.94298182036445</v>
+        <v>190.2718927217162</v>
       </c>
       <c r="D4" t="n">
-        <v>53.94298182036445</v>
+        <v>190.2718927217162</v>
       </c>
       <c r="E4" t="n">
-        <v>53.94298182036445</v>
+        <v>190.2718927217162</v>
       </c>
       <c r="F4" t="n">
-        <v>53.94298182036445</v>
+        <v>190.2718927217162</v>
       </c>
       <c r="G4" t="n">
-        <v>53.94298182036445</v>
+        <v>190.2718927217162</v>
       </c>
       <c r="H4" t="n">
-        <v>53.94298182036445</v>
+        <v>190.2718927217162</v>
       </c>
       <c r="I4" t="n">
         <v>53.94298182036445</v>
@@ -4492,46 +4492,46 @@
         <v>110.2451748866326</v>
       </c>
       <c r="L4" t="n">
-        <v>237.819032447791</v>
+        <v>237.8190324477911</v>
       </c>
       <c r="M4" t="n">
-        <v>382.7169011658209</v>
+        <v>382.716901165821</v>
       </c>
       <c r="N4" t="n">
-        <v>529.6040388502499</v>
+        <v>529.6040388502502</v>
       </c>
       <c r="O4" t="n">
-        <v>649.2617893594901</v>
+        <v>649.2617893594903</v>
       </c>
       <c r="P4" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="Q4" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="R4" t="n">
-        <v>728.1289842064342</v>
+        <v>579.9823256406185</v>
       </c>
       <c r="S4" t="n">
-        <v>728.1289842064342</v>
+        <v>579.9823256406185</v>
       </c>
       <c r="T4" t="n">
-        <v>728.1289842064342</v>
+        <v>579.9823256406185</v>
       </c>
       <c r="U4" t="n">
-        <v>728.1289842064342</v>
+        <v>290.8087152951864</v>
       </c>
       <c r="V4" t="n">
-        <v>728.1289842064342</v>
+        <v>290.8087152951864</v>
       </c>
       <c r="W4" t="n">
-        <v>728.1289842064342</v>
+        <v>290.8087152951864</v>
       </c>
       <c r="X4" t="n">
-        <v>625.3202087220412</v>
+        <v>190.2718927217162</v>
       </c>
       <c r="Y4" t="n">
-        <v>404.5276295785111</v>
+        <v>190.2718927217162</v>
       </c>
     </row>
     <row r="5">
@@ -4541,76 +4541,76 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1732.515907621104</v>
+        <v>1274.158048767271</v>
       </c>
       <c r="C5" t="n">
-        <v>1363.553390680693</v>
+        <v>1274.158048767271</v>
       </c>
       <c r="D5" t="n">
-        <v>1363.553390680693</v>
+        <v>915.8923501605201</v>
       </c>
       <c r="E5" t="n">
-        <v>1363.553390680693</v>
+        <v>915.8923501605201</v>
       </c>
       <c r="F5" t="n">
-        <v>952.5674858910851</v>
+        <v>908.9468494113166</v>
       </c>
       <c r="G5" t="n">
-        <v>534.603677789272</v>
+        <v>491.8590676477442</v>
       </c>
       <c r="H5" t="n">
-        <v>207.4089578252748</v>
+        <v>173.6359524202537</v>
       </c>
       <c r="I5" t="n">
         <v>53.94298182036445</v>
       </c>
       <c r="J5" t="n">
-        <v>169.7108380533141</v>
+        <v>75.17723181374775</v>
       </c>
       <c r="K5" t="n">
-        <v>463.9616490733126</v>
+        <v>157.7403863883401</v>
       </c>
       <c r="L5" t="n">
-        <v>881.2824271224074</v>
+        <v>710.5536446345393</v>
       </c>
       <c r="M5" t="n">
-        <v>1362.238747280443</v>
+        <v>1166.769932166871</v>
       </c>
       <c r="N5" t="n">
-        <v>1836.345445977174</v>
+        <v>1794.077600226718</v>
       </c>
       <c r="O5" t="n">
-        <v>2238.843319642689</v>
+        <v>2341.238804993795</v>
       </c>
       <c r="P5" t="n">
-        <v>2544.691559791252</v>
+        <v>2451.973130243322</v>
       </c>
       <c r="Q5" t="n">
         <v>2697.149091018222</v>
       </c>
       <c r="R5" t="n">
-        <v>2642.120401548716</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="S5" t="n">
-        <v>2642.120401548716</v>
+        <v>2540.93405351505</v>
       </c>
       <c r="T5" t="n">
-        <v>2642.120401548716</v>
+        <v>2326.134191782762</v>
       </c>
       <c r="U5" t="n">
-        <v>2642.120401548716</v>
+        <v>2072.442488527913</v>
       </c>
       <c r="V5" t="n">
-        <v>2311.057514205145</v>
+        <v>1741.379601184342</v>
       </c>
       <c r="W5" t="n">
-        <v>2311.057514205145</v>
+        <v>1741.379601184342</v>
       </c>
       <c r="X5" t="n">
-        <v>2311.057514205145</v>
+        <v>1367.913842923262</v>
       </c>
       <c r="Y5" t="n">
-        <v>2119.115747685226</v>
+        <v>1274.158048767271</v>
       </c>
     </row>
     <row r="6">
@@ -4620,25 +4620,25 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>988.4979752170833</v>
+        <v>967.3646662469702</v>
       </c>
       <c r="C6" t="n">
-        <v>814.0449459359563</v>
+        <v>792.9116369658432</v>
       </c>
       <c r="D6" t="n">
-        <v>665.1105362747051</v>
+        <v>643.9772273045919</v>
       </c>
       <c r="E6" t="n">
-        <v>505.8730812692495</v>
+        <v>484.7397722991365</v>
       </c>
       <c r="F6" t="n">
-        <v>359.3385232961344</v>
+        <v>338.2052143260214</v>
       </c>
       <c r="G6" t="n">
-        <v>221.4284102424006</v>
+        <v>200.7638166852434</v>
       </c>
       <c r="H6" t="n">
-        <v>115.9856282673424</v>
+        <v>99.84783883004796</v>
       </c>
       <c r="I6" t="n">
         <v>53.94298182036445</v>
@@ -4647,49 +4647,49 @@
         <v>53.94298182036445</v>
       </c>
       <c r="K6" t="n">
-        <v>309.190302261463</v>
+        <v>383.3713861261743</v>
       </c>
       <c r="L6" t="n">
-        <v>713.8062203571349</v>
+        <v>887.7329259922928</v>
       </c>
       <c r="M6" t="n">
-        <v>1237.953133915166</v>
+        <v>1067.230262346898</v>
       </c>
       <c r="N6" t="n">
-        <v>1748.695370517453</v>
+        <v>1734.774662373908</v>
       </c>
       <c r="O6" t="n">
-        <v>2188.831293537797</v>
+        <v>2189.58332957858</v>
       </c>
       <c r="P6" t="n">
-        <v>2525.076107152626</v>
+        <v>2613.551098059417</v>
       </c>
       <c r="Q6" t="n">
-        <v>2697.149091018223</v>
+        <v>2636.288039261394</v>
       </c>
       <c r="R6" t="n">
-        <v>2646.935720430048</v>
+        <v>2615.176139663581</v>
       </c>
       <c r="S6" t="n">
-        <v>2488.762748073964</v>
+        <v>2465.709350526216</v>
       </c>
       <c r="T6" t="n">
-        <v>2289.884200196743</v>
+        <v>2268.720054686303</v>
       </c>
       <c r="U6" t="n">
-        <v>2061.714576167582</v>
+        <v>2040.581267197469</v>
       </c>
       <c r="V6" t="n">
-        <v>1826.56246793584</v>
+        <v>1805.429158965726</v>
       </c>
       <c r="W6" t="n">
-        <v>1572.325111207638</v>
+        <v>1551.191802237525</v>
       </c>
       <c r="X6" t="n">
-        <v>1364.473611002105</v>
+        <v>1343.340302031992</v>
       </c>
       <c r="Y6" t="n">
-        <v>1156.713312237151</v>
+        <v>1135.580003267038</v>
       </c>
     </row>
     <row r="7">
@@ -4699,76 +4699,76 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>404.9282174162495</v>
+        <v>409.3605975122506</v>
       </c>
       <c r="C7" t="n">
-        <v>404.9282174162495</v>
+        <v>240.4244145843437</v>
       </c>
       <c r="D7" t="n">
-        <v>404.9282174162495</v>
+        <v>240.4244145843437</v>
       </c>
       <c r="E7" t="n">
-        <v>404.9282174162495</v>
+        <v>240.4244145843437</v>
       </c>
       <c r="F7" t="n">
-        <v>404.9282174162495</v>
+        <v>240.4244145843437</v>
       </c>
       <c r="G7" t="n">
-        <v>235.9284171545819</v>
+        <v>71.81756957972706</v>
       </c>
       <c r="H7" t="n">
-        <v>235.9284171545819</v>
+        <v>71.81756957972706</v>
       </c>
       <c r="I7" t="n">
-        <v>99.59950625323012</v>
+        <v>71.81756957972706</v>
       </c>
       <c r="J7" t="n">
         <v>53.94298182036445</v>
       </c>
       <c r="K7" t="n">
-        <v>110.2451748866326</v>
+        <v>154.9909114159743</v>
       </c>
       <c r="L7" t="n">
-        <v>237.819032447791</v>
+        <v>339.8239063167927</v>
       </c>
       <c r="M7" t="n">
-        <v>382.7169011658209</v>
+        <v>545.0935070360306</v>
       </c>
       <c r="N7" t="n">
-        <v>529.6040388502499</v>
+        <v>750.9168718721348</v>
       </c>
       <c r="O7" t="n">
-        <v>649.2617893594901</v>
+        <v>925.0117672607337</v>
       </c>
       <c r="P7" t="n">
-        <v>728.1289842064342</v>
+        <v>1050.459343859349</v>
       </c>
       <c r="Q7" t="n">
-        <v>698.7120650600561</v>
+        <v>1053.877663279709</v>
       </c>
       <c r="R7" t="n">
-        <v>698.7120650600561</v>
+        <v>1053.877663279709</v>
       </c>
       <c r="S7" t="n">
-        <v>698.7120650600561</v>
+        <v>1053.877663279709</v>
       </c>
       <c r="T7" t="n">
-        <v>471.4038777286579</v>
+        <v>1053.877663279709</v>
       </c>
       <c r="U7" t="n">
-        <v>404.9282174162495</v>
+        <v>764.7254868573889</v>
       </c>
       <c r="V7" t="n">
-        <v>404.9282174162495</v>
+        <v>510.040998651502</v>
       </c>
       <c r="W7" t="n">
-        <v>404.9282174162495</v>
+        <v>510.040998651502</v>
       </c>
       <c r="X7" t="n">
-        <v>404.9282174162495</v>
+        <v>409.3605975122506</v>
       </c>
       <c r="Y7" t="n">
-        <v>404.9282174162495</v>
+        <v>409.3605975122506</v>
       </c>
     </row>
     <row r="8">
@@ -4778,76 +4778,76 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1756.46040851209</v>
+        <v>1541.703076913</v>
       </c>
       <c r="C8" t="n">
-        <v>1387.497891571678</v>
+        <v>1541.703076913</v>
       </c>
       <c r="D8" t="n">
-        <v>1387.497891571678</v>
+        <v>1183.437378306249</v>
       </c>
       <c r="E8" t="n">
-        <v>1001.709638973434</v>
+        <v>1183.437378306249</v>
       </c>
       <c r="F8" t="n">
-        <v>590.7237341838262</v>
+        <v>772.451473516642</v>
       </c>
       <c r="G8" t="n">
-        <v>173.6359524202537</v>
+        <v>356.8584014423642</v>
       </c>
       <c r="H8" t="n">
-        <v>173.6359524202537</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I8" t="n">
         <v>53.94298182036445</v>
       </c>
       <c r="J8" t="n">
-        <v>221.9370458384844</v>
+        <v>199.5143021373485</v>
       </c>
       <c r="K8" t="n">
-        <v>625.4041588585299</v>
+        <v>468.4264940665499</v>
       </c>
       <c r="L8" t="n">
-        <v>1178.217417104729</v>
+        <v>838.9376088552592</v>
       </c>
       <c r="M8" t="n">
-        <v>1809.935228088041</v>
+        <v>1282.872051350724</v>
       </c>
       <c r="N8" t="n">
-        <v>2004.269440980023</v>
+        <v>1738.603625623768</v>
       </c>
       <c r="O8" t="n">
-        <v>2551.430645747101</v>
+        <v>2155.602766936376</v>
       </c>
       <c r="P8" t="n">
-        <v>2662.164970996627</v>
+        <v>2477.000885571628</v>
       </c>
       <c r="Q8" t="n">
-        <v>2697.149091018222</v>
+        <v>2670.18474111696</v>
       </c>
       <c r="R8" t="n">
         <v>2697.149091018222</v>
       </c>
       <c r="S8" t="n">
-        <v>2540.93405351505</v>
+        <v>2574.994750559857</v>
       </c>
       <c r="T8" t="n">
-        <v>2326.134191782762</v>
+        <v>2366.737980492456</v>
       </c>
       <c r="U8" t="n">
-        <v>2326.134191782762</v>
+        <v>2366.737980492456</v>
       </c>
       <c r="V8" t="n">
-        <v>2146.599740487902</v>
+        <v>2035.675093148885</v>
       </c>
       <c r="W8" t="n">
-        <v>2146.599740487902</v>
+        <v>1928.302916977122</v>
       </c>
       <c r="X8" t="n">
-        <v>2146.599740487902</v>
+        <v>1928.302916977122</v>
       </c>
       <c r="Y8" t="n">
-        <v>1756.46040851209</v>
+        <v>1928.302916977122</v>
       </c>
     </row>
     <row r="9">
@@ -4857,76 +4857,76 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>967.3646662469702</v>
+        <v>931.3062050962127</v>
       </c>
       <c r="C9" t="n">
-        <v>792.9116369658432</v>
+        <v>756.8531758150857</v>
       </c>
       <c r="D9" t="n">
-        <v>643.9772273045919</v>
+        <v>607.9187661538344</v>
       </c>
       <c r="E9" t="n">
-        <v>484.7397722991365</v>
+        <v>448.681311148379</v>
       </c>
       <c r="F9" t="n">
-        <v>338.2052143260214</v>
+        <v>302.146753175264</v>
       </c>
       <c r="G9" t="n">
-        <v>200.7638166852434</v>
+        <v>165.5050957234327</v>
       </c>
       <c r="H9" t="n">
-        <v>99.84783883004796</v>
+        <v>72.31292442990731</v>
       </c>
       <c r="I9" t="n">
         <v>53.94298182036445</v>
       </c>
       <c r="J9" t="n">
-        <v>53.94298182036445</v>
+        <v>121.8264159807866</v>
       </c>
       <c r="K9" t="n">
-        <v>383.3713861261743</v>
+        <v>385.6631084965624</v>
       </c>
       <c r="L9" t="n">
-        <v>887.7329259922928</v>
+        <v>1053.207508523572</v>
       </c>
       <c r="M9" t="n">
-        <v>1233.514064314702</v>
+        <v>1431.308314177374</v>
       </c>
       <c r="N9" t="n">
-        <v>1432.170805967367</v>
+        <v>1833.824967998518</v>
       </c>
       <c r="O9" t="n">
-        <v>1981.606814720089</v>
+        <v>2179.829273034831</v>
       </c>
       <c r="P9" t="n">
-        <v>2405.574583200926</v>
+        <v>2438.195165861565</v>
       </c>
       <c r="Q9" t="n">
-        <v>2636.288039261394</v>
+        <v>2560.986726597623</v>
       </c>
       <c r="R9" t="n">
-        <v>2615.176139663581</v>
+        <v>2560.986726597623</v>
       </c>
       <c r="S9" t="n">
-        <v>2465.709350526216</v>
+        <v>2426.374760706703</v>
       </c>
       <c r="T9" t="n">
-        <v>2268.720054686303</v>
+        <v>2232.608979049431</v>
       </c>
       <c r="U9" t="n">
-        <v>2040.581267197469</v>
+        <v>2004.522806046712</v>
       </c>
       <c r="V9" t="n">
-        <v>1805.429158965726</v>
+        <v>1769.370697814969</v>
       </c>
       <c r="W9" t="n">
-        <v>1551.191802237525</v>
+        <v>1515.133341086767</v>
       </c>
       <c r="X9" t="n">
-        <v>1343.340302031992</v>
+        <v>1307.281840881235</v>
       </c>
       <c r="Y9" t="n">
-        <v>1135.580003267038</v>
+        <v>1099.521542116281</v>
       </c>
     </row>
     <row r="10">
@@ -4936,76 +4936,76 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>376.1888520922977</v>
+        <v>326.2280050186068</v>
       </c>
       <c r="C10" t="n">
-        <v>376.1888520922977</v>
+        <v>326.2280050186068</v>
       </c>
       <c r="D10" t="n">
-        <v>226.072212679962</v>
+        <v>326.2280050186068</v>
       </c>
       <c r="E10" t="n">
-        <v>226.072212679962</v>
+        <v>326.2280050186068</v>
       </c>
       <c r="F10" t="n">
-        <v>226.072212679962</v>
+        <v>326.2280050186068</v>
       </c>
       <c r="G10" t="n">
-        <v>226.072212679962</v>
+        <v>158.2916353233891</v>
       </c>
       <c r="H10" t="n">
-        <v>71.81756957972706</v>
+        <v>158.2916353233891</v>
       </c>
       <c r="I10" t="n">
-        <v>71.81756957972706</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J10" t="n">
-        <v>53.94298182036445</v>
+        <v>82.8833909048594</v>
       </c>
       <c r="K10" t="n">
-        <v>154.9909114159743</v>
+        <v>260.2782098866545</v>
       </c>
       <c r="L10" t="n">
-        <v>339.8239063167927</v>
+        <v>542.8089378877603</v>
       </c>
       <c r="M10" t="n">
-        <v>545.0935070360306</v>
+        <v>851.0870999282808</v>
       </c>
       <c r="N10" t="n">
-        <v>750.9168718721348</v>
+        <v>1157.469712732903</v>
       </c>
       <c r="O10" t="n">
-        <v>925.0117672607337</v>
+        <v>1424.447349606354</v>
       </c>
       <c r="P10" t="n">
-        <v>1050.459343859349</v>
+        <v>1629.372157534689</v>
       </c>
       <c r="Q10" t="n">
-        <v>1053.877663279709</v>
+        <v>1687.816392302165</v>
       </c>
       <c r="R10" t="n">
-        <v>923.3997019991118</v>
+        <v>1587.485439024174</v>
       </c>
       <c r="S10" t="n">
-        <v>715.9594172515172</v>
+        <v>1391.729710350376</v>
       </c>
       <c r="T10" t="n">
-        <v>715.9594172515172</v>
+        <v>1380.237847446792</v>
       </c>
       <c r="U10" t="n">
-        <v>715.9594172515172</v>
+        <v>1091.122242404984</v>
       </c>
       <c r="V10" t="n">
-        <v>715.9594172515172</v>
+        <v>836.4377541990975</v>
       </c>
       <c r="W10" t="n">
-        <v>715.9594172515172</v>
+        <v>547.020584162137</v>
       </c>
       <c r="X10" t="n">
-        <v>715.9594172515172</v>
+        <v>547.020584162137</v>
       </c>
       <c r="Y10" t="n">
-        <v>495.166838107987</v>
+        <v>326.2280050186068</v>
       </c>
     </row>
     <row r="11">
@@ -5015,22 +5015,22 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>2374.216356690176</v>
+        <v>2374.216356690175</v>
       </c>
       <c r="C11" t="n">
-        <v>2005.253839749765</v>
+        <v>2005.253839749763</v>
       </c>
       <c r="D11" t="n">
-        <v>1646.988141143014</v>
+        <v>1646.988141143013</v>
       </c>
       <c r="E11" t="n">
-        <v>1261.19988854477</v>
+        <v>1261.199888544769</v>
       </c>
       <c r="F11" t="n">
-        <v>850.2139837551622</v>
+        <v>850.2139837551613</v>
       </c>
       <c r="G11" t="n">
-        <v>435.1415336001586</v>
+        <v>435.1415336001587</v>
       </c>
       <c r="H11" t="n">
         <v>137.5579332089257</v>
@@ -5039,19 +5039,19 @@
         <v>95.56103444839442</v>
       </c>
       <c r="J11" t="n">
-        <v>284.4401654074198</v>
+        <v>451.8458144277728</v>
       </c>
       <c r="K11" t="n">
-        <v>618.2595390972663</v>
+        <v>1106.569146563072</v>
       </c>
       <c r="L11" t="n">
-        <v>1482.778354750621</v>
+        <v>1557.603359811481</v>
       </c>
       <c r="M11" t="n">
-        <v>2461.328657580449</v>
+        <v>2528.189928969822</v>
       </c>
       <c r="N11" t="n">
-        <v>3441.080929807095</v>
+        <v>3507.942201196469</v>
       </c>
       <c r="O11" t="n">
         <v>4010.914672075806</v>
@@ -5066,25 +5066,25 @@
         <v>4778.051722419721</v>
       </c>
       <c r="S11" t="n">
-        <v>4667.761053946816</v>
+        <v>4667.761053946815</v>
       </c>
       <c r="T11" t="n">
-        <v>4461.783306331038</v>
+        <v>4461.783306331037</v>
       </c>
       <c r="U11" t="n">
-        <v>4208.252829604875</v>
+        <v>4208.252829604873</v>
       </c>
       <c r="V11" t="n">
-        <v>3877.189942261304</v>
+        <v>3877.189942261302</v>
       </c>
       <c r="W11" t="n">
-        <v>3524.42128699119</v>
+        <v>3524.421286991188</v>
       </c>
       <c r="X11" t="n">
-        <v>3150.95552873011</v>
+        <v>3150.955528730108</v>
       </c>
       <c r="Y11" t="n">
-        <v>2760.816196754298</v>
+        <v>2760.816196754296</v>
       </c>
     </row>
     <row r="12">
@@ -5121,22 +5121,22 @@
         <v>189.2383039390117</v>
       </c>
       <c r="K12" t="n">
-        <v>427.5025029193594</v>
+        <v>427.5025029193588</v>
       </c>
       <c r="L12" t="n">
-        <v>794.2006632320247</v>
+        <v>794.200663232024</v>
       </c>
       <c r="M12" t="n">
         <v>1241.47698845434</v>
       </c>
       <c r="N12" t="n">
-        <v>1715.000032008795</v>
+        <v>1715.000032008794</v>
       </c>
       <c r="O12" t="n">
-        <v>2125.96131142685</v>
+        <v>2125.961311426849</v>
       </c>
       <c r="P12" t="n">
-        <v>2436.460902902953</v>
+        <v>2436.460902902952</v>
       </c>
       <c r="Q12" t="n">
         <v>2594.102460549552</v>
@@ -5173,25 +5173,25 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>95.56103444839442</v>
+        <v>802.8431224204016</v>
       </c>
       <c r="C13" t="n">
-        <v>95.56103444839442</v>
+        <v>633.9069394924948</v>
       </c>
       <c r="D13" t="n">
-        <v>95.56103444839442</v>
+        <v>633.9069394924948</v>
       </c>
       <c r="E13" t="n">
-        <v>95.56103444839442</v>
+        <v>485.9938459101016</v>
       </c>
       <c r="F13" t="n">
-        <v>95.56103444839442</v>
+        <v>339.1038984121913</v>
       </c>
       <c r="G13" t="n">
-        <v>95.56103444839442</v>
+        <v>339.1038984121913</v>
       </c>
       <c r="H13" t="n">
-        <v>95.56103444839442</v>
+        <v>192.8867116300491</v>
       </c>
       <c r="I13" t="n">
         <v>95.56103444839442</v>
@@ -5227,22 +5227,22 @@
         <v>1764.657581931529</v>
       </c>
       <c r="T13" t="n">
-        <v>1542.890966501056</v>
+        <v>1764.657581931529</v>
       </c>
       <c r="U13" t="n">
-        <v>1270.093287563029</v>
+        <v>1475.554715057173</v>
       </c>
       <c r="V13" t="n">
-        <v>1015.408799357142</v>
+        <v>1475.554715057173</v>
       </c>
       <c r="W13" t="n">
-        <v>725.9916293201816</v>
+        <v>1186.137545020212</v>
       </c>
       <c r="X13" t="n">
-        <v>498.0020784221642</v>
+        <v>958.1479941221949</v>
       </c>
       <c r="Y13" t="n">
-        <v>277.2094992786341</v>
+        <v>802.8431224204016</v>
       </c>
     </row>
     <row r="14">
@@ -5255,13 +5255,13 @@
         <v>2374.216356690176</v>
       </c>
       <c r="C14" t="n">
-        <v>2005.253839749764</v>
+        <v>2005.253839749765</v>
       </c>
       <c r="D14" t="n">
         <v>1646.988141143014</v>
       </c>
       <c r="E14" t="n">
-        <v>1261.199888544769</v>
+        <v>1261.19988854477</v>
       </c>
       <c r="F14" t="n">
         <v>850.213983755162</v>
@@ -5276,25 +5276,25 @@
         <v>95.56103444839442</v>
       </c>
       <c r="J14" t="n">
-        <v>284.4401654074198</v>
+        <v>451.8458144277729</v>
       </c>
       <c r="K14" t="n">
-        <v>618.2595390972663</v>
+        <v>1106.569146563073</v>
       </c>
       <c r="L14" t="n">
-        <v>1482.778354750621</v>
+        <v>1971.087962216427</v>
       </c>
       <c r="M14" t="n">
-        <v>2461.328657580449</v>
+        <v>2504.619866888352</v>
       </c>
       <c r="N14" t="n">
-        <v>3441.080929807095</v>
+        <v>3362.809616117416</v>
       </c>
       <c r="O14" t="n">
-        <v>4075.973927750059</v>
+        <v>3865.782086996753</v>
       </c>
       <c r="P14" t="n">
-        <v>4470.748294107237</v>
+        <v>4260.556453353931</v>
       </c>
       <c r="Q14" t="n">
         <v>4719.034655862919</v>
@@ -5331,22 +5331,22 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>970.5927724973197</v>
+        <v>970.5927724973189</v>
       </c>
       <c r="C15" t="n">
-        <v>796.1397432161928</v>
+        <v>796.139743216192</v>
       </c>
       <c r="D15" t="n">
-        <v>647.2053335549415</v>
+        <v>647.2053335549408</v>
       </c>
       <c r="E15" t="n">
-        <v>487.9678785494859</v>
+        <v>487.9678785494852</v>
       </c>
       <c r="F15" t="n">
-        <v>341.4333205763709</v>
+        <v>341.4333205763703</v>
       </c>
       <c r="G15" t="n">
-        <v>205.070220408989</v>
+        <v>205.0702204089889</v>
       </c>
       <c r="H15" t="n">
         <v>114.5683260468565</v>
@@ -5355,40 +5355,40 @@
         <v>95.56103444839442</v>
       </c>
       <c r="J15" t="n">
-        <v>189.2383039390123</v>
+        <v>189.2383039390117</v>
       </c>
       <c r="K15" t="n">
-        <v>427.5025029193594</v>
+        <v>427.5025029193589</v>
       </c>
       <c r="L15" t="n">
-        <v>794.2006632320247</v>
+        <v>794.200663232024</v>
       </c>
       <c r="M15" t="n">
         <v>1241.47698845434</v>
       </c>
       <c r="N15" t="n">
-        <v>1715.000032008795</v>
+        <v>1715.000032008794</v>
       </c>
       <c r="O15" t="n">
-        <v>2125.96131142685</v>
+        <v>2125.961311426849</v>
       </c>
       <c r="P15" t="n">
-        <v>2436.460902902953</v>
+        <v>2436.460902902952</v>
       </c>
       <c r="Q15" t="n">
         <v>2594.102460549552</v>
       </c>
       <c r="R15" t="n">
-        <v>2593.958107142068</v>
+        <v>2593.958107142067</v>
       </c>
       <c r="S15" t="n">
-        <v>2464.520220635548</v>
+        <v>2464.520220635547</v>
       </c>
       <c r="T15" t="n">
         <v>2271.877220313403</v>
       </c>
       <c r="U15" t="n">
-        <v>2043.809373447819</v>
+        <v>2043.809373447818</v>
       </c>
       <c r="V15" t="n">
         <v>1808.657265216076</v>
@@ -5397,10 +5397,10 @@
         <v>1554.419908487874</v>
       </c>
       <c r="X15" t="n">
-        <v>1346.568408282342</v>
+        <v>1346.568408282341</v>
       </c>
       <c r="Y15" t="n">
-        <v>1138.808109517388</v>
+        <v>1138.808109517387</v>
       </c>
     </row>
     <row r="16">
@@ -5410,22 +5410,22 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>877.1197344942216</v>
+        <v>389.6913148129298</v>
       </c>
       <c r="C16" t="n">
-        <v>708.1835515663147</v>
+        <v>389.6913148129298</v>
       </c>
       <c r="D16" t="n">
-        <v>558.0669121539789</v>
+        <v>389.6913148129298</v>
       </c>
       <c r="E16" t="n">
-        <v>410.1538185715858</v>
+        <v>241.7782212305366</v>
       </c>
       <c r="F16" t="n">
-        <v>263.2638710736754</v>
+        <v>241.7782212305366</v>
       </c>
       <c r="G16" t="n">
-        <v>95.56103444839442</v>
+        <v>241.7782212305366</v>
       </c>
       <c r="H16" t="n">
         <v>95.56103444839442</v>
@@ -5437,7 +5437,7 @@
         <v>140.68366689533</v>
       </c>
       <c r="K16" t="n">
-        <v>344.6708498442063</v>
+        <v>344.6708498442064</v>
       </c>
       <c r="L16" t="n">
         <v>661.2306482927024</v>
@@ -5449,37 +5449,37 @@
         <v>1346.796070598116</v>
       </c>
       <c r="O16" t="n">
-        <v>1646.125669518529</v>
+        <v>1646.12566951853</v>
       </c>
       <c r="P16" t="n">
         <v>1878.733169952189</v>
       </c>
       <c r="Q16" t="n">
-        <v>1956.343466104703</v>
+        <v>1956.343466104704</v>
       </c>
       <c r="R16" t="n">
-        <v>1956.343466104703</v>
+        <v>1866.513008862232</v>
       </c>
       <c r="S16" t="n">
-        <v>1956.343466104703</v>
+        <v>1674.827124689058</v>
       </c>
       <c r="T16" t="n">
-        <v>1956.343466104703</v>
+        <v>1453.060509258584</v>
       </c>
       <c r="U16" t="n">
-        <v>1956.343466104703</v>
+        <v>1343.430988784034</v>
       </c>
       <c r="V16" t="n">
-        <v>1796.967499402969</v>
+        <v>1088.746500578147</v>
       </c>
       <c r="W16" t="n">
-        <v>1507.550329366009</v>
+        <v>799.3293305411868</v>
       </c>
       <c r="X16" t="n">
-        <v>1279.560778467991</v>
+        <v>571.3397796431694</v>
       </c>
       <c r="Y16" t="n">
-        <v>1058.768199324461</v>
+        <v>571.3397796431694</v>
       </c>
     </row>
     <row r="17">
@@ -5489,76 +5489,76 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>2374.216356690175</v>
+        <v>2374.216356690176</v>
       </c>
       <c r="C17" t="n">
-        <v>2005.253839749763</v>
+        <v>2005.253839749765</v>
       </c>
       <c r="D17" t="n">
-        <v>1646.988141143013</v>
+        <v>1646.988141143014</v>
       </c>
       <c r="E17" t="n">
-        <v>1261.199888544769</v>
+        <v>1261.19988854477</v>
       </c>
       <c r="F17" t="n">
-        <v>850.2139837551613</v>
+        <v>850.2139837551622</v>
       </c>
       <c r="G17" t="n">
         <v>435.1415336001587</v>
       </c>
       <c r="H17" t="n">
-        <v>137.5579332089257</v>
+        <v>137.5579332089258</v>
       </c>
       <c r="I17" t="n">
         <v>95.56103444839442</v>
       </c>
       <c r="J17" t="n">
-        <v>451.8458144277728</v>
+        <v>284.4401654074198</v>
       </c>
       <c r="K17" t="n">
-        <v>1106.569146563072</v>
+        <v>939.1634975427193</v>
       </c>
       <c r="L17" t="n">
-        <v>1557.603359811481</v>
+        <v>1390.197710791128</v>
       </c>
       <c r="M17" t="n">
-        <v>2536.153662641309</v>
+        <v>2055.398642844495</v>
       </c>
       <c r="N17" t="n">
-        <v>3082.932479700092</v>
+        <v>2602.177459903277</v>
       </c>
       <c r="O17" t="n">
-        <v>3585.904950579429</v>
+        <v>3482.142110232732</v>
       </c>
       <c r="P17" t="n">
-        <v>4260.556453353931</v>
+        <v>4195.497197679678</v>
       </c>
       <c r="Q17" t="n">
-        <v>4719.034655862919</v>
+        <v>4653.975400188666</v>
       </c>
       <c r="R17" t="n">
         <v>4778.051722419721</v>
       </c>
       <c r="S17" t="n">
-        <v>4667.761053946815</v>
+        <v>4667.761053946816</v>
       </c>
       <c r="T17" t="n">
-        <v>4461.783306331037</v>
+        <v>4461.783306331038</v>
       </c>
       <c r="U17" t="n">
-        <v>4208.252829604873</v>
+        <v>4208.252829604875</v>
       </c>
       <c r="V17" t="n">
-        <v>3877.189942261302</v>
+        <v>3877.189942261304</v>
       </c>
       <c r="W17" t="n">
-        <v>3524.421286991188</v>
+        <v>3524.42128699119</v>
       </c>
       <c r="X17" t="n">
-        <v>3150.955528730108</v>
+        <v>3150.95552873011</v>
       </c>
       <c r="Y17" t="n">
-        <v>2760.816196754296</v>
+        <v>2760.816196754298</v>
       </c>
     </row>
     <row r="18">
@@ -5592,25 +5592,25 @@
         <v>95.56103444839442</v>
       </c>
       <c r="J18" t="n">
-        <v>189.2383039390123</v>
+        <v>189.2383039390117</v>
       </c>
       <c r="K18" t="n">
-        <v>427.5025029193594</v>
+        <v>427.5025029193588</v>
       </c>
       <c r="L18" t="n">
-        <v>794.2006632320247</v>
+        <v>794.200663232024</v>
       </c>
       <c r="M18" t="n">
         <v>1241.47698845434</v>
       </c>
       <c r="N18" t="n">
-        <v>1715.000032008795</v>
+        <v>1715.000032008794</v>
       </c>
       <c r="O18" t="n">
-        <v>2125.96131142685</v>
+        <v>2125.961311426849</v>
       </c>
       <c r="P18" t="n">
-        <v>2436.460902902953</v>
+        <v>2436.460902902952</v>
       </c>
       <c r="Q18" t="n">
         <v>2594.102460549552</v>
@@ -5647,76 +5647,76 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>3384.235206686049</v>
+        <v>533.2127443498355</v>
       </c>
       <c r="C19" t="n">
-        <v>3215.299023758142</v>
+        <v>364.2765614219286</v>
       </c>
       <c r="D19" t="n">
-        <v>3065.182384345806</v>
+        <v>364.2765614219286</v>
       </c>
       <c r="E19" t="n">
-        <v>2917.269290763413</v>
+        <v>364.2765614219286</v>
       </c>
       <c r="F19" t="n">
-        <v>2917.269290763413</v>
+        <v>217.3866139240182</v>
       </c>
       <c r="G19" t="n">
-        <v>2917.269290763413</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="H19" t="n">
-        <v>2917.269290763413</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="I19" t="n">
-        <v>2917.269290763413</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="J19" t="n">
-        <v>2962.391923210348</v>
+        <v>140.68366689533</v>
       </c>
       <c r="K19" t="n">
-        <v>3166.379106159224</v>
+        <v>344.6708498442063</v>
       </c>
       <c r="L19" t="n">
-        <v>3482.93890460772</v>
+        <v>661.2306482927024</v>
       </c>
       <c r="M19" t="n">
-        <v>3827.095950207269</v>
+        <v>1005.387693892251</v>
       </c>
       <c r="N19" t="n">
-        <v>4168.504326913134</v>
+        <v>1346.796070598116</v>
       </c>
       <c r="O19" t="n">
-        <v>4467.833925833547</v>
+        <v>1646.125669518529</v>
       </c>
       <c r="P19" t="n">
-        <v>4700.441426267206</v>
+        <v>1878.733169952189</v>
       </c>
       <c r="Q19" t="n">
-        <v>4778.051722419721</v>
+        <v>1956.343466104703</v>
       </c>
       <c r="R19" t="n">
-        <v>4778.051722419721</v>
+        <v>1866.513008862231</v>
       </c>
       <c r="S19" t="n">
-        <v>4778.051722419721</v>
+        <v>1674.827124689057</v>
       </c>
       <c r="T19" t="n">
-        <v>4558.453156638079</v>
+        <v>1453.060509258583</v>
       </c>
       <c r="U19" t="n">
-        <v>4269.350289763723</v>
+        <v>1453.060509258583</v>
       </c>
       <c r="V19" t="n">
-        <v>4014.665801557836</v>
+        <v>1453.060509258583</v>
       </c>
       <c r="W19" t="n">
-        <v>4014.665801557836</v>
+        <v>1163.643339221623</v>
       </c>
       <c r="X19" t="n">
-        <v>3786.676250659818</v>
+        <v>935.6537883236053</v>
       </c>
       <c r="Y19" t="n">
-        <v>3565.883671516288</v>
+        <v>714.8612091800752</v>
       </c>
     </row>
     <row r="20">
@@ -5729,67 +5729,67 @@
         <v>2374.216356690176</v>
       </c>
       <c r="C20" t="n">
-        <v>2005.253839749764</v>
+        <v>2005.253839749765</v>
       </c>
       <c r="D20" t="n">
-        <v>1646.988141143014</v>
+        <v>1646.988141143015</v>
       </c>
       <c r="E20" t="n">
-        <v>1261.199888544769</v>
+        <v>1261.199888544771</v>
       </c>
       <c r="F20" t="n">
-        <v>850.213983755162</v>
+        <v>850.2139837551626</v>
       </c>
       <c r="G20" t="n">
-        <v>435.1415336001585</v>
+        <v>435.1415336001592</v>
       </c>
       <c r="H20" t="n">
-        <v>137.5579332089257</v>
+        <v>137.5579332089263</v>
       </c>
       <c r="I20" t="n">
-        <v>95.56103444839444</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="J20" t="n">
-        <v>451.8458144277728</v>
+        <v>323.52854882937</v>
       </c>
       <c r="K20" t="n">
-        <v>1106.569146563072</v>
+        <v>657.3479225192164</v>
       </c>
       <c r="L20" t="n">
-        <v>1557.603359811481</v>
+        <v>1521.866738172571</v>
       </c>
       <c r="M20" t="n">
-        <v>2091.135264483405</v>
+        <v>2055.398642844495</v>
       </c>
       <c r="N20" t="n">
-        <v>2637.914081542187</v>
+        <v>2602.177459903277</v>
       </c>
       <c r="O20" t="n">
-        <v>3482.142110232733</v>
+        <v>3482.142110232732</v>
       </c>
       <c r="P20" t="n">
-        <v>4195.497197679679</v>
+        <v>4195.497197679678</v>
       </c>
       <c r="Q20" t="n">
-        <v>4653.975400188667</v>
+        <v>4653.975400188666</v>
       </c>
       <c r="R20" t="n">
-        <v>4778.051722419722</v>
+        <v>4778.051722419721</v>
       </c>
       <c r="S20" t="n">
-        <v>4667.761053946817</v>
+        <v>4667.761053946816</v>
       </c>
       <c r="T20" t="n">
-        <v>4461.783306331039</v>
+        <v>4461.783306331038</v>
       </c>
       <c r="U20" t="n">
-        <v>4208.252829604876</v>
+        <v>4208.252829604875</v>
       </c>
       <c r="V20" t="n">
         <v>3877.189942261304</v>
       </c>
       <c r="W20" t="n">
-        <v>3524.421286991189</v>
+        <v>3524.42128699119</v>
       </c>
       <c r="X20" t="n">
         <v>3150.95552873011</v>
@@ -5826,16 +5826,16 @@
         <v>114.5683260468565</v>
       </c>
       <c r="I21" t="n">
-        <v>95.56103444839444</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="J21" t="n">
-        <v>189.2383039390117</v>
+        <v>189.2383039390123</v>
       </c>
       <c r="K21" t="n">
-        <v>427.5025029193588</v>
+        <v>427.5025029193594</v>
       </c>
       <c r="L21" t="n">
-        <v>794.200663232024</v>
+        <v>794.2006632320247</v>
       </c>
       <c r="M21" t="n">
         <v>1241.47698845434</v>
@@ -5884,76 +5884,76 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>963.459677820308</v>
+        <v>3626.754924565362</v>
       </c>
       <c r="C22" t="n">
-        <v>794.5234948924011</v>
+        <v>3457.818741637455</v>
       </c>
       <c r="D22" t="n">
-        <v>704.2840989361212</v>
+        <v>3307.70210222512</v>
       </c>
       <c r="E22" t="n">
-        <v>556.371005353728</v>
+        <v>3307.70210222512</v>
       </c>
       <c r="F22" t="n">
-        <v>409.4810578558177</v>
+        <v>3160.812154727209</v>
       </c>
       <c r="G22" t="n">
-        <v>241.7782212305366</v>
+        <v>3160.812154727209</v>
       </c>
       <c r="H22" t="n">
-        <v>95.56103444839444</v>
+        <v>3014.594967945067</v>
       </c>
       <c r="I22" t="n">
-        <v>95.56103444839444</v>
+        <v>2917.269290763413</v>
       </c>
       <c r="J22" t="n">
-        <v>140.68366689533</v>
+        <v>2962.391923210348</v>
       </c>
       <c r="K22" t="n">
-        <v>344.6708498442063</v>
+        <v>3166.379106159224</v>
       </c>
       <c r="L22" t="n">
-        <v>661.2306482927024</v>
+        <v>3482.93890460772</v>
       </c>
       <c r="M22" t="n">
-        <v>1005.387693892251</v>
+        <v>3827.095950207269</v>
       </c>
       <c r="N22" t="n">
-        <v>1346.796070598116</v>
+        <v>4168.504326913134</v>
       </c>
       <c r="O22" t="n">
-        <v>1646.125669518529</v>
+        <v>4467.833925833547</v>
       </c>
       <c r="P22" t="n">
-        <v>1878.733169952189</v>
+        <v>4700.441426267206</v>
       </c>
       <c r="Q22" t="n">
-        <v>1956.343466104703</v>
+        <v>4778.051722419721</v>
       </c>
       <c r="R22" t="n">
-        <v>1956.343466104703</v>
+        <v>4688.221265177249</v>
       </c>
       <c r="S22" t="n">
-        <v>1956.343466104703</v>
+        <v>4496.535381004075</v>
       </c>
       <c r="T22" t="n">
-        <v>1956.343466104703</v>
+        <v>4274.768765573601</v>
       </c>
       <c r="U22" t="n">
-        <v>1956.343466104703</v>
+        <v>4274.768765573601</v>
       </c>
       <c r="V22" t="n">
-        <v>1701.658977898816</v>
+        <v>4257.185519437149</v>
       </c>
       <c r="W22" t="n">
-        <v>1412.241807861855</v>
+        <v>4257.185519437149</v>
       </c>
       <c r="X22" t="n">
-        <v>1184.252256963838</v>
+        <v>4029.195968539132</v>
       </c>
       <c r="Y22" t="n">
-        <v>963.459677820308</v>
+        <v>3808.403389395602</v>
       </c>
     </row>
     <row r="23">
@@ -5963,28 +5963,28 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>2374.216356690176</v>
+        <v>2374.216356690175</v>
       </c>
       <c r="C23" t="n">
-        <v>2005.253839749765</v>
+        <v>2005.253839749763</v>
       </c>
       <c r="D23" t="n">
-        <v>1646.988141143015</v>
+        <v>1646.988141143013</v>
       </c>
       <c r="E23" t="n">
-        <v>1261.199888544771</v>
+        <v>1261.199888544769</v>
       </c>
       <c r="F23" t="n">
-        <v>850.2139837551634</v>
+        <v>850.2139837551613</v>
       </c>
       <c r="G23" t="n">
-        <v>435.1415336001585</v>
+        <v>435.1415336001583</v>
       </c>
       <c r="H23" t="n">
-        <v>137.5579332089258</v>
+        <v>137.5579332089257</v>
       </c>
       <c r="I23" t="n">
-        <v>95.56103444839444</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="J23" t="n">
         <v>284.4401654074198</v>
@@ -5996,43 +5996,43 @@
         <v>1482.778354750621</v>
       </c>
       <c r="M23" t="n">
-        <v>2461.328657580449</v>
+        <v>2055.398642844495</v>
       </c>
       <c r="N23" t="n">
-        <v>3441.080929807095</v>
+        <v>2602.177459903277</v>
       </c>
       <c r="O23" t="n">
-        <v>4075.97392775006</v>
+        <v>3482.142110232732</v>
       </c>
       <c r="P23" t="n">
-        <v>4470.748294107238</v>
+        <v>4195.497197679678</v>
       </c>
       <c r="Q23" t="n">
-        <v>4719.03465586292</v>
+        <v>4653.975400188666</v>
       </c>
       <c r="R23" t="n">
-        <v>4778.051722419722</v>
+        <v>4778.051722419721</v>
       </c>
       <c r="S23" t="n">
-        <v>4667.761053946817</v>
+        <v>4667.761053946815</v>
       </c>
       <c r="T23" t="n">
-        <v>4461.783306331039</v>
+        <v>4461.783306331037</v>
       </c>
       <c r="U23" t="n">
-        <v>4208.252829604875</v>
+        <v>4208.252829604873</v>
       </c>
       <c r="V23" t="n">
-        <v>3877.189942261304</v>
+        <v>3877.189942261302</v>
       </c>
       <c r="W23" t="n">
-        <v>3524.42128699119</v>
+        <v>3524.421286991188</v>
       </c>
       <c r="X23" t="n">
-        <v>3150.95552873011</v>
+        <v>3150.955528730108</v>
       </c>
       <c r="Y23" t="n">
-        <v>2760.816196754298</v>
+        <v>2760.816196754296</v>
       </c>
     </row>
     <row r="24">
@@ -6063,31 +6063,31 @@
         <v>114.5683260468565</v>
       </c>
       <c r="I24" t="n">
-        <v>95.56103444839444</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="J24" t="n">
         <v>189.2383039390117</v>
       </c>
       <c r="K24" t="n">
-        <v>427.5025029193588</v>
+        <v>427.5025029193594</v>
       </c>
       <c r="L24" t="n">
-        <v>794.200663232024</v>
+        <v>794.2006632320247</v>
       </c>
       <c r="M24" t="n">
         <v>1241.47698845434</v>
       </c>
       <c r="N24" t="n">
-        <v>1715.000032008794</v>
+        <v>1715.000032008795</v>
       </c>
       <c r="O24" t="n">
-        <v>2125.961311426849</v>
+        <v>2125.96131142685</v>
       </c>
       <c r="P24" t="n">
-        <v>2436.460902902952</v>
+        <v>2436.460902902953</v>
       </c>
       <c r="Q24" t="n">
-        <v>2594.102460549551</v>
+        <v>2594.102460549552</v>
       </c>
       <c r="R24" t="n">
         <v>2593.958107142068</v>
@@ -6121,76 +6121,76 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>481.6968904858343</v>
+        <v>3768.373500268501</v>
       </c>
       <c r="C25" t="n">
-        <v>481.6968904858343</v>
+        <v>3599.437317340594</v>
       </c>
       <c r="D25" t="n">
-        <v>331.5802510734985</v>
+        <v>3449.320677928259</v>
       </c>
       <c r="E25" t="n">
-        <v>331.5802510734985</v>
+        <v>3301.407584345865</v>
       </c>
       <c r="F25" t="n">
-        <v>184.6903035755882</v>
+        <v>3301.407584345865</v>
       </c>
       <c r="G25" t="n">
-        <v>184.6903035755882</v>
+        <v>3160.812154727209</v>
       </c>
       <c r="H25" t="n">
-        <v>95.56103444839444</v>
+        <v>3014.594967945067</v>
       </c>
       <c r="I25" t="n">
-        <v>95.56103444839444</v>
+        <v>2917.269290763413</v>
       </c>
       <c r="J25" t="n">
-        <v>140.68366689533</v>
+        <v>2962.391923210348</v>
       </c>
       <c r="K25" t="n">
-        <v>344.6708498442063</v>
+        <v>3166.379106159224</v>
       </c>
       <c r="L25" t="n">
-        <v>661.2306482927024</v>
+        <v>3482.93890460772</v>
       </c>
       <c r="M25" t="n">
-        <v>1005.387693892251</v>
+        <v>3827.095950207269</v>
       </c>
       <c r="N25" t="n">
-        <v>1346.796070598116</v>
+        <v>4168.504326913134</v>
       </c>
       <c r="O25" t="n">
-        <v>1646.125669518529</v>
+        <v>4467.833925833547</v>
       </c>
       <c r="P25" t="n">
-        <v>1878.733169952189</v>
+        <v>4700.441426267206</v>
       </c>
       <c r="Q25" t="n">
-        <v>1956.343466104703</v>
+        <v>4778.051722419721</v>
       </c>
       <c r="R25" t="n">
-        <v>1956.343466104703</v>
+        <v>4688.221265177249</v>
       </c>
       <c r="S25" t="n">
-        <v>1764.657581931529</v>
+        <v>4688.221265177249</v>
       </c>
       <c r="T25" t="n">
-        <v>1542.890966501056</v>
+        <v>4688.221265177249</v>
       </c>
       <c r="U25" t="n">
-        <v>1253.788099626699</v>
+        <v>4688.221265177249</v>
       </c>
       <c r="V25" t="n">
-        <v>999.1036114208122</v>
+        <v>4688.221265177249</v>
       </c>
       <c r="W25" t="n">
-        <v>709.6864413838516</v>
+        <v>4398.804095140288</v>
       </c>
       <c r="X25" t="n">
-        <v>481.6968904858343</v>
+        <v>4170.814544242271</v>
       </c>
       <c r="Y25" t="n">
-        <v>481.6968904858343</v>
+        <v>3950.021965098741</v>
       </c>
     </row>
     <row r="26">
@@ -6200,76 +6200,76 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>2374.216356690175</v>
+        <v>2374.216356690176</v>
       </c>
       <c r="C26" t="n">
-        <v>2005.253839749764</v>
+        <v>2005.253839749765</v>
       </c>
       <c r="D26" t="n">
-        <v>1646.988141143014</v>
+        <v>1646.988141143015</v>
       </c>
       <c r="E26" t="n">
-        <v>1261.19988854477</v>
+        <v>1261.199888544771</v>
       </c>
       <c r="F26" t="n">
-        <v>850.213983755162</v>
+        <v>850.2139837551626</v>
       </c>
       <c r="G26" t="n">
-        <v>435.1415336001585</v>
+        <v>435.1415336001592</v>
       </c>
       <c r="H26" t="n">
-        <v>137.5579332089257</v>
+        <v>137.5579332089264</v>
       </c>
       <c r="I26" t="n">
-        <v>95.56103444839441</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="J26" t="n">
-        <v>284.4401654074198</v>
+        <v>451.8458144277728</v>
       </c>
       <c r="K26" t="n">
-        <v>939.1634975427194</v>
+        <v>1106.569146563072</v>
       </c>
       <c r="L26" t="n">
-        <v>1390.197710791128</v>
+        <v>1670.680157531994</v>
       </c>
       <c r="M26" t="n">
-        <v>1941.005908766397</v>
+        <v>2649.230460361822</v>
       </c>
       <c r="N26" t="n">
-        <v>2920.758180993044</v>
+        <v>3196.009277420604</v>
       </c>
       <c r="O26" t="n">
-        <v>3800.722831322499</v>
+        <v>4075.973927750059</v>
       </c>
       <c r="P26" t="n">
-        <v>4195.497197679677</v>
+        <v>4470.748294107237</v>
       </c>
       <c r="Q26" t="n">
-        <v>4653.975400188665</v>
+        <v>4719.034655862919</v>
       </c>
       <c r="R26" t="n">
-        <v>4778.05172241972</v>
+        <v>4778.051722419721</v>
       </c>
       <c r="S26" t="n">
-        <v>4667.761053946815</v>
+        <v>4667.761053946816</v>
       </c>
       <c r="T26" t="n">
-        <v>4461.783306331037</v>
+        <v>4461.783306331038</v>
       </c>
       <c r="U26" t="n">
-        <v>4208.252829604874</v>
+        <v>4208.252829604875</v>
       </c>
       <c r="V26" t="n">
-        <v>3877.189942261303</v>
+        <v>3877.189942261304</v>
       </c>
       <c r="W26" t="n">
-        <v>3524.421286991189</v>
+        <v>3524.42128699119</v>
       </c>
       <c r="X26" t="n">
-        <v>3150.955528730109</v>
+        <v>3150.95552873011</v>
       </c>
       <c r="Y26" t="n">
-        <v>2760.816196754297</v>
+        <v>2760.816196754298</v>
       </c>
     </row>
     <row r="27">
@@ -6279,76 +6279,76 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>970.5927724973194</v>
+        <v>3154.542034367488</v>
       </c>
       <c r="C27" t="n">
-        <v>796.1397432161924</v>
+        <v>2980.089005086361</v>
       </c>
       <c r="D27" t="n">
-        <v>647.2053335549413</v>
+        <v>2831.15459542511</v>
       </c>
       <c r="E27" t="n">
-        <v>487.9678785494857</v>
+        <v>2671.917140419654</v>
       </c>
       <c r="F27" t="n">
-        <v>341.4333205763708</v>
+        <v>2525.382582446539</v>
       </c>
       <c r="G27" t="n">
-        <v>205.0702204089894</v>
+        <v>2389.019482279157</v>
       </c>
       <c r="H27" t="n">
-        <v>114.5683260468568</v>
+        <v>2298.517587917024</v>
       </c>
       <c r="I27" t="n">
-        <v>95.56103444839441</v>
+        <v>2279.510296318562</v>
       </c>
       <c r="J27" t="n">
-        <v>189.238303939012</v>
+        <v>2373.187565809181</v>
       </c>
       <c r="K27" t="n">
-        <v>427.5025029193591</v>
+        <v>2611.451764789528</v>
       </c>
       <c r="L27" t="n">
-        <v>794.2006632320245</v>
+        <v>2978.149925102193</v>
       </c>
       <c r="M27" t="n">
-        <v>1241.47698845434</v>
+        <v>3425.426250324509</v>
       </c>
       <c r="N27" t="n">
-        <v>1715.000032008795</v>
+        <v>3898.949293878964</v>
       </c>
       <c r="O27" t="n">
-        <v>2125.96131142685</v>
+        <v>4309.910573297018</v>
       </c>
       <c r="P27" t="n">
-        <v>2436.460902902953</v>
+        <v>4620.410164773121</v>
       </c>
       <c r="Q27" t="n">
-        <v>2594.102460549552</v>
+        <v>4778.051722419721</v>
       </c>
       <c r="R27" t="n">
-        <v>2593.958107142068</v>
+        <v>4777.907369012236</v>
       </c>
       <c r="S27" t="n">
-        <v>2464.520220635548</v>
+        <v>4648.469482505716</v>
       </c>
       <c r="T27" t="n">
-        <v>2271.877220313403</v>
+        <v>4455.826482183571</v>
       </c>
       <c r="U27" t="n">
-        <v>2043.809373447819</v>
+        <v>4227.758635317987</v>
       </c>
       <c r="V27" t="n">
-        <v>1808.657265216076</v>
+        <v>3992.606527086244</v>
       </c>
       <c r="W27" t="n">
-        <v>1554.419908487874</v>
+        <v>3738.369170358043</v>
       </c>
       <c r="X27" t="n">
-        <v>1346.568408282341</v>
+        <v>3530.51767015251</v>
       </c>
       <c r="Y27" t="n">
-        <v>1138.808109517387</v>
+        <v>3322.757371387556</v>
       </c>
     </row>
     <row r="28">
@@ -6358,76 +6358,76 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>3831.509020203103</v>
+        <v>412.4103109586945</v>
       </c>
       <c r="C28" t="n">
-        <v>3662.572837275196</v>
+        <v>243.4741280307875</v>
       </c>
       <c r="D28" t="n">
-        <v>3623.318032432792</v>
+        <v>243.4741280307875</v>
       </c>
       <c r="E28" t="n">
-        <v>3475.404938850399</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="F28" t="n">
-        <v>3328.514991352489</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="G28" t="n">
-        <v>3160.812154727208</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="H28" t="n">
-        <v>3014.594967945065</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="I28" t="n">
-        <v>2917.269290763411</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="J28" t="n">
-        <v>2962.391923210347</v>
+        <v>140.68366689533</v>
       </c>
       <c r="K28" t="n">
-        <v>3166.379106159223</v>
+        <v>344.6708498442063</v>
       </c>
       <c r="L28" t="n">
-        <v>3482.938904607719</v>
+        <v>661.2306482927024</v>
       </c>
       <c r="M28" t="n">
-        <v>3827.095950207268</v>
+        <v>1005.387693892251</v>
       </c>
       <c r="N28" t="n">
-        <v>4168.504326913133</v>
+        <v>1346.796070598116</v>
       </c>
       <c r="O28" t="n">
-        <v>4467.833925833546</v>
+        <v>1646.125669518529</v>
       </c>
       <c r="P28" t="n">
-        <v>4700.441426267205</v>
+        <v>1878.733169952189</v>
       </c>
       <c r="Q28" t="n">
-        <v>4778.05172241972</v>
+        <v>1956.343466104703</v>
       </c>
       <c r="R28" t="n">
-        <v>4778.05172241972</v>
+        <v>1866.513008862231</v>
       </c>
       <c r="S28" t="n">
-        <v>4778.05172241972</v>
+        <v>1674.827124689057</v>
       </c>
       <c r="T28" t="n">
-        <v>4778.05172241972</v>
+        <v>1453.060509258583</v>
       </c>
       <c r="U28" t="n">
-        <v>4778.05172241972</v>
+        <v>1453.060509258583</v>
       </c>
       <c r="V28" t="n">
-        <v>4523.367234213833</v>
+        <v>1332.258075867442</v>
       </c>
       <c r="W28" t="n">
-        <v>4233.950064176873</v>
+        <v>1042.840905830482</v>
       </c>
       <c r="X28" t="n">
-        <v>4233.950064176873</v>
+        <v>814.8513549324643</v>
       </c>
       <c r="Y28" t="n">
-        <v>4013.157485033343</v>
+        <v>594.0587757889342</v>
       </c>
     </row>
     <row r="29">
@@ -6461,28 +6461,28 @@
         <v>95.56103444839441</v>
       </c>
       <c r="J29" t="n">
-        <v>451.8458144277728</v>
+        <v>284.4401654074198</v>
       </c>
       <c r="K29" t="n">
-        <v>1106.569146563072</v>
+        <v>867.5397632725212</v>
       </c>
       <c r="L29" t="n">
-        <v>1557.603359811481</v>
+        <v>1732.058578925876</v>
       </c>
       <c r="M29" t="n">
-        <v>2120.457898518747</v>
+        <v>2265.5904835978</v>
       </c>
       <c r="N29" t="n">
-        <v>2667.23671557753</v>
+        <v>2812.369300656582</v>
       </c>
       <c r="O29" t="n">
-        <v>3547.201365906984</v>
+        <v>3692.333950986037</v>
       </c>
       <c r="P29" t="n">
-        <v>4260.55645335393</v>
+        <v>4405.689038432983</v>
       </c>
       <c r="Q29" t="n">
-        <v>4719.034655862918</v>
+        <v>4653.975400188665</v>
       </c>
       <c r="R29" t="n">
         <v>4778.05172241972</v>
@@ -6516,76 +6516,76 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>970.5927724973197</v>
+        <v>3154.542034367487</v>
       </c>
       <c r="C30" t="n">
-        <v>796.1397432161928</v>
+        <v>2980.08900508636</v>
       </c>
       <c r="D30" t="n">
-        <v>647.2053335549415</v>
+        <v>2831.154595425109</v>
       </c>
       <c r="E30" t="n">
-        <v>487.9678785494859</v>
+        <v>2671.917140419653</v>
       </c>
       <c r="F30" t="n">
-        <v>341.4333205763709</v>
+        <v>2525.382582446538</v>
       </c>
       <c r="G30" t="n">
-        <v>205.070220408989</v>
+        <v>2389.019482279156</v>
       </c>
       <c r="H30" t="n">
-        <v>114.5683260468565</v>
+        <v>2298.517587917023</v>
       </c>
       <c r="I30" t="n">
-        <v>95.56103444839441</v>
+        <v>2279.510296318561</v>
       </c>
       <c r="J30" t="n">
-        <v>189.2383039390117</v>
+        <v>2373.18756580918</v>
       </c>
       <c r="K30" t="n">
-        <v>427.5025029193588</v>
+        <v>2611.451764789527</v>
       </c>
       <c r="L30" t="n">
-        <v>794.200663232024</v>
+        <v>2978.149925102192</v>
       </c>
       <c r="M30" t="n">
-        <v>1241.47698845434</v>
+        <v>3425.426250324508</v>
       </c>
       <c r="N30" t="n">
-        <v>1715.000032008794</v>
+        <v>3898.949293878963</v>
       </c>
       <c r="O30" t="n">
-        <v>2125.961311426849</v>
+        <v>4309.910573297017</v>
       </c>
       <c r="P30" t="n">
-        <v>2436.460902902953</v>
+        <v>4620.41016477312</v>
       </c>
       <c r="Q30" t="n">
-        <v>2594.102460549552</v>
+        <v>4778.05172241972</v>
       </c>
       <c r="R30" t="n">
-        <v>2593.958107142068</v>
+        <v>4777.907369012235</v>
       </c>
       <c r="S30" t="n">
-        <v>2464.520220635548</v>
+        <v>4648.469482505715</v>
       </c>
       <c r="T30" t="n">
-        <v>2271.877220313403</v>
+        <v>4455.82648218357</v>
       </c>
       <c r="U30" t="n">
-        <v>2043.809373447819</v>
+        <v>4227.758635317986</v>
       </c>
       <c r="V30" t="n">
-        <v>1808.657265216076</v>
+        <v>3992.606527086243</v>
       </c>
       <c r="W30" t="n">
-        <v>1554.419908487874</v>
+        <v>3738.369170358042</v>
       </c>
       <c r="X30" t="n">
-        <v>1346.568408282342</v>
+        <v>3530.517670152509</v>
       </c>
       <c r="Y30" t="n">
-        <v>1138.808109517388</v>
+        <v>3322.757371387555</v>
       </c>
     </row>
     <row r="31">
@@ -6595,76 +6595,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>1023.336921276364</v>
+        <v>3694.928538179046</v>
       </c>
       <c r="C31" t="n">
-        <v>854.4007383484569</v>
+        <v>3525.992355251139</v>
       </c>
       <c r="D31" t="n">
-        <v>704.2840989361212</v>
+        <v>3525.992355251139</v>
       </c>
       <c r="E31" t="n">
-        <v>556.371005353728</v>
+        <v>3378.079261668745</v>
       </c>
       <c r="F31" t="n">
-        <v>409.4810578558177</v>
+        <v>3231.189314170835</v>
       </c>
       <c r="G31" t="n">
-        <v>241.7782212305366</v>
+        <v>3063.486477545554</v>
       </c>
       <c r="H31" t="n">
-        <v>95.56103444839441</v>
+        <v>2917.269290763412</v>
       </c>
       <c r="I31" t="n">
-        <v>95.56103444839441</v>
+        <v>2917.269290763412</v>
       </c>
       <c r="J31" t="n">
-        <v>140.6836668953299</v>
+        <v>2962.391923210347</v>
       </c>
       <c r="K31" t="n">
-        <v>344.6708498442063</v>
+        <v>3166.379106159223</v>
       </c>
       <c r="L31" t="n">
-        <v>661.2306482927024</v>
+        <v>3482.938904607719</v>
       </c>
       <c r="M31" t="n">
-        <v>1005.387693892251</v>
+        <v>3827.095950207268</v>
       </c>
       <c r="N31" t="n">
-        <v>1346.796070598116</v>
+        <v>4168.504326913133</v>
       </c>
       <c r="O31" t="n">
-        <v>1646.125669518529</v>
+        <v>4467.833925833546</v>
       </c>
       <c r="P31" t="n">
-        <v>1878.733169952189</v>
+        <v>4700.441426267205</v>
       </c>
       <c r="Q31" t="n">
-        <v>1956.343466104703</v>
+        <v>4778.05172241972</v>
       </c>
       <c r="R31" t="n">
-        <v>1866.513008862231</v>
+        <v>4688.221265177248</v>
       </c>
       <c r="S31" t="n">
-        <v>1674.827124689057</v>
+        <v>4496.535381004074</v>
       </c>
       <c r="T31" t="n">
-        <v>1674.827124689057</v>
+        <v>4274.7687655736</v>
       </c>
       <c r="U31" t="n">
-        <v>1494.402556143564</v>
+        <v>4274.7687655736</v>
       </c>
       <c r="V31" t="n">
-        <v>1494.402556143564</v>
+        <v>4274.7687655736</v>
       </c>
       <c r="W31" t="n">
-        <v>1204.985386106604</v>
+        <v>4104.566553907302</v>
       </c>
       <c r="X31" t="n">
-        <v>1204.985386106604</v>
+        <v>3876.577003009285</v>
       </c>
       <c r="Y31" t="n">
-        <v>1204.985386106604</v>
+        <v>3876.577003009285</v>
       </c>
     </row>
     <row r="32">
@@ -6674,34 +6674,34 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>2374.216356690175</v>
+        <v>2374.216356690176</v>
       </c>
       <c r="C32" t="n">
-        <v>2005.253839749763</v>
+        <v>2005.253839749765</v>
       </c>
       <c r="D32" t="n">
-        <v>1646.988141143013</v>
+        <v>1646.988141143015</v>
       </c>
       <c r="E32" t="n">
-        <v>1261.199888544769</v>
+        <v>1261.199888544771</v>
       </c>
       <c r="F32" t="n">
-        <v>850.2139837551617</v>
+        <v>850.2139837551626</v>
       </c>
       <c r="G32" t="n">
-        <v>435.1415336001583</v>
+        <v>435.1415336001592</v>
       </c>
       <c r="H32" t="n">
-        <v>137.5579332089255</v>
+        <v>137.5579332089264</v>
       </c>
       <c r="I32" t="n">
-        <v>95.56103444839441</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="J32" t="n">
         <v>284.4401654074198</v>
       </c>
       <c r="K32" t="n">
-        <v>939.1634975427191</v>
+        <v>939.1634975427193</v>
       </c>
       <c r="L32" t="n">
         <v>1390.197710791128</v>
@@ -6710,40 +6710,40 @@
         <v>2368.748013620956</v>
       </c>
       <c r="N32" t="n">
-        <v>2915.526830679738</v>
+        <v>2915.526830679739</v>
       </c>
       <c r="O32" t="n">
-        <v>3482.142110232731</v>
+        <v>3795.491481009194</v>
       </c>
       <c r="P32" t="n">
-        <v>4195.497197679677</v>
+        <v>4195.497197679678</v>
       </c>
       <c r="Q32" t="n">
-        <v>4653.975400188665</v>
+        <v>4653.975400188666</v>
       </c>
       <c r="R32" t="n">
-        <v>4778.05172241972</v>
+        <v>4778.051722419721</v>
       </c>
       <c r="S32" t="n">
-        <v>4667.761053946815</v>
+        <v>4667.761053946816</v>
       </c>
       <c r="T32" t="n">
-        <v>4461.783306331037</v>
+        <v>4461.783306331038</v>
       </c>
       <c r="U32" t="n">
-        <v>4208.252829604873</v>
+        <v>4208.252829604875</v>
       </c>
       <c r="V32" t="n">
-        <v>3877.189942261302</v>
+        <v>3877.189942261304</v>
       </c>
       <c r="W32" t="n">
-        <v>3524.421286991188</v>
+        <v>3524.42128699119</v>
       </c>
       <c r="X32" t="n">
-        <v>3150.955528730108</v>
+        <v>3150.95552873011</v>
       </c>
       <c r="Y32" t="n">
-        <v>2760.816196754296</v>
+        <v>2760.816196754298</v>
       </c>
     </row>
     <row r="33">
@@ -6753,76 +6753,76 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>970.5927724973197</v>
+        <v>3154.542034367488</v>
       </c>
       <c r="C33" t="n">
-        <v>796.1397432161928</v>
+        <v>2980.089005086361</v>
       </c>
       <c r="D33" t="n">
-        <v>647.2053335549415</v>
+        <v>2831.15459542511</v>
       </c>
       <c r="E33" t="n">
-        <v>487.9678785494859</v>
+        <v>2671.917140419654</v>
       </c>
       <c r="F33" t="n">
-        <v>341.4333205763709</v>
+        <v>2525.382582446539</v>
       </c>
       <c r="G33" t="n">
-        <v>205.070220408989</v>
+        <v>2389.019482279157</v>
       </c>
       <c r="H33" t="n">
-        <v>114.5683260468565</v>
+        <v>2298.517587917024</v>
       </c>
       <c r="I33" t="n">
-        <v>95.56103444839441</v>
+        <v>2279.510296318562</v>
       </c>
       <c r="J33" t="n">
-        <v>189.2383039390117</v>
+        <v>2373.187565809179</v>
       </c>
       <c r="K33" t="n">
-        <v>427.5025029193588</v>
+        <v>2611.451764789526</v>
       </c>
       <c r="L33" t="n">
-        <v>794.200663232024</v>
+        <v>2978.149925102191</v>
       </c>
       <c r="M33" t="n">
-        <v>1241.47698845434</v>
+        <v>3425.426250324507</v>
       </c>
       <c r="N33" t="n">
-        <v>1715.000032008794</v>
+        <v>3898.949293878962</v>
       </c>
       <c r="O33" t="n">
-        <v>2125.961311426849</v>
+        <v>4309.910573297018</v>
       </c>
       <c r="P33" t="n">
-        <v>2436.460902902953</v>
+        <v>4620.410164773121</v>
       </c>
       <c r="Q33" t="n">
-        <v>2594.102460549552</v>
+        <v>4778.051722419721</v>
       </c>
       <c r="R33" t="n">
-        <v>2593.958107142068</v>
+        <v>4777.907369012236</v>
       </c>
       <c r="S33" t="n">
-        <v>2464.520220635548</v>
+        <v>4648.469482505716</v>
       </c>
       <c r="T33" t="n">
-        <v>2271.877220313403</v>
+        <v>4455.826482183571</v>
       </c>
       <c r="U33" t="n">
-        <v>2043.809373447819</v>
+        <v>4227.758635317987</v>
       </c>
       <c r="V33" t="n">
-        <v>1808.657265216076</v>
+        <v>3992.606527086244</v>
       </c>
       <c r="W33" t="n">
-        <v>1554.419908487874</v>
+        <v>3738.369170358043</v>
       </c>
       <c r="X33" t="n">
-        <v>1346.568408282342</v>
+        <v>3530.51767015251</v>
       </c>
       <c r="Y33" t="n">
-        <v>1138.808109517388</v>
+        <v>3322.757371387556</v>
       </c>
     </row>
     <row r="34">
@@ -6832,31 +6832,31 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>432.2000540015823</v>
+        <v>655.9531749224914</v>
       </c>
       <c r="C34" t="n">
-        <v>263.2638710736754</v>
+        <v>487.0169919945844</v>
       </c>
       <c r="D34" t="n">
-        <v>263.2638710736754</v>
+        <v>487.0169919945844</v>
       </c>
       <c r="E34" t="n">
-        <v>263.2638710736754</v>
+        <v>339.1038984121913</v>
       </c>
       <c r="F34" t="n">
-        <v>263.2638710736754</v>
+        <v>339.1038984121913</v>
       </c>
       <c r="G34" t="n">
-        <v>95.56103444839441</v>
+        <v>339.1038984121913</v>
       </c>
       <c r="H34" t="n">
-        <v>95.56103444839441</v>
+        <v>192.8867116300491</v>
       </c>
       <c r="I34" t="n">
-        <v>95.56103444839441</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="J34" t="n">
-        <v>140.6836668953299</v>
+        <v>140.68366689533</v>
       </c>
       <c r="K34" t="n">
         <v>344.6708498442063</v>
@@ -6886,22 +6886,22 @@
         <v>1956.343466104703</v>
       </c>
       <c r="T34" t="n">
-        <v>1734.576850674229</v>
+        <v>1956.343466104703</v>
       </c>
       <c r="U34" t="n">
-        <v>1445.473983799873</v>
+        <v>1830.485428037126</v>
       </c>
       <c r="V34" t="n">
-        <v>1190.789495593986</v>
+        <v>1575.800939831239</v>
       </c>
       <c r="W34" t="n">
-        <v>1062.630648873369</v>
+        <v>1286.383769794279</v>
       </c>
       <c r="X34" t="n">
-        <v>834.6410979753522</v>
+        <v>1058.394218896261</v>
       </c>
       <c r="Y34" t="n">
-        <v>613.848518831822</v>
+        <v>837.6016397527311</v>
       </c>
     </row>
     <row r="35">
@@ -6914,58 +6914,58 @@
         <v>2374.216356690176</v>
       </c>
       <c r="C35" t="n">
-        <v>2005.253839749765</v>
+        <v>2005.253839749764</v>
       </c>
       <c r="D35" t="n">
         <v>1646.988141143014</v>
       </c>
       <c r="E35" t="n">
-        <v>1261.19988854477</v>
+        <v>1261.199888544769</v>
       </c>
       <c r="F35" t="n">
-        <v>850.2139837551622</v>
+        <v>850.213983755162</v>
       </c>
       <c r="G35" t="n">
-        <v>435.1415336001587</v>
+        <v>435.1415336001585</v>
       </c>
       <c r="H35" t="n">
-        <v>137.5579332089258</v>
+        <v>137.5579332089257</v>
       </c>
       <c r="I35" t="n">
-        <v>95.56103444839444</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="J35" t="n">
         <v>451.8458144277728</v>
       </c>
       <c r="K35" t="n">
-        <v>1106.569146563072</v>
+        <v>901.0652231938168</v>
       </c>
       <c r="L35" t="n">
-        <v>1898.85891762269</v>
+        <v>1352.099436442225</v>
       </c>
       <c r="M35" t="n">
-        <v>2432.390822294614</v>
+        <v>2330.649739272054</v>
       </c>
       <c r="N35" t="n">
-        <v>2979.169639353396</v>
+        <v>2877.428556330836</v>
       </c>
       <c r="O35" t="n">
-        <v>3482.142110232733</v>
+        <v>3757.393206660291</v>
       </c>
       <c r="P35" t="n">
-        <v>4195.497197679679</v>
+        <v>4470.748294107237</v>
       </c>
       <c r="Q35" t="n">
-        <v>4653.975400188667</v>
+        <v>4719.034655862919</v>
       </c>
       <c r="R35" t="n">
-        <v>4778.051722419722</v>
+        <v>4778.051722419721</v>
       </c>
       <c r="S35" t="n">
         <v>4667.761053946817</v>
       </c>
       <c r="T35" t="n">
-        <v>4461.783306331039</v>
+        <v>4461.783306331038</v>
       </c>
       <c r="U35" t="n">
         <v>4208.252829604875</v>
@@ -6974,7 +6974,7 @@
         <v>3877.189942261304</v>
       </c>
       <c r="W35" t="n">
-        <v>3524.42128699119</v>
+        <v>3524.421286991189</v>
       </c>
       <c r="X35" t="n">
         <v>3150.95552873011</v>
@@ -6990,76 +6990,76 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>970.5927724973197</v>
+        <v>3154.542034367488</v>
       </c>
       <c r="C36" t="n">
-        <v>796.1397432161928</v>
+        <v>2980.089005086361</v>
       </c>
       <c r="D36" t="n">
-        <v>647.2053335549415</v>
+        <v>2831.15459542511</v>
       </c>
       <c r="E36" t="n">
-        <v>487.9678785494859</v>
+        <v>2671.917140419654</v>
       </c>
       <c r="F36" t="n">
-        <v>341.4333205763709</v>
+        <v>2525.382582446539</v>
       </c>
       <c r="G36" t="n">
-        <v>205.070220408989</v>
+        <v>2389.019482279157</v>
       </c>
       <c r="H36" t="n">
-        <v>114.5683260468565</v>
+        <v>2298.517587917024</v>
       </c>
       <c r="I36" t="n">
-        <v>95.56103444839444</v>
+        <v>2279.510296318562</v>
       </c>
       <c r="J36" t="n">
-        <v>189.2383039390117</v>
+        <v>2373.187565809179</v>
       </c>
       <c r="K36" t="n">
-        <v>427.5025029193588</v>
+        <v>2611.451764789526</v>
       </c>
       <c r="L36" t="n">
-        <v>794.200663232024</v>
+        <v>2978.149925102191</v>
       </c>
       <c r="M36" t="n">
-        <v>1241.47698845434</v>
+        <v>3425.426250324507</v>
       </c>
       <c r="N36" t="n">
-        <v>1715.000032008794</v>
+        <v>3898.949293878962</v>
       </c>
       <c r="O36" t="n">
-        <v>2125.961311426849</v>
+        <v>4309.910573297018</v>
       </c>
       <c r="P36" t="n">
-        <v>2436.460902902953</v>
+        <v>4620.410164773121</v>
       </c>
       <c r="Q36" t="n">
-        <v>2594.102460549552</v>
+        <v>4778.051722419721</v>
       </c>
       <c r="R36" t="n">
-        <v>2593.958107142068</v>
+        <v>4777.907369012236</v>
       </c>
       <c r="S36" t="n">
-        <v>2464.520220635548</v>
+        <v>4648.469482505716</v>
       </c>
       <c r="T36" t="n">
-        <v>2271.877220313403</v>
+        <v>4455.826482183571</v>
       </c>
       <c r="U36" t="n">
-        <v>2043.809373447819</v>
+        <v>4227.758635317987</v>
       </c>
       <c r="V36" t="n">
-        <v>1808.657265216076</v>
+        <v>3992.606527086244</v>
       </c>
       <c r="W36" t="n">
-        <v>1554.419908487874</v>
+        <v>3738.369170358043</v>
       </c>
       <c r="X36" t="n">
-        <v>1346.568408282342</v>
+        <v>3530.51767015251</v>
       </c>
       <c r="Y36" t="n">
-        <v>1138.808109517388</v>
+        <v>3322.757371387556</v>
       </c>
     </row>
     <row r="37">
@@ -7069,76 +7069,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>1120.662598458018</v>
+        <v>3627.217485062988</v>
       </c>
       <c r="C37" t="n">
-        <v>951.7264155301116</v>
+        <v>3627.217485062988</v>
       </c>
       <c r="D37" t="n">
-        <v>801.6097761177758</v>
+        <v>3477.100845650652</v>
       </c>
       <c r="E37" t="n">
-        <v>653.6966825353827</v>
+        <v>3329.187752068259</v>
       </c>
       <c r="F37" t="n">
-        <v>506.8067350374723</v>
+        <v>3182.297804570348</v>
       </c>
       <c r="G37" t="n">
-        <v>339.1038984121913</v>
+        <v>3014.594967945067</v>
       </c>
       <c r="H37" t="n">
-        <v>192.8867116300491</v>
+        <v>3014.594967945067</v>
       </c>
       <c r="I37" t="n">
-        <v>95.56103444839444</v>
+        <v>2917.269290763413</v>
       </c>
       <c r="J37" t="n">
-        <v>140.68366689533</v>
+        <v>2962.391923210348</v>
       </c>
       <c r="K37" t="n">
-        <v>344.6708498442063</v>
+        <v>3166.379106159224</v>
       </c>
       <c r="L37" t="n">
-        <v>661.2306482927024</v>
+        <v>3482.93890460772</v>
       </c>
       <c r="M37" t="n">
-        <v>1005.387693892251</v>
+        <v>3827.095950207269</v>
       </c>
       <c r="N37" t="n">
-        <v>1346.796070598116</v>
+        <v>4168.504326913134</v>
       </c>
       <c r="O37" t="n">
-        <v>1646.125669518529</v>
+        <v>4467.833925833547</v>
       </c>
       <c r="P37" t="n">
-        <v>1878.733169952189</v>
+        <v>4700.441426267206</v>
       </c>
       <c r="Q37" t="n">
-        <v>1956.343466104703</v>
+        <v>4778.051722419721</v>
       </c>
       <c r="R37" t="n">
-        <v>1936.556142035436</v>
+        <v>4688.221265177249</v>
       </c>
       <c r="S37" t="n">
-        <v>1744.870257862262</v>
+        <v>4587.18340057197</v>
       </c>
       <c r="T37" t="n">
-        <v>1523.103642431788</v>
+        <v>4365.416785141496</v>
       </c>
       <c r="U37" t="n">
-        <v>1523.103642431788</v>
+        <v>4365.416785141496</v>
       </c>
       <c r="V37" t="n">
-        <v>1523.103642431788</v>
+        <v>4365.416785141496</v>
       </c>
       <c r="W37" t="n">
-        <v>1523.103642431788</v>
+        <v>4075.999615104535</v>
       </c>
       <c r="X37" t="n">
-        <v>1523.103642431788</v>
+        <v>3848.010064206518</v>
       </c>
       <c r="Y37" t="n">
-        <v>1302.311063288258</v>
+        <v>3627.217485062988</v>
       </c>
     </row>
     <row r="38">
@@ -7151,58 +7151,58 @@
         <v>2374.216356690176</v>
       </c>
       <c r="C38" t="n">
-        <v>2005.253839749765</v>
+        <v>2005.253839749764</v>
       </c>
       <c r="D38" t="n">
         <v>1646.988141143014</v>
       </c>
       <c r="E38" t="n">
-        <v>1261.19988854477</v>
+        <v>1261.199888544769</v>
       </c>
       <c r="F38" t="n">
-        <v>850.2139837551622</v>
+        <v>850.213983755162</v>
       </c>
       <c r="G38" t="n">
-        <v>435.1415336001586</v>
+        <v>435.1415336001585</v>
       </c>
       <c r="H38" t="n">
         <v>137.5579332089257</v>
       </c>
       <c r="I38" t="n">
-        <v>95.56103444839444</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="J38" t="n">
-        <v>451.8458144277728</v>
+        <v>284.4401654074198</v>
       </c>
       <c r="K38" t="n">
-        <v>785.6651881176192</v>
+        <v>618.2595390972663</v>
       </c>
       <c r="L38" t="n">
-        <v>1236.699401366028</v>
+        <v>1407.474004094474</v>
       </c>
       <c r="M38" t="n">
-        <v>1770.231306037952</v>
+        <v>1941.005908766399</v>
       </c>
       <c r="N38" t="n">
-        <v>2749.983578264599</v>
+        <v>2920.758180993045</v>
       </c>
       <c r="O38" t="n">
-        <v>3482.142110232733</v>
+        <v>3800.7228313225</v>
       </c>
       <c r="P38" t="n">
-        <v>4195.497197679679</v>
+        <v>4195.497197679678</v>
       </c>
       <c r="Q38" t="n">
-        <v>4653.975400188667</v>
+        <v>4653.975400188666</v>
       </c>
       <c r="R38" t="n">
-        <v>4778.051722419722</v>
+        <v>4778.051722419721</v>
       </c>
       <c r="S38" t="n">
-        <v>4667.761053946817</v>
+        <v>4667.761053946816</v>
       </c>
       <c r="T38" t="n">
-        <v>4461.783306331039</v>
+        <v>4461.783306331038</v>
       </c>
       <c r="U38" t="n">
         <v>4208.252829604875</v>
@@ -7211,7 +7211,7 @@
         <v>3877.189942261304</v>
       </c>
       <c r="W38" t="n">
-        <v>3524.42128699119</v>
+        <v>3524.421286991189</v>
       </c>
       <c r="X38" t="n">
         <v>3150.95552873011</v>
@@ -7248,16 +7248,16 @@
         <v>114.5683260468565</v>
       </c>
       <c r="I39" t="n">
-        <v>95.56103444839444</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="J39" t="n">
-        <v>189.2383039390117</v>
+        <v>189.2383039390123</v>
       </c>
       <c r="K39" t="n">
-        <v>427.5025029193588</v>
+        <v>427.5025029193594</v>
       </c>
       <c r="L39" t="n">
-        <v>794.200663232024</v>
+        <v>794.2006632320247</v>
       </c>
       <c r="M39" t="n">
         <v>1241.47698845434</v>
@@ -7306,28 +7306,28 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>1120.662598458018</v>
+        <v>974.4454116758762</v>
       </c>
       <c r="C40" t="n">
-        <v>951.7264155301116</v>
+        <v>805.5092287479694</v>
       </c>
       <c r="D40" t="n">
-        <v>801.6097761177758</v>
+        <v>655.3925893356336</v>
       </c>
       <c r="E40" t="n">
-        <v>653.6966825353827</v>
+        <v>507.4794957532405</v>
       </c>
       <c r="F40" t="n">
-        <v>506.8067350374723</v>
+        <v>360.5895482553301</v>
       </c>
       <c r="G40" t="n">
-        <v>339.1038984121913</v>
+        <v>192.8867116300491</v>
       </c>
       <c r="H40" t="n">
         <v>192.8867116300491</v>
       </c>
       <c r="I40" t="n">
-        <v>95.56103444839444</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="J40" t="n">
         <v>140.68366689533</v>
@@ -7354,28 +7354,28 @@
         <v>1956.343466104703</v>
       </c>
       <c r="R40" t="n">
-        <v>1866.513008862231</v>
+        <v>1956.343466104703</v>
       </c>
       <c r="S40" t="n">
-        <v>1674.827124689057</v>
+        <v>1764.657581931529</v>
       </c>
       <c r="T40" t="n">
-        <v>1523.103642431788</v>
+        <v>1764.657581931529</v>
       </c>
       <c r="U40" t="n">
-        <v>1523.103642431788</v>
+        <v>1764.657581931529</v>
       </c>
       <c r="V40" t="n">
-        <v>1523.103642431788</v>
+        <v>1509.973093725642</v>
       </c>
       <c r="W40" t="n">
-        <v>1523.103642431788</v>
+        <v>1376.886455649646</v>
       </c>
       <c r="X40" t="n">
-        <v>1523.103642431788</v>
+        <v>1376.886455649646</v>
       </c>
       <c r="Y40" t="n">
-        <v>1302.311063288258</v>
+        <v>1156.093876506116</v>
       </c>
     </row>
     <row r="41">
@@ -7385,76 +7385,76 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>2374.216356690176</v>
+        <v>2374.216356690175</v>
       </c>
       <c r="C41" t="n">
-        <v>2005.253839749764</v>
+        <v>2005.253839749763</v>
       </c>
       <c r="D41" t="n">
-        <v>1646.988141143014</v>
+        <v>1646.988141143013</v>
       </c>
       <c r="E41" t="n">
         <v>1261.199888544769</v>
       </c>
       <c r="F41" t="n">
-        <v>850.213983755162</v>
+        <v>850.2139837551613</v>
       </c>
       <c r="G41" t="n">
-        <v>435.1415336001585</v>
+        <v>435.1415336001587</v>
       </c>
       <c r="H41" t="n">
         <v>137.5579332089257</v>
       </c>
       <c r="I41" t="n">
-        <v>95.56103444839444</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="J41" t="n">
-        <v>451.8458144277728</v>
+        <v>284.4401654074198</v>
       </c>
       <c r="K41" t="n">
-        <v>1002.806306216377</v>
+        <v>618.2595390972663</v>
       </c>
       <c r="L41" t="n">
-        <v>1453.840519464785</v>
+        <v>1482.778354750621</v>
       </c>
       <c r="M41" t="n">
-        <v>2432.390822294614</v>
+        <v>2461.328657580449</v>
       </c>
       <c r="N41" t="n">
-        <v>2979.169639353396</v>
+        <v>3297.750360443163</v>
       </c>
       <c r="O41" t="n">
-        <v>3482.142110232733</v>
+        <v>3800.7228313225</v>
       </c>
       <c r="P41" t="n">
-        <v>4195.497197679679</v>
+        <v>4195.497197679678</v>
       </c>
       <c r="Q41" t="n">
-        <v>4653.975400188667</v>
+        <v>4653.975400188666</v>
       </c>
       <c r="R41" t="n">
-        <v>4778.051722419722</v>
+        <v>4778.051722419721</v>
       </c>
       <c r="S41" t="n">
-        <v>4667.761053946817</v>
+        <v>4667.761053946815</v>
       </c>
       <c r="T41" t="n">
         <v>4461.783306331037</v>
       </c>
       <c r="U41" t="n">
-        <v>4208.252829604874</v>
+        <v>4208.252829604873</v>
       </c>
       <c r="V41" t="n">
-        <v>3877.189942261304</v>
+        <v>3877.189942261302</v>
       </c>
       <c r="W41" t="n">
-        <v>3524.421286991189</v>
+        <v>3524.421286991188</v>
       </c>
       <c r="X41" t="n">
-        <v>3150.95552873011</v>
+        <v>3150.955528730108</v>
       </c>
       <c r="Y41" t="n">
-        <v>2760.816196754298</v>
+        <v>2760.816196754296</v>
       </c>
     </row>
     <row r="42">
@@ -7485,22 +7485,22 @@
         <v>114.5683260468565</v>
       </c>
       <c r="I42" t="n">
-        <v>95.56103444839444</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="J42" t="n">
-        <v>189.2383039390117</v>
+        <v>189.2383039390123</v>
       </c>
       <c r="K42" t="n">
-        <v>427.5025029193588</v>
+        <v>427.5025029193594</v>
       </c>
       <c r="L42" t="n">
-        <v>794.200663232024</v>
+        <v>794.2006632320247</v>
       </c>
       <c r="M42" t="n">
         <v>1241.47698845434</v>
       </c>
       <c r="N42" t="n">
-        <v>1715.000032008794</v>
+        <v>1715.000032008795</v>
       </c>
       <c r="O42" t="n">
         <v>2125.96131142685</v>
@@ -7543,28 +7543,28 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>432.2000540015824</v>
+        <v>658.8294814682021</v>
       </c>
       <c r="C43" t="n">
-        <v>263.2638710736755</v>
+        <v>489.8932985402952</v>
       </c>
       <c r="D43" t="n">
-        <v>263.2638710736755</v>
+        <v>339.7766591279594</v>
       </c>
       <c r="E43" t="n">
-        <v>263.2638710736755</v>
+        <v>339.7766591279594</v>
       </c>
       <c r="F43" t="n">
-        <v>263.2638710736755</v>
+        <v>192.8867116300491</v>
       </c>
       <c r="G43" t="n">
-        <v>95.56103444839444</v>
+        <v>192.8867116300491</v>
       </c>
       <c r="H43" t="n">
-        <v>95.56103444839444</v>
+        <v>192.8867116300491</v>
       </c>
       <c r="I43" t="n">
-        <v>95.56103444839444</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="J43" t="n">
         <v>140.68366689533</v>
@@ -7576,43 +7576,43 @@
         <v>661.2306482927024</v>
       </c>
       <c r="M43" t="n">
-        <v>1005.387693892248</v>
+        <v>1005.387693892251</v>
       </c>
       <c r="N43" t="n">
-        <v>1346.796070598113</v>
+        <v>1346.796070598116</v>
       </c>
       <c r="O43" t="n">
-        <v>1646.125669518527</v>
+        <v>1646.125669518529</v>
       </c>
       <c r="P43" t="n">
-        <v>1878.733169952186</v>
+        <v>1878.733169952189</v>
       </c>
       <c r="Q43" t="n">
-        <v>1956.3434661047</v>
+        <v>1956.343466104703</v>
       </c>
       <c r="R43" t="n">
-        <v>1956.3434661047</v>
+        <v>1866.513008862231</v>
       </c>
       <c r="S43" t="n">
-        <v>1764.657581931527</v>
+        <v>1674.827124689057</v>
       </c>
       <c r="T43" t="n">
-        <v>1542.890966501053</v>
+        <v>1453.060509258583</v>
       </c>
       <c r="U43" t="n">
-        <v>1378.7427562182</v>
+        <v>1453.060509258583</v>
       </c>
       <c r="V43" t="n">
-        <v>1124.058268012313</v>
+        <v>1453.060509258583</v>
       </c>
       <c r="W43" t="n">
-        <v>834.6410979753523</v>
+        <v>1163.643339221623</v>
       </c>
       <c r="X43" t="n">
-        <v>834.6410979753523</v>
+        <v>935.6537883236053</v>
       </c>
       <c r="Y43" t="n">
-        <v>613.8485188318222</v>
+        <v>840.4779462984418</v>
       </c>
     </row>
     <row r="44">
@@ -7622,7 +7622,7 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>2374.216356690175</v>
+        <v>2374.216356690176</v>
       </c>
       <c r="C44" t="n">
         <v>2005.253839749764</v>
@@ -7634,7 +7634,7 @@
         <v>1261.19988854477</v>
       </c>
       <c r="F44" t="n">
-        <v>850.2139837551625</v>
+        <v>850.2139837551621</v>
       </c>
       <c r="G44" t="n">
         <v>435.1415336001585</v>
@@ -7646,22 +7646,22 @@
         <v>95.56103444839442</v>
       </c>
       <c r="J44" t="n">
-        <v>451.8458144277728</v>
+        <v>284.4401654074198</v>
       </c>
       <c r="K44" t="n">
-        <v>785.6651881176192</v>
+        <v>939.1634975427193</v>
       </c>
       <c r="L44" t="n">
-        <v>1236.699401366028</v>
+        <v>1803.682313196074</v>
       </c>
       <c r="M44" t="n">
-        <v>2215.249704195856</v>
+        <v>2337.214217867998</v>
       </c>
       <c r="N44" t="n">
-        <v>3195.001976422503</v>
+        <v>2985.817436667298</v>
       </c>
       <c r="O44" t="n">
-        <v>3697.97444730184</v>
+        <v>3865.782086996753</v>
       </c>
       <c r="P44" t="n">
         <v>4260.556453353931</v>
@@ -7679,19 +7679,19 @@
         <v>4461.783306331038</v>
       </c>
       <c r="U44" t="n">
-        <v>4208.252829604874</v>
+        <v>4208.252829604875</v>
       </c>
       <c r="V44" t="n">
-        <v>3877.189942261303</v>
+        <v>3877.189942261304</v>
       </c>
       <c r="W44" t="n">
-        <v>3524.421286991189</v>
+        <v>3524.42128699119</v>
       </c>
       <c r="X44" t="n">
-        <v>3150.955528730109</v>
+        <v>3150.95552873011</v>
       </c>
       <c r="Y44" t="n">
-        <v>2760.816196754297</v>
+        <v>2760.816196754298</v>
       </c>
     </row>
     <row r="45">
@@ -7731,19 +7731,19 @@
         <v>427.5025029193588</v>
       </c>
       <c r="L45" t="n">
-        <v>794.200663232024</v>
+        <v>794.2006632320247</v>
       </c>
       <c r="M45" t="n">
         <v>1241.47698845434</v>
       </c>
       <c r="N45" t="n">
-        <v>1715.000032008794</v>
+        <v>1715.000032008795</v>
       </c>
       <c r="O45" t="n">
-        <v>2125.961311426849</v>
+        <v>2125.96131142685</v>
       </c>
       <c r="P45" t="n">
-        <v>2436.460902902952</v>
+        <v>2436.460902902953</v>
       </c>
       <c r="Q45" t="n">
         <v>2594.102460549552</v>
@@ -7780,76 +7780,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>3435.341304988854</v>
+        <v>822.6328654632896</v>
       </c>
       <c r="C46" t="n">
-        <v>3381.97871429894</v>
+        <v>653.6966825353827</v>
       </c>
       <c r="D46" t="n">
-        <v>3231.862074886604</v>
+        <v>653.6966825353827</v>
       </c>
       <c r="E46" t="n">
-        <v>3231.862074886604</v>
+        <v>653.6966825353827</v>
       </c>
       <c r="F46" t="n">
-        <v>3084.972127388694</v>
+        <v>506.8067350374723</v>
       </c>
       <c r="G46" t="n">
-        <v>2917.269290763413</v>
+        <v>339.1038984121913</v>
       </c>
       <c r="H46" t="n">
-        <v>2917.269290763413</v>
+        <v>192.8867116300491</v>
       </c>
       <c r="I46" t="n">
-        <v>2917.269290763413</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="J46" t="n">
-        <v>2962.391923210348</v>
+        <v>140.68366689533</v>
       </c>
       <c r="K46" t="n">
-        <v>3166.379106159224</v>
+        <v>344.6708498442063</v>
       </c>
       <c r="L46" t="n">
-        <v>3482.93890460772</v>
+        <v>661.2306482927024</v>
       </c>
       <c r="M46" t="n">
-        <v>3827.095950207269</v>
+        <v>1005.387693892251</v>
       </c>
       <c r="N46" t="n">
-        <v>4168.504326913134</v>
+        <v>1346.796070598116</v>
       </c>
       <c r="O46" t="n">
-        <v>4467.833925833547</v>
+        <v>1646.125669518529</v>
       </c>
       <c r="P46" t="n">
-        <v>4700.441426267206</v>
+        <v>1878.733169952189</v>
       </c>
       <c r="Q46" t="n">
-        <v>4778.051722419721</v>
+        <v>1956.343466104703</v>
       </c>
       <c r="R46" t="n">
-        <v>4688.221265177249</v>
+        <v>1956.343466104703</v>
       </c>
       <c r="S46" t="n">
-        <v>4496.535381004075</v>
+        <v>1929.514563971438</v>
       </c>
       <c r="T46" t="n">
-        <v>4496.535381004075</v>
+        <v>1707.747948540964</v>
       </c>
       <c r="U46" t="n">
-        <v>4207.432514129719</v>
+        <v>1707.747948540964</v>
       </c>
       <c r="V46" t="n">
-        <v>3952.748025923832</v>
+        <v>1453.063460335077</v>
       </c>
       <c r="W46" t="n">
-        <v>3663.330855886871</v>
+        <v>1453.063460335077</v>
       </c>
       <c r="X46" t="n">
-        <v>3435.341304988854</v>
+        <v>1225.073909437059</v>
       </c>
       <c r="Y46" t="n">
-        <v>3435.341304988854</v>
+        <v>1004.281330293529</v>
       </c>
     </row>
   </sheetData>
@@ -8055,7 +8055,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J3" t="n">
-        <v>126.0910353404088</v>
+        <v>50.07369958270192</v>
       </c>
       <c r="K3" t="n">
         <v>264.4652370125786</v>
@@ -8067,7 +8067,7 @@
         <v>465.7050637499999</v>
       </c>
       <c r="N3" t="n">
-        <v>479.3423743435536</v>
+        <v>435.9238900028825</v>
       </c>
       <c r="O3" t="n">
         <v>393.8623192767295</v>
@@ -8076,7 +8076,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q3" t="n">
-        <v>90.64146763747121</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R3" t="n">
         <v>45.52166981132082</v>
@@ -8213,16 +8213,16 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>169.0966151720738</v>
+        <v>0</v>
       </c>
       <c r="K5" t="n">
-        <v>324.1454125711647</v>
+        <v>0</v>
       </c>
       <c r="L5" t="n">
         <v>417.6612145504504</v>
       </c>
       <c r="M5" t="n">
-        <v>449.5135334928325</v>
+        <v>272.2392673807315</v>
       </c>
       <c r="N5" t="n">
         <v>437.3469244119842</v>
@@ -8231,7 +8231,7 @@
         <v>380.8001812627454</v>
       </c>
       <c r="P5" t="n">
-        <v>321.7987081714826</v>
+        <v>0</v>
       </c>
       <c r="Q5" t="n">
         <v>212.3149906599047</v>
@@ -8292,7 +8292,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J6" t="n">
-        <v>50.07369958270195</v>
+        <v>6.233205181928369</v>
       </c>
       <c r="K6" t="n">
         <v>264.4652370125786</v>
@@ -8301,19 +8301,19 @@
         <v>370.8403453034592</v>
       </c>
       <c r="M6" t="n">
-        <v>465.7050637499999</v>
+        <v>0</v>
       </c>
       <c r="N6" t="n">
-        <v>435.923890002883</v>
+        <v>473.6238973478236</v>
       </c>
       <c r="O6" t="n">
-        <v>393.8623192767295</v>
+        <v>298.2791459958705</v>
       </c>
       <c r="P6" t="n">
         <v>318.4627686399372</v>
       </c>
       <c r="Q6" t="n">
-        <v>210.0772877358491</v>
+        <v>0</v>
       </c>
       <c r="R6" t="n">
         <v>45.52166981132082</v>
@@ -8450,22 +8450,22 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>148.2422363886229</v>
+        <v>0</v>
       </c>
       <c r="K8" t="n">
-        <v>324.1454125711647</v>
+        <v>0</v>
       </c>
       <c r="L8" t="n">
-        <v>417.6612145504504</v>
+        <v>0</v>
       </c>
       <c r="M8" t="n">
-        <v>449.5135334928325</v>
+        <v>0</v>
       </c>
       <c r="N8" t="n">
         <v>0</v>
       </c>
       <c r="O8" t="n">
-        <v>380.8001812627454</v>
+        <v>0</v>
       </c>
       <c r="P8" t="n">
         <v>0</v>
@@ -8474,7 +8474,7 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>65.71641987298243</v>
+        <v>0</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
@@ -8529,31 +8529,31 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J9" t="n">
-        <v>6.233205181928369</v>
+        <v>0</v>
       </c>
       <c r="K9" t="n">
-        <v>264.4652370125786</v>
+        <v>70.36188534987605</v>
       </c>
       <c r="L9" t="n">
-        <v>370.8403453034592</v>
+        <v>363.7626282652912</v>
       </c>
       <c r="M9" t="n">
-        <v>167.9634363311152</v>
+        <v>0</v>
       </c>
       <c r="N9" t="n">
         <v>0</v>
       </c>
       <c r="O9" t="n">
-        <v>393.8623192767295</v>
+        <v>0</v>
       </c>
       <c r="P9" t="n">
-        <v>318.4627686399372</v>
+        <v>0</v>
       </c>
       <c r="Q9" t="n">
-        <v>210.0772877358491</v>
+        <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>45.52166981132082</v>
+        <v>17.26494649393209</v>
       </c>
       <c r="S9" t="n">
         <v>0</v>
@@ -8687,22 +8687,22 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>0</v>
+        <v>169.0966151720738</v>
       </c>
       <c r="K11" t="n">
-        <v>0</v>
+        <v>324.1454125711647</v>
       </c>
       <c r="L11" t="n">
-        <v>417.6612145504504</v>
+        <v>0</v>
       </c>
       <c r="M11" t="n">
-        <v>449.5135334928325</v>
+        <v>441.4693580670879</v>
       </c>
       <c r="N11" t="n">
         <v>437.3469244119842</v>
       </c>
       <c r="O11" t="n">
-        <v>67.53663776704411</v>
+        <v>0</v>
       </c>
       <c r="P11" t="n">
         <v>0</v>
@@ -8924,28 +8924,28 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>0</v>
+        <v>169.0966151720738</v>
       </c>
       <c r="K14" t="n">
-        <v>0</v>
+        <v>324.1454125711647</v>
       </c>
       <c r="L14" t="n">
         <v>417.6612145504504</v>
       </c>
       <c r="M14" t="n">
-        <v>449.5135334928325</v>
+        <v>0</v>
       </c>
       <c r="N14" t="n">
-        <v>437.3469244119842</v>
+        <v>314.5564971416987</v>
       </c>
       <c r="O14" t="n">
-        <v>133.253057640027</v>
+        <v>0</v>
       </c>
       <c r="P14" t="n">
         <v>0</v>
       </c>
       <c r="Q14" t="n">
-        <v>0</v>
+        <v>212.3149906599047</v>
       </c>
       <c r="R14" t="n">
         <v>0</v>
@@ -9161,7 +9161,7 @@
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>169.0966151720738</v>
+        <v>0</v>
       </c>
       <c r="K17" t="n">
         <v>324.1454125711647</v>
@@ -9170,22 +9170,22 @@
         <v>0</v>
       </c>
       <c r="M17" t="n">
-        <v>449.5135334928325</v>
+        <v>132.999017557013</v>
       </c>
       <c r="N17" t="n">
         <v>0</v>
       </c>
       <c r="O17" t="n">
-        <v>0</v>
+        <v>380.8001812627454</v>
       </c>
       <c r="P17" t="n">
-        <v>282.7041781993175</v>
+        <v>321.7987081714826</v>
       </c>
       <c r="Q17" t="n">
         <v>212.3149906599047</v>
       </c>
       <c r="R17" t="n">
-        <v>0</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -9398,13 +9398,13 @@
         <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>169.0966151720738</v>
+        <v>39.48321557772746</v>
       </c>
       <c r="K20" t="n">
-        <v>324.1454125711647</v>
+        <v>0</v>
       </c>
       <c r="L20" t="n">
-        <v>0</v>
+        <v>417.6612145504504</v>
       </c>
       <c r="M20" t="n">
         <v>0</v>
@@ -9413,7 +9413,7 @@
         <v>0</v>
       </c>
       <c r="O20" t="n">
-        <v>344.7025836476862</v>
+        <v>380.8001812627454</v>
       </c>
       <c r="P20" t="n">
         <v>321.7987081714826</v>
@@ -9644,22 +9644,22 @@
         <v>417.6612145504504</v>
       </c>
       <c r="M23" t="n">
-        <v>449.5135334928325</v>
+        <v>39.48321557772726</v>
       </c>
       <c r="N23" t="n">
-        <v>437.3469244119842</v>
+        <v>0</v>
       </c>
       <c r="O23" t="n">
-        <v>133.2530576400279</v>
+        <v>380.8001812627454</v>
       </c>
       <c r="P23" t="n">
-        <v>0</v>
+        <v>321.7987081714826</v>
       </c>
       <c r="Q23" t="n">
-        <v>0</v>
+        <v>212.3149906599047</v>
       </c>
       <c r="R23" t="n">
-        <v>0</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -9738,7 +9738,7 @@
         <v>0</v>
       </c>
       <c r="R24" t="n">
-        <v>9.094947017729282e-13</v>
+        <v>0</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -9872,19 +9872,19 @@
         <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>0</v>
+        <v>169.0966151720738</v>
       </c>
       <c r="K26" t="n">
         <v>324.1454125711647</v>
       </c>
       <c r="L26" t="n">
-        <v>0</v>
+        <v>114.2189875964776</v>
       </c>
       <c r="M26" t="n">
-        <v>17.45080131650957</v>
+        <v>449.5135334928325</v>
       </c>
       <c r="N26" t="n">
-        <v>437.3469244119842</v>
+        <v>0</v>
       </c>
       <c r="O26" t="n">
         <v>380.8001812627454</v>
@@ -9893,10 +9893,10 @@
         <v>0</v>
       </c>
       <c r="Q26" t="n">
-        <v>212.3149906599047</v>
+        <v>0</v>
       </c>
       <c r="R26" t="n">
-        <v>65.71641987298243</v>
+        <v>0</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -10109,16 +10109,16 @@
         <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>169.0966151720738</v>
+        <v>0</v>
       </c>
       <c r="K29" t="n">
-        <v>324.1454125711647</v>
+        <v>251.7982062376314</v>
       </c>
       <c r="L29" t="n">
-        <v>0</v>
+        <v>417.6612145504504</v>
       </c>
       <c r="M29" t="n">
-        <v>29.61882225792124</v>
+        <v>0</v>
       </c>
       <c r="N29" t="n">
         <v>0</v>
@@ -10130,10 +10130,10 @@
         <v>321.7987081714826</v>
       </c>
       <c r="Q29" t="n">
-        <v>212.3149906599047</v>
+        <v>0</v>
       </c>
       <c r="R29" t="n">
-        <v>0</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -10361,10 +10361,10 @@
         <v>0</v>
       </c>
       <c r="O32" t="n">
-        <v>64.28566532692582</v>
+        <v>380.8001812627454</v>
       </c>
       <c r="P32" t="n">
-        <v>321.7987081714826</v>
+        <v>5.284192235662886</v>
       </c>
       <c r="Q32" t="n">
         <v>212.3149906599047</v>
@@ -10586,28 +10586,28 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K35" t="n">
-        <v>324.1454125711647</v>
+        <v>116.5656919961592</v>
       </c>
       <c r="L35" t="n">
-        <v>344.7025836476856</v>
+        <v>0</v>
       </c>
       <c r="M35" t="n">
-        <v>0</v>
+        <v>449.5135334928325</v>
       </c>
       <c r="N35" t="n">
         <v>0</v>
       </c>
       <c r="O35" t="n">
-        <v>0</v>
+        <v>380.8001812627454</v>
       </c>
       <c r="P35" t="n">
         <v>321.7987081714826</v>
       </c>
       <c r="Q35" t="n">
-        <v>212.3149906599047</v>
+        <v>0</v>
       </c>
       <c r="R35" t="n">
-        <v>65.71641987298243</v>
+        <v>0</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -10820,13 +10820,13 @@
         <v>0</v>
       </c>
       <c r="J38" t="n">
-        <v>169.0966151720738</v>
+        <v>0</v>
       </c>
       <c r="K38" t="n">
         <v>0</v>
       </c>
       <c r="L38" t="n">
-        <v>0</v>
+        <v>341.5962138876762</v>
       </c>
       <c r="M38" t="n">
         <v>0</v>
@@ -10835,10 +10835,10 @@
         <v>437.3469244119842</v>
       </c>
       <c r="O38" t="n">
-        <v>231.5010718068663</v>
+        <v>380.8001812627454</v>
       </c>
       <c r="P38" t="n">
-        <v>321.7987081714826</v>
+        <v>0</v>
       </c>
       <c r="Q38" t="n">
         <v>212.3149906599047</v>
@@ -11057,25 +11057,25 @@
         <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>169.0966151720738</v>
+        <v>0</v>
       </c>
       <c r="K41" t="n">
-        <v>219.3344627260176</v>
+        <v>0</v>
       </c>
       <c r="L41" t="n">
-        <v>0</v>
+        <v>417.6612145504504</v>
       </c>
       <c r="M41" t="n">
         <v>449.5135334928325</v>
       </c>
       <c r="N41" t="n">
-        <v>0</v>
+        <v>292.5685715191231</v>
       </c>
       <c r="O41" t="n">
         <v>0</v>
       </c>
       <c r="P41" t="n">
-        <v>321.7987081714826</v>
+        <v>0</v>
       </c>
       <c r="Q41" t="n">
         <v>212.3149906599047</v>
@@ -11294,25 +11294,25 @@
         <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>169.0966151720738</v>
+        <v>0</v>
       </c>
       <c r="K44" t="n">
-        <v>0</v>
+        <v>324.1454125711647</v>
       </c>
       <c r="L44" t="n">
-        <v>0</v>
+        <v>417.6612145504504</v>
       </c>
       <c r="M44" t="n">
-        <v>449.5135334928325</v>
+        <v>0</v>
       </c>
       <c r="N44" t="n">
-        <v>437.3469244119842</v>
+        <v>102.8529310510287</v>
       </c>
       <c r="O44" t="n">
-        <v>0</v>
+        <v>380.8001812627454</v>
       </c>
       <c r="P44" t="n">
-        <v>169.5026663584985</v>
+        <v>0</v>
       </c>
       <c r="Q44" t="n">
         <v>212.3149906599047</v>
@@ -23413,28 +23413,28 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C13" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D13" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E13" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G13" t="n">
         <v>166.0258082590282</v>
       </c>
       <c r="H13" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>96.35242040983812</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23467,13 +23467,13 @@
         <v>0</v>
       </c>
       <c r="T13" t="n">
-        <v>0</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U13" t="n">
-        <v>16.14213605696682</v>
+        <v>0</v>
       </c>
       <c r="V13" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W13" t="n">
         <v>0</v>
@@ -23482,7 +23482,7 @@
         <v>0</v>
       </c>
       <c r="Y13" t="n">
-        <v>0</v>
+        <v>64.8328303673195</v>
       </c>
     </row>
     <row r="14">
@@ -23653,25 +23653,25 @@
         <v>0</v>
       </c>
       <c r="C16" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D16" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E16" t="n">
         <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H16" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>96.35242040983812</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23698,19 +23698,19 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>88.93215267004734</v>
+        <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T16" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U16" t="n">
-        <v>286.2118382056129</v>
+        <v>177.6786129358084</v>
       </c>
       <c r="V16" t="n">
-        <v>94.35543628911145</v>
+        <v>0</v>
       </c>
       <c r="W16" t="n">
         <v>0</v>
@@ -23719,7 +23719,7 @@
         <v>0</v>
       </c>
       <c r="Y16" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="17">
@@ -23893,16 +23893,16 @@
         <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E19" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F19" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>166.0258082590282</v>
+        <v>45.41848457816066</v>
       </c>
       <c r="H19" t="n">
         <v>144.7550149143208</v>
@@ -23935,22 +23935,22 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>88.93215267004734</v>
+        <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T19" t="n">
-        <v>2.146369152343823</v>
+        <v>0</v>
       </c>
       <c r="U19" t="n">
-        <v>0</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V19" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W19" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X19" t="n">
         <v>0</v>
@@ -24124,28 +24124,28 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C22" t="n">
         <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>59.27847102149519</v>
+        <v>0</v>
       </c>
       <c r="E22" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F22" t="n">
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H22" t="n">
         <v>0</v>
       </c>
       <c r="I22" t="n">
-        <v>96.35242040983812</v>
+        <v>0</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24172,22 +24172,22 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>88.93215267004734</v>
+        <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T22" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U22" t="n">
         <v>286.2118382056129</v>
       </c>
       <c r="V22" t="n">
-        <v>0</v>
+        <v>234.7302296487409</v>
       </c>
       <c r="W22" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X22" t="n">
         <v>0</v>
@@ -24361,28 +24361,28 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C25" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D25" t="n">
         <v>0</v>
       </c>
       <c r="E25" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F25" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
-        <v>166.0258082590282</v>
+        <v>26.83633293655879</v>
       </c>
       <c r="H25" t="n">
-        <v>56.517038478399</v>
+        <v>0</v>
       </c>
       <c r="I25" t="n">
-        <v>96.35242040983812</v>
+        <v>0</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -24409,19 +24409,19 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>88.93215267004734</v>
+        <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T25" t="n">
-        <v>0</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U25" t="n">
-        <v>0</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V25" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W25" t="n">
         <v>0</v>
@@ -24430,7 +24430,7 @@
         <v>0</v>
       </c>
       <c r="Y25" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="26">
@@ -24604,22 +24604,22 @@
         <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>109.7532162242327</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E28" t="n">
         <v>0</v>
       </c>
       <c r="F28" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G28" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I28" t="n">
-        <v>0</v>
+        <v>96.35242040983812</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -24646,25 +24646,25 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>88.93215267004733</v>
+        <v>0</v>
       </c>
       <c r="S28" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T28" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U28" t="n">
         <v>286.2118382056129</v>
       </c>
       <c r="V28" t="n">
-        <v>0</v>
+        <v>132.5432342665984</v>
       </c>
       <c r="W28" t="n">
         <v>0</v>
       </c>
       <c r="X28" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y28" t="n">
         <v>0</v>
@@ -24841,7 +24841,7 @@
         <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E31" t="n">
         <v>0</v>
@@ -24889,19 +24889,19 @@
         <v>0</v>
       </c>
       <c r="T31" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U31" t="n">
-        <v>107.5915153455746</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V31" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W31" t="n">
-        <v>0</v>
+        <v>118.0228087869565</v>
       </c>
       <c r="X31" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y31" t="n">
         <v>218.5846533520948</v>
@@ -25081,19 +25081,19 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E34" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F34" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G34" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H34" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I34" t="n">
-        <v>96.35242040983812</v>
+        <v>0</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -25126,16 +25126,16 @@
         <v>189.7690253314419</v>
       </c>
       <c r="T34" t="n">
-        <v>0</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U34" t="n">
-        <v>0</v>
+        <v>161.6123805187117</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
       </c>
       <c r="W34" t="n">
-        <v>159.6457400831808</v>
+        <v>0</v>
       </c>
       <c r="X34" t="n">
         <v>0</v>
@@ -25309,10 +25309,10 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C37" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D37" t="n">
         <v>0</v>
@@ -25327,7 +25327,7 @@
         <v>0</v>
       </c>
       <c r="H37" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I37" t="n">
         <v>0</v>
@@ -25357,10 +25357,10 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>69.34270184147255</v>
+        <v>0</v>
       </c>
       <c r="S37" t="n">
-        <v>0</v>
+        <v>89.74153937221605</v>
       </c>
       <c r="T37" t="n">
         <v>0</v>
@@ -25372,10 +25372,10 @@
         <v>252.137643323828</v>
       </c>
       <c r="W37" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X37" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y37" t="n">
         <v>0</v>
@@ -25564,7 +25564,7 @@
         <v>0</v>
       </c>
       <c r="H40" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I40" t="n">
         <v>0</v>
@@ -25594,22 +25594,22 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>0</v>
+        <v>88.93215267004734</v>
       </c>
       <c r="S40" t="n">
         <v>0</v>
       </c>
       <c r="T40" t="n">
-        <v>69.34270184147258</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U40" t="n">
         <v>286.2118382056129</v>
       </c>
       <c r="V40" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W40" t="n">
-        <v>286.522998336591</v>
+        <v>154.7672266413545</v>
       </c>
       <c r="X40" t="n">
         <v>225.7096553890372</v>
@@ -25789,22 +25789,22 @@
         <v>0</v>
       </c>
       <c r="D43" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E43" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F43" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H43" t="n">
         <v>144.7550149143208</v>
       </c>
       <c r="I43" t="n">
-        <v>96.35242040983812</v>
+        <v>0</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -25831,7 +25831,7 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>88.93215267004734</v>
+        <v>0</v>
       </c>
       <c r="S43" t="n">
         <v>0</v>
@@ -25840,19 +25840,19 @@
         <v>0</v>
       </c>
       <c r="U43" t="n">
-        <v>123.7051100255885</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V43" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W43" t="n">
         <v>0</v>
       </c>
       <c r="X43" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y43" t="n">
-        <v>0</v>
+        <v>124.3605697471829</v>
       </c>
     </row>
     <row r="44">
@@ -26020,13 +26020,13 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C46" t="n">
-        <v>114.4178563156128</v>
+        <v>0</v>
       </c>
       <c r="D46" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E46" t="n">
         <v>146.4339626465692</v>
@@ -26038,10 +26038,10 @@
         <v>0</v>
       </c>
       <c r="H46" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I46" t="n">
-        <v>96.35242040983812</v>
+        <v>0</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -26068,28 +26068,28 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>0</v>
+        <v>88.93215267004734</v>
       </c>
       <c r="S46" t="n">
-        <v>0</v>
+        <v>163.2084122195093</v>
       </c>
       <c r="T46" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U46" t="n">
-        <v>0</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
       </c>
       <c r="W46" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X46" t="n">
         <v>0</v>
       </c>
       <c r="Y46" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -26131,7 +26131,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>871379.0019000908</v>
+        <v>848988.0960875687</v>
       </c>
     </row>
     <row r="4">
@@ -26139,7 +26139,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>848988.0960875687</v>
+        <v>809308.9262953203</v>
       </c>
     </row>
     <row r="5">
@@ -26179,7 +26179,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>802078.4098528331</v>
+        <v>802078.409852833</v>
       </c>
     </row>
     <row r="10">
@@ -26227,7 +26227,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>802078.4098528329</v>
+        <v>802078.409852833</v>
       </c>
     </row>
     <row r="16">
@@ -26311,49 +26311,49 @@
         </is>
       </c>
       <c r="B2" t="n">
+        <v>636307.3716448199</v>
+      </c>
+      <c r="C2" t="n">
+        <v>636307.3716448201</v>
+      </c>
+      <c r="D2" t="n">
         <v>636307.3716448196</v>
       </c>
-      <c r="C2" t="n">
-        <v>636307.3716448195</v>
-      </c>
-      <c r="D2" t="n">
-        <v>636307.37164482</v>
-      </c>
       <c r="E2" t="n">
-        <v>615476.7696748235</v>
+        <v>615476.7696748237</v>
       </c>
       <c r="F2" t="n">
-        <v>615476.769674824</v>
+        <v>615476.7696748233</v>
       </c>
       <c r="G2" t="n">
-        <v>615476.7696748235</v>
+        <v>615476.7696748237</v>
       </c>
       <c r="H2" t="n">
-        <v>615476.7696748237</v>
+        <v>615476.7696748236</v>
       </c>
       <c r="I2" t="n">
-        <v>615476.7696748241</v>
+        <v>615476.7696748236</v>
       </c>
       <c r="J2" t="n">
-        <v>615476.769674824</v>
+        <v>615476.7696748234</v>
       </c>
       <c r="K2" t="n">
         <v>615476.7696748237</v>
       </c>
       <c r="L2" t="n">
-        <v>615476.7696748236</v>
+        <v>615476.7696748235</v>
       </c>
       <c r="M2" t="n">
-        <v>615476.7696748239</v>
+        <v>615476.7696748233</v>
       </c>
       <c r="N2" t="n">
         <v>615476.7696748237</v>
       </c>
       <c r="O2" t="n">
-        <v>615476.7696748236</v>
+        <v>615476.7696748235</v>
       </c>
       <c r="P2" t="n">
-        <v>615476.7696748236</v>
+        <v>615476.7696748237</v>
       </c>
     </row>
     <row r="3">
@@ -26363,16 +26363,16 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>589967.8792145444</v>
+        <v>589967.8792145445</v>
       </c>
       <c r="C3" t="n">
-        <v>0</v>
+        <v>196446.3877966352</v>
       </c>
       <c r="D3" t="n">
-        <v>184756.2785481117</v>
+        <v>315238.2384513057</v>
       </c>
       <c r="E3" t="n">
-        <v>554057.3276165042</v>
+        <v>258331.9582431703</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26387,7 +26387,7 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>176423.2191925928</v>
+        <v>176423.219192593</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -26396,7 +26396,7 @@
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>129642.3148389449</v>
+        <v>129642.3148389447</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26415,49 +26415,49 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>207826.5542404878</v>
+        <v>209922.4154630333</v>
       </c>
       <c r="C4" t="n">
-        <v>207826.5542404878</v>
+        <v>176266.9759012793</v>
       </c>
       <c r="D4" t="n">
-        <v>174833.3509411825</v>
+        <v>121617.1617317167</v>
       </c>
       <c r="E4" t="n">
-        <v>27740.5421021967</v>
+        <v>28561.83935289576</v>
       </c>
       <c r="F4" t="n">
-        <v>27740.54210219671</v>
+        <v>28561.83935289576</v>
       </c>
       <c r="G4" t="n">
-        <v>27740.5421021967</v>
+        <v>28561.83935289571</v>
       </c>
       <c r="H4" t="n">
-        <v>27740.54210219665</v>
+        <v>28561.83935289576</v>
       </c>
       <c r="I4" t="n">
-        <v>27740.54210219673</v>
+        <v>28561.83935289576</v>
       </c>
       <c r="J4" t="n">
-        <v>27740.54210219666</v>
+        <v>28561.83935289578</v>
       </c>
       <c r="K4" t="n">
-        <v>27740.54210219668</v>
+        <v>28561.83935289575</v>
       </c>
       <c r="L4" t="n">
-        <v>27740.54210219669</v>
+        <v>28561.83935289576</v>
       </c>
       <c r="M4" t="n">
-        <v>27740.54210219666</v>
+        <v>28561.83935289573</v>
       </c>
       <c r="N4" t="n">
-        <v>27740.54210219668</v>
+        <v>28561.83935289576</v>
       </c>
       <c r="O4" t="n">
-        <v>27740.54210219658</v>
+        <v>28561.83935289577</v>
       </c>
       <c r="P4" t="n">
-        <v>27740.5421021967</v>
+        <v>28561.83935289577</v>
       </c>
     </row>
     <row r="5">
@@ -26470,43 +26470,43 @@
         <v>82859.07806340946</v>
       </c>
       <c r="C5" t="n">
-        <v>82859.07806340946</v>
+        <v>87562.0451708468</v>
       </c>
       <c r="D5" t="n">
-        <v>87562.0451708468</v>
+        <v>95586.42776879412</v>
       </c>
       <c r="E5" t="n">
         <v>96383.51825371364</v>
       </c>
       <c r="F5" t="n">
-        <v>96383.51825371364</v>
+        <v>96383.51825371366</v>
       </c>
       <c r="G5" t="n">
         <v>96383.51825371364</v>
       </c>
       <c r="H5" t="n">
-        <v>96383.51825371367</v>
+        <v>96383.51825371364</v>
       </c>
       <c r="I5" t="n">
-        <v>96383.51825371367</v>
+        <v>96383.51825371364</v>
       </c>
       <c r="J5" t="n">
         <v>96383.51825371364</v>
       </c>
       <c r="K5" t="n">
-        <v>96383.51825371363</v>
+        <v>96383.51825371364</v>
       </c>
       <c r="L5" t="n">
-        <v>96383.51825371363</v>
+        <v>96383.51825371364</v>
       </c>
       <c r="M5" t="n">
-        <v>96383.51825371366</v>
+        <v>96383.51825371364</v>
       </c>
       <c r="N5" t="n">
-        <v>96383.51825371366</v>
+        <v>96383.51825371364</v>
       </c>
       <c r="O5" t="n">
-        <v>96383.51825371366</v>
+        <v>96383.51825371364</v>
       </c>
       <c r="P5" t="n">
         <v>96383.51825371364</v>
@@ -26519,49 +26519,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-244346.139873622</v>
+        <v>-246442.0010961675</v>
       </c>
       <c r="C6" t="n">
-        <v>345621.7393409222</v>
+        <v>176031.9627760588</v>
       </c>
       <c r="D6" t="n">
-        <v>189155.696984679</v>
+        <v>103865.5436930032</v>
       </c>
       <c r="E6" t="n">
-        <v>-62704.61829759101</v>
+        <v>232199.4538250441</v>
       </c>
       <c r="F6" t="n">
-        <v>491352.7093189136</v>
+        <v>490531.4120682139</v>
       </c>
       <c r="G6" t="n">
-        <v>491352.7093189132</v>
+        <v>490531.4120682144</v>
       </c>
       <c r="H6" t="n">
-        <v>491352.7093189135</v>
+        <v>490531.4120682143</v>
       </c>
       <c r="I6" t="n">
-        <v>491352.7093189137</v>
+        <v>490531.4120682143</v>
       </c>
       <c r="J6" t="n">
-        <v>314929.4901263209</v>
+        <v>314108.192875621</v>
       </c>
       <c r="K6" t="n">
-        <v>491352.7093189135</v>
+        <v>490531.4120682144</v>
       </c>
       <c r="L6" t="n">
-        <v>491352.7093189133</v>
+        <v>490531.4120682142</v>
       </c>
       <c r="M6" t="n">
-        <v>361710.3944799686</v>
+        <v>360889.0972292692</v>
       </c>
       <c r="N6" t="n">
-        <v>491352.7093189133</v>
+        <v>490531.4120682144</v>
       </c>
       <c r="O6" t="n">
-        <v>491352.7093189133</v>
+        <v>490531.4120682142</v>
       </c>
       <c r="P6" t="n">
-        <v>491352.7093189133</v>
+        <v>490531.4120682144</v>
       </c>
     </row>
   </sheetData>
@@ -26735,13 +26735,13 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>377.7436642170866</v>
+        <v>377.7436642170867</v>
       </c>
       <c r="C3" t="n">
-        <v>377.7436642170866</v>
+        <v>593.4761003380651</v>
       </c>
       <c r="D3" t="n">
-        <v>593.4761003380651</v>
+        <v>961.5670451980343</v>
       </c>
       <c r="E3" t="n">
         <v>1089.776700593298</v>
@@ -26957,16 +26957,16 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>377.7436642170866</v>
+        <v>377.7436642170867</v>
       </c>
       <c r="C3" t="n">
-        <v>0</v>
+        <v>215.7324361209784</v>
       </c>
       <c r="D3" t="n">
-        <v>215.7324361209785</v>
+        <v>368.0909448599692</v>
       </c>
       <c r="E3" t="n">
-        <v>496.300600255233</v>
+        <v>128.2096553952638</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -27033,7 +27033,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>674.2872727545551</v>
+        <v>674.2872727545556</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27042,7 +27042,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>520.2256578503751</v>
+        <v>520.2256578503747</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27376,10 +27376,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D2" t="n">
         <v>0</v>
@@ -27388,10 +27388,10 @@
         <v>0</v>
       </c>
       <c r="F2" t="n">
+        <v>0</v>
+      </c>
+      <c r="G2" t="n">
         <v>400</v>
-      </c>
-      <c r="G2" t="n">
-        <v>338.73473764265</v>
       </c>
       <c r="H2" t="n">
         <v>323.9227727643571</v>
@@ -27424,16 +27424,16 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>54.47840257481171</v>
+        <v>0</v>
       </c>
       <c r="S2" t="n">
         <v>174.4157128089715</v>
       </c>
       <c r="T2" t="n">
-        <v>216.4483203576578</v>
+        <v>122.3775386413592</v>
       </c>
       <c r="U2" t="n">
-        <v>251.2241675082893</v>
+        <v>0</v>
       </c>
       <c r="V2" t="n">
         <v>0</v>
@@ -27442,10 +27442,10 @@
         <v>0</v>
       </c>
       <c r="X2" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y2" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="3">
@@ -27534,10 +27534,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D4" t="n">
         <v>148.6154730182124</v>
@@ -27555,10 +27555,10 @@
         <v>156.1708888417951</v>
       </c>
       <c r="I4" t="n">
-        <v>134.9656217923382</v>
+        <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>45.199959188537</v>
+        <v>45.19995918853699</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27582,7 +27582,7 @@
         <v>29.1227499549143</v>
       </c>
       <c r="R4" t="n">
-        <v>146.6651919801579</v>
+        <v>0</v>
       </c>
       <c r="S4" t="n">
         <v>212.1455389500189</v>
@@ -27591,7 +27591,7 @@
         <v>225.0351054580843</v>
       </c>
       <c r="U4" t="n">
-        <v>286.2818742419777</v>
+        <v>0</v>
       </c>
       <c r="V4" t="n">
         <v>252.137643323828</v>
@@ -27600,10 +27600,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X4" t="n">
-        <v>123.9289676594881</v>
+        <v>126.1782010413017</v>
       </c>
       <c r="Y4" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="5">
@@ -27613,19 +27613,19 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D5" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E5" t="n">
         <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="G5" t="n">
         <v>0</v>
@@ -27664,13 +27664,13 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>174.4157128089715</v>
+        <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>216.4483203576578</v>
+        <v>0</v>
       </c>
       <c r="U5" t="n">
-        <v>251.2241675082893</v>
+        <v>0</v>
       </c>
       <c r="V5" t="n">
         <v>0</v>
@@ -27679,10 +27679,10 @@
         <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y5" t="n">
-        <v>196.2155898013343</v>
+        <v>293.4197024416221</v>
       </c>
     </row>
     <row r="6">
@@ -27774,7 +27774,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C7" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D7" t="n">
         <v>148.6154730182124</v>
@@ -27789,10 +27789,10 @@
         <v>0</v>
       </c>
       <c r="H7" t="n">
-        <v>156.1708888417951</v>
+        <v>152.7120966692326</v>
       </c>
       <c r="I7" t="n">
-        <v>0</v>
+        <v>123.266557879417</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -27819,25 +27819,25 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>146.6651919801579</v>
+        <v>129.1731816677913</v>
       </c>
       <c r="S7" t="n">
-        <v>212.1455389500189</v>
+        <v>205.3658819001186</v>
       </c>
       <c r="T7" t="n">
-        <v>0</v>
+        <v>223.3729047207587</v>
       </c>
       <c r="U7" t="n">
-        <v>220.4709705326934</v>
+        <v>0</v>
       </c>
       <c r="V7" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W7" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X7" t="n">
-        <v>225.7096553890372</v>
+        <v>126.0360582611782</v>
       </c>
       <c r="Y7" t="n">
         <v>218.5846533520948</v>
@@ -27850,16 +27850,16 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C8" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D8" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
         <v>0</v>
@@ -27868,10 +27868,10 @@
         <v>0</v>
       </c>
       <c r="H8" t="n">
-        <v>315.0408840752156</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>61.44749355031655</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -27907,19 +27907,19 @@
         <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>251.1547862223006</v>
+        <v>251.0364052149085</v>
       </c>
       <c r="V8" t="n">
-        <v>150.0131516882235</v>
+        <v>0</v>
       </c>
       <c r="W8" t="n">
-        <v>349.240968717413</v>
+        <v>242.9425143073673</v>
       </c>
       <c r="X8" t="n">
         <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="9">
@@ -28008,13 +28008,13 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>62.04377402640486</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C10" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D10" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E10" t="n">
         <v>146.4339626465692</v>
@@ -28023,13 +28023,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
-        <v>166.9207765545704</v>
+        <v>0</v>
       </c>
       <c r="H10" t="n">
-        <v>0</v>
+        <v>146.8105729959039</v>
       </c>
       <c r="I10" t="n">
-        <v>123.266557879417</v>
+        <v>0</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -28062,16 +28062,16 @@
         <v>0</v>
       </c>
       <c r="T10" t="n">
-        <v>223.3729047207587</v>
+        <v>209.1598498874534</v>
       </c>
       <c r="U10" t="n">
-        <v>286.260654658097</v>
+        <v>0</v>
       </c>
       <c r="V10" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W10" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X10" t="n">
         <v>225.7096553890372</v>
@@ -28858,7 +28858,7 @@
         <v>0</v>
       </c>
       <c r="V20" t="n">
-        <v>-1.477928890381008e-12</v>
+        <v>0</v>
       </c>
       <c r="W20" t="n">
         <v>0</v>
@@ -30226,19 +30226,19 @@
         <v>0</v>
       </c>
       <c r="D38" t="n">
-        <v>-7.503331289626657e-14</v>
+        <v>0</v>
       </c>
       <c r="E38" t="n">
-        <v>-7.503331289626657e-14</v>
+        <v>0</v>
       </c>
       <c r="F38" t="n">
-        <v>-7.503331289626657e-14</v>
+        <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>-7.503331289626657e-14</v>
+        <v>0</v>
       </c>
       <c r="H38" t="n">
-        <v>-7.503331289626657e-14</v>
+        <v>0</v>
       </c>
       <c r="I38" t="n">
         <v>0</v>
@@ -30271,13 +30271,13 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>-7.503331289626657e-14</v>
+        <v>0</v>
       </c>
       <c r="T38" t="n">
-        <v>-7.503331289626657e-14</v>
+        <v>0</v>
       </c>
       <c r="U38" t="n">
-        <v>-7.503331289626657e-14</v>
+        <v>0</v>
       </c>
       <c r="V38" t="n">
         <v>0</v>
@@ -30466,7 +30466,7 @@
         <v>0</v>
       </c>
       <c r="E41" t="n">
-        <v>-7.503331289626657e-14</v>
+        <v>0</v>
       </c>
       <c r="F41" t="n">
         <v>0</v>
@@ -30511,7 +30511,7 @@
         <v>0</v>
       </c>
       <c r="T41" t="n">
-        <v>-1.676880856393836e-12</v>
+        <v>0</v>
       </c>
       <c r="U41" t="n">
         <v>0</v>
@@ -30648,7 +30648,7 @@
         <v>0</v>
       </c>
       <c r="M43" t="n">
-        <v>-2.953375618138427e-12</v>
+        <v>0</v>
       </c>
       <c r="N43" t="n">
         <v>0</v>
@@ -31045,19 +31045,19 @@
         <v>15.55202935141</v>
       </c>
       <c r="I2" t="n">
-        <v>58.54457332554467</v>
+        <v>58.54457332554468</v>
       </c>
       <c r="J2" t="n">
         <v>128.8865178727436</v>
       </c>
       <c r="K2" t="n">
-        <v>193.1674799081577</v>
+        <v>193.1674799081578</v>
       </c>
       <c r="L2" t="n">
-        <v>239.6413398630669</v>
+        <v>239.641339863067</v>
       </c>
       <c r="M2" t="n">
-        <v>266.6471645405367</v>
+        <v>266.6471645405368</v>
       </c>
       <c r="N2" t="n">
         <v>270.9617944338304</v>
@@ -31072,13 +31072,13 @@
         <v>163.9882055044137</v>
       </c>
       <c r="R2" t="n">
-        <v>95.39071536633797</v>
+        <v>95.39071536633799</v>
       </c>
       <c r="S2" t="n">
-        <v>34.60435677727382</v>
+        <v>34.60435677727383</v>
       </c>
       <c r="T2" t="n">
-        <v>6.647529206473553</v>
+        <v>6.647529206473554</v>
       </c>
       <c r="U2" t="n">
         <v>0.1214853995472036</v>
@@ -31118,16 +31118,16 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>0.812505240014111</v>
+        <v>0.8125052400141111</v>
       </c>
       <c r="H3" t="n">
-        <v>7.847090081188914</v>
+        <v>7.847090081188916</v>
       </c>
       <c r="I3" t="n">
-        <v>27.97441286890689</v>
+        <v>27.9744128689069</v>
       </c>
       <c r="J3" t="n">
-        <v>76.76392708396476</v>
+        <v>76.76392708396477</v>
       </c>
       <c r="K3" t="n">
         <v>131.2017781649102</v>
@@ -31145,22 +31145,22 @@
         <v>193.3156655923047</v>
       </c>
       <c r="P3" t="n">
-        <v>155.1528646479577</v>
+        <v>155.1528646479578</v>
       </c>
       <c r="Q3" t="n">
         <v>103.7155811639065</v>
       </c>
       <c r="R3" t="n">
-        <v>50.44659727034982</v>
+        <v>50.44659727034983</v>
       </c>
       <c r="S3" t="n">
         <v>15.09192847131473</v>
       </c>
       <c r="T3" t="n">
-        <v>3.274966296372665</v>
+        <v>3.274966296372666</v>
       </c>
       <c r="U3" t="n">
-        <v>0.05345429210619153</v>
+        <v>0.05345429210619154</v>
       </c>
       <c r="V3" t="n">
         <v>0</v>
@@ -31197,16 +31197,16 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>0.6811770994078611</v>
+        <v>0.6811770994078612</v>
       </c>
       <c r="H4" t="n">
-        <v>6.056283665644442</v>
+        <v>6.056283665644443</v>
       </c>
       <c r="I4" t="n">
         <v>20.48485313492005</v>
       </c>
       <c r="J4" t="n">
-        <v>48.15922092813577</v>
+        <v>48.15922092813578</v>
       </c>
       <c r="K4" t="n">
         <v>79.14039391302239</v>
@@ -31221,16 +31221,16 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O4" t="n">
-        <v>96.28128674175844</v>
+        <v>96.28128674175845</v>
       </c>
       <c r="P4" t="n">
         <v>82.38527391383801</v>
       </c>
       <c r="Q4" t="n">
-        <v>57.03929329678008</v>
+        <v>57.03929329678009</v>
       </c>
       <c r="R4" t="n">
-        <v>30.62819939701163</v>
+        <v>30.62819939701164</v>
       </c>
       <c r="S4" t="n">
         <v>11.87105908695336</v>
@@ -31276,49 +31276,49 @@
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>1.518567494340045</v>
+        <v>2.38583356919825</v>
       </c>
       <c r="H5" t="n">
-        <v>15.55202935140999</v>
+        <v>24.43391804055158</v>
       </c>
       <c r="I5" t="n">
-        <v>58.54457332554465</v>
+        <v>91.97984867651562</v>
       </c>
       <c r="J5" t="n">
-        <v>128.8865178727436</v>
+        <v>202.4946418937401</v>
       </c>
       <c r="K5" t="n">
-        <v>193.1674799081577</v>
+        <v>303.4869768779021</v>
       </c>
       <c r="L5" t="n">
-        <v>239.6413398630669</v>
+        <v>376.5024309712531</v>
       </c>
       <c r="M5" t="n">
-        <v>266.6471645405367</v>
+        <v>418.9314987074825</v>
       </c>
       <c r="N5" t="n">
-        <v>270.9617944338304</v>
+        <v>425.710248335967</v>
       </c>
       <c r="O5" t="n">
-        <v>255.8615389119865</v>
+        <v>401.9861157822519</v>
       </c>
       <c r="P5" t="n">
-        <v>218.3719038954666</v>
+        <v>343.0858495426701</v>
       </c>
       <c r="Q5" t="n">
-        <v>163.9882055044137</v>
+        <v>257.6431848457577</v>
       </c>
       <c r="R5" t="n">
-        <v>95.39071536633796</v>
+        <v>149.8691179411497</v>
       </c>
       <c r="S5" t="n">
-        <v>34.60435677727382</v>
+        <v>54.36718245810517</v>
       </c>
       <c r="T5" t="n">
-        <v>6.647529206473552</v>
+        <v>10.44398644916534</v>
       </c>
       <c r="U5" t="n">
-        <v>0.1214853995472036</v>
+        <v>0.1908666855358599</v>
       </c>
       <c r="V5" t="n">
         <v>0</v>
@@ -31355,49 +31355,49 @@
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>0.8125052400141107</v>
+        <v>1.276533498840366</v>
       </c>
       <c r="H6" t="n">
-        <v>7.847090081188913</v>
+        <v>12.32862615985301</v>
       </c>
       <c r="I6" t="n">
-        <v>27.97441286890689</v>
+        <v>43.95082441182841</v>
       </c>
       <c r="J6" t="n">
-        <v>76.76392708396475</v>
+        <v>120.6044214847383</v>
       </c>
       <c r="K6" t="n">
-        <v>131.2017781649102</v>
+        <v>206.1321659070429</v>
       </c>
       <c r="L6" t="n">
-        <v>176.4169820478007</v>
+        <v>277.1701353512822</v>
       </c>
       <c r="M6" t="n">
-        <v>205.8702969983122</v>
+        <v>323.4444746842454</v>
       </c>
       <c r="N6" t="n">
-        <v>211.31907117367</v>
+        <v>332.0050874900653</v>
       </c>
       <c r="O6" t="n">
-        <v>193.3156655923047</v>
+        <v>303.7197925947077</v>
       </c>
       <c r="P6" t="n">
-        <v>155.1528646479577</v>
+        <v>243.7619099671574</v>
       </c>
       <c r="Q6" t="n">
-        <v>103.7155811639065</v>
+        <v>162.9483813607457</v>
       </c>
       <c r="R6" t="n">
-        <v>50.44659727034981</v>
+        <v>79.25705355080804</v>
       </c>
       <c r="S6" t="n">
-        <v>15.09192847131472</v>
+        <v>23.71104985784626</v>
       </c>
       <c r="T6" t="n">
-        <v>3.274966296372665</v>
+        <v>5.145325813308317</v>
       </c>
       <c r="U6" t="n">
-        <v>0.05345429210619152</v>
+        <v>0.08398246702897151</v>
       </c>
       <c r="V6" t="n">
         <v>0</v>
@@ -31434,49 +31434,49 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>0.681177099407861</v>
+        <v>1.070202803888314</v>
       </c>
       <c r="H7" t="n">
-        <v>6.056283665644441</v>
+        <v>9.515075838207016</v>
       </c>
       <c r="I7" t="n">
-        <v>20.48485313492004</v>
+        <v>32.18391704784131</v>
       </c>
       <c r="J7" t="n">
-        <v>48.15922092813577</v>
+        <v>75.66333823490379</v>
       </c>
       <c r="K7" t="n">
-        <v>79.14039391302238</v>
+        <v>124.3381075790241</v>
       </c>
       <c r="L7" t="n">
-        <v>101.2724571246924</v>
+        <v>159.1099695889954</v>
       </c>
       <c r="M7" t="n">
-        <v>106.777606591725</v>
+        <v>167.7591540676927</v>
       </c>
       <c r="N7" t="n">
-        <v>104.2386737666594</v>
+        <v>163.7702163441091</v>
       </c>
       <c r="O7" t="n">
-        <v>96.28128674175842</v>
+        <v>151.2683017714137</v>
       </c>
       <c r="P7" t="n">
-        <v>82.38527391383799</v>
+        <v>129.436164572092</v>
       </c>
       <c r="Q7" t="n">
-        <v>57.03929329678007</v>
+        <v>89.61489115104783</v>
       </c>
       <c r="R7" t="n">
-        <v>30.62819939701163</v>
+        <v>48.12020970937817</v>
       </c>
       <c r="S7" t="n">
-        <v>11.87105908695336</v>
+        <v>18.65071613685361</v>
       </c>
       <c r="T7" t="n">
-        <v>2.910483970197223</v>
+        <v>4.572684707522795</v>
       </c>
       <c r="U7" t="n">
-        <v>0.0371551145131561</v>
+        <v>0.0583746983939081</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
@@ -31513,49 +31513,49 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>2.38583356919825</v>
+        <v>3.865596161600135</v>
       </c>
       <c r="H8" t="n">
-        <v>24.43391804055158</v>
+        <v>39.58853668998739</v>
       </c>
       <c r="I8" t="n">
-        <v>91.97984867651562</v>
+        <v>149.0283960200894</v>
       </c>
       <c r="J8" t="n">
-        <v>202.4946418937401</v>
+        <v>328.0876422206098</v>
       </c>
       <c r="K8" t="n">
-        <v>303.4869768779021</v>
+        <v>491.7183277411436</v>
       </c>
       <c r="L8" t="n">
-        <v>376.5024309712531</v>
+        <v>610.0200662717139</v>
       </c>
       <c r="M8" t="n">
-        <v>418.9314987074825</v>
+        <v>678.7648620105701</v>
       </c>
       <c r="N8" t="n">
-        <v>425.710248335967</v>
+        <v>689.7479871047167</v>
       </c>
       <c r="O8" t="n">
-        <v>401.9861157822519</v>
+        <v>651.3094652728053</v>
       </c>
       <c r="P8" t="n">
-        <v>343.0858495426701</v>
+        <v>555.8775600333018</v>
       </c>
       <c r="Q8" t="n">
-        <v>257.6431848457577</v>
+        <v>417.4408974959969</v>
       </c>
       <c r="R8" t="n">
-        <v>149.8691179411497</v>
+        <v>242.8222548861147</v>
       </c>
       <c r="S8" t="n">
-        <v>54.36718245810517</v>
+        <v>88.08727253246316</v>
       </c>
       <c r="T8" t="n">
-        <v>10.44398644916534</v>
+        <v>16.9216471974046</v>
       </c>
       <c r="U8" t="n">
-        <v>0.1908666855358599</v>
+        <v>0.3092476929280107</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
@@ -31592,49 +31592,49 @@
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>1.276533498840366</v>
+        <v>2.068276285897659</v>
       </c>
       <c r="H9" t="n">
-        <v>12.32862615985301</v>
+        <v>19.97519465590634</v>
       </c>
       <c r="I9" t="n">
-        <v>43.95082441182841</v>
+        <v>71.21038966796765</v>
       </c>
       <c r="J9" t="n">
-        <v>120.6044214847383</v>
+        <v>195.4067520812345</v>
       </c>
       <c r="K9" t="n">
-        <v>206.1321659070429</v>
+        <v>333.9812632363776</v>
       </c>
       <c r="L9" t="n">
-        <v>277.1701353512822</v>
+        <v>449.0790242691386</v>
       </c>
       <c r="M9" t="n">
-        <v>323.4444746842454</v>
+        <v>524.0540396329286</v>
       </c>
       <c r="N9" t="n">
-        <v>332.0050874900653</v>
+        <v>537.9241906905494</v>
       </c>
       <c r="O9" t="n">
-        <v>303.7197925947077</v>
+        <v>492.0955424609223</v>
       </c>
       <c r="P9" t="n">
-        <v>243.7619099671574</v>
+        <v>394.9500567342644</v>
       </c>
       <c r="Q9" t="n">
-        <v>162.9483813607457</v>
+        <v>264.0136536173924</v>
       </c>
       <c r="R9" t="n">
-        <v>79.25705355080804</v>
+        <v>128.4145574700319</v>
       </c>
       <c r="S9" t="n">
-        <v>23.71104985784626</v>
+        <v>38.4173248718271</v>
       </c>
       <c r="T9" t="n">
-        <v>5.145325813308317</v>
+        <v>8.336604854122577</v>
       </c>
       <c r="U9" t="n">
-        <v>0.08398246702897151</v>
+        <v>0.1360708082827408</v>
       </c>
       <c r="V9" t="n">
         <v>0</v>
@@ -31671,49 +31671,49 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>1.070202803888314</v>
+        <v>1.733973360193176</v>
       </c>
       <c r="H10" t="n">
-        <v>9.515075838207016</v>
+        <v>15.41659951153571</v>
       </c>
       <c r="I10" t="n">
-        <v>32.18391704784131</v>
+        <v>52.1453079592639</v>
       </c>
       <c r="J10" t="n">
-        <v>75.66333823490379</v>
+        <v>122.5919165656576</v>
       </c>
       <c r="K10" t="n">
-        <v>124.3381075790241</v>
+        <v>201.4561776660799</v>
       </c>
       <c r="L10" t="n">
-        <v>159.1099695889954</v>
+        <v>257.7945484781746</v>
       </c>
       <c r="M10" t="n">
-        <v>167.7591540676927</v>
+        <v>271.8082059073722</v>
       </c>
       <c r="N10" t="n">
-        <v>163.7702163441091</v>
+        <v>265.3452142921069</v>
       </c>
       <c r="O10" t="n">
-        <v>151.2683017714137</v>
+        <v>245.0892527662138</v>
       </c>
       <c r="P10" t="n">
-        <v>129.436164572092</v>
+        <v>209.7161962182728</v>
       </c>
       <c r="Q10" t="n">
-        <v>89.61489115104783</v>
+        <v>145.1966238249032</v>
       </c>
       <c r="R10" t="n">
-        <v>48.12020970937817</v>
+        <v>77.96574763195862</v>
       </c>
       <c r="S10" t="n">
-        <v>18.65071613685361</v>
+        <v>30.21842664991198</v>
       </c>
       <c r="T10" t="n">
-        <v>4.572684707522795</v>
+        <v>7.408795266279934</v>
       </c>
       <c r="U10" t="n">
-        <v>0.0583746983939081</v>
+        <v>0.0945803651014461</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
@@ -31841,7 +31841,7 @@
         <v>221.4611312026437</v>
       </c>
       <c r="K12" t="n">
-        <v>378.5123470353163</v>
+        <v>378.5123470353157</v>
       </c>
       <c r="L12" t="n">
         <v>508.9565619138795</v>
@@ -31859,7 +31859,7 @@
         <v>447.6103584002926</v>
       </c>
       <c r="Q12" t="n">
-        <v>299.2156706987486</v>
+        <v>299.2156706987494</v>
       </c>
       <c r="R12" t="n">
         <v>145.5365940905541</v>
@@ -31987,43 +31987,43 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>4.381011861681597</v>
+        <v>4.381011861681598</v>
       </c>
       <c r="H14" t="n">
-        <v>44.86703772844667</v>
+        <v>44.86703772844668</v>
       </c>
       <c r="I14" t="n">
-        <v>168.8989597974799</v>
+        <v>168.89895979748</v>
       </c>
       <c r="J14" t="n">
         <v>371.8329054953988</v>
       </c>
       <c r="K14" t="n">
-        <v>557.2811376003809</v>
+        <v>557.281137600381</v>
       </c>
       <c r="L14" t="n">
-        <v>691.3565293623192</v>
+        <v>691.3565293623194</v>
       </c>
       <c r="M14" t="n">
-        <v>769.2673490574992</v>
+        <v>769.2673490574995</v>
       </c>
       <c r="N14" t="n">
-        <v>781.7148990095022</v>
+        <v>781.7148990095023</v>
       </c>
       <c r="O14" t="n">
-        <v>738.1512123099058</v>
+        <v>738.1512123099059</v>
       </c>
       <c r="P14" t="n">
-        <v>629.9949819746412</v>
+        <v>629.9949819746414</v>
       </c>
       <c r="Q14" t="n">
-        <v>473.0999946781689</v>
+        <v>473.099994678169</v>
       </c>
       <c r="R14" t="n">
-        <v>275.1987363563568</v>
+        <v>275.1987363563569</v>
       </c>
       <c r="S14" t="n">
-        <v>99.83230779806949</v>
+        <v>99.83230779806951</v>
       </c>
       <c r="T14" t="n">
         <v>19.1778794245112</v>
@@ -32072,40 +32072,40 @@
         <v>22.63856881798531</v>
       </c>
       <c r="I15" t="n">
-        <v>80.70516131752255</v>
+        <v>80.70516131752258</v>
       </c>
       <c r="J15" t="n">
-        <v>221.4611312026444</v>
+        <v>221.4611312026438</v>
       </c>
       <c r="K15" t="n">
         <v>378.5123470353157</v>
       </c>
       <c r="L15" t="n">
-        <v>508.9565619138795</v>
+        <v>508.9565619138796</v>
       </c>
       <c r="M15" t="n">
-        <v>593.9283018233474</v>
+        <v>593.9283018233475</v>
       </c>
       <c r="N15" t="n">
-        <v>609.6478166837924</v>
+        <v>609.6478166837925</v>
       </c>
       <c r="O15" t="n">
-        <v>557.7086478970249</v>
+        <v>557.708647897025</v>
       </c>
       <c r="P15" t="n">
-        <v>447.6103584002926</v>
+        <v>447.6103584002927</v>
       </c>
       <c r="Q15" t="n">
-        <v>299.2156706987486</v>
+        <v>299.2156706987487</v>
       </c>
       <c r="R15" t="n">
         <v>145.5365940905541</v>
       </c>
       <c r="S15" t="n">
-        <v>43.53966346238315</v>
+        <v>43.53966346238316</v>
       </c>
       <c r="T15" t="n">
-        <v>9.448158375898496</v>
+        <v>9.448158375898497</v>
       </c>
       <c r="U15" t="n">
         <v>0.1542136840462215</v>
@@ -32145,13 +32145,13 @@
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>1.965171099430537</v>
+        <v>1.965171099430538</v>
       </c>
       <c r="H16" t="n">
         <v>17.47215759311879</v>
       </c>
       <c r="I16" t="n">
-        <v>59.09805451742017</v>
+        <v>59.09805451742019</v>
       </c>
       <c r="J16" t="n">
         <v>138.937596729739</v>
@@ -32160,16 +32160,16 @@
         <v>228.3171513702024</v>
       </c>
       <c r="L16" t="n">
-        <v>292.1673469098819</v>
+        <v>292.167346909882</v>
       </c>
       <c r="M16" t="n">
         <v>308.0495024316432</v>
       </c>
       <c r="N16" t="n">
-        <v>300.7247737883114</v>
+        <v>300.7247737883115</v>
       </c>
       <c r="O16" t="n">
-        <v>277.7680023086</v>
+        <v>277.7680023086001</v>
       </c>
       <c r="P16" t="n">
         <v>237.6785118802169</v>
@@ -32178,16 +32178,16 @@
         <v>164.556281789588</v>
       </c>
       <c r="R16" t="n">
-        <v>88.36123870712214</v>
+        <v>88.36123870712215</v>
       </c>
       <c r="S16" t="n">
-        <v>34.24757270553035</v>
+        <v>34.24757270553036</v>
       </c>
       <c r="T16" t="n">
-        <v>8.396640152112294</v>
+        <v>8.396640152112296</v>
       </c>
       <c r="U16" t="n">
-        <v>0.1071911508780294</v>
+        <v>0.1071911508780295</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -32312,7 +32312,7 @@
         <v>80.70516131752255</v>
       </c>
       <c r="J18" t="n">
-        <v>221.4611312026444</v>
+        <v>221.4611312026437</v>
       </c>
       <c r="K18" t="n">
         <v>378.5123470353157</v>
@@ -32333,7 +32333,7 @@
         <v>447.6103584002926</v>
       </c>
       <c r="Q18" t="n">
-        <v>299.2156706987486</v>
+        <v>299.2156706987494</v>
       </c>
       <c r="R18" t="n">
         <v>145.5365940905541</v>
@@ -32549,7 +32549,7 @@
         <v>80.70516131752255</v>
       </c>
       <c r="J21" t="n">
-        <v>221.4611312026437</v>
+        <v>221.4611312026444</v>
       </c>
       <c r="K21" t="n">
         <v>378.5123470353157</v>
@@ -32558,7 +32558,7 @@
         <v>508.9565619138795</v>
       </c>
       <c r="M21" t="n">
-        <v>593.9283018233481</v>
+        <v>593.9283018233474</v>
       </c>
       <c r="N21" t="n">
         <v>609.6478166837924</v>
@@ -32789,7 +32789,7 @@
         <v>221.4611312026437</v>
       </c>
       <c r="K24" t="n">
-        <v>378.5123470353157</v>
+        <v>378.5123470353163</v>
       </c>
       <c r="L24" t="n">
         <v>508.9565619138795</v>
@@ -32935,43 +32935,43 @@
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>4.381011861681598</v>
+        <v>4.381011861681597</v>
       </c>
       <c r="H26" t="n">
-        <v>44.86703772844668</v>
+        <v>44.86703772844667</v>
       </c>
       <c r="I26" t="n">
-        <v>168.89895979748</v>
+        <v>168.8989597974799</v>
       </c>
       <c r="J26" t="n">
         <v>371.8329054953988</v>
       </c>
       <c r="K26" t="n">
-        <v>557.281137600381</v>
+        <v>557.2811376003809</v>
       </c>
       <c r="L26" t="n">
-        <v>691.3565293623194</v>
+        <v>691.3565293623192</v>
       </c>
       <c r="M26" t="n">
-        <v>769.2673490574995</v>
+        <v>769.2673490574992</v>
       </c>
       <c r="N26" t="n">
-        <v>781.7148990095023</v>
+        <v>781.7148990095022</v>
       </c>
       <c r="O26" t="n">
-        <v>738.1512123099059</v>
+        <v>738.1512123099058</v>
       </c>
       <c r="P26" t="n">
-        <v>629.9949819746414</v>
+        <v>629.9949819746412</v>
       </c>
       <c r="Q26" t="n">
-        <v>473.099994678169</v>
+        <v>473.0999946781689</v>
       </c>
       <c r="R26" t="n">
-        <v>275.1987363563569</v>
+        <v>275.1987363563568</v>
       </c>
       <c r="S26" t="n">
-        <v>99.83230779806951</v>
+        <v>99.83230779806949</v>
       </c>
       <c r="T26" t="n">
         <v>19.1778794245112</v>
@@ -33020,40 +33020,40 @@
         <v>22.63856881798531</v>
       </c>
       <c r="I27" t="n">
-        <v>80.70516131752258</v>
+        <v>80.70516131752255</v>
       </c>
       <c r="J27" t="n">
-        <v>221.4611312026438</v>
+        <v>221.4611312026454</v>
       </c>
       <c r="K27" t="n">
         <v>378.5123470353157</v>
       </c>
       <c r="L27" t="n">
-        <v>508.9565619138796</v>
+        <v>508.9565619138795</v>
       </c>
       <c r="M27" t="n">
-        <v>593.9283018233475</v>
+        <v>593.9283018233474</v>
       </c>
       <c r="N27" t="n">
-        <v>609.6478166837925</v>
+        <v>609.6478166837924</v>
       </c>
       <c r="O27" t="n">
-        <v>557.708647897025</v>
+        <v>557.7086478970249</v>
       </c>
       <c r="P27" t="n">
-        <v>447.6103584002927</v>
+        <v>447.6103584002926</v>
       </c>
       <c r="Q27" t="n">
-        <v>299.2156706987487</v>
+        <v>299.2156706987486</v>
       </c>
       <c r="R27" t="n">
         <v>145.5365940905541</v>
       </c>
       <c r="S27" t="n">
-        <v>43.53966346238316</v>
+        <v>43.53966346238315</v>
       </c>
       <c r="T27" t="n">
-        <v>9.448158375898497</v>
+        <v>9.448158375898496</v>
       </c>
       <c r="U27" t="n">
         <v>0.1542136840462215</v>
@@ -33093,13 +33093,13 @@
         <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>1.965171099430538</v>
+        <v>1.965171099430537</v>
       </c>
       <c r="H28" t="n">
         <v>17.47215759311879</v>
       </c>
       <c r="I28" t="n">
-        <v>59.09805451742019</v>
+        <v>59.09805451742017</v>
       </c>
       <c r="J28" t="n">
         <v>138.937596729739</v>
@@ -33108,16 +33108,16 @@
         <v>228.3171513702024</v>
       </c>
       <c r="L28" t="n">
-        <v>292.167346909882</v>
+        <v>292.1673469098819</v>
       </c>
       <c r="M28" t="n">
         <v>308.0495024316432</v>
       </c>
       <c r="N28" t="n">
-        <v>300.7247737883115</v>
+        <v>300.7247737883114</v>
       </c>
       <c r="O28" t="n">
-        <v>277.7680023086001</v>
+        <v>277.7680023086</v>
       </c>
       <c r="P28" t="n">
         <v>237.6785118802169</v>
@@ -33126,16 +33126,16 @@
         <v>164.556281789588</v>
       </c>
       <c r="R28" t="n">
-        <v>88.36123870712215</v>
+        <v>88.36123870712214</v>
       </c>
       <c r="S28" t="n">
-        <v>34.24757270553036</v>
+        <v>34.24757270553035</v>
       </c>
       <c r="T28" t="n">
-        <v>8.396640152112296</v>
+        <v>8.396640152112294</v>
       </c>
       <c r="U28" t="n">
-        <v>0.1071911508780295</v>
+        <v>0.1071911508780294</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -33260,7 +33260,7 @@
         <v>80.70516131752255</v>
       </c>
       <c r="J30" t="n">
-        <v>221.4611312026437</v>
+        <v>221.4611312026454</v>
       </c>
       <c r="K30" t="n">
         <v>378.5123470353157</v>
@@ -33278,7 +33278,7 @@
         <v>557.7086478970249</v>
       </c>
       <c r="P30" t="n">
-        <v>447.6103584002933</v>
+        <v>447.6103584002926</v>
       </c>
       <c r="Q30" t="n">
         <v>299.2156706987486</v>
@@ -33512,10 +33512,10 @@
         <v>609.6478166837924</v>
       </c>
       <c r="O33" t="n">
-        <v>557.7086478970249</v>
+        <v>557.7086478970268</v>
       </c>
       <c r="P33" t="n">
-        <v>447.6103584002933</v>
+        <v>447.6103584002926</v>
       </c>
       <c r="Q33" t="n">
         <v>299.2156706987486</v>
@@ -33749,10 +33749,10 @@
         <v>609.6478166837924</v>
       </c>
       <c r="O36" t="n">
-        <v>557.7086478970249</v>
+        <v>557.7086478970268</v>
       </c>
       <c r="P36" t="n">
-        <v>447.6103584002933</v>
+        <v>447.6103584002926</v>
       </c>
       <c r="Q36" t="n">
         <v>299.2156706987486</v>
@@ -33971,7 +33971,7 @@
         <v>80.70516131752255</v>
       </c>
       <c r="J39" t="n">
-        <v>221.4611312026437</v>
+        <v>221.4611312026444</v>
       </c>
       <c r="K39" t="n">
         <v>378.5123470353157</v>
@@ -33980,7 +33980,7 @@
         <v>508.9565619138795</v>
       </c>
       <c r="M39" t="n">
-        <v>593.9283018233481</v>
+        <v>593.9283018233474</v>
       </c>
       <c r="N39" t="n">
         <v>609.6478166837924</v>
@@ -34208,7 +34208,7 @@
         <v>80.70516131752255</v>
       </c>
       <c r="J42" t="n">
-        <v>221.4611312026437</v>
+        <v>221.4611312026444</v>
       </c>
       <c r="K42" t="n">
         <v>378.5123470353157</v>
@@ -34223,7 +34223,7 @@
         <v>609.6478166837924</v>
       </c>
       <c r="O42" t="n">
-        <v>557.7086478970255</v>
+        <v>557.7086478970249</v>
       </c>
       <c r="P42" t="n">
         <v>447.6103584002926</v>
@@ -34451,7 +34451,7 @@
         <v>378.5123470353157</v>
       </c>
       <c r="L45" t="n">
-        <v>508.9565619138795</v>
+        <v>508.9565619138801</v>
       </c>
       <c r="M45" t="n">
         <v>593.9283018233474</v>
@@ -34466,7 +34466,7 @@
         <v>447.6103584002926</v>
       </c>
       <c r="Q45" t="n">
-        <v>299.2156706987494</v>
+        <v>299.2156706987486</v>
       </c>
       <c r="R45" t="n">
         <v>145.5365940905541</v>
@@ -34696,19 +34696,19 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>116.937228518131</v>
+        <v>116.9372285181311</v>
       </c>
       <c r="K2" t="n">
-        <v>297.2230414343419</v>
+        <v>297.223041434342</v>
       </c>
       <c r="L2" t="n">
-        <v>421.5361394435301</v>
+        <v>421.5361394435302</v>
       </c>
       <c r="M2" t="n">
-        <v>485.8144648060965</v>
+        <v>485.8144648060966</v>
       </c>
       <c r="N2" t="n">
-        <v>478.8956552492236</v>
+        <v>478.8956552492237</v>
       </c>
       <c r="O2" t="n">
         <v>406.5635087530452</v>
@@ -34775,7 +34775,7 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>76.0173357577069</v>
+        <v>0</v>
       </c>
       <c r="K3" t="n">
         <v>257.8255762031298</v>
@@ -34787,16 +34787,16 @@
         <v>529.4413268262938</v>
       </c>
       <c r="N3" t="n">
-        <v>559.3197334338902</v>
+        <v>515.9012490932192</v>
       </c>
       <c r="O3" t="n">
         <v>444.5817404245898</v>
       </c>
       <c r="P3" t="n">
-        <v>339.6412258735646</v>
+        <v>339.6412258735647</v>
       </c>
       <c r="Q3" t="n">
-        <v>54.37527471535621</v>
+        <v>173.8110948137341</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -34933,28 +34933,28 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>116.937228518131</v>
+        <v>21.44873736705384</v>
       </c>
       <c r="K5" t="n">
-        <v>297.2230414343419</v>
+        <v>83.39712583292157</v>
       </c>
       <c r="L5" t="n">
-        <v>421.5361394435301</v>
+        <v>558.3972305517163</v>
       </c>
       <c r="M5" t="n">
-        <v>485.8144648060965</v>
+        <v>460.8245328609412</v>
       </c>
       <c r="N5" t="n">
-        <v>478.8956552492236</v>
+        <v>633.6441091513602</v>
       </c>
       <c r="O5" t="n">
-        <v>406.5635087530451</v>
+        <v>552.6880856233105</v>
       </c>
       <c r="P5" t="n">
-        <v>308.9376163116797</v>
+        <v>111.8528537874005</v>
       </c>
       <c r="Q5" t="n">
-        <v>153.9975062898689</v>
+        <v>247.6524856312129</v>
       </c>
       <c r="R5" t="n">
         <v>0</v>
@@ -35015,25 +35015,25 @@
         <v>0</v>
       </c>
       <c r="K6" t="n">
-        <v>257.8255762031298</v>
+        <v>332.7559639452625</v>
       </c>
       <c r="L6" t="n">
-        <v>408.7029475713857</v>
+        <v>509.4561008748672</v>
       </c>
       <c r="M6" t="n">
-        <v>529.4413268262938</v>
+        <v>181.3104407622271</v>
       </c>
       <c r="N6" t="n">
-        <v>515.9012490932197</v>
+        <v>674.2872727545556</v>
       </c>
       <c r="O6" t="n">
-        <v>444.5817404245897</v>
+        <v>459.4026941461338</v>
       </c>
       <c r="P6" t="n">
-        <v>339.6412258735646</v>
+        <v>428.2502711927643</v>
       </c>
       <c r="Q6" t="n">
-        <v>173.8110948137341</v>
+        <v>22.96660727472423</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -35094,25 +35094,25 @@
         <v>0</v>
       </c>
       <c r="K7" t="n">
-        <v>56.87090208713953</v>
+        <v>102.0686157531412</v>
       </c>
       <c r="L7" t="n">
-        <v>128.8624823850085</v>
+        <v>186.6999948493115</v>
       </c>
       <c r="M7" t="n">
-        <v>146.3614835535656</v>
+        <v>207.3430310295333</v>
       </c>
       <c r="N7" t="n">
-        <v>148.370846145888</v>
+        <v>207.9023887233377</v>
       </c>
       <c r="O7" t="n">
-        <v>120.8664146557981</v>
+        <v>175.8534296854534</v>
       </c>
       <c r="P7" t="n">
-        <v>79.66383317873148</v>
+        <v>126.7147238369855</v>
       </c>
       <c r="Q7" t="n">
-        <v>0</v>
+        <v>3.452847899353443</v>
       </c>
       <c r="R7" t="n">
         <v>0</v>
@@ -35170,31 +35170,31 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>169.6909737556767</v>
+        <v>147.0417376939235</v>
       </c>
       <c r="K8" t="n">
-        <v>407.5425384040863</v>
+        <v>271.628476696163</v>
       </c>
       <c r="L8" t="n">
-        <v>558.3972305517163</v>
+        <v>374.2536513017266</v>
       </c>
       <c r="M8" t="n">
-        <v>638.0987989730422</v>
+        <v>448.4186287832974</v>
       </c>
       <c r="N8" t="n">
-        <v>196.2971847393761</v>
+        <v>460.3349235081258</v>
       </c>
       <c r="O8" t="n">
-        <v>552.6880856233105</v>
+        <v>421.2112538511185</v>
       </c>
       <c r="P8" t="n">
-        <v>111.8528537874005</v>
+        <v>324.6445642780323</v>
       </c>
       <c r="Q8" t="n">
-        <v>35.33749497130819</v>
+        <v>195.1352076215474</v>
       </c>
       <c r="R8" t="n">
-        <v>0</v>
+        <v>27.23671707198255</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
@@ -35249,28 +35249,28 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>0</v>
+        <v>68.56912541456785</v>
       </c>
       <c r="K9" t="n">
-        <v>332.7559639452625</v>
+        <v>266.5017096118947</v>
       </c>
       <c r="L9" t="n">
-        <v>509.4561008748672</v>
+        <v>674.2872727545556</v>
       </c>
       <c r="M9" t="n">
-        <v>349.2738770933423</v>
+        <v>381.9200057109103</v>
       </c>
       <c r="N9" t="n">
-        <v>200.663375406732</v>
+        <v>406.5824786072161</v>
       </c>
       <c r="O9" t="n">
-        <v>554.9858674269929</v>
+        <v>349.4992980164779</v>
       </c>
       <c r="P9" t="n">
-        <v>428.2502711927643</v>
+        <v>260.9756493199341</v>
       </c>
       <c r="Q9" t="n">
-        <v>233.0438950105733</v>
+        <v>124.0318795313709</v>
       </c>
       <c r="R9" t="n">
         <v>0</v>
@@ -35328,28 +35328,28 @@
         <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>0</v>
+        <v>29.2327364489848</v>
       </c>
       <c r="K10" t="n">
-        <v>102.0686157531412</v>
+        <v>179.186685840197</v>
       </c>
       <c r="L10" t="n">
-        <v>186.6999948493115</v>
+        <v>285.3845737384908</v>
       </c>
       <c r="M10" t="n">
-        <v>207.3430310295333</v>
+        <v>311.3920828692127</v>
       </c>
       <c r="N10" t="n">
-        <v>207.9023887233377</v>
+        <v>309.4773866713355</v>
       </c>
       <c r="O10" t="n">
-        <v>175.8534296854534</v>
+        <v>269.6743806802535</v>
       </c>
       <c r="P10" t="n">
-        <v>126.7147238369855</v>
+        <v>206.9947554831663</v>
       </c>
       <c r="Q10" t="n">
-        <v>3.452847899353443</v>
+        <v>59.0345805732088</v>
       </c>
       <c r="R10" t="n">
         <v>0</v>
@@ -35407,22 +35407,22 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>190.7870009687125</v>
+        <v>359.8836161407863</v>
       </c>
       <c r="K11" t="n">
-        <v>337.1912865554004</v>
+        <v>661.3366991265651</v>
       </c>
       <c r="L11" t="n">
-        <v>873.2513289427824</v>
+        <v>455.5901143923319</v>
       </c>
       <c r="M11" t="n">
-        <v>988.434649323059</v>
+        <v>980.3904738973145</v>
       </c>
       <c r="N11" t="n">
         <v>989.6487598248955</v>
       </c>
       <c r="O11" t="n">
-        <v>575.5896386552631</v>
+        <v>508.053000888219</v>
       </c>
       <c r="P11" t="n">
         <v>398.7619862193716</v>
@@ -35489,7 +35489,7 @@
         <v>94.62350453597705</v>
       </c>
       <c r="K12" t="n">
-        <v>240.6709080609573</v>
+        <v>240.6709080609567</v>
       </c>
       <c r="L12" t="n">
         <v>370.4021821340053</v>
@@ -35507,7 +35507,7 @@
         <v>313.6359509859624</v>
       </c>
       <c r="Q12" t="n">
-        <v>159.2338966127271</v>
+        <v>159.2338966127279</v>
       </c>
       <c r="R12" t="n">
         <v>0</v>
@@ -35644,31 +35644,31 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>190.7870009687125</v>
+        <v>359.8836161407863</v>
       </c>
       <c r="K14" t="n">
-        <v>337.1912865554004</v>
+        <v>661.3366991265652</v>
       </c>
       <c r="L14" t="n">
-        <v>873.2513289427824</v>
+        <v>873.2513289427826</v>
       </c>
       <c r="M14" t="n">
-        <v>988.434649323059</v>
+        <v>538.9211158302268</v>
       </c>
       <c r="N14" t="n">
-        <v>989.6487598248955</v>
+        <v>866.8583325546102</v>
       </c>
       <c r="O14" t="n">
-        <v>641.306058528246</v>
+        <v>508.0530008882191</v>
       </c>
       <c r="P14" t="n">
-        <v>398.7619862193716</v>
+        <v>398.7619862193719</v>
       </c>
       <c r="Q14" t="n">
-        <v>250.7943048037194</v>
+        <v>463.1092954636242</v>
       </c>
       <c r="R14" t="n">
-        <v>59.61319854222472</v>
+        <v>59.61319854222478</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35723,28 +35723,28 @@
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>94.62350453597767</v>
+        <v>94.6235045359771</v>
       </c>
       <c r="K15" t="n">
         <v>240.6709080609567</v>
       </c>
       <c r="L15" t="n">
-        <v>370.4021821340053</v>
+        <v>370.4021821340054</v>
       </c>
       <c r="M15" t="n">
-        <v>451.7942679013291</v>
+        <v>451.7942679013292</v>
       </c>
       <c r="N15" t="n">
-        <v>478.3061046004591</v>
+        <v>478.3061046004592</v>
       </c>
       <c r="O15" t="n">
-        <v>415.1124034525805</v>
+        <v>415.1124034525806</v>
       </c>
       <c r="P15" t="n">
         <v>313.6359509859624</v>
       </c>
       <c r="Q15" t="n">
-        <v>159.2338966127271</v>
+        <v>159.2338966127272</v>
       </c>
       <c r="R15" t="n">
         <v>0</v>
@@ -35802,10 +35802,10 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>45.5784166130662</v>
+        <v>45.57841661306622</v>
       </c>
       <c r="K16" t="n">
-        <v>206.0476595443195</v>
+        <v>206.0476595443196</v>
       </c>
       <c r="L16" t="n">
         <v>319.7573721701981</v>
@@ -35817,13 +35817,13 @@
         <v>344.8569461675401</v>
       </c>
       <c r="O16" t="n">
-        <v>302.3531302226397</v>
+        <v>302.3531302226398</v>
       </c>
       <c r="P16" t="n">
         <v>234.9570711451104</v>
       </c>
       <c r="Q16" t="n">
-        <v>78.39423853789363</v>
+        <v>78.39423853789366</v>
       </c>
       <c r="R16" t="n">
         <v>0</v>
@@ -35881,7 +35881,7 @@
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>359.8836161407863</v>
+        <v>190.7870009687125</v>
       </c>
       <c r="K17" t="n">
         <v>661.3366991265651</v>
@@ -35890,22 +35890,22 @@
         <v>455.5901143923319</v>
       </c>
       <c r="M17" t="n">
-        <v>988.434649323059</v>
+        <v>671.9201333872395</v>
       </c>
       <c r="N17" t="n">
         <v>552.3018354129113</v>
       </c>
       <c r="O17" t="n">
-        <v>508.053000888219</v>
+        <v>888.8531821509644</v>
       </c>
       <c r="P17" t="n">
-        <v>681.4661644186891</v>
+        <v>720.5606943908542</v>
       </c>
       <c r="Q17" t="n">
         <v>463.1092954636241</v>
       </c>
       <c r="R17" t="n">
-        <v>59.61319854222472</v>
+        <v>125.3296184152072</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -35960,7 +35960,7 @@
         <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>94.62350453597767</v>
+        <v>94.62350453597705</v>
       </c>
       <c r="K18" t="n">
         <v>240.6709080609567</v>
@@ -35981,7 +35981,7 @@
         <v>313.6359509859624</v>
       </c>
       <c r="Q18" t="n">
-        <v>159.2338966127271</v>
+        <v>159.2338966127279</v>
       </c>
       <c r="R18" t="n">
         <v>0</v>
@@ -36118,13 +36118,13 @@
         <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>359.8836161407863</v>
+        <v>230.27021654644</v>
       </c>
       <c r="K20" t="n">
-        <v>661.3366991265651</v>
+        <v>337.1912865554004</v>
       </c>
       <c r="L20" t="n">
-        <v>455.5901143923319</v>
+        <v>873.2513289427824</v>
       </c>
       <c r="M20" t="n">
         <v>538.9211158302265</v>
@@ -36133,7 +36133,7 @@
         <v>552.3018354129113</v>
       </c>
       <c r="O20" t="n">
-        <v>852.7555845359052</v>
+        <v>888.8531821509644</v>
       </c>
       <c r="P20" t="n">
         <v>720.5606943908542</v>
@@ -36197,7 +36197,7 @@
         <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>94.62350453597705</v>
+        <v>94.62350453597767</v>
       </c>
       <c r="K21" t="n">
         <v>240.6709080609567</v>
@@ -36206,7 +36206,7 @@
         <v>370.4021821340053</v>
       </c>
       <c r="M21" t="n">
-        <v>451.7942679013298</v>
+        <v>451.7942679013291</v>
       </c>
       <c r="N21" t="n">
         <v>478.3061046004591</v>
@@ -36364,22 +36364,22 @@
         <v>873.2513289427824</v>
       </c>
       <c r="M23" t="n">
-        <v>988.434649323059</v>
+        <v>578.4043314079538</v>
       </c>
       <c r="N23" t="n">
-        <v>989.6487598248955</v>
+        <v>552.3018354129113</v>
       </c>
       <c r="O23" t="n">
-        <v>641.3060585282469</v>
+        <v>888.8531821509644</v>
       </c>
       <c r="P23" t="n">
-        <v>398.7619862193716</v>
+        <v>720.5606943908542</v>
       </c>
       <c r="Q23" t="n">
-        <v>250.7943048037194</v>
+        <v>463.1092954636241</v>
       </c>
       <c r="R23" t="n">
-        <v>59.61319854222472</v>
+        <v>125.3296184152072</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36437,7 +36437,7 @@
         <v>94.62350453597705</v>
       </c>
       <c r="K24" t="n">
-        <v>240.6709080609567</v>
+        <v>240.6709080609573</v>
       </c>
       <c r="L24" t="n">
         <v>370.4021821340053</v>
@@ -36592,31 +36592,31 @@
         <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>190.7870009687126</v>
+        <v>359.8836161407863</v>
       </c>
       <c r="K26" t="n">
-        <v>661.3366991265652</v>
+        <v>661.3366991265651</v>
       </c>
       <c r="L26" t="n">
-        <v>455.5901143923322</v>
+        <v>569.8091019888095</v>
       </c>
       <c r="M26" t="n">
-        <v>556.3719171467363</v>
+        <v>988.434649323059</v>
       </c>
       <c r="N26" t="n">
-        <v>989.6487598248956</v>
+        <v>552.3018354129113</v>
       </c>
       <c r="O26" t="n">
-        <v>888.8531821509645</v>
+        <v>888.8531821509644</v>
       </c>
       <c r="P26" t="n">
-        <v>398.7619862193719</v>
+        <v>398.7619862193716</v>
       </c>
       <c r="Q26" t="n">
-        <v>463.1092954636242</v>
+        <v>250.7943048037194</v>
       </c>
       <c r="R26" t="n">
-        <v>125.3296184152072</v>
+        <v>59.61319854222472</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36671,28 +36671,28 @@
         <v>0</v>
       </c>
       <c r="J27" t="n">
-        <v>94.6235045359771</v>
+        <v>94.62350453597877</v>
       </c>
       <c r="K27" t="n">
         <v>240.6709080609567</v>
       </c>
       <c r="L27" t="n">
-        <v>370.4021821340054</v>
+        <v>370.4021821340053</v>
       </c>
       <c r="M27" t="n">
-        <v>451.7942679013292</v>
+        <v>451.7942679013291</v>
       </c>
       <c r="N27" t="n">
-        <v>478.3061046004592</v>
+        <v>478.3061046004591</v>
       </c>
       <c r="O27" t="n">
-        <v>415.1124034525806</v>
+        <v>415.1124034525805</v>
       </c>
       <c r="P27" t="n">
         <v>313.6359509859624</v>
       </c>
       <c r="Q27" t="n">
-        <v>159.2338966127272</v>
+        <v>159.2338966127271</v>
       </c>
       <c r="R27" t="n">
         <v>0</v>
@@ -36750,10 +36750,10 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>45.57841661306622</v>
+        <v>45.5784166130662</v>
       </c>
       <c r="K28" t="n">
-        <v>206.0476595443196</v>
+        <v>206.0476595443195</v>
       </c>
       <c r="L28" t="n">
         <v>319.7573721701981</v>
@@ -36765,13 +36765,13 @@
         <v>344.8569461675401</v>
       </c>
       <c r="O28" t="n">
-        <v>302.3531302226398</v>
+        <v>302.3531302226397</v>
       </c>
       <c r="P28" t="n">
         <v>234.9570711451104</v>
       </c>
       <c r="Q28" t="n">
-        <v>78.39423853789366</v>
+        <v>78.39423853789363</v>
       </c>
       <c r="R28" t="n">
         <v>0</v>
@@ -36829,16 +36829,16 @@
         <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>359.8836161407863</v>
+        <v>190.7870009687125</v>
       </c>
       <c r="K29" t="n">
-        <v>661.3366991265651</v>
+        <v>588.9894927930318</v>
       </c>
       <c r="L29" t="n">
-        <v>455.5901143923319</v>
+        <v>873.2513289427824</v>
       </c>
       <c r="M29" t="n">
-        <v>568.5399380881478</v>
+        <v>538.9211158302265</v>
       </c>
       <c r="N29" t="n">
         <v>552.3018354129113</v>
@@ -36850,10 +36850,10 @@
         <v>720.5606943908542</v>
       </c>
       <c r="Q29" t="n">
-        <v>463.1092954636241</v>
+        <v>250.7943048037194</v>
       </c>
       <c r="R29" t="n">
-        <v>59.61319854222472</v>
+        <v>125.3296184152072</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36908,7 +36908,7 @@
         <v>0</v>
       </c>
       <c r="J30" t="n">
-        <v>94.62350453597705</v>
+        <v>94.62350453597877</v>
       </c>
       <c r="K30" t="n">
         <v>240.6709080609567</v>
@@ -36926,7 +36926,7 @@
         <v>415.1124034525805</v>
       </c>
       <c r="P30" t="n">
-        <v>313.6359509859631</v>
+        <v>313.6359509859624</v>
       </c>
       <c r="Q30" t="n">
         <v>159.2338966127271</v>
@@ -37081,10 +37081,10 @@
         <v>552.3018354129113</v>
       </c>
       <c r="O32" t="n">
-        <v>572.3386662151448</v>
+        <v>888.8531821509644</v>
       </c>
       <c r="P32" t="n">
-        <v>720.5606943908542</v>
+        <v>404.0461784550345</v>
       </c>
       <c r="Q32" t="n">
         <v>463.1092954636241</v>
@@ -37160,10 +37160,10 @@
         <v>478.3061046004591</v>
       </c>
       <c r="O33" t="n">
-        <v>415.1124034525805</v>
+        <v>415.1124034525824</v>
       </c>
       <c r="P33" t="n">
-        <v>313.6359509859631</v>
+        <v>313.6359509859624</v>
       </c>
       <c r="Q33" t="n">
         <v>159.2338966127271</v>
@@ -37306,28 +37306,28 @@
         <v>359.8836161407863</v>
       </c>
       <c r="K35" t="n">
-        <v>661.3366991265651</v>
+        <v>453.7569785515595</v>
       </c>
       <c r="L35" t="n">
-        <v>800.2926980400175</v>
+        <v>455.5901143923319</v>
       </c>
       <c r="M35" t="n">
-        <v>538.9211158302265</v>
+        <v>988.434649323059</v>
       </c>
       <c r="N35" t="n">
         <v>552.3018354129113</v>
       </c>
       <c r="O35" t="n">
-        <v>508.053000888219</v>
+        <v>888.8531821509644</v>
       </c>
       <c r="P35" t="n">
         <v>720.5606943908542</v>
       </c>
       <c r="Q35" t="n">
-        <v>463.1092954636241</v>
+        <v>250.7943048037194</v>
       </c>
       <c r="R35" t="n">
-        <v>125.3296184152072</v>
+        <v>59.61319854222472</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37397,10 +37397,10 @@
         <v>478.3061046004591</v>
       </c>
       <c r="O36" t="n">
-        <v>415.1124034525805</v>
+        <v>415.1124034525824</v>
       </c>
       <c r="P36" t="n">
-        <v>313.6359509859631</v>
+        <v>313.6359509859624</v>
       </c>
       <c r="Q36" t="n">
         <v>159.2338966127271</v>
@@ -37540,13 +37540,13 @@
         <v>0</v>
       </c>
       <c r="J38" t="n">
-        <v>359.8836161407863</v>
+        <v>190.7870009687125</v>
       </c>
       <c r="K38" t="n">
         <v>337.1912865554004</v>
       </c>
       <c r="L38" t="n">
-        <v>455.5901143923319</v>
+        <v>797.1863282800082</v>
       </c>
       <c r="M38" t="n">
         <v>538.9211158302265</v>
@@ -37555,10 +37555,10 @@
         <v>989.6487598248955</v>
       </c>
       <c r="O38" t="n">
-        <v>739.5540726950853</v>
+        <v>888.8531821509644</v>
       </c>
       <c r="P38" t="n">
-        <v>720.5606943908542</v>
+        <v>398.7619862193716</v>
       </c>
       <c r="Q38" t="n">
         <v>463.1092954636241</v>
@@ -37619,7 +37619,7 @@
         <v>0</v>
       </c>
       <c r="J39" t="n">
-        <v>94.62350453597705</v>
+        <v>94.62350453597767</v>
       </c>
       <c r="K39" t="n">
         <v>240.6709080609567</v>
@@ -37628,7 +37628,7 @@
         <v>370.4021821340053</v>
       </c>
       <c r="M39" t="n">
-        <v>451.7942679013298</v>
+        <v>451.7942679013291</v>
       </c>
       <c r="N39" t="n">
         <v>478.3061046004591</v>
@@ -37777,25 +37777,25 @@
         <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>359.8836161407863</v>
+        <v>190.7870009687125</v>
       </c>
       <c r="K41" t="n">
-        <v>556.525749281418</v>
+        <v>337.1912865554004</v>
       </c>
       <c r="L41" t="n">
-        <v>455.5901143923319</v>
+        <v>873.2513289427824</v>
       </c>
       <c r="M41" t="n">
         <v>988.434649323059</v>
       </c>
       <c r="N41" t="n">
-        <v>552.3018354129113</v>
+        <v>844.8704069320344</v>
       </c>
       <c r="O41" t="n">
         <v>508.053000888219</v>
       </c>
       <c r="P41" t="n">
-        <v>720.5606943908542</v>
+        <v>398.7619862193716</v>
       </c>
       <c r="Q41" t="n">
         <v>463.1092954636241</v>
@@ -37856,7 +37856,7 @@
         <v>0</v>
       </c>
       <c r="J42" t="n">
-        <v>94.62350453597705</v>
+        <v>94.62350453597767</v>
       </c>
       <c r="K42" t="n">
         <v>240.6709080609567</v>
@@ -37871,7 +37871,7 @@
         <v>478.3061046004591</v>
       </c>
       <c r="O42" t="n">
-        <v>415.1124034525811</v>
+        <v>415.1124034525805</v>
       </c>
       <c r="P42" t="n">
         <v>313.6359509859624</v>
@@ -37944,7 +37944,7 @@
         <v>319.7573721701981</v>
       </c>
       <c r="M43" t="n">
-        <v>347.6333793934808</v>
+        <v>347.6333793934838</v>
       </c>
       <c r="N43" t="n">
         <v>344.8569461675401</v>
@@ -38014,25 +38014,25 @@
         <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>359.8836161407863</v>
+        <v>190.7870009687125</v>
       </c>
       <c r="K44" t="n">
-        <v>337.1912865554004</v>
+        <v>661.3366991265651</v>
       </c>
       <c r="L44" t="n">
-        <v>455.5901143923319</v>
+        <v>873.2513289427824</v>
       </c>
       <c r="M44" t="n">
-        <v>988.434649323059</v>
+        <v>538.9211158302265</v>
       </c>
       <c r="N44" t="n">
-        <v>989.6487598248955</v>
+        <v>655.1547664639399</v>
       </c>
       <c r="O44" t="n">
-        <v>508.053000888219</v>
+        <v>888.8531821509644</v>
       </c>
       <c r="P44" t="n">
-        <v>568.2646525778702</v>
+        <v>398.7619862193716</v>
       </c>
       <c r="Q44" t="n">
         <v>463.1092954636241</v>
@@ -38099,7 +38099,7 @@
         <v>240.6709080609567</v>
       </c>
       <c r="L45" t="n">
-        <v>370.4021821340053</v>
+        <v>370.402182134006</v>
       </c>
       <c r="M45" t="n">
         <v>451.7942679013291</v>
@@ -38114,7 +38114,7 @@
         <v>313.6359509859624</v>
       </c>
       <c r="Q45" t="n">
-        <v>159.2338966127279</v>
+        <v>159.2338966127271</v>
       </c>
       <c r="R45" t="n">
         <v>0</v>

--- a/Outputs/1. Budget/Grid Search/Output Files/1500000/Output_8_31.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/1500000/Output_8_31.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.01</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>2560566.177320853</v>
+        <v>2556260.460944782</v>
       </c>
     </row>
     <row r="7">
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>416855.1052283191</v>
+        <v>416855.1052283184</v>
       </c>
     </row>
     <row r="9">
@@ -664,22 +664,22 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F2" t="n">
-        <v>406.8760457417114</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G2" t="n">
-        <v>13.784170020795</v>
+        <v>413.784170020795</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -706,28 +706,28 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>0</v>
+        <v>54.4784025748117</v>
       </c>
       <c r="S2" t="n">
         <v>174.4157128089715</v>
       </c>
       <c r="T2" t="n">
-        <v>216.4483203576578</v>
+        <v>6.74548282293786</v>
       </c>
       <c r="U2" t="n">
-        <v>251.2241675082893</v>
+        <v>0</v>
       </c>
       <c r="V2" t="n">
         <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>50.04985889944312</v>
+        <v>0</v>
       </c>
       <c r="X2" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y2" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -816,13 +816,13 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C4" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E4" t="n">
         <v>0</v>
@@ -834,7 +834,7 @@
         <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>156.1708888417951</v>
+        <v>0</v>
       </c>
       <c r="I4" t="n">
         <v>0</v>
@@ -864,10 +864,10 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>131.8808934717674</v>
+        <v>0</v>
       </c>
       <c r="S4" t="n">
-        <v>212.1455389500189</v>
+        <v>0</v>
       </c>
       <c r="T4" t="n">
         <v>0</v>
@@ -879,13 +879,13 @@
         <v>0</v>
       </c>
       <c r="W4" t="n">
-        <v>0</v>
+        <v>120.4120358099648</v>
       </c>
       <c r="X4" t="n">
         <v>0</v>
       </c>
       <c r="Y4" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="5">
@@ -895,7 +895,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>91.90315852462783</v>
+        <v>0</v>
       </c>
       <c r="C5" t="n">
         <v>0</v>
@@ -907,13 +907,13 @@
         <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>6.876045741711437</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G5" t="n">
         <v>413.784170020795</v>
       </c>
       <c r="H5" t="n">
-        <v>323.9227727643571</v>
+        <v>52.8229012276257</v>
       </c>
       <c r="I5" t="n">
         <v>0</v>
@@ -943,7 +943,7 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>54.4784025748117</v>
+        <v>54.47840257481172</v>
       </c>
       <c r="S5" t="n">
         <v>174.4157128089715</v>
@@ -958,13 +958,13 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
         <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -995,7 +995,7 @@
         <v>104.3883541553076</v>
       </c>
       <c r="I6" t="n">
-        <v>61.42221998250818</v>
+        <v>61.42221998250819</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -1022,7 +1022,7 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>49.71123688229331</v>
+        <v>49.71123688229332</v>
       </c>
       <c r="S6" t="n">
         <v>156.5912426325231</v>
@@ -1053,19 +1053,19 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C7" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D7" t="n">
-        <v>67.25025504144588</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E7" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F7" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G7" t="n">
         <v>0</v>
@@ -1101,7 +1101,7 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>146.6651919801578</v>
+        <v>0</v>
       </c>
       <c r="S7" t="n">
         <v>0</v>
@@ -1110,7 +1110,7 @@
         <v>0</v>
       </c>
       <c r="U7" t="n">
-        <v>286.2818742419777</v>
+        <v>47.14167849255895</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
@@ -1132,25 +1132,25 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C8" t="n">
         <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E8" t="n">
         <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>406.8760457417114</v>
+        <v>86.20316644646553</v>
       </c>
       <c r="G8" t="n">
         <v>412.9169039459368</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>315.0408840752156</v>
       </c>
       <c r="I8" t="n">
         <v>118.4960408938903</v>
@@ -1192,13 +1192,13 @@
         <v>251.1547862223006</v>
       </c>
       <c r="V8" t="n">
-        <v>303.6754493618233</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
         <v>386.2379386560536</v>
@@ -1290,31 +1290,31 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C10" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D10" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E10" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F10" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
         <v>0</v>
       </c>
       <c r="H10" t="n">
-        <v>152.7120966692326</v>
+        <v>0</v>
       </c>
       <c r="I10" t="n">
-        <v>123.266557879417</v>
+        <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>0</v>
+        <v>17.69584188176898</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -1338,10 +1338,10 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>129.1731816677913</v>
+        <v>0</v>
       </c>
       <c r="S10" t="n">
-        <v>205.3658819001186</v>
+        <v>0</v>
       </c>
       <c r="T10" t="n">
         <v>0</v>
@@ -1350,7 +1350,7 @@
         <v>0</v>
       </c>
       <c r="V10" t="n">
-        <v>232.9836538816224</v>
+        <v>0</v>
       </c>
       <c r="W10" t="n">
         <v>0</v>
@@ -1359,7 +1359,7 @@
         <v>0</v>
       </c>
       <c r="Y10" t="n">
-        <v>0</v>
+        <v>184.6902077947043</v>
       </c>
     </row>
     <row r="11">
@@ -1384,10 +1384,10 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G11" t="n">
-        <v>409.8033385187866</v>
+        <v>409.8033385187861</v>
       </c>
       <c r="H11" t="n">
-        <v>283.1540821444123</v>
+        <v>283.1540821444137</v>
       </c>
       <c r="I11" t="n">
         <v>0</v>
@@ -1533,19 +1533,19 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D13" t="n">
-        <v>0</v>
+        <v>34.45703212904674</v>
       </c>
       <c r="E13" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H13" t="n">
-        <v>36.39209596079195</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I13" t="n">
         <v>81.26583631856553</v>
@@ -1575,13 +1575,13 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S13" t="n">
         <v>0</v>
       </c>
       <c r="T13" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U13" t="n">
         <v>286.1844743892441</v>
@@ -1621,7 +1621,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G14" t="n">
-        <v>409.8033385187852</v>
+        <v>409.8033385187866</v>
       </c>
       <c r="H14" t="n">
         <v>283.1540821444137</v>
@@ -1770,13 +1770,13 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D16" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E16" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G16" t="n">
         <v>165.5241382922688</v>
@@ -1818,10 +1818,10 @@
         <v>181.0262860016446</v>
       </c>
       <c r="T16" t="n">
-        <v>217.4054503272883</v>
+        <v>216.8180354051593</v>
       </c>
       <c r="U16" t="n">
-        <v>142.3575218158273</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V16" t="n">
         <v>252.137643323828</v>
@@ -1858,7 +1858,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G17" t="n">
-        <v>409.8033385187866</v>
+        <v>409.8033385187861</v>
       </c>
       <c r="H17" t="n">
         <v>283.1540821444137</v>
@@ -1894,13 +1894,13 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>83.70251495695531</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T17" t="n">
         <v>199.0222304576161</v>
       </c>
       <c r="U17" t="n">
-        <v>250.9057009881275</v>
+        <v>250.9057009881286</v>
       </c>
       <c r="V17" t="n">
         <v>327.7522584701349</v>
@@ -1940,7 +1940,7 @@
         <v>134.4010792945512</v>
       </c>
       <c r="H18" t="n">
-        <v>83.81768903128547</v>
+        <v>83.81768903128545</v>
       </c>
       <c r="I18" t="n">
         <v>0</v>
@@ -2007,13 +2007,13 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D19" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E19" t="n">
-        <v>145.7379152067518</v>
+        <v>0</v>
       </c>
       <c r="F19" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G19" t="n">
         <v>165.5241382922688</v>
@@ -2022,7 +2022,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I19" t="n">
-        <v>81.26583631856555</v>
+        <v>0</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2049,7 +2049,7 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>0</v>
+        <v>9.146142788179482</v>
       </c>
       <c r="S19" t="n">
         <v>181.0262860016446</v>
@@ -2058,7 +2058,7 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U19" t="n">
-        <v>0</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V19" t="n">
         <v>252.137643323828</v>
@@ -2067,7 +2067,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X19" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y19" t="n">
         <v>218.5846533520948</v>
@@ -2244,19 +2244,19 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D22" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E22" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I22" t="n">
         <v>0</v>
@@ -2286,7 +2286,7 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>0</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S22" t="n">
         <v>181.0262860016446</v>
@@ -2298,7 +2298,7 @@
         <v>286.1844743892441</v>
       </c>
       <c r="V22" t="n">
-        <v>252.137643323828</v>
+        <v>194.9085394018862</v>
       </c>
       <c r="W22" t="n">
         <v>286.522998336591</v>
@@ -2307,7 +2307,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y22" t="n">
-        <v>93.07916359105552</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="23">
@@ -2368,7 +2368,7 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T23" t="n">
         <v>199.0222304576161</v>
@@ -2478,22 +2478,22 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C25" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D25" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E25" t="n">
-        <v>22.65115569188744</v>
+        <v>0</v>
       </c>
       <c r="F25" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G25" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I25" t="n">
         <v>0</v>
@@ -2529,7 +2529,7 @@
         <v>181.0262860016446</v>
       </c>
       <c r="T25" t="n">
-        <v>217.4054503272883</v>
+        <v>77.93612009725614</v>
       </c>
       <c r="U25" t="n">
         <v>286.1844743892441</v>
@@ -2605,7 +2605,7 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T26" t="n">
         <v>199.0222304576161</v>
@@ -2718,13 +2718,13 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D28" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E28" t="n">
-        <v>79.36266849663015</v>
+        <v>0</v>
       </c>
       <c r="F28" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G28" t="n">
         <v>165.5241382922688</v>
@@ -2733,7 +2733,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I28" t="n">
-        <v>81.26583631856553</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2760,7 +2760,7 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S28" t="n">
         <v>181.0262860016446</v>
@@ -2769,7 +2769,7 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U28" t="n">
-        <v>0</v>
+        <v>214.0647808588585</v>
       </c>
       <c r="V28" t="n">
         <v>252.137643323828</v>
@@ -2778,7 +2778,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X28" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y28" t="n">
         <v>218.5846533520948</v>
@@ -2842,7 +2842,7 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T29" t="n">
         <v>199.0222304576161</v>
@@ -2955,19 +2955,19 @@
         <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>129.1078928223853</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E31" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F31" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G31" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H31" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I31" t="n">
         <v>0</v>
@@ -2997,7 +2997,7 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>66.37524671012169</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S31" t="n">
         <v>181.0262860016446</v>
@@ -3012,7 +3012,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W31" t="n">
-        <v>286.522998336591</v>
+        <v>242.7989073183574</v>
       </c>
       <c r="X31" t="n">
         <v>225.7096553890372</v>
@@ -3079,7 +3079,7 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T32" t="n">
         <v>199.0222304576161</v>
@@ -3189,25 +3189,25 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C34" t="n">
-        <v>102.9012384238807</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D34" t="n">
         <v>0</v>
       </c>
       <c r="E34" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F34" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>165.5241382922688</v>
+        <v>108.2950343703271</v>
       </c>
       <c r="H34" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I34" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3234,7 +3234,7 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>66.37524671012169</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S34" t="n">
         <v>181.0262860016446</v>
@@ -3252,7 +3252,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X34" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y34" t="n">
         <v>218.5846533520948</v>
@@ -3432,19 +3432,19 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E37" t="n">
-        <v>146.4339626465692</v>
+        <v>18.7084378797731</v>
       </c>
       <c r="F37" t="n">
         <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H37" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I37" t="n">
-        <v>81.26583631856553</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3471,10 +3471,10 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>39.56681219551418</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S37" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T37" t="n">
         <v>217.4054503272883</v>
@@ -3489,7 +3489,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X37" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y37" t="n">
         <v>218.5846533520948</v>
@@ -3553,10 +3553,10 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T38" t="n">
-        <v>199.0222304576161</v>
+        <v>199.0222304576164</v>
       </c>
       <c r="U38" t="n">
         <v>250.9057009881286</v>
@@ -3660,19 +3660,19 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C40" t="n">
-        <v>54.63637568893558</v>
+        <v>28.75188085812055</v>
       </c>
       <c r="D40" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E40" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F40" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G40" t="n">
         <v>165.5241382922688</v>
@@ -3681,7 +3681,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I40" t="n">
-        <v>81.26583631856553</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3708,7 +3708,7 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>66.37524671012169</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S40" t="n">
         <v>181.0262860016446</v>
@@ -3723,7 +3723,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W40" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X40" t="n">
         <v>225.7096553890372</v>
@@ -3757,7 +3757,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H41" t="n">
-        <v>283.1540821444132</v>
+        <v>283.1540821444137</v>
       </c>
       <c r="I41" t="n">
         <v>0</v>
@@ -3790,7 +3790,7 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T41" t="n">
         <v>199.0222304576161</v>
@@ -3900,25 +3900,25 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C43" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D43" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E43" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F43" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>0</v>
+        <v>19.91555826189102</v>
       </c>
       <c r="H43" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I43" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3945,7 +3945,7 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S43" t="n">
         <v>181.0262860016446</v>
@@ -3966,7 +3966,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y43" t="n">
-        <v>121.0056618329842</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="44">
@@ -4140,13 +4140,13 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D46" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E46" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F46" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G46" t="n">
         <v>165.5241382922688</v>
@@ -4155,7 +4155,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I46" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4182,16 +4182,16 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S46" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T46" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U46" t="n">
-        <v>172.0260335000785</v>
+        <v>228.9553704673018</v>
       </c>
       <c r="V46" t="n">
         <v>252.137643323828</v>
@@ -4306,31 +4306,31 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>847.8148076117928</v>
+        <v>2072.529454785695</v>
       </c>
       <c r="C2" t="n">
-        <v>478.8522906713811</v>
+        <v>1703.566937845283</v>
       </c>
       <c r="D2" t="n">
-        <v>478.8522906713811</v>
+        <v>1345.301239238533</v>
       </c>
       <c r="E2" t="n">
-        <v>478.8522906713811</v>
+        <v>959.5129866402885</v>
       </c>
       <c r="F2" t="n">
-        <v>67.86638588177355</v>
+        <v>952.5674858910851</v>
       </c>
       <c r="G2" t="n">
-        <v>53.94298182036445</v>
+        <v>534.603677789272</v>
       </c>
       <c r="H2" t="n">
-        <v>53.94298182036445</v>
+        <v>207.4089578252748</v>
       </c>
       <c r="I2" t="n">
         <v>53.94298182036445</v>
       </c>
       <c r="J2" t="n">
-        <v>169.7108380533142</v>
+        <v>169.7108380533141</v>
       </c>
       <c r="K2" t="n">
         <v>463.9616490733127</v>
@@ -4354,28 +4354,28 @@
         <v>2697.149091018222</v>
       </c>
       <c r="R2" t="n">
-        <v>2697.149091018222</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="S2" t="n">
-        <v>2520.971603332393</v>
+        <v>2465.942913862886</v>
       </c>
       <c r="T2" t="n">
-        <v>2302.336936304455</v>
+        <v>2459.129294849817</v>
       </c>
       <c r="U2" t="n">
-        <v>2048.575150942547</v>
+        <v>2459.129294849817</v>
       </c>
       <c r="V2" t="n">
-        <v>2048.575150942547</v>
+        <v>2459.129294849817</v>
       </c>
       <c r="W2" t="n">
-        <v>1998.019737912806</v>
+        <v>2459.129294849817</v>
       </c>
       <c r="X2" t="n">
-        <v>1624.553979651726</v>
+        <v>2459.129294849817</v>
       </c>
       <c r="Y2" t="n">
-        <v>1234.414647675915</v>
+        <v>2459.129294849817</v>
       </c>
     </row>
     <row r="3">
@@ -4400,40 +4400,40 @@
         <v>359.3385232961342</v>
       </c>
       <c r="G3" t="n">
-        <v>221.4284102424006</v>
+        <v>221.4284102424008</v>
       </c>
       <c r="H3" t="n">
-        <v>115.9856282673424</v>
+        <v>115.9856282673427</v>
       </c>
       <c r="I3" t="n">
         <v>53.94298182036445</v>
       </c>
       <c r="J3" t="n">
-        <v>53.94298182036445</v>
+        <v>129.2001442204943</v>
       </c>
       <c r="K3" t="n">
-        <v>309.190302261463</v>
+        <v>384.4474646615928</v>
       </c>
       <c r="L3" t="n">
-        <v>713.8062203571349</v>
+        <v>789.0633827572647</v>
       </c>
       <c r="M3" t="n">
-        <v>1237.953133915166</v>
+        <v>1313.210296315296</v>
       </c>
       <c r="N3" t="n">
-        <v>1791.679670014717</v>
+        <v>1866.936832414847</v>
       </c>
       <c r="O3" t="n">
-        <v>2231.815593035061</v>
+        <v>2307.072755435191</v>
       </c>
       <c r="P3" t="n">
-        <v>2568.06040664989</v>
+        <v>2643.31756905002</v>
       </c>
       <c r="Q3" t="n">
         <v>2697.149091018222</v>
       </c>
       <c r="R3" t="n">
-        <v>2646.935720430048</v>
+        <v>2646.935720430047</v>
       </c>
       <c r="S3" t="n">
         <v>2488.762748073963</v>
@@ -4464,22 +4464,22 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>380.6275373157412</v>
+        <v>204.0596212327002</v>
       </c>
       <c r="C4" t="n">
-        <v>211.6913543878343</v>
+        <v>204.0596212327002</v>
       </c>
       <c r="D4" t="n">
-        <v>211.6913543878343</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="E4" t="n">
-        <v>211.6913543878343</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="F4" t="n">
-        <v>211.6913543878343</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="G4" t="n">
-        <v>211.6913543878343</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H4" t="n">
         <v>53.94298182036445</v>
@@ -4512,28 +4512,28 @@
         <v>728.1289842064344</v>
       </c>
       <c r="R4" t="n">
-        <v>594.9159604975785</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="S4" t="n">
-        <v>380.6275373157412</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="T4" t="n">
-        <v>380.6275373157412</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="U4" t="n">
-        <v>380.6275373157412</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="V4" t="n">
-        <v>380.6275373157412</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="W4" t="n">
-        <v>380.6275373157412</v>
+        <v>606.50066520647</v>
       </c>
       <c r="X4" t="n">
-        <v>380.6275373157412</v>
+        <v>606.50066520647</v>
       </c>
       <c r="Y4" t="n">
-        <v>380.6275373157412</v>
+        <v>385.7080860629399</v>
       </c>
     </row>
     <row r="5">
@@ -4543,22 +4543,22 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>806.0470106353782</v>
+        <v>936.2491605982757</v>
       </c>
       <c r="C5" t="n">
-        <v>806.0470106353782</v>
+        <v>936.2491605982757</v>
       </c>
       <c r="D5" t="n">
-        <v>806.0470106353782</v>
+        <v>936.2491605982757</v>
       </c>
       <c r="E5" t="n">
-        <v>806.0470106353782</v>
+        <v>936.2491605982757</v>
       </c>
       <c r="F5" t="n">
-        <v>799.1015098861748</v>
+        <v>525.2632558086682</v>
       </c>
       <c r="G5" t="n">
-        <v>381.1377017843616</v>
+        <v>107.2994477068551</v>
       </c>
       <c r="H5" t="n">
         <v>53.94298182036445</v>
@@ -4567,19 +4567,19 @@
         <v>53.94298182036445</v>
       </c>
       <c r="J5" t="n">
-        <v>169.7108380533141</v>
+        <v>169.7108380533139</v>
       </c>
       <c r="K5" t="n">
-        <v>463.9616490733127</v>
+        <v>463.9616490733123</v>
       </c>
       <c r="L5" t="n">
-        <v>881.2824271224076</v>
+        <v>881.2824271224072</v>
       </c>
       <c r="M5" t="n">
         <v>1362.238747280443</v>
       </c>
       <c r="N5" t="n">
-        <v>1836.345445977175</v>
+        <v>1836.345445977174</v>
       </c>
       <c r="O5" t="n">
         <v>2238.843319642689</v>
@@ -4606,13 +4606,13 @@
         <v>1662.48357412947</v>
       </c>
       <c r="W5" t="n">
-        <v>1662.48357412947</v>
+        <v>1309.714918859356</v>
       </c>
       <c r="X5" t="n">
-        <v>1289.01781586839</v>
+        <v>936.2491605982757</v>
       </c>
       <c r="Y5" t="n">
-        <v>898.8784838925781</v>
+        <v>936.2491605982757</v>
       </c>
     </row>
     <row r="6">
@@ -4652,10 +4652,10 @@
         <v>384.4474646615928</v>
       </c>
       <c r="L6" t="n">
-        <v>789.0633827572647</v>
+        <v>670.8219208598713</v>
       </c>
       <c r="M6" t="n">
-        <v>1313.210296315296</v>
+        <v>1194.968834417902</v>
       </c>
       <c r="N6" t="n">
         <v>1748.695370517453</v>
@@ -4701,16 +4701,16 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>290.8087152951864</v>
+        <v>498.8626623130036</v>
       </c>
       <c r="C7" t="n">
-        <v>121.8725323672795</v>
+        <v>498.8626623130036</v>
       </c>
       <c r="D7" t="n">
-        <v>53.94298182036445</v>
+        <v>348.7460229006679</v>
       </c>
       <c r="E7" t="n">
-        <v>53.94298182036445</v>
+        <v>200.8329293182748</v>
       </c>
       <c r="F7" t="n">
         <v>53.94298182036445</v>
@@ -4731,46 +4731,46 @@
         <v>110.2451748866326</v>
       </c>
       <c r="L7" t="n">
-        <v>237.8190324477911</v>
+        <v>237.819032447791</v>
       </c>
       <c r="M7" t="n">
-        <v>382.716901165821</v>
+        <v>382.7169011658209</v>
       </c>
       <c r="N7" t="n">
-        <v>529.6040388502502</v>
+        <v>529.6040388502499</v>
       </c>
       <c r="O7" t="n">
-        <v>649.2617893594903</v>
+        <v>649.2617893594901</v>
       </c>
       <c r="P7" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="Q7" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="R7" t="n">
-        <v>579.9823256406185</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="S7" t="n">
-        <v>579.9823256406185</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="T7" t="n">
-        <v>579.9823256406185</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="U7" t="n">
-        <v>290.8087152951864</v>
+        <v>680.5111271432434</v>
       </c>
       <c r="V7" t="n">
-        <v>290.8087152951864</v>
+        <v>680.5111271432434</v>
       </c>
       <c r="W7" t="n">
-        <v>290.8087152951864</v>
+        <v>680.5111271432434</v>
       </c>
       <c r="X7" t="n">
-        <v>290.8087152951864</v>
+        <v>680.5111271432434</v>
       </c>
       <c r="Y7" t="n">
-        <v>290.8087152951864</v>
+        <v>680.5111271432434</v>
       </c>
     </row>
     <row r="8">
@@ -4780,22 +4780,22 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1359.975337580184</v>
+        <v>996.020754912797</v>
       </c>
       <c r="C8" t="n">
-        <v>1359.975337580184</v>
+        <v>996.020754912797</v>
       </c>
       <c r="D8" t="n">
-        <v>1001.709638973434</v>
+        <v>996.020754912797</v>
       </c>
       <c r="E8" t="n">
-        <v>1001.709638973434</v>
+        <v>996.020754912797</v>
       </c>
       <c r="F8" t="n">
-        <v>590.7237341838262</v>
+        <v>908.9468494113166</v>
       </c>
       <c r="G8" t="n">
-        <v>173.6359524202537</v>
+        <v>491.8590676477442</v>
       </c>
       <c r="H8" t="n">
         <v>173.6359524202537</v>
@@ -4813,16 +4813,16 @@
         <v>1198.863252100346</v>
       </c>
       <c r="M8" t="n">
-        <v>1658.154845695085</v>
+        <v>1830.581063083657</v>
       </c>
       <c r="N8" t="n">
-        <v>1852.489058587068</v>
+        <v>2381.261620430141</v>
       </c>
       <c r="O8" t="n">
-        <v>2022.658083904027</v>
+        <v>2551.430645747101</v>
       </c>
       <c r="P8" t="n">
-        <v>2451.973130243322</v>
+        <v>2662.164970996627</v>
       </c>
       <c r="Q8" t="n">
         <v>2697.149091018222</v>
@@ -4840,16 +4840,16 @@
         <v>2443.457387763373</v>
       </c>
       <c r="V8" t="n">
-        <v>2136.714509620117</v>
+        <v>2112.394500419803</v>
       </c>
       <c r="W8" t="n">
-        <v>2136.714509620117</v>
+        <v>1759.625845149689</v>
       </c>
       <c r="X8" t="n">
-        <v>2136.714509620117</v>
+        <v>1386.160086888609</v>
       </c>
       <c r="Y8" t="n">
-        <v>1746.575177644306</v>
+        <v>996.020754912797</v>
       </c>
     </row>
     <row r="9">
@@ -4889,19 +4889,19 @@
         <v>502.03063798307</v>
       </c>
       <c r="L9" t="n">
-        <v>1006.392177849189</v>
+        <v>647.3357122852804</v>
       </c>
       <c r="M9" t="n">
-        <v>1185.889514203793</v>
+        <v>1287.881061752385</v>
       </c>
       <c r="N9" t="n">
-        <v>1432.170805967367</v>
+        <v>1955.425461779395</v>
       </c>
       <c r="O9" t="n">
-        <v>1981.606814720089</v>
+        <v>2504.861470532118</v>
       </c>
       <c r="P9" t="n">
-        <v>2405.574583200926</v>
+        <v>2613.551098059417</v>
       </c>
       <c r="Q9" t="n">
         <v>2636.288039261394</v>
@@ -4938,28 +4938,28 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>480.6223931286662</v>
+        <v>685.6734330002731</v>
       </c>
       <c r="C10" t="n">
-        <v>480.6223931286662</v>
+        <v>516.7372500723662</v>
       </c>
       <c r="D10" t="n">
-        <v>480.6223931286662</v>
+        <v>366.6206106600305</v>
       </c>
       <c r="E10" t="n">
-        <v>332.7092995462731</v>
+        <v>218.7075170776374</v>
       </c>
       <c r="F10" t="n">
-        <v>332.7092995462731</v>
+        <v>71.81756957972706</v>
       </c>
       <c r="G10" t="n">
-        <v>332.7092995462731</v>
+        <v>71.81756957972706</v>
       </c>
       <c r="H10" t="n">
-        <v>178.4546564460382</v>
+        <v>71.81756957972706</v>
       </c>
       <c r="I10" t="n">
-        <v>53.94298182036445</v>
+        <v>71.81756957972706</v>
       </c>
       <c r="J10" t="n">
         <v>53.94298182036445</v>
@@ -4986,28 +4986,28 @@
         <v>1053.877663279709</v>
       </c>
       <c r="R10" t="n">
-        <v>923.3997019991118</v>
+        <v>1053.877663279709</v>
       </c>
       <c r="S10" t="n">
-        <v>715.9594172515172</v>
+        <v>1053.877663279709</v>
       </c>
       <c r="T10" t="n">
-        <v>715.9594172515172</v>
+        <v>1053.877663279709</v>
       </c>
       <c r="U10" t="n">
-        <v>715.9594172515172</v>
+        <v>1053.877663279709</v>
       </c>
       <c r="V10" t="n">
-        <v>480.6223931286662</v>
+        <v>1053.877663279709</v>
       </c>
       <c r="W10" t="n">
-        <v>480.6223931286662</v>
+        <v>1053.877663279709</v>
       </c>
       <c r="X10" t="n">
-        <v>480.6223931286662</v>
+        <v>1053.877663279709</v>
       </c>
       <c r="Y10" t="n">
-        <v>480.6223931286662</v>
+        <v>867.3218978305129</v>
       </c>
     </row>
     <row r="11">
@@ -5017,28 +5017,28 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>2317.776026551874</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C11" t="n">
-        <v>1948.813509611462</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D11" t="n">
         <v>1590.547811004712</v>
       </c>
       <c r="E11" t="n">
-        <v>1204.759558406467</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F11" t="n">
-        <v>793.7736536168597</v>
+        <v>793.7736536168607</v>
       </c>
       <c r="G11" t="n">
-        <v>379.8308874362672</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H11" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I11" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J11" t="n">
         <v>378.1925803111715</v>
@@ -5059,34 +5059,34 @@
         <v>3640.422291068009</v>
       </c>
       <c r="P11" t="n">
-        <v>4194.413870694706</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q11" t="n">
-        <v>4562.265728852254</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R11" t="n">
         <v>4690.833152398593</v>
       </c>
       <c r="S11" t="n">
-        <v>4606.285157492577</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T11" t="n">
-        <v>4405.252601474783</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U11" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V11" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W11" t="n">
-        <v>3467.980956852887</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X11" t="n">
-        <v>3094.515198591807</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y11" t="n">
-        <v>2704.375866615996</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="12">
@@ -5114,16 +5114,16 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H12" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I12" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J12" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="K12" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="L12" t="n">
         <v>589.1422692637306</v>
@@ -5135,10 +5135,10 @@
         <v>1814.118720444889</v>
       </c>
       <c r="O12" t="n">
-        <v>1896.176478190825</v>
+        <v>2366.028450684176</v>
       </c>
       <c r="P12" t="n">
-        <v>2319.799627685893</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q12" t="n">
         <v>2553.061288060775</v>
@@ -5175,28 +5175,28 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>696.7084350851671</v>
+        <v>983.3556038098237</v>
       </c>
       <c r="C13" t="n">
-        <v>527.7722521572603</v>
+        <v>814.4194208819168</v>
       </c>
       <c r="D13" t="n">
-        <v>527.7722521572603</v>
+        <v>779.6143379232838</v>
       </c>
       <c r="E13" t="n">
-        <v>379.8591585748671</v>
+        <v>631.7012443408906</v>
       </c>
       <c r="F13" t="n">
-        <v>379.8591585748671</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="G13" t="n">
-        <v>212.6630592897471</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H13" t="n">
-        <v>175.9033664000582</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I13" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J13" t="n">
         <v>174.0526814782957</v>
@@ -5223,28 +5223,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R13" t="n">
-        <v>2379.917379832663</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S13" t="n">
-        <v>2379.917379832663</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="T13" t="n">
-        <v>2160.315914855604</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="U13" t="n">
-        <v>1871.240688199802</v>
+        <v>2157.887856924458</v>
       </c>
       <c r="V13" t="n">
-        <v>1616.556199993915</v>
+        <v>1903.203368718571</v>
       </c>
       <c r="W13" t="n">
-        <v>1327.139029956954</v>
+        <v>1613.786198681611</v>
       </c>
       <c r="X13" t="n">
-        <v>1099.149479058937</v>
+        <v>1385.796647783593</v>
       </c>
       <c r="Y13" t="n">
-        <v>878.3568999154069</v>
+        <v>1165.004068640063</v>
       </c>
     </row>
     <row r="14">
@@ -5254,34 +5254,34 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>2317.776026551874</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C14" t="n">
-        <v>1948.813509611462</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D14" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E14" t="n">
-        <v>1204.759558406467</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F14" t="n">
-        <v>793.7736536168597</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G14" t="n">
         <v>379.8308874362686</v>
       </c>
       <c r="H14" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I14" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J14" t="n">
-        <v>378.1925803111715</v>
+        <v>378.192580311172</v>
       </c>
       <c r="K14" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075813</v>
       </c>
       <c r="L14" t="n">
         <v>1478.611553332387</v>
@@ -5299,31 +5299,31 @@
         <v>4194.413870694707</v>
       </c>
       <c r="Q14" t="n">
-        <v>4562.265728852254</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R14" t="n">
         <v>4690.833152398593</v>
       </c>
       <c r="S14" t="n">
-        <v>4606.285157492577</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T14" t="n">
-        <v>4405.252601474783</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U14" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V14" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W14" t="n">
-        <v>3467.980956852887</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X14" t="n">
-        <v>3094.515198591807</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y14" t="n">
-        <v>2704.375866615996</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="15">
@@ -5351,28 +5351,28 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H15" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I15" t="n">
-        <v>93.81666304797186</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J15" t="n">
-        <v>93.81666304797186</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K15" t="n">
-        <v>93.81666304797186</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L15" t="n">
-        <v>589.1422692637306</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M15" t="n">
-        <v>1186.520756890282</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N15" t="n">
-        <v>1814.118720444889</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O15" t="n">
-        <v>2366.028450684176</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P15" t="n">
         <v>2553.061288060775</v>
@@ -5412,28 +5412,28 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>948.5505208511905</v>
+        <v>803.8641191832229</v>
       </c>
       <c r="C16" t="n">
-        <v>779.6143379232836</v>
+        <v>634.927936255316</v>
       </c>
       <c r="D16" t="n">
-        <v>779.6143379232836</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="E16" t="n">
-        <v>631.7012443408905</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="F16" t="n">
-        <v>484.8112968429802</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="G16" t="n">
-        <v>317.6151975578601</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H16" t="n">
-        <v>175.9033664000582</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I16" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J16" t="n">
         <v>174.0526814782957</v>
@@ -5466,22 +5466,22 @@
         <v>2197.062545487567</v>
       </c>
       <c r="T16" t="n">
-        <v>1977.461080510508</v>
+        <v>1978.054428916699</v>
       </c>
       <c r="U16" t="n">
-        <v>1833.665603928865</v>
+        <v>1688.979202260897</v>
       </c>
       <c r="V16" t="n">
-        <v>1578.981115722978</v>
+        <v>1434.29471405501</v>
       </c>
       <c r="W16" t="n">
-        <v>1578.981115722978</v>
+        <v>1434.29471405501</v>
       </c>
       <c r="X16" t="n">
-        <v>1350.99156482496</v>
+        <v>1206.305163156993</v>
       </c>
       <c r="Y16" t="n">
-        <v>1130.19898568143</v>
+        <v>985.5125840134626</v>
       </c>
     </row>
     <row r="17">
@@ -5497,55 +5497,55 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D17" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E17" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F17" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168607</v>
       </c>
       <c r="G17" t="n">
-        <v>379.8308874362685</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H17" t="n">
-        <v>93.81666304797176</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I17" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192616</v>
       </c>
       <c r="J17" t="n">
         <v>378.1925803111717</v>
       </c>
       <c r="K17" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L17" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M17" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N17" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O17" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P17" t="n">
         <v>4194.413870694707</v>
       </c>
       <c r="Q17" t="n">
-        <v>4562.265728852254</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R17" t="n">
         <v>4690.833152398593</v>
       </c>
       <c r="S17" t="n">
-        <v>4606.285157492577</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T17" t="n">
-        <v>4405.252601474783</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U17" t="n">
         <v>4151.812499466573</v>
@@ -5588,28 +5588,28 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H18" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I18" t="n">
-        <v>93.81666304797186</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J18" t="n">
-        <v>243.4633055756265</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K18" t="n">
-        <v>577.3880777468471</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L18" t="n">
-        <v>577.3880777468471</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M18" t="n">
-        <v>1174.766565373399</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N18" t="n">
-        <v>1802.364528928005</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O18" t="n">
-        <v>2129.438138565707</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P18" t="n">
         <v>2553.061288060775</v>
@@ -5649,37 +5649,37 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>1097.964082041489</v>
+        <v>571.6607764188008</v>
       </c>
       <c r="C19" t="n">
-        <v>929.0278991135817</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="D19" t="n">
-        <v>778.911259701246</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="E19" t="n">
-        <v>631.7012443408906</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="F19" t="n">
-        <v>484.8112968429803</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="G19" t="n">
-        <v>317.6151975578602</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H19" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I19" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J19" t="n">
         <v>174.0526814782957</v>
       </c>
       <c r="K19" t="n">
-        <v>435.7419440038342</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L19" t="n">
-        <v>826.1405381797744</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M19" t="n">
         <v>1248.150240910809</v>
@@ -5697,28 +5697,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R19" t="n">
-        <v>2446.96308358026</v>
+        <v>2437.724555511392</v>
       </c>
       <c r="S19" t="n">
-        <v>2264.108249235165</v>
+        <v>2254.869721166297</v>
       </c>
       <c r="T19" t="n">
-        <v>2044.506784258106</v>
+        <v>2035.268256189238</v>
       </c>
       <c r="U19" t="n">
-        <v>2044.506784258106</v>
+        <v>1746.193029533436</v>
       </c>
       <c r="V19" t="n">
-        <v>1789.822296052219</v>
+        <v>1491.508541327549</v>
       </c>
       <c r="W19" t="n">
-        <v>1500.405126015258</v>
+        <v>1202.091371290588</v>
       </c>
       <c r="X19" t="n">
-        <v>1500.405126015258</v>
+        <v>974.1018203925706</v>
       </c>
       <c r="Y19" t="n">
-        <v>1279.612546871728</v>
+        <v>753.3092412490405</v>
       </c>
     </row>
     <row r="20">
@@ -5731,25 +5731,25 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C20" t="n">
-        <v>1948.813509611464</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D20" t="n">
-        <v>1590.547811004714</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E20" t="n">
-        <v>1204.75955840647</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F20" t="n">
-        <v>793.773653616862</v>
+        <v>793.7736536168613</v>
       </c>
       <c r="G20" t="n">
-        <v>379.8308874362685</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H20" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I20" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192598</v>
       </c>
       <c r="J20" t="n">
         <v>378.1925803111716</v>
@@ -5773,28 +5773,28 @@
         <v>4194.413870694708</v>
       </c>
       <c r="Q20" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R20" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S20" t="n">
-        <v>4606.285157492579</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T20" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U20" t="n">
-        <v>4151.812499466574</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V20" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W20" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X20" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y20" t="n">
         <v>2704.375866615997</v>
@@ -5825,31 +5825,31 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H21" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I21" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J21" t="n">
-        <v>93.81666304797186</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K21" t="n">
-        <v>93.81666304797186</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L21" t="n">
-        <v>589.1422692637307</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M21" t="n">
-        <v>1186.520756890282</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N21" t="n">
-        <v>1344.266747951537</v>
+        <v>2297.690135143765</v>
       </c>
       <c r="O21" t="n">
-        <v>1896.176478190824</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P21" t="n">
-        <v>2319.799627685893</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q21" t="n">
         <v>2553.061288060775</v>
@@ -5886,76 +5886,76 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>2951.54259528685</v>
+        <v>571.6607764188008</v>
       </c>
       <c r="C22" t="n">
-        <v>2782.606412358943</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="D22" t="n">
-        <v>2632.489772946607</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="E22" t="n">
-        <v>2484.576679364214</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="F22" t="n">
-        <v>2337.686731866303</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="G22" t="n">
-        <v>2337.686731866303</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H22" t="n">
-        <v>2337.686731866303</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I22" t="n">
-        <v>2337.686731866303</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J22" t="n">
-        <v>2417.922750296627</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K22" t="n">
-        <v>2679.612012822166</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L22" t="n">
-        <v>3070.010606998106</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M22" t="n">
-        <v>3492.020309729141</v>
+        <v>1248.150240910809</v>
       </c>
       <c r="N22" t="n">
-        <v>3909.430181389149</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O22" t="n">
-        <v>4278.959462098134</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P22" t="n">
-        <v>4571.634917671693</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q22" t="n">
-        <v>4690.833152398593</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R22" t="n">
-        <v>4690.833152398593</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S22" t="n">
-        <v>4507.978318053497</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T22" t="n">
-        <v>4288.376853076438</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U22" t="n">
-        <v>3999.301626420636</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V22" t="n">
-        <v>3744.61713821475</v>
+        <v>1491.508541327549</v>
       </c>
       <c r="W22" t="n">
-        <v>3455.199968177789</v>
+        <v>1202.091371290588</v>
       </c>
       <c r="X22" t="n">
-        <v>3227.210417279772</v>
+        <v>974.1018203925706</v>
       </c>
       <c r="Y22" t="n">
-        <v>3133.191060117089</v>
+        <v>753.3092412490405</v>
       </c>
     </row>
     <row r="23">
@@ -5983,16 +5983,16 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H23" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I23" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192598</v>
       </c>
       <c r="J23" t="n">
-        <v>378.192580311172</v>
+        <v>378.1925803111716</v>
       </c>
       <c r="K23" t="n">
-        <v>852.8523611075813</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L23" t="n">
         <v>1478.611553332387</v>
@@ -6001,16 +6001,16 @@
         <v>2206.558663014779</v>
       </c>
       <c r="N23" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O23" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P23" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q23" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R23" t="n">
         <v>4690.833152398593</v>
@@ -6062,25 +6062,25 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H24" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I24" t="n">
-        <v>95.58405025273902</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J24" t="n">
-        <v>245.2306927803937</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K24" t="n">
-        <v>280.8495004245706</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L24" t="n">
-        <v>776.1751066403293</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M24" t="n">
-        <v>1373.553594266881</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N24" t="n">
-        <v>2001.151557821488</v>
+        <v>2297.690135143765</v>
       </c>
       <c r="O24" t="n">
         <v>2553.061288060775</v>
@@ -6123,76 +6123,76 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>580.8993044876688</v>
+        <v>721.7774158311364</v>
       </c>
       <c r="C25" t="n">
-        <v>580.8993044876688</v>
+        <v>552.8412329032295</v>
       </c>
       <c r="D25" t="n">
-        <v>430.7826650753331</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="E25" t="n">
-        <v>407.9027098310023</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="F25" t="n">
-        <v>261.0127623330919</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="G25" t="n">
-        <v>93.81666304797186</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H25" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I25" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J25" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K25" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L25" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M25" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N25" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O25" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P25" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q25" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R25" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="S25" t="n">
         <v>2264.108249235165</v>
       </c>
       <c r="T25" t="n">
-        <v>2044.506784258106</v>
+        <v>2185.384895601573</v>
       </c>
       <c r="U25" t="n">
-        <v>1755.431557602304</v>
+        <v>1896.309668945771</v>
       </c>
       <c r="V25" t="n">
-        <v>1500.747069396417</v>
+        <v>1641.625180739884</v>
       </c>
       <c r="W25" t="n">
-        <v>1211.329899359456</v>
+        <v>1352.208010702924</v>
       </c>
       <c r="X25" t="n">
-        <v>983.3403484614387</v>
+        <v>1124.218459804906</v>
       </c>
       <c r="Y25" t="n">
-        <v>762.5477693179085</v>
+        <v>903.4258806613761</v>
       </c>
     </row>
     <row r="26">
@@ -6223,22 +6223,22 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I26" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192598</v>
       </c>
       <c r="J26" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111701</v>
       </c>
       <c r="K26" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075794</v>
       </c>
       <c r="L26" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M26" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N26" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O26" t="n">
         <v>3640.422291068009</v>
@@ -6302,31 +6302,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I27" t="n">
-        <v>95.58405025273903</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J27" t="n">
-        <v>95.58405025273903</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K27" t="n">
-        <v>429.5088224239596</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L27" t="n">
-        <v>924.8344286397182</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M27" t="n">
-        <v>1522.21291626627</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N27" t="n">
-        <v>2149.810879820877</v>
+        <v>2297.690135143765</v>
       </c>
       <c r="O27" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P27" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q27" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R27" t="n">
         <v>2553.061288060775</v>
@@ -6360,76 +6360,76 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>1030.918378293891</v>
+        <v>653.7474797708871</v>
       </c>
       <c r="C28" t="n">
-        <v>861.9821953659841</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="D28" t="n">
-        <v>711.8655559536484</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="E28" t="n">
-        <v>631.7012443408906</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="F28" t="n">
-        <v>484.8112968429803</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="G28" t="n">
-        <v>317.6151975578602</v>
+        <v>317.6151975578601</v>
       </c>
       <c r="H28" t="n">
-        <v>175.9033664000583</v>
+        <v>175.9033664000582</v>
       </c>
       <c r="I28" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="J28" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K28" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L28" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M28" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N28" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O28" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P28" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q28" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R28" t="n">
-        <v>2379.917379832663</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="S28" t="n">
-        <v>2197.062545487567</v>
+        <v>2264.108249235165</v>
       </c>
       <c r="T28" t="n">
-        <v>1977.461080510508</v>
+        <v>2044.506784258106</v>
       </c>
       <c r="U28" t="n">
-        <v>1977.461080510508</v>
+        <v>1828.279732885522</v>
       </c>
       <c r="V28" t="n">
-        <v>1722.776592304621</v>
+        <v>1573.595244679635</v>
       </c>
       <c r="W28" t="n">
-        <v>1433.359422267661</v>
+        <v>1284.178074642674</v>
       </c>
       <c r="X28" t="n">
-        <v>1433.359422267661</v>
+        <v>1056.188523744657</v>
       </c>
       <c r="Y28" t="n">
-        <v>1212.566843124131</v>
+        <v>835.3959446011269</v>
       </c>
     </row>
     <row r="29">
@@ -6460,13 +6460,13 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I29" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192598</v>
       </c>
       <c r="J29" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111716</v>
       </c>
       <c r="K29" t="n">
-        <v>852.8523611075813</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L29" t="n">
         <v>1478.611553332387</v>
@@ -6475,10 +6475,10 @@
         <v>2206.558663014779</v>
       </c>
       <c r="N29" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O29" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P29" t="n">
         <v>4194.413870694707</v>
@@ -6542,25 +6542,25 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J30" t="n">
-        <v>93.81666304797187</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K30" t="n">
-        <v>93.81666304797187</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L30" t="n">
-        <v>589.1422692637306</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M30" t="n">
-        <v>1186.520756890282</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N30" t="n">
-        <v>1344.266747951538</v>
+        <v>2297.690135143765</v>
       </c>
       <c r="O30" t="n">
-        <v>1896.176478190825</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P30" t="n">
-        <v>2319.799627685893</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q30" t="n">
         <v>2553.061288060775</v>
@@ -6597,22 +6597,22 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>513.8536007400712</v>
+        <v>558.0193492433381</v>
       </c>
       <c r="C31" t="n">
-        <v>513.8536007400712</v>
+        <v>558.0193492433381</v>
       </c>
       <c r="D31" t="n">
-        <v>383.4415877881669</v>
+        <v>407.9027098310023</v>
       </c>
       <c r="E31" t="n">
-        <v>235.5284942057738</v>
+        <v>407.9027098310023</v>
       </c>
       <c r="F31" t="n">
-        <v>235.5284942057738</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="G31" t="n">
-        <v>235.5284942057738</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H31" t="n">
         <v>93.81666304797187</v>
@@ -6621,52 +6621,52 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J31" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K31" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L31" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M31" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N31" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O31" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P31" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q31" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R31" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S31" t="n">
-        <v>2197.062545487567</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T31" t="n">
-        <v>1977.461080510508</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U31" t="n">
-        <v>1688.385853854706</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V31" t="n">
-        <v>1433.701365648819</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W31" t="n">
-        <v>1144.284195611858</v>
+        <v>1188.449944115125</v>
       </c>
       <c r="X31" t="n">
-        <v>916.2946447138411</v>
+        <v>960.4603932171079</v>
       </c>
       <c r="Y31" t="n">
-        <v>695.5020655703109</v>
+        <v>739.6678140735778</v>
       </c>
     </row>
     <row r="32">
@@ -6688,34 +6688,34 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F32" t="n">
-        <v>793.7736536168612</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G32" t="n">
-        <v>379.8308874362687</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H32" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I32" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192548</v>
       </c>
       <c r="J32" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111708</v>
       </c>
       <c r="K32" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075802</v>
       </c>
       <c r="L32" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M32" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N32" t="n">
         <v>2950.898526355937</v>
       </c>
       <c r="O32" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P32" t="n">
         <v>4194.413870694707</v>
@@ -6779,25 +6779,25 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J33" t="n">
-        <v>93.81666304797187</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K33" t="n">
-        <v>93.81666304797187</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L33" t="n">
-        <v>589.1422692637306</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M33" t="n">
-        <v>1186.520756890282</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N33" t="n">
-        <v>1814.118720444889</v>
+        <v>2297.690135143765</v>
       </c>
       <c r="O33" t="n">
-        <v>2366.028450684176</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P33" t="n">
-        <v>2366.028450684176</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q33" t="n">
         <v>2553.061288060775</v>
@@ -6834,76 +6834,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>741.8431516380886</v>
+        <v>513.8536007400717</v>
       </c>
       <c r="C34" t="n">
-        <v>637.9025067654818</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="D34" t="n">
-        <v>637.9025067654818</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="E34" t="n">
-        <v>489.9894131830887</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="F34" t="n">
-        <v>343.0994656851783</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="G34" t="n">
-        <v>175.9033664000583</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H34" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I34" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="J34" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K34" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L34" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M34" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N34" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O34" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P34" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q34" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R34" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S34" t="n">
-        <v>2197.062545487567</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T34" t="n">
-        <v>1977.461080510508</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U34" t="n">
-        <v>1688.385853854706</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V34" t="n">
-        <v>1433.701365648819</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W34" t="n">
-        <v>1144.284195611858</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X34" t="n">
-        <v>1144.284195611858</v>
+        <v>916.2946447138415</v>
       </c>
       <c r="Y34" t="n">
-        <v>923.4916164683283</v>
+        <v>695.5020655703114</v>
       </c>
     </row>
     <row r="35">
@@ -6934,10 +6934,10 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I35" t="n">
-        <v>95.34095638192616</v>
+        <v>95.34095638192598</v>
       </c>
       <c r="J35" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111716</v>
       </c>
       <c r="K35" t="n">
         <v>852.8523611075809</v>
@@ -6949,16 +6949,16 @@
         <v>2206.558663014779</v>
       </c>
       <c r="N35" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O35" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P35" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q35" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R35" t="n">
         <v>4690.833152398593</v>
@@ -6973,13 +6973,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V35" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W35" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X35" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y35" t="n">
         <v>2704.375866615997</v>
@@ -7019,22 +7019,22 @@
         <v>243.4633055756266</v>
       </c>
       <c r="K36" t="n">
-        <v>243.4633055756266</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L36" t="n">
-        <v>738.7889117913853</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M36" t="n">
-        <v>1336.167399417937</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N36" t="n">
-        <v>1963.765362972544</v>
+        <v>2297.690135143765</v>
       </c>
       <c r="O36" t="n">
-        <v>2515.675093211831</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P36" t="n">
-        <v>2515.675093211831</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q36" t="n">
         <v>2553.061288060775</v>
@@ -7071,76 +7071,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>951.777212765616</v>
+        <v>513.8536007400717</v>
       </c>
       <c r="C37" t="n">
-        <v>782.8410298377091</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="D37" t="n">
-        <v>632.7243904253734</v>
+        <v>194.8007783998291</v>
       </c>
       <c r="E37" t="n">
-        <v>484.8112968429803</v>
+        <v>175.9033664000582</v>
       </c>
       <c r="F37" t="n">
-        <v>484.8112968429803</v>
+        <v>175.9033664000582</v>
       </c>
       <c r="G37" t="n">
-        <v>317.6151975578602</v>
+        <v>175.9033664000582</v>
       </c>
       <c r="H37" t="n">
-        <v>175.9033664000583</v>
+        <v>175.9033664000582</v>
       </c>
       <c r="I37" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="J37" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K37" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L37" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M37" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N37" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O37" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P37" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q37" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R37" t="n">
-        <v>2406.996606615095</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S37" t="n">
-        <v>2406.996606615095</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T37" t="n">
-        <v>2187.395141638036</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U37" t="n">
-        <v>1898.319914982233</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V37" t="n">
-        <v>1643.635426776346</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W37" t="n">
-        <v>1354.218256739386</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X37" t="n">
-        <v>1354.218256739386</v>
+        <v>916.2946447138415</v>
       </c>
       <c r="Y37" t="n">
-        <v>1133.425677595856</v>
+        <v>695.5020655703114</v>
       </c>
     </row>
     <row r="38">
@@ -7150,43 +7150,43 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>2317.776026551874</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C38" t="n">
-        <v>1948.813509611462</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D38" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E38" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F38" t="n">
-        <v>793.7736536168609</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G38" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H38" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I38" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192598</v>
       </c>
       <c r="J38" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111716</v>
       </c>
       <c r="K38" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L38" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M38" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N38" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O38" t="n">
         <v>3640.422291068009</v>
@@ -7207,19 +7207,19 @@
         <v>4405.252601474784</v>
       </c>
       <c r="U38" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V38" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W38" t="n">
-        <v>3467.980956852887</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X38" t="n">
-        <v>3094.515198591807</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y38" t="n">
-        <v>2704.375866615996</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="39">
@@ -7250,31 +7250,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I39" t="n">
-        <v>95.58405025273903</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J39" t="n">
-        <v>95.58405025273903</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K39" t="n">
-        <v>429.5088224239596</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L39" t="n">
-        <v>924.8344286397182</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M39" t="n">
-        <v>1522.21291626627</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N39" t="n">
-        <v>2149.810879820877</v>
+        <v>2297.690135143765</v>
       </c>
       <c r="O39" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P39" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q39" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R39" t="n">
         <v>2553.061288060775</v>
@@ -7308,76 +7308,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>984.9192356072716</v>
+        <v>513.8536007400717</v>
       </c>
       <c r="C40" t="n">
-        <v>929.7309773356195</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="D40" t="n">
-        <v>779.6143379232838</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="E40" t="n">
-        <v>631.7012443408906</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="F40" t="n">
-        <v>484.8112968429803</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="G40" t="n">
-        <v>317.6151975578602</v>
+        <v>317.6151975578601</v>
       </c>
       <c r="H40" t="n">
-        <v>175.9033664000583</v>
+        <v>175.9033664000582</v>
       </c>
       <c r="I40" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="J40" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K40" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L40" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M40" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N40" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O40" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P40" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q40" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R40" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S40" t="n">
-        <v>2197.062545487567</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T40" t="n">
-        <v>1977.461080510508</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U40" t="n">
-        <v>1688.385853854706</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V40" t="n">
-        <v>1433.701365648819</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W40" t="n">
-        <v>1433.701365648819</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X40" t="n">
-        <v>1205.711814750802</v>
+        <v>916.2946447138415</v>
       </c>
       <c r="Y40" t="n">
-        <v>984.9192356072716</v>
+        <v>695.5020655703114</v>
       </c>
     </row>
     <row r="41">
@@ -7393,40 +7393,40 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D41" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E41" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F41" t="n">
-        <v>793.7736536168607</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G41" t="n">
-        <v>379.8308874362681</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H41" t="n">
-        <v>93.81666304797187</v>
+        <v>93.8166630479716</v>
       </c>
       <c r="I41" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J41" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111716</v>
       </c>
       <c r="K41" t="n">
-        <v>852.8523611075811</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L41" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M41" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N41" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O41" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P41" t="n">
         <v>4194.413870694707</v>
@@ -7490,22 +7490,22 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J42" t="n">
-        <v>93.81666304797187</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K42" t="n">
-        <v>93.81666304797187</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L42" t="n">
-        <v>352.5519571452614</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M42" t="n">
-        <v>949.9304447718133</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N42" t="n">
-        <v>1577.52840832642</v>
+        <v>2297.690135143765</v>
       </c>
       <c r="O42" t="n">
-        <v>2129.438138565707</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P42" t="n">
         <v>2553.061288060775</v>
@@ -7545,76 +7545,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>2856.288307456496</v>
+        <v>580.8993044876693</v>
       </c>
       <c r="C43" t="n">
-        <v>2856.288307456496</v>
+        <v>411.9631215597624</v>
       </c>
       <c r="D43" t="n">
-        <v>2856.288307456496</v>
+        <v>261.8464821474266</v>
       </c>
       <c r="E43" t="n">
-        <v>2708.375213874103</v>
+        <v>113.9333885650335</v>
       </c>
       <c r="F43" t="n">
-        <v>2561.485266376193</v>
+        <v>113.9333885650335</v>
       </c>
       <c r="G43" t="n">
-        <v>2561.485266376193</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H43" t="n">
-        <v>2419.773435218391</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I43" t="n">
-        <v>2337.686731866304</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J43" t="n">
-        <v>2417.922750296628</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K43" t="n">
-        <v>2679.612012822167</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L43" t="n">
-        <v>3070.010606998107</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M43" t="n">
-        <v>3492.020309729142</v>
+        <v>1248.150240910809</v>
       </c>
       <c r="N43" t="n">
-        <v>3909.43018138915</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O43" t="n">
-        <v>4278.959462098135</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P43" t="n">
-        <v>4571.634917671694</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q43" t="n">
-        <v>4690.833152398593</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R43" t="n">
-        <v>4623.787448650995</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="S43" t="n">
-        <v>4440.9326143059</v>
+        <v>2264.108249235165</v>
       </c>
       <c r="T43" t="n">
-        <v>4221.331149328841</v>
+        <v>2044.506784258106</v>
       </c>
       <c r="U43" t="n">
-        <v>3932.255922673039</v>
+        <v>1755.431557602304</v>
       </c>
       <c r="V43" t="n">
-        <v>3677.571434467152</v>
+        <v>1500.747069396417</v>
       </c>
       <c r="W43" t="n">
-        <v>3388.154264430192</v>
+        <v>1211.329899359456</v>
       </c>
       <c r="X43" t="n">
-        <v>3160.164713532175</v>
+        <v>983.3403484614391</v>
       </c>
       <c r="Y43" t="n">
-        <v>3037.936772286736</v>
+        <v>762.547769317909</v>
       </c>
     </row>
     <row r="44">
@@ -7642,25 +7642,25 @@
         <v>379.8308874362683</v>
       </c>
       <c r="H44" t="n">
-        <v>93.81666304797187</v>
+        <v>93.8166630479716</v>
       </c>
       <c r="I44" t="n">
-        <v>95.34095638192616</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J44" t="n">
         <v>378.1925803111717</v>
       </c>
       <c r="K44" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L44" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M44" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N44" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O44" t="n">
         <v>3640.42229106801</v>
@@ -7727,28 +7727,28 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J45" t="n">
-        <v>93.81666304797187</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K45" t="n">
-        <v>93.81666304797187</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L45" t="n">
-        <v>93.81666304797187</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M45" t="n">
-        <v>691.1951506745238</v>
+        <v>1577.52840832642</v>
       </c>
       <c r="N45" t="n">
-        <v>1307.627092998424</v>
+        <v>1577.52840832642</v>
       </c>
       <c r="O45" t="n">
-        <v>1859.536823237711</v>
+        <v>2129.438138565707</v>
       </c>
       <c r="P45" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q45" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R45" t="n">
         <v>2553.061288060775</v>
@@ -7782,25 +7782,25 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>1098.667160263527</v>
+        <v>571.6607764188008</v>
       </c>
       <c r="C46" t="n">
-        <v>929.7309773356195</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="D46" t="n">
-        <v>779.6143379232838</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="E46" t="n">
-        <v>631.7012443408906</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="F46" t="n">
-        <v>484.8112968429803</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="G46" t="n">
-        <v>317.6151975578602</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H46" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I46" t="n">
         <v>93.81666304797187</v>
@@ -7830,28 +7830,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R46" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S46" t="n">
-        <v>2446.96308358026</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T46" t="n">
-        <v>2446.96308358026</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U46" t="n">
-        <v>2273.199413378161</v>
+        <v>1746.193029533436</v>
       </c>
       <c r="V46" t="n">
-        <v>2018.514925172274</v>
+        <v>1491.508541327549</v>
       </c>
       <c r="W46" t="n">
-        <v>1729.097755135313</v>
+        <v>1202.091371290588</v>
       </c>
       <c r="X46" t="n">
-        <v>1501.108204237296</v>
+        <v>974.1018203925706</v>
       </c>
       <c r="Y46" t="n">
-        <v>1280.315625093766</v>
+        <v>753.3092412490405</v>
       </c>
     </row>
   </sheetData>
@@ -8057,7 +8057,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J3" t="n">
-        <v>50.07369958270192</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K3" t="n">
         <v>264.4652370125786</v>
@@ -8078,7 +8078,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q3" t="n">
-        <v>166.6588033951776</v>
+        <v>90.64146763747073</v>
       </c>
       <c r="R3" t="n">
         <v>45.52166981132082</v>
@@ -8300,13 +8300,13 @@
         <v>264.4652370125786</v>
       </c>
       <c r="L6" t="n">
-        <v>370.8403453034592</v>
+        <v>251.4045252050821</v>
       </c>
       <c r="M6" t="n">
         <v>465.7050637499999</v>
       </c>
       <c r="N6" t="n">
-        <v>359.906554245176</v>
+        <v>479.3423743435536</v>
       </c>
       <c r="O6" t="n">
         <v>393.8623192767295</v>
@@ -8461,19 +8461,19 @@
         <v>417.6612145504504</v>
       </c>
       <c r="M8" t="n">
-        <v>275.3456371407394</v>
+        <v>449.5135334928325</v>
       </c>
       <c r="N8" t="n">
-        <v>0</v>
+        <v>359.9458024792946</v>
       </c>
       <c r="O8" t="n">
         <v>0</v>
       </c>
       <c r="P8" t="n">
-        <v>321.7987081714826</v>
+        <v>0</v>
       </c>
       <c r="Q8" t="n">
-        <v>212.3149906599047</v>
+        <v>0</v>
       </c>
       <c r="R8" t="n">
         <v>65.71641987298243</v>
@@ -8537,22 +8537,22 @@
         <v>264.4652370125786</v>
       </c>
       <c r="L9" t="n">
-        <v>370.8403453034592</v>
+        <v>8.157046754056978</v>
       </c>
       <c r="M9" t="n">
-        <v>0</v>
+        <v>465.7050637499999</v>
       </c>
       <c r="N9" t="n">
-        <v>48.10560617263477</v>
+        <v>473.6238973478236</v>
       </c>
       <c r="O9" t="n">
         <v>393.8623192767295</v>
       </c>
       <c r="P9" t="n">
-        <v>318.4627686399372</v>
+        <v>0</v>
       </c>
       <c r="Q9" t="n">
-        <v>210.0772877358491</v>
+        <v>0</v>
       </c>
       <c r="R9" t="n">
         <v>45.52166981132082</v>
@@ -9421,7 +9421,7 @@
         <v>0</v>
       </c>
       <c r="Q20" t="n">
-        <v>0</v>
+        <v>-9.663381206337363e-13</v>
       </c>
       <c r="R20" t="n">
         <v>0</v>
@@ -9874,7 +9874,7 @@
         <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>0</v>
+        <v>-1.477928890381008e-12</v>
       </c>
       <c r="K26" t="n">
         <v>0</v>
@@ -10126,7 +10126,7 @@
         <v>0</v>
       </c>
       <c r="O29" t="n">
-        <v>0</v>
+        <v>-1.364242052659392e-12</v>
       </c>
       <c r="P29" t="n">
         <v>0</v>
@@ -23275,7 +23275,7 @@
         <v>0</v>
       </c>
       <c r="H11" t="n">
-        <v>1.4210854715202e-12</v>
+        <v>0</v>
       </c>
       <c r="I11" t="n">
         <v>0</v>
@@ -23421,19 +23421,19 @@
         <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>148.6154730182124</v>
+        <v>114.1584408891656</v>
       </c>
       <c r="E13" t="n">
         <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G13" t="n">
         <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>103.9026168854319</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
         <v>0</v>
@@ -23463,13 +23463,13 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S13" t="n">
         <v>181.0262860016446</v>
       </c>
       <c r="T13" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U13" t="n">
         <v>0</v>
@@ -23509,7 +23509,7 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>1.4210854715202e-12</v>
+        <v>0</v>
       </c>
       <c r="H14" t="n">
         <v>0</v>
@@ -23658,13 +23658,13 @@
         <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
         <v>0</v>
@@ -23706,10 +23706,10 @@
         <v>0</v>
       </c>
       <c r="T16" t="n">
-        <v>0</v>
+        <v>0.5874149221289997</v>
       </c>
       <c r="U16" t="n">
-        <v>143.8269525734169</v>
+        <v>0</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -23895,13 +23895,13 @@
         <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E19" t="n">
-        <v>0.6960474398173915</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F19" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
         <v>0</v>
@@ -23910,7 +23910,7 @@
         <v>0</v>
       </c>
       <c r="I19" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -23937,7 +23937,7 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>66.3752467101217</v>
+        <v>57.2291039219422</v>
       </c>
       <c r="S19" t="n">
         <v>0</v>
@@ -23946,7 +23946,7 @@
         <v>0</v>
       </c>
       <c r="U19" t="n">
-        <v>286.1844743892441</v>
+        <v>0</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -23955,7 +23955,7 @@
         <v>0</v>
       </c>
       <c r="X19" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y19" t="n">
         <v>0</v>
@@ -24132,19 +24132,19 @@
         <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E22" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F22" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I22" t="n">
         <v>81.26583631856552</v>
@@ -24174,7 +24174,7 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>66.37524671012166</v>
+        <v>0</v>
       </c>
       <c r="S22" t="n">
         <v>0</v>
@@ -24186,7 +24186,7 @@
         <v>0</v>
       </c>
       <c r="V22" t="n">
-        <v>0</v>
+        <v>57.22910392194183</v>
       </c>
       <c r="W22" t="n">
         <v>0</v>
@@ -24195,7 +24195,7 @@
         <v>0</v>
       </c>
       <c r="Y22" t="n">
-        <v>125.5054897610393</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23">
@@ -24366,25 +24366,25 @@
         <v>0</v>
       </c>
       <c r="C25" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D25" t="n">
         <v>0</v>
       </c>
       <c r="E25" t="n">
-        <v>123.7828069546817</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F25" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
         <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I25" t="n">
-        <v>81.26583631856553</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -24411,13 +24411,13 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>66.37524671012169</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S25" t="n">
         <v>0</v>
       </c>
       <c r="T25" t="n">
-        <v>0</v>
+        <v>139.4693302300321</v>
       </c>
       <c r="U25" t="n">
         <v>0</v>
@@ -24606,13 +24606,13 @@
         <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E28" t="n">
-        <v>67.07129414993902</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F28" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G28" t="n">
         <v>0</v>
@@ -24648,7 +24648,7 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>0</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S28" t="n">
         <v>0</v>
@@ -24657,7 +24657,7 @@
         <v>0</v>
       </c>
       <c r="U28" t="n">
-        <v>286.1844743892441</v>
+        <v>72.11969353038563</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -24666,7 +24666,7 @@
         <v>0</v>
       </c>
       <c r="X28" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y28" t="n">
         <v>0</v>
@@ -24843,22 +24843,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D31" t="n">
-        <v>19.50758019582707</v>
+        <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F31" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I31" t="n">
-        <v>81.26583631856553</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -24900,7 +24900,7 @@
         <v>0</v>
       </c>
       <c r="W31" t="n">
-        <v>0</v>
+        <v>43.72409101823357</v>
       </c>
       <c r="X31" t="n">
         <v>0</v>
@@ -25077,25 +25077,25 @@
         <v>0</v>
       </c>
       <c r="C34" t="n">
-        <v>64.34558267474715</v>
+        <v>0</v>
       </c>
       <c r="D34" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E34" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F34" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G34" t="n">
-        <v>0</v>
+        <v>57.22910392194174</v>
       </c>
       <c r="H34" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I34" t="n">
-        <v>0</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -25140,7 +25140,7 @@
         <v>0</v>
       </c>
       <c r="X34" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y34" t="n">
         <v>0</v>
@@ -25320,16 +25320,16 @@
         <v>0</v>
       </c>
       <c r="E37" t="n">
-        <v>0</v>
+        <v>127.7255247667961</v>
       </c>
       <c r="F37" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G37" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H37" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I37" t="n">
         <v>0</v>
@@ -25359,10 +25359,10 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>26.80843451460751</v>
+        <v>0</v>
       </c>
       <c r="S37" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T37" t="n">
         <v>0</v>
@@ -25377,7 +25377,7 @@
         <v>0</v>
       </c>
       <c r="X37" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y37" t="n">
         <v>0</v>
@@ -25548,19 +25548,19 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C40" t="n">
-        <v>112.6104454096923</v>
+        <v>138.4949402405073</v>
       </c>
       <c r="D40" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E40" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F40" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G40" t="n">
         <v>0</v>
@@ -25611,7 +25611,7 @@
         <v>0</v>
       </c>
       <c r="W40" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X40" t="n">
         <v>0</v>
@@ -25788,25 +25788,25 @@
         <v>0</v>
       </c>
       <c r="C43" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D43" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E43" t="n">
         <v>0</v>
       </c>
       <c r="F43" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G43" t="n">
-        <v>165.5241382922688</v>
+        <v>145.6085800303778</v>
       </c>
       <c r="H43" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I43" t="n">
-        <v>0</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -25833,7 +25833,7 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>0</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S43" t="n">
         <v>0</v>
@@ -25854,7 +25854,7 @@
         <v>0</v>
       </c>
       <c r="Y43" t="n">
-        <v>97.57899151911057</v>
+        <v>0</v>
       </c>
     </row>
     <row r="44">
@@ -26028,13 +26028,13 @@
         <v>0</v>
       </c>
       <c r="D46" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E46" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F46" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G46" t="n">
         <v>0</v>
@@ -26043,7 +26043,7 @@
         <v>0</v>
       </c>
       <c r="I46" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -26070,16 +26070,16 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S46" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T46" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U46" t="n">
-        <v>114.1584408891656</v>
+        <v>57.22910392194231</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -26149,7 +26149,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>791847.4864178547</v>
+        <v>791847.4864178548</v>
       </c>
     </row>
     <row r="6">
@@ -26221,7 +26221,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>791847.4864178548</v>
+        <v>791847.4864178547</v>
       </c>
     </row>
     <row r="15">
@@ -26237,7 +26237,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>791847.4864178548</v>
+        <v>791847.4864178547</v>
       </c>
     </row>
   </sheetData>
@@ -26313,49 +26313,49 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>636307.3716448197</v>
+        <v>636307.3716448199</v>
       </c>
       <c r="C2" t="n">
-        <v>636307.3716448195</v>
+        <v>636307.3716448196</v>
       </c>
       <c r="D2" t="n">
         <v>636307.3716448199</v>
       </c>
       <c r="E2" t="n">
+        <v>625538.6147597549</v>
+      </c>
+      <c r="F2" t="n">
         <v>625538.6147597547</v>
       </c>
-      <c r="F2" t="n">
+      <c r="G2" t="n">
+        <v>625538.6147597546</v>
+      </c>
+      <c r="H2" t="n">
+        <v>625538.6147597546</v>
+      </c>
+      <c r="I2" t="n">
+        <v>625538.614759755</v>
+      </c>
+      <c r="J2" t="n">
+        <v>625538.6147597546</v>
+      </c>
+      <c r="K2" t="n">
         <v>625538.6147597549</v>
-      </c>
-      <c r="G2" t="n">
-        <v>625538.6147597547</v>
-      </c>
-      <c r="H2" t="n">
-        <v>625538.6147597549</v>
-      </c>
-      <c r="I2" t="n">
-        <v>625538.6147597549</v>
-      </c>
-      <c r="J2" t="n">
-        <v>625538.6147597549</v>
-      </c>
-      <c r="K2" t="n">
-        <v>625538.6147597547</v>
       </c>
       <c r="L2" t="n">
         <v>625538.6147597549</v>
       </c>
       <c r="M2" t="n">
-        <v>625538.6147597551</v>
+        <v>625538.6147597547</v>
       </c>
       <c r="N2" t="n">
-        <v>625538.6147597549</v>
+        <v>625538.6147597545</v>
       </c>
       <c r="O2" t="n">
-        <v>625538.614759755</v>
+        <v>625538.6147597547</v>
       </c>
       <c r="P2" t="n">
-        <v>625538.6147597546</v>
+        <v>625538.6147597547</v>
       </c>
     </row>
     <row r="3">
@@ -26371,10 +26371,10 @@
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>184756.2785481116</v>
+        <v>184756.2785481117</v>
       </c>
       <c r="E3" t="n">
-        <v>771052.6913808063</v>
+        <v>771052.6913808064</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26383,7 +26383,7 @@
         <v>0</v>
       </c>
       <c r="H3" t="n">
-        <v>3.482032298052218e-10</v>
+        <v>1.741016149026109e-10</v>
       </c>
       <c r="I3" t="n">
         <v>0</v>
@@ -26398,7 +26398,7 @@
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>124208.5107080584</v>
+        <v>124208.5107080585</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26429,37 +26429,37 @@
         <v>5677.536566682745</v>
       </c>
       <c r="F4" t="n">
-        <v>5677.536566682744</v>
+        <v>5677.536566682745</v>
       </c>
       <c r="G4" t="n">
         <v>5677.536566682745</v>
       </c>
       <c r="H4" t="n">
-        <v>5677.536566682745</v>
+        <v>5677.536566682729</v>
       </c>
       <c r="I4" t="n">
-        <v>5677.536566682745</v>
+        <v>5677.536566682744</v>
       </c>
       <c r="J4" t="n">
-        <v>5677.536566682745</v>
+        <v>5677.536566682721</v>
       </c>
       <c r="K4" t="n">
-        <v>5677.536566682745</v>
+        <v>5677.536566682723</v>
       </c>
       <c r="L4" t="n">
         <v>5677.536566682745</v>
       </c>
       <c r="M4" t="n">
+        <v>5677.536566682744</v>
+      </c>
+      <c r="N4" t="n">
         <v>5677.536566682745</v>
       </c>
-      <c r="N4" t="n">
-        <v>5677.536566682744</v>
-      </c>
       <c r="O4" t="n">
-        <v>5677.536566682744</v>
+        <v>5677.536566682745</v>
       </c>
       <c r="P4" t="n">
-        <v>5677.536566682744</v>
+        <v>5677.536566682745</v>
       </c>
     </row>
     <row r="5">
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-246442.0010961676</v>
+        <v>-246442.0010961675</v>
       </c>
       <c r="C6" t="n">
-        <v>343525.8781183767</v>
+        <v>343525.8781183768</v>
       </c>
       <c r="D6" t="n">
-        <v>187722.0720245822</v>
+        <v>187722.072024582</v>
       </c>
       <c r="E6" t="n">
-        <v>-252314.1430116414</v>
+        <v>-252661.5222659983</v>
       </c>
       <c r="F6" t="n">
-        <v>518738.548369165</v>
+        <v>518391.1691148079</v>
       </c>
       <c r="G6" t="n">
-        <v>518738.5483691652</v>
+        <v>518391.1691148078</v>
       </c>
       <c r="H6" t="n">
-        <v>518738.5483691647</v>
+        <v>518391.1691148077</v>
       </c>
       <c r="I6" t="n">
-        <v>518738.5483691652</v>
+        <v>518391.1691148081</v>
       </c>
       <c r="J6" t="n">
-        <v>342315.329176572</v>
+        <v>341967.9499222148</v>
       </c>
       <c r="K6" t="n">
-        <v>518738.5483691649</v>
+        <v>518391.169114808</v>
       </c>
       <c r="L6" t="n">
-        <v>518738.548369165</v>
+        <v>518391.169114808</v>
       </c>
       <c r="M6" t="n">
-        <v>394530.0376611068</v>
+        <v>394182.6584067494</v>
       </c>
       <c r="N6" t="n">
-        <v>518738.548369165</v>
+        <v>518391.1691148077</v>
       </c>
       <c r="O6" t="n">
-        <v>518738.5483691651</v>
+        <v>518391.1691148079</v>
       </c>
       <c r="P6" t="n">
-        <v>518738.5483691648</v>
+        <v>518391.169114808</v>
       </c>
     </row>
   </sheetData>
@@ -26740,7 +26740,7 @@
         <v>377.7436642170867</v>
       </c>
       <c r="C3" t="n">
-        <v>377.7436642170867</v>
+        <v>377.7436642170866</v>
       </c>
       <c r="D3" t="n">
         <v>593.4761003380651</v>
@@ -26965,7 +26965,7 @@
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>215.7324361209784</v>
+        <v>215.7324361209785</v>
       </c>
       <c r="E3" t="n">
         <v>774.4994000036087</v>
@@ -26977,7 +26977,7 @@
         <v>0</v>
       </c>
       <c r="H3" t="n">
-        <v>4.547473508864641e-13</v>
+        <v>2.273736754432321e-13</v>
       </c>
       <c r="I3" t="n">
         <v>0</v>
@@ -27020,7 +27020,7 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>498.4210153450925</v>
+        <v>498.4210153450928</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27035,7 +27035,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>674.2872727545559</v>
+        <v>674.2872727545557</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27044,7 +27044,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>498.4210153450925</v>
+        <v>498.4210153450928</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27266,7 +27266,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>498.4210153450925</v>
+        <v>498.4210153450928</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27384,22 +27384,22 @@
         <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="G2" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>323.9227727643571</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>151.9313162448613</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -27426,28 +27426,28 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>54.4784025748117</v>
+        <v>0</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>0</v>
+        <v>209.7028375347199</v>
       </c>
       <c r="U2" t="n">
-        <v>0</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V2" t="n">
         <v>327.7522584701349</v>
       </c>
       <c r="W2" t="n">
-        <v>299.1911098179699</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X2" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y2" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="3">
@@ -27536,13 +27536,13 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D4" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E4" t="n">
         <v>146.4339626465692</v>
@@ -27554,7 +27554,7 @@
         <v>167.3098022590509</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>156.1708888417951</v>
       </c>
       <c r="I4" t="n">
         <v>134.9656217923382</v>
@@ -27584,10 +27584,10 @@
         <v>29.1227499549143</v>
       </c>
       <c r="R4" t="n">
-        <v>14.78429850839041</v>
+        <v>146.6651919801578</v>
       </c>
       <c r="S4" t="n">
-        <v>0</v>
+        <v>212.1455389500189</v>
       </c>
       <c r="T4" t="n">
         <v>225.0351054580843</v>
@@ -27599,13 +27599,13 @@
         <v>252.137643323828</v>
       </c>
       <c r="W4" t="n">
-        <v>286.522998336591</v>
+        <v>166.1109625266262</v>
       </c>
       <c r="X4" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y4" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -27615,7 +27615,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>290.8306831388527</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
         <v>365.2728917710076</v>
@@ -27627,13 +27627,13 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="G5" t="n">
         <v>0</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>271.0998715367314</v>
       </c>
       <c r="I5" t="n">
         <v>151.9313162448613</v>
@@ -27678,13 +27678,13 @@
         <v>0</v>
       </c>
       <c r="W5" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X5" t="n">
         <v>0</v>
       </c>
       <c r="Y5" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="6">
@@ -27773,19 +27773,19 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C7" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D7" t="n">
-        <v>81.36521797676647</v>
+        <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G7" t="n">
         <v>167.3098022590509</v>
@@ -27794,10 +27794,10 @@
         <v>156.1708888417951</v>
       </c>
       <c r="I7" t="n">
-        <v>134.9656217923382</v>
+        <v>134.9656217923383</v>
       </c>
       <c r="J7" t="n">
-        <v>45.19995918853699</v>
+        <v>45.19995918853701</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -27818,10 +27818,10 @@
         <v>0</v>
       </c>
       <c r="Q7" t="n">
-        <v>29.1227499549143</v>
+        <v>29.12274995491431</v>
       </c>
       <c r="R7" t="n">
-        <v>0</v>
+        <v>146.6651919801579</v>
       </c>
       <c r="S7" t="n">
         <v>212.1455389500189</v>
@@ -27830,7 +27830,7 @@
         <v>225.0351054580843</v>
       </c>
       <c r="U7" t="n">
-        <v>0</v>
+        <v>239.1401957494188</v>
       </c>
       <c r="V7" t="n">
         <v>252.137643323828</v>
@@ -27852,25 +27852,25 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
         <v>365.2728917710076</v>
       </c>
       <c r="D8" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
         <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
-        <v>0</v>
+        <v>320.6728792952459</v>
       </c>
       <c r="G8" t="n">
         <v>0</v>
       </c>
       <c r="H8" t="n">
-        <v>315.0408840752156</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
         <v>0</v>
@@ -27912,13 +27912,13 @@
         <v>0</v>
       </c>
       <c r="V8" t="n">
-        <v>24.07680910831158</v>
+        <v>0</v>
       </c>
       <c r="W8" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y8" t="n">
         <v>0</v>
@@ -28010,31 +28010,31 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C10" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E10" t="n">
         <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G10" t="n">
         <v>166.9207765545704</v>
       </c>
       <c r="H10" t="n">
-        <v>0</v>
+        <v>152.7120966692326</v>
       </c>
       <c r="I10" t="n">
-        <v>0</v>
+        <v>123.266557879417</v>
       </c>
       <c r="J10" t="n">
-        <v>17.69584188176898</v>
+        <v>0</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -28058,10 +28058,10 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>0</v>
+        <v>129.1731816677913</v>
       </c>
       <c r="S10" t="n">
-        <v>0</v>
+        <v>205.3658819001186</v>
       </c>
       <c r="T10" t="n">
         <v>223.3729047207587</v>
@@ -28070,7 +28070,7 @@
         <v>286.260654658097</v>
       </c>
       <c r="V10" t="n">
-        <v>19.15398944220559</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W10" t="n">
         <v>286.522998336591</v>
@@ -28079,7 +28079,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y10" t="n">
-        <v>218.5846533520948</v>
+        <v>33.89444555739044</v>
       </c>
     </row>
     <row r="11">
@@ -31278,46 +31278,46 @@
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>1.518567494340046</v>
+        <v>1.518567494340045</v>
       </c>
       <c r="H5" t="n">
-        <v>15.55202935141</v>
+        <v>15.55202935140999</v>
       </c>
       <c r="I5" t="n">
-        <v>58.54457332554468</v>
+        <v>58.54457332554465</v>
       </c>
       <c r="J5" t="n">
         <v>128.8865178727436</v>
       </c>
       <c r="K5" t="n">
-        <v>193.1674799081578</v>
+        <v>193.1674799081577</v>
       </c>
       <c r="L5" t="n">
-        <v>239.641339863067</v>
+        <v>239.6413398630669</v>
       </c>
       <c r="M5" t="n">
-        <v>266.6471645405368</v>
+        <v>266.6471645405367</v>
       </c>
       <c r="N5" t="n">
         <v>270.9617944338304</v>
       </c>
       <c r="O5" t="n">
-        <v>255.8615389119866</v>
+        <v>255.8615389119865</v>
       </c>
       <c r="P5" t="n">
-        <v>218.3719038954667</v>
+        <v>218.3719038954666</v>
       </c>
       <c r="Q5" t="n">
         <v>163.9882055044137</v>
       </c>
       <c r="R5" t="n">
-        <v>95.39071536633799</v>
+        <v>95.39071536633796</v>
       </c>
       <c r="S5" t="n">
-        <v>34.60435677727383</v>
+        <v>34.60435677727382</v>
       </c>
       <c r="T5" t="n">
-        <v>6.647529206473554</v>
+        <v>6.647529206473552</v>
       </c>
       <c r="U5" t="n">
         <v>0.1214853995472036</v>
@@ -31357,16 +31357,16 @@
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>0.8125052400141111</v>
+        <v>0.8125052400141107</v>
       </c>
       <c r="H6" t="n">
-        <v>7.847090081188916</v>
+        <v>7.847090081188913</v>
       </c>
       <c r="I6" t="n">
-        <v>27.9744128689069</v>
+        <v>27.97441286890689</v>
       </c>
       <c r="J6" t="n">
-        <v>76.76392708396477</v>
+        <v>76.76392708396475</v>
       </c>
       <c r="K6" t="n">
         <v>131.2017781649102</v>
@@ -31384,22 +31384,22 @@
         <v>193.3156655923047</v>
       </c>
       <c r="P6" t="n">
-        <v>155.1528646479578</v>
+        <v>155.1528646479577</v>
       </c>
       <c r="Q6" t="n">
         <v>103.7155811639065</v>
       </c>
       <c r="R6" t="n">
-        <v>50.44659727034983</v>
+        <v>50.44659727034981</v>
       </c>
       <c r="S6" t="n">
-        <v>15.09192847131473</v>
+        <v>15.09192847131472</v>
       </c>
       <c r="T6" t="n">
-        <v>3.274966296372666</v>
+        <v>3.274966296372665</v>
       </c>
       <c r="U6" t="n">
-        <v>0.05345429210619154</v>
+        <v>0.05345429210619152</v>
       </c>
       <c r="V6" t="n">
         <v>0</v>
@@ -31436,19 +31436,19 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>0.6811770994078612</v>
+        <v>0.681177099407861</v>
       </c>
       <c r="H7" t="n">
-        <v>6.056283665644443</v>
+        <v>6.056283665644441</v>
       </c>
       <c r="I7" t="n">
-        <v>20.48485313492005</v>
+        <v>20.48485313492004</v>
       </c>
       <c r="J7" t="n">
-        <v>48.15922092813578</v>
+        <v>48.15922092813577</v>
       </c>
       <c r="K7" t="n">
-        <v>79.14039391302239</v>
+        <v>79.14039391302238</v>
       </c>
       <c r="L7" t="n">
         <v>101.2724571246924</v>
@@ -31460,22 +31460,22 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O7" t="n">
-        <v>96.28128674175845</v>
+        <v>96.28128674175842</v>
       </c>
       <c r="P7" t="n">
-        <v>82.38527391383801</v>
+        <v>82.38527391383799</v>
       </c>
       <c r="Q7" t="n">
-        <v>57.03929329678009</v>
+        <v>57.03929329678007</v>
       </c>
       <c r="R7" t="n">
-        <v>30.62819939701164</v>
+        <v>30.62819939701163</v>
       </c>
       <c r="S7" t="n">
         <v>11.87105908695336</v>
       </c>
       <c r="T7" t="n">
-        <v>2.910483970197224</v>
+        <v>2.910483970197223</v>
       </c>
       <c r="U7" t="n">
         <v>0.0371551145131561</v>
@@ -31855,13 +31855,13 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O12" t="n">
-        <v>225.4828684302377</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P12" t="n">
-        <v>561.8765786214698</v>
+        <v>322.8964653704906</v>
       </c>
       <c r="Q12" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R12" t="n">
         <v>145.679503963964</v>
@@ -32074,13 +32074,13 @@
         <v>28.417755205211</v>
       </c>
       <c r="I15" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J15" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K15" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L15" t="n">
         <v>638.8832749473072</v>
@@ -32092,10 +32092,10 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O15" t="n">
-        <v>700.0808204437243</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P15" t="n">
-        <v>322.8964653704906</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q15" t="n">
         <v>139.9817740860215</v>
@@ -32226,37 +32226,37 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>5.499398996348432</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H17" t="n">
-        <v>56.3207199713534</v>
+        <v>56.32071997135341</v>
       </c>
       <c r="I17" t="n">
-        <v>212.0155798067231</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J17" t="n">
-        <v>466.7546155663281</v>
+        <v>466.7546155663283</v>
       </c>
       <c r="K17" t="n">
-        <v>699.5441750817574</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L17" t="n">
-        <v>867.8464071162559</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M17" t="n">
-        <v>965.6463440175673</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N17" t="n">
-        <v>981.2715114159424</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O17" t="n">
-        <v>926.5868626460026</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P17" t="n">
-        <v>790.8204499236506</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q17" t="n">
-        <v>593.8732233669222</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R17" t="n">
         <v>345.4516222043725</v>
@@ -32265,10 +32265,10 @@
         <v>125.31755462929</v>
       </c>
       <c r="T17" t="n">
-        <v>24.07361910651527</v>
+        <v>24.07361910651528</v>
       </c>
       <c r="U17" t="n">
-        <v>0.4399519197078745</v>
+        <v>0.4399519197078746</v>
       </c>
       <c r="V17" t="n">
         <v>0</v>
@@ -32311,28 +32311,28 @@
         <v>28.417755205211</v>
       </c>
       <c r="I18" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J18" t="n">
-        <v>277.9958514420754</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K18" t="n">
         <v>475.1391886422585</v>
       </c>
       <c r="L18" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M18" t="n">
-        <v>745.5466476862119</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N18" t="n">
-        <v>765.2790490071783</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O18" t="n">
-        <v>472.9736279168705</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P18" t="n">
-        <v>561.8765786214697</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q18" t="n">
         <v>139.9817740860215</v>
@@ -32341,10 +32341,10 @@
         <v>145.679503963964</v>
       </c>
       <c r="S18" t="n">
-        <v>54.65449286742437</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T18" t="n">
-        <v>11.86008947937733</v>
+        <v>11.86008947937734</v>
       </c>
       <c r="U18" t="n">
         <v>0.1935814387275954</v>
@@ -32390,28 +32390,28 @@
         <v>21.9324596612157</v>
       </c>
       <c r="I19" t="n">
-        <v>74.18463860869274</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J19" t="n">
         <v>174.4056633796261</v>
       </c>
       <c r="K19" t="n">
-        <v>286.6020802355177</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L19" t="n">
-        <v>366.7519890588152</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M19" t="n">
-        <v>386.6885500392044</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N19" t="n">
         <v>377.4939606106788</v>
       </c>
       <c r="O19" t="n">
-        <v>348.6767717920056</v>
+        <v>348.6767717920058</v>
       </c>
       <c r="P19" t="n">
-        <v>298.3532140417314</v>
+        <v>298.3532140417315</v>
       </c>
       <c r="Q19" t="n">
         <v>206.5643005515927</v>
@@ -32420,7 +32420,7 @@
         <v>110.9181446670478</v>
       </c>
       <c r="S19" t="n">
-        <v>42.99031203532765</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T19" t="n">
         <v>10.54013910099322</v>
@@ -32551,10 +32551,10 @@
         <v>99.52238</v>
       </c>
       <c r="J21" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K21" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L21" t="n">
         <v>638.8832749473073</v>
@@ -32563,16 +32563,16 @@
         <v>745.5466476862122</v>
       </c>
       <c r="N21" t="n">
-        <v>290.6810969936916</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O21" t="n">
-        <v>700.0808204437244</v>
+        <v>400.5469039565762</v>
       </c>
       <c r="P21" t="n">
-        <v>561.8765786214699</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q21" t="n">
-        <v>375.5996128485291</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R21" t="n">
         <v>145.679503963964</v>
@@ -32700,7 +32700,7 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H23" t="n">
         <v>56.32071997135341</v>
@@ -32712,31 +32712,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K23" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L23" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M23" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N23" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O23" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P23" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q23" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R23" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S23" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T23" t="n">
         <v>24.07361910651528</v>
@@ -32779,31 +32779,31 @@
         <v>0</v>
       </c>
       <c r="G24" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H24" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I24" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J24" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K24" t="n">
-        <v>173.8200325543357</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L24" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M24" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N24" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O24" t="n">
-        <v>700.0808204437243</v>
+        <v>400.5469039565762</v>
       </c>
       <c r="P24" t="n">
         <v>133.9744074143302</v>
@@ -32815,13 +32815,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S24" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T24" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U24" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V24" t="n">
         <v>0</v>
@@ -32861,25 +32861,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H25" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I25" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J25" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K25" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L25" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M25" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N25" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O25" t="n">
         <v>348.6767717920058</v>
@@ -32888,19 +32888,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q25" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R25" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S25" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T25" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U25" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -32937,7 +32937,7 @@
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H26" t="n">
         <v>56.32071997135341</v>
@@ -32949,31 +32949,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K26" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L26" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M26" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N26" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O26" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P26" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q26" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R26" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S26" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T26" t="n">
         <v>24.07361910651528</v>
@@ -33016,49 +33016,49 @@
         <v>0</v>
       </c>
       <c r="G27" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H27" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I27" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J27" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K27" t="n">
-        <v>475.1391886422585</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L27" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M27" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N27" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O27" t="n">
-        <v>277.2922978908106</v>
+        <v>400.5469039565762</v>
       </c>
       <c r="P27" t="n">
         <v>133.9744074143302</v>
       </c>
       <c r="Q27" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R27" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S27" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T27" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U27" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V27" t="n">
         <v>0</v>
@@ -33098,25 +33098,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H28" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I28" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J28" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K28" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L28" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M28" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N28" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O28" t="n">
         <v>348.6767717920058</v>
@@ -33125,19 +33125,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q28" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R28" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S28" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T28" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U28" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -33174,7 +33174,7 @@
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H29" t="n">
         <v>56.32071997135341</v>
@@ -33186,31 +33186,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K29" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L29" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M29" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N29" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O29" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P29" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q29" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R29" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S29" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T29" t="n">
         <v>24.07361910651528</v>
@@ -33253,49 +33253,49 @@
         <v>0</v>
       </c>
       <c r="G30" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H30" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I30" t="n">
         <v>99.52238</v>
       </c>
       <c r="J30" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K30" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L30" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M30" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N30" t="n">
-        <v>290.6810969936921</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O30" t="n">
-        <v>700.0808204437243</v>
+        <v>400.5469039565762</v>
       </c>
       <c r="P30" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q30" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R30" t="n">
         <v>145.679503963964</v>
       </c>
       <c r="S30" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T30" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U30" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V30" t="n">
         <v>0</v>
@@ -33335,25 +33335,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H31" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I31" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J31" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K31" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L31" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M31" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N31" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O31" t="n">
         <v>348.6767717920058</v>
@@ -33362,19 +33362,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q31" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R31" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S31" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T31" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U31" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -33411,7 +33411,7 @@
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H32" t="n">
         <v>56.32071997135341</v>
@@ -33423,31 +33423,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K32" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L32" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M32" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N32" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O32" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P32" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q32" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R32" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S32" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T32" t="n">
         <v>24.07361910651528</v>
@@ -33490,49 +33490,49 @@
         <v>0</v>
       </c>
       <c r="G33" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H33" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I33" t="n">
         <v>99.52238</v>
       </c>
       <c r="J33" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K33" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L33" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M33" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N33" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O33" t="n">
-        <v>700.0808204437243</v>
+        <v>400.5469039565762</v>
       </c>
       <c r="P33" t="n">
         <v>133.9744074143302</v>
       </c>
       <c r="Q33" t="n">
-        <v>328.9038320421819</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R33" t="n">
         <v>145.679503963964</v>
       </c>
       <c r="S33" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T33" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U33" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V33" t="n">
         <v>0</v>
@@ -33572,25 +33572,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H34" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I34" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J34" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K34" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L34" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M34" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N34" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O34" t="n">
         <v>348.6767717920058</v>
@@ -33599,19 +33599,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q34" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R34" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S34" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T34" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U34" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -33648,7 +33648,7 @@
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H35" t="n">
         <v>56.32071997135341</v>
@@ -33660,31 +33660,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K35" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L35" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M35" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N35" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O35" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P35" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q35" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R35" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S35" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T35" t="n">
         <v>24.07361910651528</v>
@@ -33727,10 +33727,10 @@
         <v>0</v>
       </c>
       <c r="G36" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H36" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I36" t="n">
         <v>99.52238</v>
@@ -33739,37 +33739,37 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K36" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L36" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M36" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N36" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O36" t="n">
-        <v>700.0808204437243</v>
+        <v>400.5469039565762</v>
       </c>
       <c r="P36" t="n">
         <v>133.9744074143302</v>
       </c>
       <c r="Q36" t="n">
-        <v>177.7456072667729</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R36" t="n">
         <v>145.679503963964</v>
       </c>
       <c r="S36" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T36" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U36" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V36" t="n">
         <v>0</v>
@@ -33809,25 +33809,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H37" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I37" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J37" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K37" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L37" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M37" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N37" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O37" t="n">
         <v>348.6767717920058</v>
@@ -33836,19 +33836,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q37" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R37" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S37" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T37" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U37" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -33885,7 +33885,7 @@
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H38" t="n">
         <v>56.32071997135341</v>
@@ -33897,31 +33897,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K38" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L38" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M38" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175661</v>
       </c>
       <c r="N38" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O38" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P38" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q38" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R38" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S38" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T38" t="n">
         <v>24.07361910651528</v>
@@ -33964,31 +33964,31 @@
         <v>0</v>
       </c>
       <c r="G39" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H39" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I39" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J39" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K39" t="n">
-        <v>475.1391886422585</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L39" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M39" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N39" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O39" t="n">
-        <v>512.9101366533182</v>
+        <v>400.5469039565762</v>
       </c>
       <c r="P39" t="n">
         <v>133.9744074143302</v>
@@ -33997,16 +33997,16 @@
         <v>139.9817740860215</v>
       </c>
       <c r="R39" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S39" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T39" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U39" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V39" t="n">
         <v>0</v>
@@ -34046,25 +34046,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H40" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I40" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J40" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K40" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L40" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M40" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N40" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O40" t="n">
         <v>348.6767717920058</v>
@@ -34073,19 +34073,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q40" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R40" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S40" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T40" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U40" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -34122,7 +34122,7 @@
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H41" t="n">
         <v>56.32071997135341</v>
@@ -34134,31 +34134,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K41" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L41" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M41" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N41" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O41" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P41" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q41" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R41" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S41" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T41" t="n">
         <v>24.07361910651528</v>
@@ -34201,34 +34201,34 @@
         <v>0</v>
       </c>
       <c r="G42" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H42" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I42" t="n">
         <v>99.52238</v>
       </c>
       <c r="J42" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K42" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L42" t="n">
-        <v>399.9031616963283</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M42" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N42" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O42" t="n">
-        <v>700.0808204437243</v>
+        <v>400.5469039565762</v>
       </c>
       <c r="P42" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q42" t="n">
         <v>139.9817740860215</v>
@@ -34237,13 +34237,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S42" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T42" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U42" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V42" t="n">
         <v>0</v>
@@ -34283,25 +34283,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H43" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I43" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J43" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K43" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L43" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M43" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N43" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O43" t="n">
         <v>348.6767717920058</v>
@@ -34310,19 +34310,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q43" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R43" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S43" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T43" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U43" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -34447,19 +34447,19 @@
         <v>99.52238</v>
       </c>
       <c r="J45" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K45" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L45" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M45" t="n">
-        <v>745.5466476862121</v>
+        <v>652.0478969157701</v>
       </c>
       <c r="N45" t="n">
-        <v>754.0002396832328</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O45" t="n">
         <v>700.0808204437243</v>
@@ -34468,10 +34468,10 @@
         <v>561.8765786214698</v>
       </c>
       <c r="Q45" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R45" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S45" t="n">
         <v>54.65449286742438</v>
@@ -34777,7 +34777,7 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>0</v>
+        <v>76.01733575770692</v>
       </c>
       <c r="K3" t="n">
         <v>257.8255762031298</v>
@@ -34798,7 +34798,7 @@
         <v>339.6412258735647</v>
       </c>
       <c r="Q3" t="n">
-        <v>130.3926104730626</v>
+        <v>54.37527471535575</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -34935,25 +34935,25 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>116.9372285181311</v>
+        <v>116.937228518131</v>
       </c>
       <c r="K5" t="n">
-        <v>297.223041434342</v>
+        <v>297.2230414343419</v>
       </c>
       <c r="L5" t="n">
-        <v>421.5361394435302</v>
+        <v>421.5361394435301</v>
       </c>
       <c r="M5" t="n">
-        <v>485.8144648060966</v>
+        <v>485.8144648060965</v>
       </c>
       <c r="N5" t="n">
-        <v>478.8956552492237</v>
+        <v>478.8956552492236</v>
       </c>
       <c r="O5" t="n">
-        <v>406.5635087530452</v>
+        <v>406.5635087530451</v>
       </c>
       <c r="P5" t="n">
-        <v>308.9376163116798</v>
+        <v>308.9376163116797</v>
       </c>
       <c r="Q5" t="n">
         <v>153.9975062898689</v>
@@ -35014,25 +35014,25 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>76.01733575770692</v>
+        <v>76.01733575770689</v>
       </c>
       <c r="K6" t="n">
         <v>257.8255762031298</v>
       </c>
       <c r="L6" t="n">
-        <v>408.7029475713857</v>
+        <v>289.2671274730086</v>
       </c>
       <c r="M6" t="n">
         <v>529.4413268262938</v>
       </c>
       <c r="N6" t="n">
-        <v>439.8839133355128</v>
+        <v>559.3197334338902</v>
       </c>
       <c r="O6" t="n">
-        <v>444.5817404245898</v>
+        <v>444.5817404245897</v>
       </c>
       <c r="P6" t="n">
-        <v>339.6412258735647</v>
+        <v>339.6412258735646</v>
       </c>
       <c r="Q6" t="n">
         <v>173.8110948137341</v>
@@ -35096,7 +35096,7 @@
         <v>0</v>
       </c>
       <c r="K7" t="n">
-        <v>56.87090208713954</v>
+        <v>56.87090208713953</v>
       </c>
       <c r="L7" t="n">
         <v>128.8624823850085</v>
@@ -35111,7 +35111,7 @@
         <v>120.8664146557981</v>
       </c>
       <c r="P7" t="n">
-        <v>79.66383317873149</v>
+        <v>79.66383317873148</v>
       </c>
       <c r="Q7" t="n">
         <v>0</v>
@@ -35181,19 +35181,19 @@
         <v>558.3972305517163</v>
       </c>
       <c r="M8" t="n">
-        <v>463.9309026209492</v>
+        <v>638.0987989730422</v>
       </c>
       <c r="N8" t="n">
-        <v>196.2971847393761</v>
+        <v>556.2429872186707</v>
       </c>
       <c r="O8" t="n">
         <v>171.8879043605652</v>
       </c>
       <c r="P8" t="n">
-        <v>433.6515619588832</v>
+        <v>111.8528537874005</v>
       </c>
       <c r="Q8" t="n">
-        <v>247.6524856312129</v>
+        <v>35.33749497130819</v>
       </c>
       <c r="R8" t="n">
         <v>0</v>
@@ -35257,22 +35257,22 @@
         <v>332.7559639452625</v>
       </c>
       <c r="L9" t="n">
-        <v>509.4561008748672</v>
+        <v>146.772802325465</v>
       </c>
       <c r="M9" t="n">
-        <v>181.3104407622271</v>
+        <v>647.0155045122269</v>
       </c>
       <c r="N9" t="n">
-        <v>248.7689815793668</v>
+        <v>674.2872727545556</v>
       </c>
       <c r="O9" t="n">
         <v>554.9858674269929</v>
       </c>
       <c r="P9" t="n">
-        <v>428.2502711927643</v>
+        <v>109.7875025528271</v>
       </c>
       <c r="Q9" t="n">
-        <v>233.0438950105733</v>
+        <v>22.96660727472423</v>
       </c>
       <c r="R9" t="n">
         <v>0</v>
@@ -35427,13 +35427,13 @@
         <v>696.488651224316</v>
       </c>
       <c r="P11" t="n">
-        <v>559.5874541683806</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q11" t="n">
         <v>371.5675334924728</v>
       </c>
       <c r="R11" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902408</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35503,13 +35503,13 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O12" t="n">
-        <v>82.88662398579324</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P12" t="n">
-        <v>427.9021712071395</v>
+        <v>188.9220579561604</v>
       </c>
       <c r="Q12" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R12" t="n">
         <v>0</v>
@@ -35646,7 +35646,7 @@
         <v>1.539690236317256</v>
       </c>
       <c r="J14" t="n">
-        <v>285.708711039642</v>
+        <v>285.7087110396425</v>
       </c>
       <c r="K14" t="n">
         <v>479.454324036777</v>
@@ -35722,13 +35722,13 @@
         <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J15" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K15" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L15" t="n">
         <v>500.328895167433</v>
@@ -35740,10 +35740,10 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O15" t="n">
-        <v>557.4845759992799</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P15" t="n">
-        <v>188.9220579561604</v>
+        <v>0</v>
       </c>
       <c r="Q15" t="n">
         <v>0</v>
@@ -35880,31 +35880,31 @@
         <v>0</v>
       </c>
       <c r="I17" t="n">
-        <v>1.539690236317227</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J17" t="n">
-        <v>285.7087110396419</v>
+        <v>285.708711039642</v>
       </c>
       <c r="K17" t="n">
-        <v>479.4543240367769</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L17" t="n">
         <v>632.0799921462688</v>
       </c>
       <c r="M17" t="n">
-        <v>735.3001107902946</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N17" t="n">
         <v>751.8584478193516</v>
       </c>
       <c r="O17" t="n">
-        <v>696.4886512243158</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P17" t="n">
         <v>559.5874541683811</v>
       </c>
       <c r="Q17" t="n">
-        <v>371.5675334924726</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R17" t="n">
         <v>129.8660843902404</v>
@@ -35959,28 +35959,28 @@
         <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J18" t="n">
-        <v>151.1582247754087</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K18" t="n">
-        <v>337.2977496678995</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L18" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M18" t="n">
-        <v>603.4126137641936</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N18" t="n">
-        <v>633.937336923845</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O18" t="n">
-        <v>330.3773834724261</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P18" t="n">
-        <v>427.9021712071394</v>
+        <v>0</v>
       </c>
       <c r="Q18" t="n">
         <v>0</v>
@@ -36041,7 +36041,7 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>81.04648326295333</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K19" t="n">
         <v>264.3325884096349</v>
@@ -36050,19 +36050,19 @@
         <v>394.3420143191314</v>
       </c>
       <c r="M19" t="n">
-        <v>426.272427001045</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N19" t="n">
-        <v>421.6261329899073</v>
+        <v>421.6261329899074</v>
       </c>
       <c r="O19" t="n">
-        <v>373.2618997060453</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P19" t="n">
-        <v>295.6317733066249</v>
+        <v>295.631773306625</v>
       </c>
       <c r="Q19" t="n">
-        <v>120.4022572998983</v>
+        <v>120.4022572998984</v>
       </c>
       <c r="R19" t="n">
         <v>0</v>
@@ -36141,7 +36141,7 @@
         <v>559.5874541683813</v>
       </c>
       <c r="Q20" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924719</v>
       </c>
       <c r="R20" t="n">
         <v>129.8660843902405</v>
@@ -36199,10 +36199,10 @@
         <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K21" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L21" t="n">
         <v>500.3288951674331</v>
@@ -36211,16 +36211,16 @@
         <v>603.4126137641938</v>
       </c>
       <c r="N21" t="n">
-        <v>159.3393849103583</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O21" t="n">
-        <v>557.48457599928</v>
+        <v>257.9506595121318</v>
       </c>
       <c r="P21" t="n">
-        <v>427.9021712071396</v>
+        <v>0</v>
       </c>
       <c r="Q21" t="n">
-        <v>235.6178387625076</v>
+        <v>0</v>
       </c>
       <c r="R21" t="n">
         <v>0</v>
@@ -36354,34 +36354,34 @@
         <v>0</v>
       </c>
       <c r="I23" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J23" t="n">
-        <v>285.7087110396425</v>
+        <v>285.708711039642</v>
       </c>
       <c r="K23" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L23" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M23" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N23" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O23" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P23" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q23" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R23" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902399</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36433,25 +36433,25 @@
         <v>0</v>
       </c>
       <c r="I24" t="n">
-        <v>1.785239600774915</v>
+        <v>0</v>
       </c>
       <c r="J24" t="n">
         <v>151.1582247754088</v>
       </c>
       <c r="K24" t="n">
-        <v>35.97859357997668</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L24" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M24" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N24" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O24" t="n">
-        <v>557.4845759992799</v>
+        <v>257.9506595121318</v>
       </c>
       <c r="P24" t="n">
         <v>0</v>
@@ -36515,22 +36515,22 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K25" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L25" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M25" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N25" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O25" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P25" t="n">
         <v>295.631773306625</v>
@@ -36591,34 +36591,34 @@
         <v>0</v>
       </c>
       <c r="I26" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J26" t="n">
-        <v>285.708711039642</v>
+        <v>285.7087110396405</v>
       </c>
       <c r="K26" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L26" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M26" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N26" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O26" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P26" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q26" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R26" t="n">
-        <v>129.8660843902408</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36670,34 +36670,34 @@
         <v>0</v>
       </c>
       <c r="I27" t="n">
-        <v>1.785239600774915</v>
+        <v>0</v>
       </c>
       <c r="J27" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K27" t="n">
         <v>337.2977496678996</v>
       </c>
       <c r="L27" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M27" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N27" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O27" t="n">
-        <v>134.6960534463662</v>
+        <v>257.9506595121318</v>
       </c>
       <c r="P27" t="n">
         <v>0</v>
       </c>
       <c r="Q27" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R27" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -36752,22 +36752,22 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K28" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L28" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M28" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N28" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O28" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P28" t="n">
         <v>295.631773306625</v>
@@ -36828,34 +36828,34 @@
         <v>0</v>
       </c>
       <c r="I29" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J29" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K29" t="n">
-        <v>479.4543240367776</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L29" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M29" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N29" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O29" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243148</v>
       </c>
       <c r="P29" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q29" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R29" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36910,28 +36910,28 @@
         <v>0</v>
       </c>
       <c r="J30" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K30" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L30" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M30" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N30" t="n">
-        <v>159.3393849103587</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O30" t="n">
-        <v>557.4845759992799</v>
+        <v>257.9506595121318</v>
       </c>
       <c r="P30" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q30" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R30" t="n">
         <v>0</v>
@@ -36989,22 +36989,22 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K31" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L31" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M31" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N31" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O31" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P31" t="n">
         <v>295.631773306625</v>
@@ -37065,34 +37065,34 @@
         <v>0</v>
       </c>
       <c r="I32" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J32" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K32" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L32" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M32" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N32" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O32" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P32" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q32" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R32" t="n">
-        <v>129.8660843902408</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37147,28 +37147,28 @@
         <v>0</v>
       </c>
       <c r="J33" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K33" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L33" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M33" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N33" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O33" t="n">
-        <v>557.4845759992799</v>
+        <v>257.9506595121318</v>
       </c>
       <c r="P33" t="n">
         <v>0</v>
       </c>
       <c r="Q33" t="n">
-        <v>188.9220579561604</v>
+        <v>0</v>
       </c>
       <c r="R33" t="n">
         <v>0</v>
@@ -37226,22 +37226,22 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K34" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L34" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M34" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N34" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O34" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P34" t="n">
         <v>295.631773306625</v>
@@ -37302,34 +37302,34 @@
         <v>0</v>
       </c>
       <c r="I35" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J35" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K35" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L35" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M35" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N35" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O35" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P35" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q35" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R35" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902399</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37387,25 +37387,25 @@
         <v>151.1582247754088</v>
       </c>
       <c r="K36" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L36" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M36" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N36" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O36" t="n">
-        <v>557.4845759992799</v>
+        <v>257.9506595121318</v>
       </c>
       <c r="P36" t="n">
         <v>0</v>
       </c>
       <c r="Q36" t="n">
-        <v>37.7638331807514</v>
+        <v>0</v>
       </c>
       <c r="R36" t="n">
         <v>0</v>
@@ -37463,22 +37463,22 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K37" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L37" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M37" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N37" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O37" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P37" t="n">
         <v>295.631773306625</v>
@@ -37539,34 +37539,34 @@
         <v>0</v>
       </c>
       <c r="I38" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J38" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K38" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L38" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M38" t="n">
-        <v>735.3001107902948</v>
+        <v>735.3001107902934</v>
       </c>
       <c r="N38" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O38" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P38" t="n">
-        <v>559.5874541683816</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q38" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R38" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37618,25 +37618,25 @@
         <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>1.785239600774915</v>
+        <v>0</v>
       </c>
       <c r="J39" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K39" t="n">
         <v>337.2977496678996</v>
       </c>
       <c r="L39" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M39" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N39" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O39" t="n">
-        <v>370.3138922088737</v>
+        <v>257.9506595121318</v>
       </c>
       <c r="P39" t="n">
         <v>0</v>
@@ -37645,7 +37645,7 @@
         <v>0</v>
       </c>
       <c r="R39" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -37700,22 +37700,22 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K40" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L40" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M40" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N40" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O40" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P40" t="n">
         <v>295.631773306625</v>
@@ -37776,34 +37776,34 @@
         <v>0</v>
       </c>
       <c r="I41" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J41" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K41" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L41" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M41" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N41" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O41" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P41" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q41" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R41" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37858,25 +37858,25 @@
         <v>0</v>
       </c>
       <c r="J42" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K42" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L42" t="n">
-        <v>261.3487819164541</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M42" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N42" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O42" t="n">
-        <v>557.4845759992799</v>
+        <v>257.9506595121318</v>
       </c>
       <c r="P42" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q42" t="n">
         <v>0</v>
@@ -37937,22 +37937,22 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K43" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L43" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M43" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N43" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O43" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P43" t="n">
         <v>295.631773306625</v>
@@ -38095,19 +38095,19 @@
         <v>0</v>
       </c>
       <c r="J45" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K45" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L45" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M45" t="n">
-        <v>603.4126137641938</v>
+        <v>509.9138629937518</v>
       </c>
       <c r="N45" t="n">
-        <v>622.6585275998996</v>
+        <v>0</v>
       </c>
       <c r="O45" t="n">
         <v>557.4845759992799</v>
@@ -38116,10 +38116,10 @@
         <v>427.9021712071395</v>
       </c>
       <c r="Q45" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R45" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>

--- a/Outputs/1. Budget/Grid Search/Output Files/1500000/Output_8_31.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/1500000/Output_8_31.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.01</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>2556260.460944782</v>
+        <v>2558020.991247568</v>
       </c>
     </row>
     <row r="7">
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>416855.1052283184</v>
+        <v>416855.1052283187</v>
       </c>
     </row>
     <row r="9">
@@ -673,7 +673,7 @@
         <v>6.876045741711437</v>
       </c>
       <c r="G2" t="n">
-        <v>413.784170020795</v>
+        <v>204.0813324860755</v>
       </c>
       <c r="H2" t="n">
         <v>323.9227727643571</v>
@@ -706,13 +706,13 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>54.4784025748117</v>
+        <v>54.47840257481171</v>
       </c>
       <c r="S2" t="n">
         <v>174.4157128089715</v>
       </c>
       <c r="T2" t="n">
-        <v>6.74548282293786</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U2" t="n">
         <v>0</v>
@@ -861,7 +861,7 @@
         <v>0</v>
       </c>
       <c r="Q4" t="n">
-        <v>0</v>
+        <v>29.1227499549143</v>
       </c>
       <c r="R4" t="n">
         <v>0</v>
@@ -879,7 +879,7 @@
         <v>0</v>
       </c>
       <c r="W4" t="n">
-        <v>120.4120358099648</v>
+        <v>91.2892858550503</v>
       </c>
       <c r="X4" t="n">
         <v>0</v>
@@ -904,19 +904,19 @@
         <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
         <v>406.8760457417114</v>
       </c>
       <c r="G5" t="n">
-        <v>413.784170020795</v>
+        <v>13.784170020795</v>
       </c>
       <c r="H5" t="n">
-        <v>52.8229012276257</v>
+        <v>288.6923155889716</v>
       </c>
       <c r="I5" t="n">
-        <v>0</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -943,7 +943,7 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>54.47840257481172</v>
+        <v>54.47840257481171</v>
       </c>
       <c r="S5" t="n">
         <v>174.4157128089715</v>
@@ -961,7 +961,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y5" t="n">
         <v>0</v>
@@ -995,7 +995,7 @@
         <v>104.3883541553076</v>
       </c>
       <c r="I6" t="n">
-        <v>61.42221998250819</v>
+        <v>61.42221998250818</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -1022,7 +1022,7 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>49.71123688229332</v>
+        <v>49.71123688229331</v>
       </c>
       <c r="S6" t="n">
         <v>156.5912426325231</v>
@@ -1053,7 +1053,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C7" t="n">
         <v>0</v>
@@ -1068,10 +1068,10 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G7" t="n">
-        <v>0</v>
+        <v>167.3098022590509</v>
       </c>
       <c r="H7" t="n">
-        <v>0</v>
+        <v>59.66385641544528</v>
       </c>
       <c r="I7" t="n">
         <v>0</v>
@@ -1110,7 +1110,7 @@
         <v>0</v>
       </c>
       <c r="U7" t="n">
-        <v>47.14167849255895</v>
+        <v>0</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
@@ -1144,7 +1144,7 @@
         <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>86.20316644646553</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G8" t="n">
         <v>412.9169039459368</v>
@@ -1186,7 +1186,7 @@
         <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>0</v>
+        <v>79.32712070475445</v>
       </c>
       <c r="U8" t="n">
         <v>251.1547862223006</v>
@@ -1314,7 +1314,7 @@
         <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>17.69584188176898</v>
+        <v>0</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -1359,7 +1359,7 @@
         <v>0</v>
       </c>
       <c r="Y10" t="n">
-        <v>184.6902077947043</v>
+        <v>202.3860496764733</v>
       </c>
     </row>
     <row r="11">
@@ -1384,10 +1384,10 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G11" t="n">
-        <v>409.8033385187861</v>
+        <v>409.8033385187866</v>
       </c>
       <c r="H11" t="n">
-        <v>283.1540821444137</v>
+        <v>283.1540821444141</v>
       </c>
       <c r="I11" t="n">
         <v>0</v>
@@ -1420,7 +1420,7 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695526</v>
       </c>
       <c r="T11" t="n">
         <v>199.0222304576161</v>
@@ -1533,22 +1533,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D13" t="n">
-        <v>34.45703212904674</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E13" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>165.5241382922688</v>
+        <v>18.70843787977355</v>
       </c>
       <c r="H13" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>81.26583631856553</v>
+        <v>81.2658363185655</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1575,13 +1575,13 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>0</v>
+        <v>66.37524671012164</v>
       </c>
       <c r="S13" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T13" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U13" t="n">
         <v>286.1844743892441</v>
@@ -1615,7 +1615,7 @@
         <v>354.683041620683</v>
       </c>
       <c r="E14" t="n">
-        <v>381.9303700722618</v>
+        <v>381.9303700722626</v>
       </c>
       <c r="F14" t="n">
         <v>406.8760457417114</v>
@@ -1657,7 +1657,7 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695619</v>
       </c>
       <c r="T14" t="n">
         <v>199.0222304576161</v>
@@ -1770,7 +1770,7 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D16" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E16" t="n">
         <v>0</v>
@@ -1785,7 +1785,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I16" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1812,22 +1812,22 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>66.37524671012169</v>
+        <v>66.37524671012164</v>
       </c>
       <c r="S16" t="n">
         <v>181.0262860016446</v>
       </c>
       <c r="T16" t="n">
-        <v>216.8180354051593</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U16" t="n">
-        <v>286.1844743892441</v>
+        <v>228.9553704673027</v>
       </c>
       <c r="V16" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W16" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X16" t="n">
         <v>225.7096553890372</v>
@@ -1858,7 +1858,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G17" t="n">
-        <v>409.8033385187861</v>
+        <v>409.8033385187866</v>
       </c>
       <c r="H17" t="n">
         <v>283.1540821444137</v>
@@ -1894,7 +1894,7 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T17" t="n">
         <v>199.0222304576161</v>
@@ -2019,7 +2019,7 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H19" t="n">
-        <v>140.2947128462239</v>
+        <v>83.06560892428213</v>
       </c>
       <c r="I19" t="n">
         <v>0</v>
@@ -2049,7 +2049,7 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>9.146142788179482</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S19" t="n">
         <v>181.0262860016446</v>
@@ -2098,7 +2098,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H20" t="n">
-        <v>283.1540821444137</v>
+        <v>283.1540821444132</v>
       </c>
       <c r="I20" t="n">
         <v>0</v>
@@ -2256,7 +2256,7 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H22" t="n">
-        <v>140.2947128462239</v>
+        <v>83.06560892428213</v>
       </c>
       <c r="I22" t="n">
         <v>0</v>
@@ -2298,7 +2298,7 @@
         <v>286.1844743892441</v>
       </c>
       <c r="V22" t="n">
-        <v>194.9085394018862</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W22" t="n">
         <v>286.522998336591</v>
@@ -2368,7 +2368,7 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T23" t="n">
         <v>199.0222304576161</v>
@@ -2484,10 +2484,10 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E25" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F25" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
         <v>165.5241382922688</v>
@@ -2496,7 +2496,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I25" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2526,13 +2526,13 @@
         <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T25" t="n">
-        <v>77.93612009725614</v>
+        <v>0</v>
       </c>
       <c r="U25" t="n">
-        <v>286.1844743892441</v>
+        <v>172.0260335000785</v>
       </c>
       <c r="V25" t="n">
         <v>252.137643323828</v>
@@ -2605,7 +2605,7 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T26" t="n">
         <v>199.0222304576161</v>
@@ -2733,7 +2733,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I28" t="n">
-        <v>81.26583631856552</v>
+        <v>0</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2760,16 +2760,16 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S28" t="n">
         <v>181.0262860016446</v>
       </c>
       <c r="T28" t="n">
-        <v>217.4054503272883</v>
+        <v>160.1763464053459</v>
       </c>
       <c r="U28" t="n">
-        <v>214.0647808588585</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V28" t="n">
         <v>252.137643323828</v>
@@ -2842,7 +2842,7 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T29" t="n">
         <v>199.0222304576161</v>
@@ -2952,19 +2952,19 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C31" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D31" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E31" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F31" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H31" t="n">
         <v>0</v>
@@ -2997,7 +2997,7 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>66.37524671012166</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S31" t="n">
         <v>181.0262860016446</v>
@@ -3006,13 +3006,13 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U31" t="n">
-        <v>286.1844743892441</v>
+        <v>239.7247859410132</v>
       </c>
       <c r="V31" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W31" t="n">
-        <v>242.7989073183574</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X31" t="n">
         <v>225.7096553890372</v>
@@ -3079,7 +3079,7 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T32" t="n">
         <v>199.0222304576161</v>
@@ -3201,7 +3201,7 @@
         <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>108.2950343703271</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H34" t="n">
         <v>140.2947128462239</v>
@@ -3234,7 +3234,7 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>66.37524671012166</v>
+        <v>9.146142788179482</v>
       </c>
       <c r="S34" t="n">
         <v>181.0262860016446</v>
@@ -3277,7 +3277,7 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F35" t="n">
-        <v>406.8760457417114</v>
+        <v>406.8760457417109</v>
       </c>
       <c r="G35" t="n">
         <v>409.8033385187866</v>
@@ -3429,19 +3429,19 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D37" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E37" t="n">
-        <v>18.7084378797731</v>
+        <v>0</v>
       </c>
       <c r="F37" t="n">
         <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H37" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I37" t="n">
         <v>81.26583631856552</v>
@@ -3477,7 +3477,7 @@
         <v>181.0262860016446</v>
       </c>
       <c r="T37" t="n">
-        <v>217.4054503272883</v>
+        <v>78.91051008678096</v>
       </c>
       <c r="U37" t="n">
         <v>286.1844743892441</v>
@@ -3556,7 +3556,7 @@
         <v>83.70251495695528</v>
       </c>
       <c r="T38" t="n">
-        <v>199.0222304576164</v>
+        <v>199.0222304576161</v>
       </c>
       <c r="U38" t="n">
         <v>250.9057009881286</v>
@@ -3663,10 +3663,10 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C40" t="n">
-        <v>28.75188085812055</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D40" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E40" t="n">
         <v>0</v>
@@ -3720,10 +3720,10 @@
         <v>286.1844743892441</v>
       </c>
       <c r="V40" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W40" t="n">
-        <v>286.522998336591</v>
+        <v>251.5502284016995</v>
       </c>
       <c r="X40" t="n">
         <v>225.7096553890372</v>
@@ -3790,7 +3790,7 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T41" t="n">
         <v>199.0222304576161</v>
@@ -3903,22 +3903,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D43" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E43" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F43" t="n">
         <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>19.91555826189102</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H43" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I43" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3957,7 +3957,7 @@
         <v>286.1844743892441</v>
       </c>
       <c r="V43" t="n">
-        <v>252.137643323828</v>
+        <v>180.0179497934419</v>
       </c>
       <c r="W43" t="n">
         <v>286.522998336591</v>
@@ -4137,7 +4137,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C46" t="n">
-        <v>167.2468210986278</v>
+        <v>110.0177171766856</v>
       </c>
       <c r="D46" t="n">
         <v>0</v>
@@ -4191,7 +4191,7 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U46" t="n">
-        <v>228.9553704673018</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V46" t="n">
         <v>252.137643323828</v>
@@ -4306,19 +4306,19 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>2072.529454785695</v>
+        <v>1860.708406770827</v>
       </c>
       <c r="C2" t="n">
-        <v>1703.566937845283</v>
+        <v>1491.745889830415</v>
       </c>
       <c r="D2" t="n">
-        <v>1345.301239238533</v>
+        <v>1133.480191223665</v>
       </c>
       <c r="E2" t="n">
-        <v>959.5129866402885</v>
+        <v>747.6919386254203</v>
       </c>
       <c r="F2" t="n">
-        <v>952.5674858910851</v>
+        <v>740.7464378762169</v>
       </c>
       <c r="G2" t="n">
         <v>534.603677789272</v>
@@ -4333,16 +4333,16 @@
         <v>169.7108380533141</v>
       </c>
       <c r="K2" t="n">
-        <v>463.9616490733127</v>
+        <v>463.9616490733126</v>
       </c>
       <c r="L2" t="n">
-        <v>881.2824271224076</v>
+        <v>881.2824271224075</v>
       </c>
       <c r="M2" t="n">
         <v>1362.238747280443</v>
       </c>
       <c r="N2" t="n">
-        <v>1836.345445977175</v>
+        <v>1836.345445977174</v>
       </c>
       <c r="O2" t="n">
         <v>2238.843319642689</v>
@@ -4360,22 +4360,22 @@
         <v>2465.942913862886</v>
       </c>
       <c r="T2" t="n">
-        <v>2459.129294849817</v>
+        <v>2247.308246834948</v>
       </c>
       <c r="U2" t="n">
-        <v>2459.129294849817</v>
+        <v>2247.308246834948</v>
       </c>
       <c r="V2" t="n">
-        <v>2459.129294849817</v>
+        <v>2247.308246834948</v>
       </c>
       <c r="W2" t="n">
-        <v>2459.129294849817</v>
+        <v>2247.308246834948</v>
       </c>
       <c r="X2" t="n">
-        <v>2459.129294849817</v>
+        <v>2247.308246834948</v>
       </c>
       <c r="Y2" t="n">
-        <v>2459.129294849817</v>
+        <v>2247.308246834948</v>
       </c>
     </row>
     <row r="3">
@@ -4385,25 +4385,25 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>988.497975217083</v>
+        <v>988.4979752170825</v>
       </c>
       <c r="C3" t="n">
-        <v>814.044945935956</v>
+        <v>814.0449459359555</v>
       </c>
       <c r="D3" t="n">
-        <v>665.1105362747046</v>
+        <v>665.1105362747041</v>
       </c>
       <c r="E3" t="n">
-        <v>505.873081269249</v>
+        <v>505.8730812692486</v>
       </c>
       <c r="F3" t="n">
-        <v>359.3385232961342</v>
+        <v>359.3385232961338</v>
       </c>
       <c r="G3" t="n">
-        <v>221.4284102424008</v>
+        <v>221.4284102424003</v>
       </c>
       <c r="H3" t="n">
-        <v>115.9856282673427</v>
+        <v>115.9856282673424</v>
       </c>
       <c r="I3" t="n">
         <v>53.94298182036445</v>
@@ -4448,10 +4448,10 @@
         <v>1826.562467935839</v>
       </c>
       <c r="W3" t="n">
-        <v>1572.325111207638</v>
+        <v>1572.325111207637</v>
       </c>
       <c r="X3" t="n">
-        <v>1364.473611002105</v>
+        <v>1364.473611002104</v>
       </c>
       <c r="Y3" t="n">
         <v>1156.713312237151</v>
@@ -4494,37 +4494,37 @@
         <v>110.2451748866326</v>
       </c>
       <c r="L4" t="n">
-        <v>237.8190324477911</v>
+        <v>237.819032447791</v>
       </c>
       <c r="M4" t="n">
-        <v>382.716901165821</v>
+        <v>382.7169011658209</v>
       </c>
       <c r="N4" t="n">
-        <v>529.6040388502502</v>
+        <v>529.6040388502499</v>
       </c>
       <c r="O4" t="n">
-        <v>649.2617893594903</v>
+        <v>649.2617893594901</v>
       </c>
       <c r="P4" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="Q4" t="n">
-        <v>728.1289842064344</v>
+        <v>698.7120650600561</v>
       </c>
       <c r="R4" t="n">
-        <v>728.1289842064344</v>
+        <v>698.7120650600561</v>
       </c>
       <c r="S4" t="n">
-        <v>728.1289842064344</v>
+        <v>698.7120650600561</v>
       </c>
       <c r="T4" t="n">
-        <v>728.1289842064344</v>
+        <v>698.7120650600561</v>
       </c>
       <c r="U4" t="n">
-        <v>728.1289842064344</v>
+        <v>698.7120650600561</v>
       </c>
       <c r="V4" t="n">
-        <v>728.1289842064344</v>
+        <v>698.7120650600561</v>
       </c>
       <c r="W4" t="n">
         <v>606.50066520647</v>
@@ -4543,37 +4543,37 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>936.2491605982757</v>
+        <v>1309.714918859356</v>
       </c>
       <c r="C5" t="n">
-        <v>936.2491605982757</v>
+        <v>1309.714918859356</v>
       </c>
       <c r="D5" t="n">
-        <v>936.2491605982757</v>
+        <v>1309.714918859356</v>
       </c>
       <c r="E5" t="n">
-        <v>936.2491605982757</v>
+        <v>923.9266662611112</v>
       </c>
       <c r="F5" t="n">
-        <v>525.2632558086682</v>
+        <v>512.9407614715037</v>
       </c>
       <c r="G5" t="n">
-        <v>107.2994477068551</v>
+        <v>499.0173574100946</v>
       </c>
       <c r="H5" t="n">
-        <v>53.94298182036445</v>
+        <v>207.4089578252748</v>
       </c>
       <c r="I5" t="n">
         <v>53.94298182036445</v>
       </c>
       <c r="J5" t="n">
-        <v>169.7108380533139</v>
+        <v>169.7108380533142</v>
       </c>
       <c r="K5" t="n">
-        <v>463.9616490733123</v>
+        <v>463.9616490733126</v>
       </c>
       <c r="L5" t="n">
-        <v>881.2824271224072</v>
+        <v>881.2824271224074</v>
       </c>
       <c r="M5" t="n">
         <v>1362.238747280443</v>
@@ -4609,10 +4609,10 @@
         <v>1309.714918859356</v>
       </c>
       <c r="X5" t="n">
-        <v>936.2491605982757</v>
+        <v>1309.714918859356</v>
       </c>
       <c r="Y5" t="n">
-        <v>936.2491605982757</v>
+        <v>1309.714918859356</v>
       </c>
     </row>
     <row r="6">
@@ -4652,10 +4652,10 @@
         <v>384.4474646615928</v>
       </c>
       <c r="L6" t="n">
-        <v>670.8219208598713</v>
+        <v>789.0633827572647</v>
       </c>
       <c r="M6" t="n">
-        <v>1194.968834417902</v>
+        <v>1313.210296315296</v>
       </c>
       <c r="N6" t="n">
         <v>1748.695370517453</v>
@@ -4701,22 +4701,22 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>498.8626623130036</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="C7" t="n">
-        <v>498.8626623130036</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="D7" t="n">
-        <v>348.7460229006679</v>
+        <v>578.0123447940985</v>
       </c>
       <c r="E7" t="n">
-        <v>200.8329293182748</v>
+        <v>430.0992512117053</v>
       </c>
       <c r="F7" t="n">
-        <v>53.94298182036445</v>
+        <v>283.209303713795</v>
       </c>
       <c r="G7" t="n">
-        <v>53.94298182036445</v>
+        <v>114.2095034521274</v>
       </c>
       <c r="H7" t="n">
         <v>53.94298182036445</v>
@@ -4758,19 +4758,19 @@
         <v>728.1289842064342</v>
       </c>
       <c r="U7" t="n">
-        <v>680.5111271432434</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="V7" t="n">
-        <v>680.5111271432434</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="W7" t="n">
-        <v>680.5111271432434</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="X7" t="n">
-        <v>680.5111271432434</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="Y7" t="n">
-        <v>680.5111271432434</v>
+        <v>728.1289842064342</v>
       </c>
     </row>
     <row r="8">
@@ -4780,16 +4780,16 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>996.020754912797</v>
+        <v>915.8923501605201</v>
       </c>
       <c r="C8" t="n">
-        <v>996.020754912797</v>
+        <v>915.8923501605201</v>
       </c>
       <c r="D8" t="n">
-        <v>996.020754912797</v>
+        <v>915.8923501605201</v>
       </c>
       <c r="E8" t="n">
-        <v>996.020754912797</v>
+        <v>915.8923501605201</v>
       </c>
       <c r="F8" t="n">
         <v>908.9468494113166</v>
@@ -4813,10 +4813,10 @@
         <v>1198.863252100346</v>
       </c>
       <c r="M8" t="n">
-        <v>1830.581063083657</v>
+        <v>1385.562664925753</v>
       </c>
       <c r="N8" t="n">
-        <v>2381.261620430141</v>
+        <v>2004.269440980023</v>
       </c>
       <c r="O8" t="n">
         <v>2551.430645747101</v>
@@ -4834,22 +4834,22 @@
         <v>2697.149091018222</v>
       </c>
       <c r="T8" t="n">
-        <v>2697.149091018222</v>
+        <v>2617.020686265945</v>
       </c>
       <c r="U8" t="n">
-        <v>2443.457387763373</v>
+        <v>2363.328983011096</v>
       </c>
       <c r="V8" t="n">
-        <v>2112.394500419803</v>
+        <v>2032.266095667526</v>
       </c>
       <c r="W8" t="n">
-        <v>1759.625845149689</v>
+        <v>1679.497440397412</v>
       </c>
       <c r="X8" t="n">
-        <v>1386.160086888609</v>
+        <v>1306.031682136332</v>
       </c>
       <c r="Y8" t="n">
-        <v>996.020754912797</v>
+        <v>915.8923501605201</v>
       </c>
     </row>
     <row r="9">
@@ -4889,19 +4889,19 @@
         <v>502.03063798307</v>
       </c>
       <c r="L9" t="n">
-        <v>647.3357122852804</v>
+        <v>908.2468558011349</v>
       </c>
       <c r="M9" t="n">
-        <v>1287.881061752385</v>
+        <v>1548.79220526824</v>
       </c>
       <c r="N9" t="n">
-        <v>1955.425461779395</v>
+        <v>1747.448946920904</v>
       </c>
       <c r="O9" t="n">
-        <v>2504.861470532118</v>
+        <v>2296.884955673627</v>
       </c>
       <c r="P9" t="n">
-        <v>2613.551098059417</v>
+        <v>2405.574583200926</v>
       </c>
       <c r="Q9" t="n">
         <v>2636.288039261394</v>
@@ -4938,28 +4938,28 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>685.6734330002731</v>
+        <v>667.7988452409105</v>
       </c>
       <c r="C10" t="n">
-        <v>516.7372500723662</v>
+        <v>498.8626623130036</v>
       </c>
       <c r="D10" t="n">
-        <v>366.6206106600305</v>
+        <v>348.7460229006679</v>
       </c>
       <c r="E10" t="n">
-        <v>218.7075170776374</v>
+        <v>200.8329293182748</v>
       </c>
       <c r="F10" t="n">
-        <v>71.81756957972706</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="G10" t="n">
-        <v>71.81756957972706</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H10" t="n">
-        <v>71.81756957972706</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I10" t="n">
-        <v>71.81756957972706</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J10" t="n">
         <v>53.94298182036445</v>
@@ -5007,7 +5007,7 @@
         <v>1053.877663279709</v>
       </c>
       <c r="Y10" t="n">
-        <v>867.3218978305129</v>
+        <v>849.4473100711502</v>
       </c>
     </row>
     <row r="11">
@@ -5020,70 +5020,70 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C11" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611464</v>
       </c>
       <c r="D11" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E11" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F11" t="n">
-        <v>793.7736536168607</v>
+        <v>793.7736536168616</v>
       </c>
       <c r="G11" t="n">
-        <v>379.8308874362686</v>
+        <v>379.830887436269</v>
       </c>
       <c r="H11" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I11" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192605</v>
       </c>
       <c r="J11" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111718</v>
       </c>
       <c r="K11" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075811</v>
       </c>
       <c r="L11" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M11" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N11" t="n">
         <v>2950.898526355937</v>
       </c>
       <c r="O11" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P11" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q11" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R11" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398594</v>
       </c>
       <c r="S11" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492579</v>
       </c>
       <c r="T11" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474785</v>
       </c>
       <c r="U11" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466574</v>
       </c>
       <c r="V11" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W11" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X11" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y11" t="n">
         <v>2704.375866615997</v>
@@ -5105,7 +5105,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E12" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F12" t="n">
         <v>314.2396613568978</v>
@@ -5114,31 +5114,31 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H12" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I12" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J12" t="n">
-        <v>93.81666304797187</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K12" t="n">
-        <v>93.81666304797187</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="L12" t="n">
-        <v>589.1422692637306</v>
+        <v>738.7889117913855</v>
       </c>
       <c r="M12" t="n">
-        <v>1186.520756890282</v>
+        <v>1336.167399417938</v>
       </c>
       <c r="N12" t="n">
-        <v>1814.118720444889</v>
+        <v>1344.266747951537</v>
       </c>
       <c r="O12" t="n">
-        <v>2366.028450684176</v>
+        <v>1896.176478190824</v>
       </c>
       <c r="P12" t="n">
-        <v>2553.061288060775</v>
+        <v>2319.799627685893</v>
       </c>
       <c r="Q12" t="n">
         <v>2553.061288060775</v>
@@ -5175,76 +5175,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>983.3556038098237</v>
+        <v>513.8536007400721</v>
       </c>
       <c r="C13" t="n">
-        <v>814.4194208819168</v>
+        <v>344.9174178121652</v>
       </c>
       <c r="D13" t="n">
-        <v>779.6143379232838</v>
+        <v>194.8007783998295</v>
       </c>
       <c r="E13" t="n">
-        <v>631.7012443408906</v>
+        <v>194.8007783998295</v>
       </c>
       <c r="F13" t="n">
-        <v>484.8112968429803</v>
+        <v>194.8007783998295</v>
       </c>
       <c r="G13" t="n">
-        <v>317.6151975578602</v>
+        <v>175.9033664000582</v>
       </c>
       <c r="H13" t="n">
-        <v>175.9033664000583</v>
+        <v>175.9033664000582</v>
       </c>
       <c r="I13" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J13" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K13" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L13" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M13" t="n">
-        <v>1248.150240910809</v>
+        <v>1248.15024091081</v>
       </c>
       <c r="N13" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O13" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P13" t="n">
-        <v>2327.764848853361</v>
+        <v>2327.764848853362</v>
       </c>
       <c r="Q13" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R13" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832664</v>
       </c>
       <c r="S13" t="n">
-        <v>2446.96308358026</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T13" t="n">
-        <v>2446.96308358026</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U13" t="n">
-        <v>2157.887856924458</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V13" t="n">
-        <v>1903.203368718571</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W13" t="n">
-        <v>1613.786198681611</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X13" t="n">
-        <v>1385.796647783593</v>
+        <v>916.294644713842</v>
       </c>
       <c r="Y13" t="n">
-        <v>1165.004068640063</v>
+        <v>695.5020655703119</v>
       </c>
     </row>
     <row r="14">
@@ -5257,10 +5257,10 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C14" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611464</v>
       </c>
       <c r="D14" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004714</v>
       </c>
       <c r="E14" t="n">
         <v>1204.759558406469</v>
@@ -5272,16 +5272,16 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H14" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I14" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J14" t="n">
-        <v>378.192580311172</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K14" t="n">
-        <v>852.8523611075813</v>
+        <v>852.8523611075811</v>
       </c>
       <c r="L14" t="n">
         <v>1478.611553332387</v>
@@ -5296,31 +5296,31 @@
         <v>3640.42229106801</v>
       </c>
       <c r="P14" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q14" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R14" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398594</v>
       </c>
       <c r="S14" t="n">
         <v>4606.285157492578</v>
       </c>
       <c r="T14" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474785</v>
       </c>
       <c r="U14" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466574</v>
       </c>
       <c r="V14" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W14" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X14" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y14" t="n">
         <v>2704.375866615997</v>
@@ -5342,7 +5342,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E15" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F15" t="n">
         <v>314.2396613568978</v>
@@ -5351,16 +5351,16 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H15" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I15" t="n">
-        <v>95.58405025273903</v>
+        <v>95.58405025273908</v>
       </c>
       <c r="J15" t="n">
-        <v>245.2306927803937</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K15" t="n">
-        <v>579.1554649516142</v>
+        <v>579.1554649516145</v>
       </c>
       <c r="L15" t="n">
         <v>1074.481071167373</v>
@@ -5412,76 +5412,76 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>803.8641191832229</v>
+        <v>571.6607764188008</v>
       </c>
       <c r="C16" t="n">
-        <v>634.927936255316</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="D16" t="n">
-        <v>484.8112968429803</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="E16" t="n">
-        <v>484.8112968429803</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="F16" t="n">
-        <v>484.8112968429803</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="G16" t="n">
-        <v>317.6151975578602</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H16" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I16" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J16" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K16" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L16" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M16" t="n">
-        <v>1248.150240910809</v>
+        <v>1248.15024091081</v>
       </c>
       <c r="N16" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O16" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P16" t="n">
-        <v>2327.764848853361</v>
+        <v>2327.764848853362</v>
       </c>
       <c r="Q16" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R16" t="n">
-        <v>2379.917379832663</v>
+        <v>2379.917379832664</v>
       </c>
       <c r="S16" t="n">
-        <v>2197.062545487567</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T16" t="n">
-        <v>1978.054428916699</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U16" t="n">
-        <v>1688.979202260897</v>
+        <v>1746.193029533436</v>
       </c>
       <c r="V16" t="n">
-        <v>1434.29471405501</v>
+        <v>1491.508541327549</v>
       </c>
       <c r="W16" t="n">
-        <v>1434.29471405501</v>
+        <v>1202.091371290588</v>
       </c>
       <c r="X16" t="n">
-        <v>1206.305163156993</v>
+        <v>974.1018203925706</v>
       </c>
       <c r="Y16" t="n">
-        <v>985.5125840134626</v>
+        <v>753.3092412490405</v>
       </c>
     </row>
     <row r="17">
@@ -5497,13 +5497,13 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D17" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E17" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F17" t="n">
-        <v>793.7736536168607</v>
+        <v>793.7736536168613</v>
       </c>
       <c r="G17" t="n">
         <v>379.8308874362686</v>
@@ -5512,25 +5512,25 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I17" t="n">
-        <v>95.34095638192616</v>
+        <v>95.34095638192598</v>
       </c>
       <c r="J17" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111701</v>
       </c>
       <c r="K17" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075794</v>
       </c>
       <c r="L17" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M17" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N17" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O17" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P17" t="n">
         <v>4194.413870694707</v>
@@ -5591,22 +5591,22 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I18" t="n">
-        <v>95.58405025273903</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J18" t="n">
-        <v>245.2306927803937</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="K18" t="n">
-        <v>579.1554649516142</v>
+        <v>427.7414352191925</v>
       </c>
       <c r="L18" t="n">
-        <v>1074.481071167373</v>
+        <v>923.0670414349513</v>
       </c>
       <c r="M18" t="n">
-        <v>1671.859558793925</v>
+        <v>1520.445529061503</v>
       </c>
       <c r="N18" t="n">
-        <v>2299.457522348532</v>
+        <v>2148.04349261611</v>
       </c>
       <c r="O18" t="n">
         <v>2553.061288060775</v>
@@ -5649,22 +5649,22 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>571.6607764188008</v>
+        <v>513.8536007400717</v>
       </c>
       <c r="C19" t="n">
-        <v>402.7245934908939</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="D19" t="n">
-        <v>402.7245934908939</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="E19" t="n">
-        <v>402.7245934908939</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="F19" t="n">
-        <v>402.7245934908939</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="G19" t="n">
-        <v>235.5284942057738</v>
+        <v>177.7213185270447</v>
       </c>
       <c r="H19" t="n">
         <v>93.81666304797187</v>
@@ -5673,52 +5673,52 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J19" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K19" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L19" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M19" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N19" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O19" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P19" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q19" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R19" t="n">
-        <v>2437.724555511392</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S19" t="n">
-        <v>2254.869721166297</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T19" t="n">
-        <v>2035.268256189238</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U19" t="n">
-        <v>1746.193029533436</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V19" t="n">
-        <v>1491.508541327549</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W19" t="n">
-        <v>1202.091371290588</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X19" t="n">
-        <v>974.1018203925706</v>
+        <v>916.2946447138415</v>
       </c>
       <c r="Y19" t="n">
-        <v>753.3092412490405</v>
+        <v>695.5020655703114</v>
       </c>
     </row>
     <row r="20">
@@ -5734,28 +5734,28 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D20" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E20" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F20" t="n">
-        <v>793.7736536168613</v>
+        <v>793.7736536168607</v>
       </c>
       <c r="G20" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362681</v>
       </c>
       <c r="H20" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I20" t="n">
-        <v>95.34095638192598</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J20" t="n">
         <v>378.1925803111716</v>
       </c>
       <c r="K20" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075798</v>
       </c>
       <c r="L20" t="n">
         <v>1478.611553332387</v>
@@ -5764,10 +5764,10 @@
         <v>2206.558663014779</v>
       </c>
       <c r="N20" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O20" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P20" t="n">
         <v>4194.413870694708</v>
@@ -5828,31 +5828,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I21" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273905</v>
       </c>
       <c r="J21" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K21" t="n">
-        <v>577.3880777468471</v>
+        <v>579.1554649516144</v>
       </c>
       <c r="L21" t="n">
-        <v>1072.713683962606</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M21" t="n">
-        <v>1670.092171589158</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N21" t="n">
-        <v>2297.690135143765</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="O21" t="n">
-        <v>2553.061288060775</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="P21" t="n">
-        <v>2553.061288060775</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q21" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R21" t="n">
         <v>2553.061288060775</v>
@@ -5886,22 +5886,22 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>571.6607764188008</v>
+        <v>513.8536007400717</v>
       </c>
       <c r="C22" t="n">
-        <v>402.7245934908938</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="D22" t="n">
-        <v>402.7245934908938</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="E22" t="n">
-        <v>402.7245934908938</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="F22" t="n">
-        <v>402.7245934908938</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="G22" t="n">
-        <v>235.5284942057738</v>
+        <v>177.7213185270447</v>
       </c>
       <c r="H22" t="n">
         <v>93.81666304797187</v>
@@ -5946,16 +5946,16 @@
         <v>1688.385853854707</v>
       </c>
       <c r="V22" t="n">
-        <v>1491.508541327549</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W22" t="n">
-        <v>1202.091371290588</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X22" t="n">
-        <v>974.1018203925706</v>
+        <v>916.2946447138415</v>
       </c>
       <c r="Y22" t="n">
-        <v>753.3092412490405</v>
+        <v>695.5020655703114</v>
       </c>
     </row>
     <row r="23">
@@ -5965,34 +5965,34 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551874</v>
       </c>
       <c r="C23" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611462</v>
       </c>
       <c r="D23" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E23" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F23" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168609</v>
       </c>
       <c r="G23" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H23" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I23" t="n">
-        <v>95.34095638192598</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J23" t="n">
-        <v>378.1925803111716</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K23" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L23" t="n">
         <v>1478.611553332387</v>
@@ -6001,16 +6001,16 @@
         <v>2206.558663014779</v>
       </c>
       <c r="N23" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O23" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P23" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q23" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R23" t="n">
         <v>4690.833152398593</v>
@@ -6022,19 +6022,19 @@
         <v>4405.252601474784</v>
       </c>
       <c r="U23" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V23" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W23" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X23" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y23" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="24">
@@ -6123,76 +6123,76 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>721.7774158311364</v>
+        <v>1098.667160263527</v>
       </c>
       <c r="C25" t="n">
-        <v>552.8412329032295</v>
+        <v>929.7309773356195</v>
       </c>
       <c r="D25" t="n">
-        <v>402.7245934908938</v>
+        <v>779.6143379232838</v>
       </c>
       <c r="E25" t="n">
-        <v>402.7245934908938</v>
+        <v>631.7012443408906</v>
       </c>
       <c r="F25" t="n">
-        <v>402.7245934908938</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="G25" t="n">
-        <v>235.5284942057738</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H25" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I25" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="J25" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K25" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L25" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M25" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N25" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O25" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P25" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q25" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R25" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S25" t="n">
-        <v>2264.108249235165</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="T25" t="n">
-        <v>2185.384895601573</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="U25" t="n">
-        <v>1896.309668945771</v>
+        <v>2273.199413378161</v>
       </c>
       <c r="V25" t="n">
-        <v>1641.625180739884</v>
+        <v>2018.514925172274</v>
       </c>
       <c r="W25" t="n">
-        <v>1352.208010702924</v>
+        <v>1729.097755135313</v>
       </c>
       <c r="X25" t="n">
-        <v>1124.218459804906</v>
+        <v>1501.108204237296</v>
       </c>
       <c r="Y25" t="n">
-        <v>903.4258806613761</v>
+        <v>1280.315625093766</v>
       </c>
     </row>
     <row r="26">
@@ -6223,22 +6223,22 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I26" t="n">
-        <v>95.34095638192598</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J26" t="n">
-        <v>378.1925803111701</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K26" t="n">
-        <v>852.8523611075794</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L26" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M26" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N26" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O26" t="n">
         <v>3640.422291068009</v>
@@ -6302,22 +6302,22 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I27" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J27" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K27" t="n">
-        <v>577.3880777468471</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L27" t="n">
-        <v>1072.713683962606</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M27" t="n">
-        <v>1670.092171589158</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N27" t="n">
-        <v>2297.690135143765</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O27" t="n">
         <v>2553.061288060775</v>
@@ -6360,76 +6360,76 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>653.7474797708871</v>
+        <v>571.6607764188008</v>
       </c>
       <c r="C28" t="n">
-        <v>484.8112968429802</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="D28" t="n">
-        <v>484.8112968429802</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="E28" t="n">
-        <v>484.8112968429802</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="F28" t="n">
-        <v>484.8112968429802</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="G28" t="n">
-        <v>317.6151975578601</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H28" t="n">
-        <v>175.9033664000582</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I28" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="J28" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K28" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L28" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M28" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N28" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O28" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P28" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q28" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R28" t="n">
-        <v>2446.963083580261</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S28" t="n">
-        <v>2264.108249235165</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T28" t="n">
-        <v>2044.506784258106</v>
+        <v>2035.268256189238</v>
       </c>
       <c r="U28" t="n">
-        <v>1828.279732885522</v>
+        <v>1746.193029533436</v>
       </c>
       <c r="V28" t="n">
-        <v>1573.595244679635</v>
+        <v>1491.508541327549</v>
       </c>
       <c r="W28" t="n">
-        <v>1284.178074642674</v>
+        <v>1202.091371290588</v>
       </c>
       <c r="X28" t="n">
-        <v>1056.188523744657</v>
+        <v>974.1018203925706</v>
       </c>
       <c r="Y28" t="n">
-        <v>835.3959446011269</v>
+        <v>753.3092412490405</v>
       </c>
     </row>
     <row r="29">
@@ -6451,22 +6451,22 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F29" t="n">
-        <v>793.7736536168613</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G29" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H29" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I29" t="n">
-        <v>95.34095638192598</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J29" t="n">
-        <v>378.1925803111716</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K29" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L29" t="n">
         <v>1478.611553332387</v>
@@ -6475,10 +6475,10 @@
         <v>2206.558663014779</v>
       </c>
       <c r="N29" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O29" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P29" t="n">
         <v>4194.413870694707</v>
@@ -6539,22 +6539,22 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I30" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J30" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K30" t="n">
-        <v>577.3880777468471</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L30" t="n">
-        <v>1072.713683962606</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M30" t="n">
-        <v>1670.092171589158</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N30" t="n">
-        <v>2297.690135143765</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O30" t="n">
         <v>2553.061288060775</v>
@@ -6597,19 +6597,19 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>558.0193492433381</v>
+        <v>560.7825789706076</v>
       </c>
       <c r="C31" t="n">
-        <v>558.0193492433381</v>
+        <v>391.8463960427007</v>
       </c>
       <c r="D31" t="n">
-        <v>407.9027098310023</v>
+        <v>241.729756630365</v>
       </c>
       <c r="E31" t="n">
-        <v>407.9027098310023</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="F31" t="n">
-        <v>261.0127623330919</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="G31" t="n">
         <v>93.81666304797187</v>
@@ -6621,52 +6621,52 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J31" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K31" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L31" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M31" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N31" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O31" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P31" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q31" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R31" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S31" t="n">
-        <v>2197.062545487568</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T31" t="n">
-        <v>1977.461080510509</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U31" t="n">
-        <v>1688.385853854707</v>
+        <v>1735.314832085242</v>
       </c>
       <c r="V31" t="n">
-        <v>1433.70136564882</v>
+        <v>1480.630343879355</v>
       </c>
       <c r="W31" t="n">
-        <v>1188.449944115125</v>
+        <v>1191.213173842395</v>
       </c>
       <c r="X31" t="n">
-        <v>960.4603932171079</v>
+        <v>963.2236229443774</v>
       </c>
       <c r="Y31" t="n">
-        <v>739.6678140735778</v>
+        <v>742.4310438008473</v>
       </c>
     </row>
     <row r="32">
@@ -6691,28 +6691,28 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G32" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H32" t="n">
-        <v>93.81666304797187</v>
+        <v>93.8166630479716</v>
       </c>
       <c r="I32" t="n">
-        <v>95.34095638192548</v>
+        <v>95.34095638192503</v>
       </c>
       <c r="J32" t="n">
-        <v>378.1925803111708</v>
+        <v>378.1925803111703</v>
       </c>
       <c r="K32" t="n">
-        <v>852.8523611075802</v>
+        <v>852.8523611075796</v>
       </c>
       <c r="L32" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M32" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014777</v>
       </c>
       <c r="N32" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355935</v>
       </c>
       <c r="O32" t="n">
         <v>3640.42229106801</v>
@@ -6776,22 +6776,22 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I33" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J33" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K33" t="n">
-        <v>577.3880777468471</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L33" t="n">
-        <v>1072.713683962606</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M33" t="n">
-        <v>1670.092171589158</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N33" t="n">
-        <v>2297.690135143765</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O33" t="n">
         <v>2553.061288060775</v>
@@ -6834,19 +6834,19 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>513.8536007400717</v>
+        <v>571.6607764188008</v>
       </c>
       <c r="C34" t="n">
-        <v>344.9174178121648</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="D34" t="n">
-        <v>344.9174178121648</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="E34" t="n">
-        <v>344.9174178121648</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="F34" t="n">
-        <v>344.9174178121648</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="G34" t="n">
         <v>235.5284942057738</v>
@@ -6858,52 +6858,52 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J34" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K34" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L34" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M34" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N34" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O34" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P34" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q34" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R34" t="n">
-        <v>2379.917379832663</v>
+        <v>2437.724555511392</v>
       </c>
       <c r="S34" t="n">
-        <v>2197.062545487568</v>
+        <v>2254.869721166297</v>
       </c>
       <c r="T34" t="n">
-        <v>1977.461080510509</v>
+        <v>2035.268256189238</v>
       </c>
       <c r="U34" t="n">
-        <v>1688.385853854707</v>
+        <v>1746.193029533436</v>
       </c>
       <c r="V34" t="n">
-        <v>1433.70136564882</v>
+        <v>1491.508541327549</v>
       </c>
       <c r="W34" t="n">
-        <v>1144.284195611859</v>
+        <v>1202.091371290588</v>
       </c>
       <c r="X34" t="n">
-        <v>916.2946447138415</v>
+        <v>974.1018203925706</v>
       </c>
       <c r="Y34" t="n">
-        <v>695.5020655703114</v>
+        <v>753.3092412490405</v>
       </c>
     </row>
     <row r="35">
@@ -6919,10 +6919,10 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D35" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E35" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F35" t="n">
         <v>793.7736536168611</v>
@@ -6946,19 +6946,19 @@
         <v>1478.611553332387</v>
       </c>
       <c r="M35" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N35" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O35" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P35" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q35" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R35" t="n">
         <v>4690.833152398593</v>
@@ -7016,22 +7016,22 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J36" t="n">
-        <v>243.4633055756266</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="K36" t="n">
-        <v>577.3880777468471</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="L36" t="n">
-        <v>1072.713683962606</v>
+        <v>589.1422692637307</v>
       </c>
       <c r="M36" t="n">
-        <v>1670.092171589158</v>
+        <v>1186.520756890282</v>
       </c>
       <c r="N36" t="n">
-        <v>2297.690135143765</v>
+        <v>1814.118720444889</v>
       </c>
       <c r="O36" t="n">
-        <v>2553.061288060775</v>
+        <v>2366.028450684176</v>
       </c>
       <c r="P36" t="n">
         <v>2553.061288060775</v>
@@ -7071,22 +7071,22 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>513.8536007400717</v>
+        <v>653.7474797708871</v>
       </c>
       <c r="C37" t="n">
-        <v>344.9174178121648</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="D37" t="n">
-        <v>194.8007783998291</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="E37" t="n">
-        <v>175.9033664000582</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="F37" t="n">
-        <v>175.9033664000582</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="G37" t="n">
-        <v>175.9033664000582</v>
+        <v>317.6151975578601</v>
       </c>
       <c r="H37" t="n">
         <v>175.9033664000582</v>
@@ -7125,22 +7125,22 @@
         <v>2197.062545487568</v>
       </c>
       <c r="T37" t="n">
-        <v>1977.461080510509</v>
+        <v>2117.354959541324</v>
       </c>
       <c r="U37" t="n">
-        <v>1688.385853854707</v>
+        <v>1828.279732885522</v>
       </c>
       <c r="V37" t="n">
-        <v>1433.70136564882</v>
+        <v>1573.595244679635</v>
       </c>
       <c r="W37" t="n">
-        <v>1144.284195611859</v>
+        <v>1284.178074642674</v>
       </c>
       <c r="X37" t="n">
-        <v>916.2946447138415</v>
+        <v>1056.188523744657</v>
       </c>
       <c r="Y37" t="n">
-        <v>695.5020655703114</v>
+        <v>835.3959446011269</v>
       </c>
     </row>
     <row r="38">
@@ -7171,7 +7171,7 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I38" t="n">
-        <v>95.34095638192598</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J38" t="n">
         <v>378.1925803111716</v>
@@ -7183,16 +7183,16 @@
         <v>1478.611553332387</v>
       </c>
       <c r="M38" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N38" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O38" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P38" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q38" t="n">
         <v>4562.265728852255</v>
@@ -7259,16 +7259,16 @@
         <v>577.3880777468471</v>
       </c>
       <c r="L39" t="n">
-        <v>1072.713683962606</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="M39" t="n">
-        <v>1670.092171589158</v>
+        <v>1174.766565373399</v>
       </c>
       <c r="N39" t="n">
-        <v>2297.690135143765</v>
+        <v>1802.364528928006</v>
       </c>
       <c r="O39" t="n">
-        <v>2553.061288060775</v>
+        <v>2354.274259167293</v>
       </c>
       <c r="P39" t="n">
         <v>2553.061288060775</v>
@@ -7308,10 +7308,10 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>513.8536007400717</v>
+        <v>803.8641191832228</v>
       </c>
       <c r="C40" t="n">
-        <v>484.8112968429802</v>
+        <v>634.9279362553159</v>
       </c>
       <c r="D40" t="n">
         <v>484.8112968429802</v>
@@ -7368,16 +7368,16 @@
         <v>1688.385853854707</v>
       </c>
       <c r="V40" t="n">
-        <v>1433.70136564882</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="W40" t="n">
-        <v>1144.284195611859</v>
+        <v>1434.29471405501</v>
       </c>
       <c r="X40" t="n">
-        <v>916.2946447138415</v>
+        <v>1206.305163156993</v>
       </c>
       <c r="Y40" t="n">
-        <v>695.5020655703114</v>
+        <v>985.5125840134625</v>
       </c>
     </row>
     <row r="41">
@@ -7411,10 +7411,10 @@
         <v>95.34095638192593</v>
       </c>
       <c r="J41" t="n">
-        <v>378.1925803111716</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K41" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L41" t="n">
         <v>1478.611553332387</v>
@@ -7490,19 +7490,19 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J42" t="n">
-        <v>243.4633055756266</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="K42" t="n">
-        <v>577.3880777468471</v>
+        <v>427.7414352191925</v>
       </c>
       <c r="L42" t="n">
-        <v>1072.713683962606</v>
+        <v>923.0670414349511</v>
       </c>
       <c r="M42" t="n">
-        <v>1670.092171589158</v>
+        <v>1520.445529061503</v>
       </c>
       <c r="N42" t="n">
-        <v>2297.690135143765</v>
+        <v>2148.04349261611</v>
       </c>
       <c r="O42" t="n">
         <v>2553.061288060775</v>
@@ -7545,55 +7545,55 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>580.8993044876693</v>
+        <v>653.7474797708871</v>
       </c>
       <c r="C43" t="n">
-        <v>411.9631215597624</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="D43" t="n">
-        <v>261.8464821474266</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="E43" t="n">
-        <v>113.9333885650335</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="F43" t="n">
-        <v>113.9333885650335</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="G43" t="n">
-        <v>93.81666304797187</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H43" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I43" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="J43" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K43" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L43" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M43" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N43" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O43" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P43" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q43" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R43" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S43" t="n">
         <v>2264.108249235165</v>
@@ -7605,16 +7605,16 @@
         <v>1755.431557602304</v>
       </c>
       <c r="V43" t="n">
-        <v>1500.747069396417</v>
+        <v>1573.595244679635</v>
       </c>
       <c r="W43" t="n">
-        <v>1211.329899359456</v>
+        <v>1284.178074642674</v>
       </c>
       <c r="X43" t="n">
-        <v>983.3403484614391</v>
+        <v>1056.188523744657</v>
       </c>
       <c r="Y43" t="n">
-        <v>762.547769317909</v>
+        <v>835.3959446011269</v>
       </c>
     </row>
     <row r="44">
@@ -7727,22 +7727,22 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J45" t="n">
-        <v>243.4633055756266</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="K45" t="n">
-        <v>577.3880777468471</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="L45" t="n">
-        <v>1072.713683962606</v>
+        <v>589.1422692637306</v>
       </c>
       <c r="M45" t="n">
-        <v>1577.52840832642</v>
+        <v>1186.520756890282</v>
       </c>
       <c r="N45" t="n">
-        <v>1577.52840832642</v>
+        <v>1814.118720444889</v>
       </c>
       <c r="O45" t="n">
-        <v>2129.438138565707</v>
+        <v>2366.028450684176</v>
       </c>
       <c r="P45" t="n">
         <v>2553.061288060775</v>
@@ -7782,7 +7782,7 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>571.6607764188008</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C46" t="n">
         <v>402.7245934908939</v>
@@ -7839,19 +7839,19 @@
         <v>1977.461080510508</v>
       </c>
       <c r="U46" t="n">
-        <v>1746.193029533436</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V46" t="n">
-        <v>1491.508541327549</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W46" t="n">
-        <v>1202.091371290588</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X46" t="n">
-        <v>974.1018203925706</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y46" t="n">
-        <v>753.3092412490405</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
   </sheetData>
@@ -8078,7 +8078,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q3" t="n">
-        <v>90.64146763747073</v>
+        <v>90.64146763747121</v>
       </c>
       <c r="R3" t="n">
         <v>45.52166981132082</v>
@@ -8233,7 +8233,7 @@
         <v>380.8001812627454</v>
       </c>
       <c r="P5" t="n">
-        <v>321.7987081714826</v>
+        <v>321.7987081714828</v>
       </c>
       <c r="Q5" t="n">
         <v>212.3149906599047</v>
@@ -8300,13 +8300,13 @@
         <v>264.4652370125786</v>
       </c>
       <c r="L6" t="n">
-        <v>251.4045252050821</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M6" t="n">
         <v>465.7050637499999</v>
       </c>
       <c r="N6" t="n">
-        <v>479.3423743435536</v>
+        <v>359.906554245176</v>
       </c>
       <c r="O6" t="n">
         <v>393.8623192767295</v>
@@ -8461,13 +8461,13 @@
         <v>417.6612145504504</v>
       </c>
       <c r="M8" t="n">
-        <v>449.5135334928325</v>
+        <v>0</v>
       </c>
       <c r="N8" t="n">
-        <v>359.9458024792946</v>
+        <v>428.6591547093815</v>
       </c>
       <c r="O8" t="n">
-        <v>0</v>
+        <v>380.8001812627454</v>
       </c>
       <c r="P8" t="n">
         <v>0</v>
@@ -8537,13 +8537,13 @@
         <v>264.4652370125786</v>
       </c>
       <c r="L9" t="n">
-        <v>8.157046754056978</v>
+        <v>271.7036563660312</v>
       </c>
       <c r="M9" t="n">
         <v>465.7050637499999</v>
       </c>
       <c r="N9" t="n">
-        <v>473.6238973478236</v>
+        <v>0</v>
       </c>
       <c r="O9" t="n">
         <v>393.8623192767295</v>
@@ -8552,7 +8552,7 @@
         <v>0</v>
       </c>
       <c r="Q9" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R9" t="n">
         <v>45.52166981132082</v>
@@ -8701,7 +8701,7 @@
         <v>0</v>
       </c>
       <c r="N11" t="n">
-        <v>0</v>
+        <v>-1.076450030932756e-13</v>
       </c>
       <c r="O11" t="n">
         <v>0</v>
@@ -9163,7 +9163,7 @@
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>0</v>
+        <v>-1.477928890381008e-12</v>
       </c>
       <c r="K17" t="n">
         <v>0</v>
@@ -9421,7 +9421,7 @@
         <v>0</v>
       </c>
       <c r="Q20" t="n">
-        <v>-9.663381206337363e-13</v>
+        <v>0</v>
       </c>
       <c r="R20" t="n">
         <v>0</v>
@@ -9874,7 +9874,7 @@
         <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>-1.477928890381008e-12</v>
+        <v>0</v>
       </c>
       <c r="K26" t="n">
         <v>0</v>
@@ -10126,7 +10126,7 @@
         <v>0</v>
       </c>
       <c r="O29" t="n">
-        <v>-1.364242052659392e-12</v>
+        <v>0</v>
       </c>
       <c r="P29" t="n">
         <v>0</v>
@@ -10594,7 +10594,7 @@
         <v>0</v>
       </c>
       <c r="M35" t="n">
-        <v>0</v>
+        <v>-1.591615728102624e-12</v>
       </c>
       <c r="N35" t="n">
         <v>0</v>
@@ -23421,19 +23421,19 @@
         <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>114.1584408891656</v>
+        <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>146.815700412499</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I13" t="n">
         <v>0</v>
@@ -23463,13 +23463,13 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T13" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U13" t="n">
         <v>0</v>
@@ -23658,7 +23658,7 @@
         <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E16" t="n">
         <v>146.4339626465692</v>
@@ -23673,7 +23673,7 @@
         <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>81.2658363185655</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23706,16 +23706,16 @@
         <v>0</v>
       </c>
       <c r="T16" t="n">
-        <v>0.5874149221289997</v>
+        <v>0</v>
       </c>
       <c r="U16" t="n">
-        <v>0</v>
+        <v>57.22910392194143</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
       </c>
       <c r="W16" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X16" t="n">
         <v>0</v>
@@ -23907,10 +23907,10 @@
         <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
+        <v>57.22910392194173</v>
       </c>
       <c r="I19" t="n">
-        <v>81.26583631856553</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -23937,7 +23937,7 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>57.2291039219422</v>
+        <v>0</v>
       </c>
       <c r="S19" t="n">
         <v>0</v>
@@ -24144,7 +24144,7 @@
         <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
+        <v>57.22910392194173</v>
       </c>
       <c r="I22" t="n">
         <v>81.26583631856552</v>
@@ -24186,7 +24186,7 @@
         <v>0</v>
       </c>
       <c r="V22" t="n">
-        <v>57.22910392194183</v>
+        <v>0</v>
       </c>
       <c r="W22" t="n">
         <v>0</v>
@@ -24372,10 +24372,10 @@
         <v>0</v>
       </c>
       <c r="E25" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F25" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G25" t="n">
         <v>0</v>
@@ -24384,7 +24384,7 @@
         <v>0</v>
       </c>
       <c r="I25" t="n">
-        <v>81.26583631856552</v>
+        <v>0</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -24411,16 +24411,16 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>66.37524671012166</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S25" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T25" t="n">
-        <v>139.4693302300321</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U25" t="n">
-        <v>0</v>
+        <v>114.1584408891656</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -24621,7 +24621,7 @@
         <v>0</v>
       </c>
       <c r="I28" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -24648,16 +24648,16 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>66.37524671012166</v>
+        <v>0</v>
       </c>
       <c r="S28" t="n">
         <v>0</v>
       </c>
       <c r="T28" t="n">
-        <v>0</v>
+        <v>57.22910392194237</v>
       </c>
       <c r="U28" t="n">
-        <v>72.11969353038563</v>
+        <v>0</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -24840,25 +24840,25 @@
         <v>0</v>
       </c>
       <c r="C31" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D31" t="n">
         <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F31" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G31" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H31" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I31" t="n">
-        <v>81.26583631856552</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -24894,13 +24894,13 @@
         <v>0</v>
       </c>
       <c r="U31" t="n">
-        <v>0</v>
+        <v>46.45968844823096</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
       </c>
       <c r="W31" t="n">
-        <v>43.72409101823357</v>
+        <v>0</v>
       </c>
       <c r="X31" t="n">
         <v>0</v>
@@ -25089,13 +25089,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G34" t="n">
-        <v>57.22910392194174</v>
+        <v>0</v>
       </c>
       <c r="H34" t="n">
         <v>0</v>
       </c>
       <c r="I34" t="n">
-        <v>81.26583631856552</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -25122,7 +25122,7 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>0</v>
+        <v>57.2291039219422</v>
       </c>
       <c r="S34" t="n">
         <v>0</v>
@@ -25317,19 +25317,19 @@
         <v>0</v>
       </c>
       <c r="D37" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E37" t="n">
-        <v>127.7255247667961</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F37" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G37" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H37" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I37" t="n">
         <v>0</v>
@@ -25365,7 +25365,7 @@
         <v>0</v>
       </c>
       <c r="T37" t="n">
-        <v>0</v>
+        <v>138.4949402405073</v>
       </c>
       <c r="U37" t="n">
         <v>0</v>
@@ -25551,10 +25551,10 @@
         <v>0</v>
       </c>
       <c r="C40" t="n">
-        <v>138.4949402405073</v>
+        <v>0</v>
       </c>
       <c r="D40" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E40" t="n">
         <v>146.4339626465692</v>
@@ -25608,10 +25608,10 @@
         <v>0</v>
       </c>
       <c r="V40" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W40" t="n">
-        <v>0</v>
+        <v>34.97276993489146</v>
       </c>
       <c r="X40" t="n">
         <v>0</v>
@@ -25791,22 +25791,22 @@
         <v>0</v>
       </c>
       <c r="D43" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E43" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F43" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G43" t="n">
-        <v>145.6085800303778</v>
+        <v>0</v>
       </c>
       <c r="H43" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I43" t="n">
-        <v>81.26583631856552</v>
+        <v>0</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -25833,7 +25833,7 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>66.37524671012166</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S43" t="n">
         <v>0</v>
@@ -25845,7 +25845,7 @@
         <v>0</v>
       </c>
       <c r="V43" t="n">
-        <v>0</v>
+        <v>72.11969353038606</v>
       </c>
       <c r="W43" t="n">
         <v>0</v>
@@ -26025,7 +26025,7 @@
         <v>0</v>
       </c>
       <c r="C46" t="n">
-        <v>0</v>
+        <v>57.22910392194228</v>
       </c>
       <c r="D46" t="n">
         <v>148.6154730182124</v>
@@ -26079,7 +26079,7 @@
         <v>0</v>
       </c>
       <c r="U46" t="n">
-        <v>57.22910392194231</v>
+        <v>0</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -26149,7 +26149,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>791847.4864178548</v>
+        <v>791847.4864178547</v>
       </c>
     </row>
     <row r="6">
@@ -26181,7 +26181,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>791847.4864178547</v>
+        <v>791847.4864178548</v>
       </c>
     </row>
     <row r="10">
@@ -26221,7 +26221,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>791847.4864178547</v>
+        <v>791847.4864178548</v>
       </c>
     </row>
     <row r="15">
@@ -26316,28 +26316,28 @@
         <v>636307.3716448199</v>
       </c>
       <c r="C2" t="n">
-        <v>636307.3716448196</v>
+        <v>636307.3716448199</v>
       </c>
       <c r="D2" t="n">
-        <v>636307.3716448199</v>
+        <v>636307.3716448201</v>
       </c>
       <c r="E2" t="n">
+        <v>625538.614759755</v>
+      </c>
+      <c r="F2" t="n">
         <v>625538.6147597549</v>
-      </c>
-      <c r="F2" t="n">
-        <v>625538.6147597547</v>
       </c>
       <c r="G2" t="n">
         <v>625538.6147597546</v>
       </c>
       <c r="H2" t="n">
-        <v>625538.6147597546</v>
+        <v>625538.6147597544</v>
       </c>
       <c r="I2" t="n">
         <v>625538.614759755</v>
       </c>
       <c r="J2" t="n">
-        <v>625538.6147597546</v>
+        <v>625538.6147597549</v>
       </c>
       <c r="K2" t="n">
         <v>625538.6147597549</v>
@@ -26346,13 +26346,13 @@
         <v>625538.6147597549</v>
       </c>
       <c r="M2" t="n">
-        <v>625538.6147597547</v>
+        <v>625538.6147597545</v>
       </c>
       <c r="N2" t="n">
-        <v>625538.6147597545</v>
+        <v>625538.614759755</v>
       </c>
       <c r="O2" t="n">
-        <v>625538.6147597547</v>
+        <v>625538.6147597549</v>
       </c>
       <c r="P2" t="n">
         <v>625538.6147597547</v>
@@ -26365,16 +26365,16 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>589967.8792145445</v>
+        <v>589967.8792145444</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>184756.2785481117</v>
+        <v>184756.2785481116</v>
       </c>
       <c r="E3" t="n">
-        <v>771052.6913808064</v>
+        <v>771052.6913808068</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26383,7 +26383,7 @@
         <v>0</v>
       </c>
       <c r="H3" t="n">
-        <v>1.741016149026109e-10</v>
+        <v>0</v>
       </c>
       <c r="I3" t="n">
         <v>0</v>
@@ -26398,7 +26398,7 @@
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>124208.5107080585</v>
+        <v>124208.5107080587</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26426,40 +26426,40 @@
         <v>176266.9759012793</v>
       </c>
       <c r="E4" t="n">
+        <v>5677.536566682669</v>
+      </c>
+      <c r="F4" t="n">
+        <v>5677.536566682707</v>
+      </c>
+      <c r="G4" t="n">
+        <v>5677.536566682721</v>
+      </c>
+      <c r="H4" t="n">
         <v>5677.536566682745</v>
       </c>
-      <c r="F4" t="n">
+      <c r="I4" t="n">
         <v>5677.536566682745</v>
       </c>
-      <c r="G4" t="n">
+      <c r="J4" t="n">
         <v>5677.536566682745</v>
       </c>
-      <c r="H4" t="n">
-        <v>5677.536566682729</v>
-      </c>
-      <c r="I4" t="n">
-        <v>5677.536566682744</v>
-      </c>
-      <c r="J4" t="n">
-        <v>5677.536566682721</v>
-      </c>
       <c r="K4" t="n">
-        <v>5677.536566682723</v>
+        <v>5677.536566682745</v>
       </c>
       <c r="L4" t="n">
         <v>5677.536566682745</v>
       </c>
       <c r="M4" t="n">
+        <v>5677.536566682718</v>
+      </c>
+      <c r="N4" t="n">
         <v>5677.536566682744</v>
-      </c>
-      <c r="N4" t="n">
-        <v>5677.536566682745</v>
       </c>
       <c r="O4" t="n">
         <v>5677.536566682745</v>
       </c>
       <c r="P4" t="n">
-        <v>5677.536566682745</v>
+        <v>5677.536566682744</v>
       </c>
     </row>
     <row r="5">
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-246442.0010961675</v>
+        <v>-246442.0010961673</v>
       </c>
       <c r="C6" t="n">
-        <v>343525.8781183768</v>
+        <v>343525.8781183771</v>
       </c>
       <c r="D6" t="n">
-        <v>187722.072024582</v>
+        <v>187722.0720245824</v>
       </c>
       <c r="E6" t="n">
-        <v>-252661.5222659983</v>
+        <v>-252348.8809370774</v>
       </c>
       <c r="F6" t="n">
-        <v>518391.1691148079</v>
+        <v>518703.8104437293</v>
       </c>
       <c r="G6" t="n">
-        <v>518391.1691148078</v>
+        <v>518703.8104437293</v>
       </c>
       <c r="H6" t="n">
-        <v>518391.1691148077</v>
+        <v>518703.8104437288</v>
       </c>
       <c r="I6" t="n">
-        <v>518391.1691148081</v>
+        <v>518703.8104437295</v>
       </c>
       <c r="J6" t="n">
-        <v>341967.9499222148</v>
+        <v>342280.5912511363</v>
       </c>
       <c r="K6" t="n">
-        <v>518391.169114808</v>
+        <v>518703.8104437293</v>
       </c>
       <c r="L6" t="n">
-        <v>518391.169114808</v>
+        <v>518703.8104437293</v>
       </c>
       <c r="M6" t="n">
-        <v>394182.6584067494</v>
+        <v>394495.2997356702</v>
       </c>
       <c r="N6" t="n">
-        <v>518391.1691148077</v>
+        <v>518703.8104437294</v>
       </c>
       <c r="O6" t="n">
-        <v>518391.1691148079</v>
+        <v>518703.8104437294</v>
       </c>
       <c r="P6" t="n">
-        <v>518391.169114808</v>
+        <v>518703.8104437292</v>
       </c>
     </row>
   </sheetData>
@@ -26737,7 +26737,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>377.7436642170867</v>
+        <v>377.7436642170866</v>
       </c>
       <c r="C3" t="n">
         <v>377.7436642170866</v>
@@ -26798,10 +26798,10 @@
         <v>674.2872727545556</v>
       </c>
       <c r="E4" t="n">
-        <v>1172.708288099648</v>
+        <v>1172.708288099649</v>
       </c>
       <c r="F4" t="n">
-        <v>1172.708288099648</v>
+        <v>1172.708288099649</v>
       </c>
       <c r="G4" t="n">
         <v>1172.708288099648</v>
@@ -26959,16 +26959,16 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>377.7436642170867</v>
+        <v>377.7436642170866</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>215.7324361209785</v>
+        <v>215.7324361209784</v>
       </c>
       <c r="E3" t="n">
-        <v>774.4994000036087</v>
+        <v>774.4994000036091</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26977,22 +26977,22 @@
         <v>0</v>
       </c>
       <c r="H3" t="n">
+        <v>0</v>
+      </c>
+      <c r="I3" t="n">
+        <v>0</v>
+      </c>
+      <c r="J3" t="n">
+        <v>0</v>
+      </c>
+      <c r="K3" t="n">
+        <v>0</v>
+      </c>
+      <c r="L3" t="n">
+        <v>0</v>
+      </c>
+      <c r="M3" t="n">
         <v>2.273736754432321e-13</v>
-      </c>
-      <c r="I3" t="n">
-        <v>0</v>
-      </c>
-      <c r="J3" t="n">
-        <v>0</v>
-      </c>
-      <c r="K3" t="n">
-        <v>0</v>
-      </c>
-      <c r="L3" t="n">
-        <v>0</v>
-      </c>
-      <c r="M3" t="n">
-        <v>0</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -27020,7 +27020,7 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>498.4210153450928</v>
+        <v>498.421015345093</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27035,7 +27035,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>674.2872727545557</v>
+        <v>674.2872727545556</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27044,7 +27044,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>498.4210153450928</v>
+        <v>498.421015345093</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27266,7 +27266,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>498.4210153450928</v>
+        <v>498.421015345093</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27393,7 +27393,7 @@
         <v>400</v>
       </c>
       <c r="G2" t="n">
-        <v>0</v>
+        <v>209.7028375347195</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
@@ -27432,7 +27432,7 @@
         <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>209.7028375347199</v>
+        <v>0</v>
       </c>
       <c r="U2" t="n">
         <v>251.2241675082893</v>
@@ -27560,7 +27560,7 @@
         <v>134.9656217923382</v>
       </c>
       <c r="J4" t="n">
-        <v>45.19995918853699</v>
+        <v>45.199959188537</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27581,10 +27581,10 @@
         <v>0</v>
       </c>
       <c r="Q4" t="n">
-        <v>29.1227499549143</v>
+        <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>146.6651919801578</v>
+        <v>146.6651919801579</v>
       </c>
       <c r="S4" t="n">
         <v>212.1455389500189</v>
@@ -27599,7 +27599,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W4" t="n">
-        <v>166.1109625266262</v>
+        <v>195.2337124815407</v>
       </c>
       <c r="X4" t="n">
         <v>225.7096553890372</v>
@@ -27624,19 +27624,19 @@
         <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F5" t="n">
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="H5" t="n">
-        <v>271.0998715367314</v>
+        <v>35.23045717538554</v>
       </c>
       <c r="I5" t="n">
-        <v>151.9313162448613</v>
+        <v>0</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -27681,7 +27681,7 @@
         <v>0</v>
       </c>
       <c r="X5" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
         <v>386.2379386560536</v>
@@ -27773,7 +27773,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C7" t="n">
         <v>167.2468210986278</v>
@@ -27788,16 +27788,16 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>167.3098022590509</v>
+        <v>0</v>
       </c>
       <c r="H7" t="n">
-        <v>156.1708888417951</v>
+        <v>96.50703242634987</v>
       </c>
       <c r="I7" t="n">
-        <v>134.9656217923383</v>
+        <v>134.9656217923382</v>
       </c>
       <c r="J7" t="n">
-        <v>45.19995918853701</v>
+        <v>45.199959188537</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -27818,7 +27818,7 @@
         <v>0</v>
       </c>
       <c r="Q7" t="n">
-        <v>29.12274995491431</v>
+        <v>29.1227499549143</v>
       </c>
       <c r="R7" t="n">
         <v>146.6651919801579</v>
@@ -27830,7 +27830,7 @@
         <v>225.0351054580843</v>
       </c>
       <c r="U7" t="n">
-        <v>239.1401957494188</v>
+        <v>286.2818742419777</v>
       </c>
       <c r="V7" t="n">
         <v>252.137643323828</v>
@@ -27864,7 +27864,7 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
-        <v>320.6728792952459</v>
+        <v>400</v>
       </c>
       <c r="G8" t="n">
         <v>0</v>
@@ -27906,7 +27906,7 @@
         <v>154.6528871281402</v>
       </c>
       <c r="T8" t="n">
-        <v>212.651863114966</v>
+        <v>133.3247424102116</v>
       </c>
       <c r="U8" t="n">
         <v>0</v>
@@ -28034,7 +28034,7 @@
         <v>123.266557879417</v>
       </c>
       <c r="J10" t="n">
-        <v>0</v>
+        <v>17.69584188176898</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -28079,7 +28079,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y10" t="n">
-        <v>33.89444555739044</v>
+        <v>16.19860367562146</v>
       </c>
     </row>
     <row r="11">
@@ -28335,7 +28335,7 @@
         <v>0</v>
       </c>
       <c r="E14" t="n">
-        <v>0</v>
+        <v>-4.616724784349116e-13</v>
       </c>
       <c r="F14" t="n">
         <v>0</v>
@@ -31047,19 +31047,19 @@
         <v>15.55202935141</v>
       </c>
       <c r="I2" t="n">
-        <v>58.54457332554468</v>
+        <v>58.54457332554467</v>
       </c>
       <c r="J2" t="n">
         <v>128.8865178727436</v>
       </c>
       <c r="K2" t="n">
-        <v>193.1674799081578</v>
+        <v>193.1674799081577</v>
       </c>
       <c r="L2" t="n">
-        <v>239.641339863067</v>
+        <v>239.6413398630669</v>
       </c>
       <c r="M2" t="n">
-        <v>266.6471645405368</v>
+        <v>266.6471645405367</v>
       </c>
       <c r="N2" t="n">
         <v>270.9617944338304</v>
@@ -31074,13 +31074,13 @@
         <v>163.9882055044137</v>
       </c>
       <c r="R2" t="n">
-        <v>95.39071536633799</v>
+        <v>95.39071536633797</v>
       </c>
       <c r="S2" t="n">
-        <v>34.60435677727383</v>
+        <v>34.60435677727382</v>
       </c>
       <c r="T2" t="n">
-        <v>6.647529206473554</v>
+        <v>6.647529206473553</v>
       </c>
       <c r="U2" t="n">
         <v>0.1214853995472036</v>
@@ -31120,16 +31120,16 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>0.8125052400141111</v>
+        <v>0.812505240014111</v>
       </c>
       <c r="H3" t="n">
-        <v>7.847090081188916</v>
+        <v>7.847090081188914</v>
       </c>
       <c r="I3" t="n">
-        <v>27.9744128689069</v>
+        <v>27.97441286890689</v>
       </c>
       <c r="J3" t="n">
-        <v>76.76392708396477</v>
+        <v>76.76392708396476</v>
       </c>
       <c r="K3" t="n">
         <v>131.2017781649102</v>
@@ -31147,22 +31147,22 @@
         <v>193.3156655923047</v>
       </c>
       <c r="P3" t="n">
-        <v>155.1528646479578</v>
+        <v>155.1528646479577</v>
       </c>
       <c r="Q3" t="n">
         <v>103.7155811639065</v>
       </c>
       <c r="R3" t="n">
-        <v>50.44659727034983</v>
+        <v>50.44659727034982</v>
       </c>
       <c r="S3" t="n">
         <v>15.09192847131473</v>
       </c>
       <c r="T3" t="n">
-        <v>3.274966296372666</v>
+        <v>3.274966296372665</v>
       </c>
       <c r="U3" t="n">
-        <v>0.05345429210619154</v>
+        <v>0.05345429210619153</v>
       </c>
       <c r="V3" t="n">
         <v>0</v>
@@ -31199,16 +31199,16 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>0.6811770994078612</v>
+        <v>0.6811770994078611</v>
       </c>
       <c r="H4" t="n">
-        <v>6.056283665644443</v>
+        <v>6.056283665644442</v>
       </c>
       <c r="I4" t="n">
         <v>20.48485313492005</v>
       </c>
       <c r="J4" t="n">
-        <v>48.15922092813578</v>
+        <v>48.15922092813577</v>
       </c>
       <c r="K4" t="n">
         <v>79.14039391302239</v>
@@ -31223,16 +31223,16 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O4" t="n">
-        <v>96.28128674175845</v>
+        <v>96.28128674175844</v>
       </c>
       <c r="P4" t="n">
         <v>82.38527391383801</v>
       </c>
       <c r="Q4" t="n">
-        <v>57.03929329678009</v>
+        <v>57.03929329678008</v>
       </c>
       <c r="R4" t="n">
-        <v>30.62819939701164</v>
+        <v>30.62819939701163</v>
       </c>
       <c r="S4" t="n">
         <v>11.87105908695336</v>
@@ -31278,13 +31278,13 @@
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>1.518567494340045</v>
+        <v>1.518567494340046</v>
       </c>
       <c r="H5" t="n">
-        <v>15.55202935140999</v>
+        <v>15.55202935141</v>
       </c>
       <c r="I5" t="n">
-        <v>58.54457332554465</v>
+        <v>58.54457332554467</v>
       </c>
       <c r="J5" t="n">
         <v>128.8865178727436</v>
@@ -31302,22 +31302,22 @@
         <v>270.9617944338304</v>
       </c>
       <c r="O5" t="n">
-        <v>255.8615389119865</v>
+        <v>255.8615389119866</v>
       </c>
       <c r="P5" t="n">
-        <v>218.3719038954666</v>
+        <v>218.3719038954667</v>
       </c>
       <c r="Q5" t="n">
         <v>163.9882055044137</v>
       </c>
       <c r="R5" t="n">
-        <v>95.39071536633796</v>
+        <v>95.39071536633797</v>
       </c>
       <c r="S5" t="n">
         <v>34.60435677727382</v>
       </c>
       <c r="T5" t="n">
-        <v>6.647529206473552</v>
+        <v>6.647529206473553</v>
       </c>
       <c r="U5" t="n">
         <v>0.1214853995472036</v>
@@ -31357,16 +31357,16 @@
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>0.8125052400141107</v>
+        <v>0.812505240014111</v>
       </c>
       <c r="H6" t="n">
-        <v>7.847090081188913</v>
+        <v>7.847090081188914</v>
       </c>
       <c r="I6" t="n">
         <v>27.97441286890689</v>
       </c>
       <c r="J6" t="n">
-        <v>76.76392708396475</v>
+        <v>76.76392708396476</v>
       </c>
       <c r="K6" t="n">
         <v>131.2017781649102</v>
@@ -31390,16 +31390,16 @@
         <v>103.7155811639065</v>
       </c>
       <c r="R6" t="n">
-        <v>50.44659727034981</v>
+        <v>50.44659727034982</v>
       </c>
       <c r="S6" t="n">
-        <v>15.09192847131472</v>
+        <v>15.09192847131473</v>
       </c>
       <c r="T6" t="n">
         <v>3.274966296372665</v>
       </c>
       <c r="U6" t="n">
-        <v>0.05345429210619152</v>
+        <v>0.05345429210619153</v>
       </c>
       <c r="V6" t="n">
         <v>0</v>
@@ -31436,19 +31436,19 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>0.681177099407861</v>
+        <v>0.6811770994078611</v>
       </c>
       <c r="H7" t="n">
-        <v>6.056283665644441</v>
+        <v>6.056283665644442</v>
       </c>
       <c r="I7" t="n">
-        <v>20.48485313492004</v>
+        <v>20.48485313492005</v>
       </c>
       <c r="J7" t="n">
         <v>48.15922092813577</v>
       </c>
       <c r="K7" t="n">
-        <v>79.14039391302238</v>
+        <v>79.14039391302239</v>
       </c>
       <c r="L7" t="n">
         <v>101.2724571246924</v>
@@ -31460,13 +31460,13 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O7" t="n">
-        <v>96.28128674175842</v>
+        <v>96.28128674175844</v>
       </c>
       <c r="P7" t="n">
-        <v>82.38527391383799</v>
+        <v>82.38527391383801</v>
       </c>
       <c r="Q7" t="n">
-        <v>57.03929329678007</v>
+        <v>57.03929329678008</v>
       </c>
       <c r="R7" t="n">
         <v>30.62819939701163</v>
@@ -31475,7 +31475,7 @@
         <v>11.87105908695336</v>
       </c>
       <c r="T7" t="n">
-        <v>2.910483970197223</v>
+        <v>2.910483970197224</v>
       </c>
       <c r="U7" t="n">
         <v>0.0371551145131561</v>
@@ -31752,49 +31752,49 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348435</v>
       </c>
       <c r="H11" t="n">
-        <v>56.32071997135341</v>
+        <v>56.32071997135342</v>
       </c>
       <c r="I11" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067233</v>
       </c>
       <c r="J11" t="n">
-        <v>466.7546155663283</v>
+        <v>466.7546155663284</v>
       </c>
       <c r="K11" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817578</v>
       </c>
       <c r="L11" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162564</v>
       </c>
       <c r="M11" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175678</v>
       </c>
       <c r="N11" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159429</v>
       </c>
       <c r="O11" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460031</v>
       </c>
       <c r="P11" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236509</v>
       </c>
       <c r="Q11" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669225</v>
       </c>
       <c r="R11" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043727</v>
       </c>
       <c r="S11" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T11" t="n">
         <v>24.07361910651528</v>
       </c>
       <c r="U11" t="n">
-        <v>0.4399519197078746</v>
+        <v>0.4399519197078747</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
@@ -31831,49 +31831,49 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H12" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I12" t="n">
         <v>99.52238</v>
       </c>
       <c r="J12" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K12" t="n">
         <v>137.841438974359</v>
       </c>
       <c r="L12" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473074</v>
       </c>
       <c r="M12" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862124</v>
       </c>
       <c r="N12" t="n">
-        <v>765.2790490071785</v>
+        <v>139.5228722182819</v>
       </c>
       <c r="O12" t="n">
-        <v>700.0808204437243</v>
+        <v>700.0808204437245</v>
       </c>
       <c r="P12" t="n">
-        <v>322.8964653704906</v>
+        <v>561.87657862147</v>
       </c>
       <c r="Q12" t="n">
-        <v>139.9817740860215</v>
+        <v>375.5996128485291</v>
       </c>
       <c r="R12" t="n">
         <v>145.679503963964</v>
       </c>
       <c r="S12" t="n">
-        <v>54.65449286742438</v>
+        <v>54.6544928674244</v>
       </c>
       <c r="T12" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U12" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V12" t="n">
         <v>0</v>
@@ -31910,49 +31910,49 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>2.466841066189903</v>
+        <v>2.466841066189904</v>
       </c>
       <c r="H13" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I13" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869278</v>
       </c>
       <c r="J13" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K13" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L13" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M13" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N13" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O13" t="n">
-        <v>348.6767717920058</v>
+        <v>348.6767717920059</v>
       </c>
       <c r="P13" t="n">
         <v>298.3532140417315</v>
       </c>
       <c r="Q13" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R13" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S13" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532768</v>
       </c>
       <c r="T13" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U13" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -31989,49 +31989,49 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348435</v>
       </c>
       <c r="H14" t="n">
-        <v>56.32071997135341</v>
+        <v>56.32071997135342</v>
       </c>
       <c r="I14" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067233</v>
       </c>
       <c r="J14" t="n">
-        <v>466.7546155663283</v>
+        <v>466.7546155663284</v>
       </c>
       <c r="K14" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817578</v>
       </c>
       <c r="L14" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162564</v>
       </c>
       <c r="M14" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175678</v>
       </c>
       <c r="N14" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159429</v>
       </c>
       <c r="O14" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460031</v>
       </c>
       <c r="P14" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236509</v>
       </c>
       <c r="Q14" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669225</v>
       </c>
       <c r="R14" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043727</v>
       </c>
       <c r="S14" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T14" t="n">
         <v>24.07361910651528</v>
       </c>
       <c r="U14" t="n">
-        <v>0.4399519197078746</v>
+        <v>0.4399519197078747</v>
       </c>
       <c r="V14" t="n">
         <v>0</v>
@@ -32068,10 +32068,10 @@
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H15" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I15" t="n">
         <v>101.3076196007749</v>
@@ -32080,19 +32080,19 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K15" t="n">
-        <v>475.1391886422585</v>
+        <v>475.1391886422587</v>
       </c>
       <c r="L15" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473074</v>
       </c>
       <c r="M15" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862124</v>
       </c>
       <c r="N15" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071787</v>
       </c>
       <c r="O15" t="n">
-        <v>398.7616643558013</v>
+        <v>398.7616643558009</v>
       </c>
       <c r="P15" t="n">
         <v>133.9744074143302</v>
@@ -32104,13 +32104,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S15" t="n">
-        <v>54.65449286742438</v>
+        <v>54.6544928674244</v>
       </c>
       <c r="T15" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U15" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V15" t="n">
         <v>0</v>
@@ -32147,49 +32147,49 @@
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>2.466841066189903</v>
+        <v>2.466841066189904</v>
       </c>
       <c r="H16" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I16" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869278</v>
       </c>
       <c r="J16" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K16" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L16" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M16" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N16" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O16" t="n">
-        <v>348.6767717920058</v>
+        <v>348.6767717920059</v>
       </c>
       <c r="P16" t="n">
         <v>298.3532140417315</v>
       </c>
       <c r="Q16" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R16" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S16" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532768</v>
       </c>
       <c r="T16" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U16" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -32226,7 +32226,7 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H17" t="n">
         <v>56.32071997135341</v>
@@ -32238,31 +32238,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K17" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L17" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M17" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N17" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O17" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P17" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q17" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R17" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S17" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T17" t="n">
         <v>24.07361910651528</v>
@@ -32305,31 +32305,31 @@
         <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H18" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I18" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J18" t="n">
-        <v>277.9958514420755</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K18" t="n">
-        <v>475.1391886422585</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L18" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M18" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N18" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O18" t="n">
-        <v>398.7616643558013</v>
+        <v>551.7051287319848</v>
       </c>
       <c r="P18" t="n">
         <v>133.9744074143302</v>
@@ -32341,13 +32341,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S18" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T18" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U18" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V18" t="n">
         <v>0</v>
@@ -32387,25 +32387,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H19" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I19" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J19" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K19" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L19" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M19" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N19" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O19" t="n">
         <v>348.6767717920058</v>
@@ -32414,19 +32414,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q19" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R19" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S19" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T19" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U19" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -32548,7 +32548,7 @@
         <v>28.41775520521101</v>
       </c>
       <c r="I21" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J21" t="n">
         <v>277.9958514420755</v>
@@ -32563,19 +32563,19 @@
         <v>745.5466476862122</v>
       </c>
       <c r="N21" t="n">
-        <v>765.2790490071786</v>
+        <v>748.8168776781358</v>
       </c>
       <c r="O21" t="n">
-        <v>400.5469039565762</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P21" t="n">
         <v>133.9744074143302</v>
       </c>
       <c r="Q21" t="n">
-        <v>139.9817740860215</v>
+        <v>375.5996128485291</v>
       </c>
       <c r="R21" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S21" t="n">
         <v>54.65449286742439</v>
@@ -32700,7 +32700,7 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H23" t="n">
         <v>56.32071997135341</v>
@@ -32712,31 +32712,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K23" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L23" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M23" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N23" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O23" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P23" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q23" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R23" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S23" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T23" t="n">
         <v>24.07361910651528</v>
@@ -32779,10 +32779,10 @@
         <v>0</v>
       </c>
       <c r="G24" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H24" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I24" t="n">
         <v>99.52238</v>
@@ -32791,16 +32791,16 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K24" t="n">
-        <v>475.1391886422586</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L24" t="n">
-        <v>638.8832749473073</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M24" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N24" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O24" t="n">
         <v>400.5469039565762</v>
@@ -32815,13 +32815,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S24" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T24" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U24" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V24" t="n">
         <v>0</v>
@@ -32861,25 +32861,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H25" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I25" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J25" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K25" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L25" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M25" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N25" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O25" t="n">
         <v>348.6767717920058</v>
@@ -32888,19 +32888,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q25" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R25" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S25" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T25" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U25" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -32937,7 +32937,7 @@
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H26" t="n">
         <v>56.32071997135341</v>
@@ -32949,31 +32949,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K26" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L26" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M26" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N26" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O26" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P26" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q26" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R26" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S26" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T26" t="n">
         <v>24.07361910651528</v>
@@ -33016,31 +33016,31 @@
         <v>0</v>
       </c>
       <c r="G27" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H27" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I27" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J27" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K27" t="n">
-        <v>475.1391886422586</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L27" t="n">
-        <v>638.8832749473073</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M27" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N27" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O27" t="n">
-        <v>400.5469039565762</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P27" t="n">
         <v>133.9744074143302</v>
@@ -33052,13 +33052,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S27" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T27" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U27" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V27" t="n">
         <v>0</v>
@@ -33098,25 +33098,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H28" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I28" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J28" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K28" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L28" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M28" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N28" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O28" t="n">
         <v>348.6767717920058</v>
@@ -33125,19 +33125,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q28" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R28" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S28" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T28" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U28" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -33174,7 +33174,7 @@
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H29" t="n">
         <v>56.32071997135341</v>
@@ -33186,31 +33186,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K29" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L29" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M29" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N29" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O29" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P29" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q29" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R29" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S29" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T29" t="n">
         <v>24.07361910651528</v>
@@ -33253,31 +33253,31 @@
         <v>0</v>
       </c>
       <c r="G30" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H30" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I30" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J30" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K30" t="n">
-        <v>475.1391886422586</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L30" t="n">
-        <v>638.8832749473073</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M30" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N30" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O30" t="n">
-        <v>400.5469039565762</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P30" t="n">
         <v>133.9744074143302</v>
@@ -33289,13 +33289,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S30" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T30" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U30" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V30" t="n">
         <v>0</v>
@@ -33335,25 +33335,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H31" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I31" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J31" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K31" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L31" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M31" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N31" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O31" t="n">
         <v>348.6767717920058</v>
@@ -33362,19 +33362,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q31" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R31" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S31" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T31" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U31" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -33411,7 +33411,7 @@
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H32" t="n">
         <v>56.32071997135341</v>
@@ -33423,31 +33423,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K32" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L32" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M32" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N32" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O32" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P32" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q32" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R32" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S32" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T32" t="n">
         <v>24.07361910651528</v>
@@ -33490,31 +33490,31 @@
         <v>0</v>
       </c>
       <c r="G33" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H33" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I33" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J33" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K33" t="n">
-        <v>475.1391886422586</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L33" t="n">
-        <v>638.8832749473073</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M33" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N33" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O33" t="n">
-        <v>400.5469039565762</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P33" t="n">
         <v>133.9744074143302</v>
@@ -33526,13 +33526,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S33" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T33" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U33" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V33" t="n">
         <v>0</v>
@@ -33572,25 +33572,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H34" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I34" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J34" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K34" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L34" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M34" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N34" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O34" t="n">
         <v>348.6767717920058</v>
@@ -33599,19 +33599,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q34" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R34" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S34" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T34" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U34" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -33736,10 +33736,10 @@
         <v>99.52238</v>
       </c>
       <c r="J36" t="n">
-        <v>277.9958514420755</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K36" t="n">
-        <v>475.1391886422586</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L36" t="n">
         <v>638.8832749473073</v>
@@ -33751,10 +33751,10 @@
         <v>765.2790490071786</v>
       </c>
       <c r="O36" t="n">
-        <v>400.5469039565762</v>
+        <v>700.0808204437244</v>
       </c>
       <c r="P36" t="n">
-        <v>133.9744074143302</v>
+        <v>322.8964653704906</v>
       </c>
       <c r="Q36" t="n">
         <v>139.9817740860215</v>
@@ -33903,7 +33903,7 @@
         <v>867.8464071162563</v>
       </c>
       <c r="M38" t="n">
-        <v>965.6463440175661</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N38" t="n">
         <v>981.2715114159428</v>
@@ -33979,7 +33979,7 @@
         <v>475.1391886422586</v>
       </c>
       <c r="L39" t="n">
-        <v>638.8832749473073</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M39" t="n">
         <v>745.5466476862122</v>
@@ -33988,10 +33988,10 @@
         <v>765.2790490071786</v>
       </c>
       <c r="O39" t="n">
-        <v>400.5469039565762</v>
+        <v>700.0808204437244</v>
       </c>
       <c r="P39" t="n">
-        <v>133.9744074143302</v>
+        <v>334.7693860946154</v>
       </c>
       <c r="Q39" t="n">
         <v>139.9817740860215</v>
@@ -34122,7 +34122,7 @@
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H41" t="n">
         <v>56.32071997135341</v>
@@ -34134,31 +34134,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K41" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L41" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M41" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N41" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O41" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P41" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q41" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R41" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S41" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T41" t="n">
         <v>24.07361910651528</v>
@@ -34201,31 +34201,31 @@
         <v>0</v>
       </c>
       <c r="G42" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H42" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I42" t="n">
         <v>99.52238</v>
       </c>
       <c r="J42" t="n">
-        <v>277.9958514420755</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K42" t="n">
-        <v>475.1391886422586</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L42" t="n">
-        <v>638.8832749473073</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M42" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N42" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O42" t="n">
-        <v>400.5469039565762</v>
+        <v>551.7051287319853</v>
       </c>
       <c r="P42" t="n">
         <v>133.9744074143302</v>
@@ -34237,13 +34237,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S42" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T42" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U42" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V42" t="n">
         <v>0</v>
@@ -34283,25 +34283,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H43" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I43" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J43" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K43" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L43" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M43" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N43" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O43" t="n">
         <v>348.6767717920058</v>
@@ -34310,19 +34310,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q43" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R43" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S43" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T43" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U43" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -34447,25 +34447,25 @@
         <v>99.52238</v>
       </c>
       <c r="J45" t="n">
-        <v>277.9958514420755</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K45" t="n">
-        <v>475.1391886422585</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L45" t="n">
         <v>638.8832749473072</v>
       </c>
       <c r="M45" t="n">
-        <v>652.0478969157701</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N45" t="n">
-        <v>131.3417120833333</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O45" t="n">
         <v>700.0808204437243</v>
       </c>
       <c r="P45" t="n">
-        <v>561.8765786214698</v>
+        <v>322.8964653704906</v>
       </c>
       <c r="Q45" t="n">
         <v>139.9817740860215</v>
@@ -34698,19 +34698,19 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>116.9372285181311</v>
+        <v>116.937228518131</v>
       </c>
       <c r="K2" t="n">
-        <v>297.223041434342</v>
+        <v>297.2230414343419</v>
       </c>
       <c r="L2" t="n">
-        <v>421.5361394435302</v>
+        <v>421.5361394435301</v>
       </c>
       <c r="M2" t="n">
-        <v>485.8144648060966</v>
+        <v>485.8144648060965</v>
       </c>
       <c r="N2" t="n">
-        <v>478.8956552492237</v>
+        <v>478.8956552492236</v>
       </c>
       <c r="O2" t="n">
         <v>406.5635087530452</v>
@@ -34777,7 +34777,7 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>76.01733575770692</v>
+        <v>76.0173357577069</v>
       </c>
       <c r="K3" t="n">
         <v>257.8255762031298</v>
@@ -34789,16 +34789,16 @@
         <v>529.4413268262938</v>
       </c>
       <c r="N3" t="n">
-        <v>559.3197334338903</v>
+        <v>559.3197334338902</v>
       </c>
       <c r="O3" t="n">
         <v>444.5817404245898</v>
       </c>
       <c r="P3" t="n">
-        <v>339.6412258735647</v>
+        <v>339.6412258735646</v>
       </c>
       <c r="Q3" t="n">
-        <v>54.37527471535575</v>
+        <v>54.37527471535621</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -34950,10 +34950,10 @@
         <v>478.8956552492236</v>
       </c>
       <c r="O5" t="n">
-        <v>406.5635087530451</v>
+        <v>406.5635087530452</v>
       </c>
       <c r="P5" t="n">
-        <v>308.9376163116797</v>
+        <v>308.9376163116798</v>
       </c>
       <c r="Q5" t="n">
         <v>153.9975062898689</v>
@@ -35014,22 +35014,22 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>76.01733575770689</v>
+        <v>76.0173357577069</v>
       </c>
       <c r="K6" t="n">
         <v>257.8255762031298</v>
       </c>
       <c r="L6" t="n">
-        <v>289.2671274730086</v>
+        <v>408.7029475713857</v>
       </c>
       <c r="M6" t="n">
         <v>529.4413268262938</v>
       </c>
       <c r="N6" t="n">
-        <v>559.3197334338902</v>
+        <v>439.8839133355128</v>
       </c>
       <c r="O6" t="n">
-        <v>444.5817404245897</v>
+        <v>444.5817404245898</v>
       </c>
       <c r="P6" t="n">
         <v>339.6412258735646</v>
@@ -35096,7 +35096,7 @@
         <v>0</v>
       </c>
       <c r="K7" t="n">
-        <v>56.87090208713953</v>
+        <v>56.87090208713954</v>
       </c>
       <c r="L7" t="n">
         <v>128.8624823850085</v>
@@ -35111,7 +35111,7 @@
         <v>120.8664146557981</v>
       </c>
       <c r="P7" t="n">
-        <v>79.66383317873148</v>
+        <v>79.66383317873149</v>
       </c>
       <c r="Q7" t="n">
         <v>0</v>
@@ -35181,13 +35181,13 @@
         <v>558.3972305517163</v>
       </c>
       <c r="M8" t="n">
-        <v>638.0987989730422</v>
+        <v>188.5852654802098</v>
       </c>
       <c r="N8" t="n">
-        <v>556.2429872186707</v>
+        <v>624.9563394487576</v>
       </c>
       <c r="O8" t="n">
-        <v>171.8879043605652</v>
+        <v>552.6880856233105</v>
       </c>
       <c r="P8" t="n">
         <v>111.8528537874005</v>
@@ -35257,13 +35257,13 @@
         <v>332.7559639452625</v>
       </c>
       <c r="L9" t="n">
-        <v>146.772802325465</v>
+        <v>410.3194119374393</v>
       </c>
       <c r="M9" t="n">
         <v>647.0155045122269</v>
       </c>
       <c r="N9" t="n">
-        <v>674.2872727545556</v>
+        <v>200.663375406732</v>
       </c>
       <c r="O9" t="n">
         <v>554.9858674269929</v>
@@ -35272,7 +35272,7 @@
         <v>109.7875025528271</v>
       </c>
       <c r="Q9" t="n">
-        <v>22.96660727472423</v>
+        <v>233.0438950105733</v>
       </c>
       <c r="R9" t="n">
         <v>0</v>
@@ -35406,34 +35406,34 @@
         <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317341</v>
       </c>
       <c r="J11" t="n">
-        <v>285.708711039642</v>
+        <v>285.7087110396421</v>
       </c>
       <c r="K11" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367772</v>
       </c>
       <c r="L11" t="n">
-        <v>632.0799921462688</v>
+        <v>632.0799921462692</v>
       </c>
       <c r="M11" t="n">
-        <v>735.3001107902948</v>
+        <v>735.3001107902951</v>
       </c>
       <c r="N11" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193505</v>
       </c>
       <c r="O11" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243163</v>
       </c>
       <c r="P11" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q11" t="n">
-        <v>371.5675334924728</v>
+        <v>371.567533492473</v>
       </c>
       <c r="R11" t="n">
-        <v>129.8660843902408</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35488,28 +35488,28 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>0</v>
+        <v>151.1582247754089</v>
       </c>
       <c r="K12" t="n">
         <v>0</v>
       </c>
       <c r="L12" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674332</v>
       </c>
       <c r="M12" t="n">
-        <v>603.4126137641938</v>
+        <v>603.412613764194</v>
       </c>
       <c r="N12" t="n">
-        <v>633.9373369238452</v>
+        <v>8.181160134948627</v>
       </c>
       <c r="O12" t="n">
-        <v>557.4845759992799</v>
+        <v>557.4845759992801</v>
       </c>
       <c r="P12" t="n">
-        <v>188.9220579561604</v>
+        <v>427.9021712071398</v>
       </c>
       <c r="Q12" t="n">
-        <v>0</v>
+        <v>235.6178387625076</v>
       </c>
       <c r="R12" t="n">
         <v>0</v>
@@ -35567,22 +35567,22 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295344</v>
       </c>
       <c r="K13" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L13" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M13" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N13" t="n">
-        <v>421.6261329899074</v>
+        <v>421.6261329899075</v>
       </c>
       <c r="O13" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P13" t="n">
         <v>295.631773306625</v>
@@ -35643,34 +35643,34 @@
         <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317341</v>
       </c>
       <c r="J14" t="n">
-        <v>285.7087110396425</v>
+        <v>285.7087110396421</v>
       </c>
       <c r="K14" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367772</v>
       </c>
       <c r="L14" t="n">
-        <v>632.0799921462688</v>
+        <v>632.0799921462692</v>
       </c>
       <c r="M14" t="n">
-        <v>735.3001107902948</v>
+        <v>735.3001107902951</v>
       </c>
       <c r="N14" t="n">
-        <v>751.8584478193516</v>
+        <v>751.858447819352</v>
       </c>
       <c r="O14" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243163</v>
       </c>
       <c r="P14" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q14" t="n">
-        <v>371.5675334924728</v>
+        <v>371.567533492473</v>
       </c>
       <c r="R14" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35722,25 +35722,25 @@
         <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>1.785239600774915</v>
+        <v>1.785239600774943</v>
       </c>
       <c r="J15" t="n">
-        <v>151.1582247754088</v>
+        <v>151.1582247754089</v>
       </c>
       <c r="K15" t="n">
-        <v>337.2977496678996</v>
+        <v>337.2977496678997</v>
       </c>
       <c r="L15" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674332</v>
       </c>
       <c r="M15" t="n">
-        <v>603.4126137641938</v>
+        <v>603.412613764194</v>
       </c>
       <c r="N15" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238455</v>
       </c>
       <c r="O15" t="n">
-        <v>256.1654199113569</v>
+        <v>256.1654199113564</v>
       </c>
       <c r="P15" t="n">
         <v>0</v>
@@ -35804,22 +35804,22 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295344</v>
       </c>
       <c r="K16" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L16" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M16" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N16" t="n">
-        <v>421.6261329899074</v>
+        <v>421.6261329899075</v>
       </c>
       <c r="O16" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P16" t="n">
         <v>295.631773306625</v>
@@ -35880,34 +35880,34 @@
         <v>0</v>
       </c>
       <c r="I17" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J17" t="n">
-        <v>285.708711039642</v>
+        <v>285.7087110396405</v>
       </c>
       <c r="K17" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L17" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M17" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N17" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O17" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P17" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q17" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R17" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -35959,25 +35959,25 @@
         <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>1.785239600774915</v>
+        <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>151.1582247754088</v>
+        <v>0</v>
       </c>
       <c r="K18" t="n">
         <v>337.2977496678996</v>
       </c>
       <c r="L18" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M18" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N18" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O18" t="n">
-        <v>256.1654199113569</v>
+        <v>409.1088842875403</v>
       </c>
       <c r="P18" t="n">
         <v>0</v>
@@ -36041,22 +36041,22 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K19" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L19" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M19" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N19" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O19" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P19" t="n">
         <v>295.631773306625</v>
@@ -36141,7 +36141,7 @@
         <v>559.5874541683813</v>
       </c>
       <c r="Q20" t="n">
-        <v>371.5675334924719</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R20" t="n">
         <v>129.8660843902405</v>
@@ -36196,7 +36196,7 @@
         <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>0</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J21" t="n">
         <v>151.1582247754088</v>
@@ -36211,19 +36211,19 @@
         <v>603.4126137641938</v>
       </c>
       <c r="N21" t="n">
-        <v>633.9373369238454</v>
+        <v>617.4751655948025</v>
       </c>
       <c r="O21" t="n">
-        <v>257.9506595121318</v>
+        <v>0</v>
       </c>
       <c r="P21" t="n">
         <v>0</v>
       </c>
       <c r="Q21" t="n">
-        <v>0</v>
+        <v>235.6178387625076</v>
       </c>
       <c r="R21" t="n">
-        <v>0</v>
+        <v>37.00975247789214</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -36354,34 +36354,34 @@
         <v>0</v>
       </c>
       <c r="I23" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J23" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K23" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L23" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M23" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N23" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O23" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P23" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683816</v>
       </c>
       <c r="Q23" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R23" t="n">
-        <v>129.8660843902399</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36442,13 +36442,13 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L24" t="n">
-        <v>500.3288951674331</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M24" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N24" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O24" t="n">
         <v>257.9506595121318</v>
@@ -36515,22 +36515,22 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K25" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L25" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M25" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N25" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O25" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P25" t="n">
         <v>295.631773306625</v>
@@ -36591,34 +36591,34 @@
         <v>0</v>
       </c>
       <c r="I26" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J26" t="n">
-        <v>285.7087110396405</v>
+        <v>285.708711039642</v>
       </c>
       <c r="K26" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L26" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M26" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N26" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O26" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P26" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q26" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R26" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902408</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36670,7 +36670,7 @@
         <v>0</v>
       </c>
       <c r="I27" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J27" t="n">
         <v>151.1582247754088</v>
@@ -36679,16 +36679,16 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L27" t="n">
-        <v>500.3288951674331</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M27" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N27" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O27" t="n">
-        <v>257.9506595121318</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P27" t="n">
         <v>0</v>
@@ -36752,22 +36752,22 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K28" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L28" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M28" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N28" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O28" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P28" t="n">
         <v>295.631773306625</v>
@@ -36828,34 +36828,34 @@
         <v>0</v>
       </c>
       <c r="I29" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J29" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K29" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L29" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M29" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N29" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O29" t="n">
-        <v>696.4886512243148</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P29" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q29" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R29" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36907,7 +36907,7 @@
         <v>0</v>
       </c>
       <c r="I30" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J30" t="n">
         <v>151.1582247754088</v>
@@ -36916,16 +36916,16 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L30" t="n">
-        <v>500.3288951674331</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M30" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N30" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O30" t="n">
-        <v>257.9506595121318</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P30" t="n">
         <v>0</v>
@@ -36989,22 +36989,22 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K31" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L31" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M31" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N31" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O31" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P31" t="n">
         <v>295.631773306625</v>
@@ -37065,34 +37065,34 @@
         <v>0</v>
       </c>
       <c r="I32" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J32" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K32" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L32" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M32" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N32" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O32" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P32" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q32" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R32" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37144,7 +37144,7 @@
         <v>0</v>
       </c>
       <c r="I33" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J33" t="n">
         <v>151.1582247754088</v>
@@ -37153,16 +37153,16 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L33" t="n">
-        <v>500.3288951674331</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M33" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N33" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O33" t="n">
-        <v>257.9506595121318</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P33" t="n">
         <v>0</v>
@@ -37226,22 +37226,22 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K34" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L34" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M34" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N34" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O34" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P34" t="n">
         <v>295.631773306625</v>
@@ -37314,7 +37314,7 @@
         <v>632.079992146269</v>
       </c>
       <c r="M35" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902934</v>
       </c>
       <c r="N35" t="n">
         <v>751.8584478193518</v>
@@ -37329,7 +37329,7 @@
         <v>371.5675334924729</v>
       </c>
       <c r="R35" t="n">
-        <v>129.8660843902399</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37384,10 +37384,10 @@
         <v>0</v>
       </c>
       <c r="J36" t="n">
-        <v>151.1582247754088</v>
+        <v>0</v>
       </c>
       <c r="K36" t="n">
-        <v>337.2977496678996</v>
+        <v>0</v>
       </c>
       <c r="L36" t="n">
         <v>500.3288951674331</v>
@@ -37399,10 +37399,10 @@
         <v>633.9373369238454</v>
       </c>
       <c r="O36" t="n">
-        <v>257.9506595121318</v>
+        <v>557.48457599928</v>
       </c>
       <c r="P36" t="n">
-        <v>0</v>
+        <v>188.9220579561604</v>
       </c>
       <c r="Q36" t="n">
         <v>0</v>
@@ -37551,7 +37551,7 @@
         <v>632.079992146269</v>
       </c>
       <c r="M38" t="n">
-        <v>735.3001107902934</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N38" t="n">
         <v>751.8584478193518</v>
@@ -37627,7 +37627,7 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L39" t="n">
-        <v>500.3288951674331</v>
+        <v>0</v>
       </c>
       <c r="M39" t="n">
         <v>603.4126137641938</v>
@@ -37636,10 +37636,10 @@
         <v>633.9373369238454</v>
       </c>
       <c r="O39" t="n">
-        <v>257.9506595121318</v>
+        <v>557.48457599928</v>
       </c>
       <c r="P39" t="n">
-        <v>0</v>
+        <v>200.7949786802852</v>
       </c>
       <c r="Q39" t="n">
         <v>0</v>
@@ -37776,34 +37776,34 @@
         <v>0</v>
       </c>
       <c r="I41" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J41" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K41" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L41" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M41" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N41" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O41" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P41" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q41" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R41" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37858,22 +37858,22 @@
         <v>0</v>
       </c>
       <c r="J42" t="n">
-        <v>151.1582247754088</v>
+        <v>0</v>
       </c>
       <c r="K42" t="n">
         <v>337.2977496678996</v>
       </c>
       <c r="L42" t="n">
-        <v>500.3288951674331</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M42" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N42" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O42" t="n">
-        <v>257.9506595121318</v>
+        <v>409.1088842875408</v>
       </c>
       <c r="P42" t="n">
         <v>0</v>
@@ -37937,22 +37937,22 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K43" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L43" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M43" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N43" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O43" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P43" t="n">
         <v>295.631773306625</v>
@@ -38095,25 +38095,25 @@
         <v>0</v>
       </c>
       <c r="J45" t="n">
-        <v>151.1582247754088</v>
+        <v>0</v>
       </c>
       <c r="K45" t="n">
-        <v>337.2977496678996</v>
+        <v>0</v>
       </c>
       <c r="L45" t="n">
         <v>500.328895167433</v>
       </c>
       <c r="M45" t="n">
-        <v>509.9138629937518</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N45" t="n">
-        <v>0</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O45" t="n">
         <v>557.4845759992799</v>
       </c>
       <c r="P45" t="n">
-        <v>427.9021712071395</v>
+        <v>188.9220579561604</v>
       </c>
       <c r="Q45" t="n">
         <v>0</v>
